--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C826346-2453-4464-8975-94A191EC3FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD47ADB-E818-4665-AE3B-194B887191CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="512">
   <si>
     <t>Feature</t>
   </si>
@@ -15586,6 +15586,1181 @@
         <scheme val="minor"/>
       </rPr>
       <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesised, hypothesise, hypothesises, hypothesising,  hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
+    </r>
+  </si>
+  <si>
+    <t>ToJABL</t>
+  </si>
+  <si>
+    <t>ToJCRTN</t>
+  </si>
+  <si>
+    <t>ToJEASE</t>
+  </si>
+  <si>
+    <t>ToJEFCT</t>
+  </si>
+  <si>
+    <t>ToJEVAL</t>
+  </si>
+  <si>
+    <t>ToNSTNC</t>
+  </si>
+  <si>
+    <t>ToVDSR</t>
+  </si>
+  <si>
+    <t>ToVEFRT</t>
+  </si>
+  <si>
+    <t>ToVMNTL</t>
+  </si>
+  <si>
+    <t>ToVPROB</t>
+  </si>
+  <si>
+    <t>ToVSPCH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by ability adjectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by adjectives of ease</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by factive adjectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by evaluative adjectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by verbs of desire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by verbs of effort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by mental verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by verbs of probability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by verbs of speech</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, chooses, chosen, choose, choosing, chose, decide, deciding, decided, decides, hate, hates, hating, hated, hesitated, hesitates, hesitate, hesitating, hoped, hope, hopes, hoping, intended, intend, intending, intends, likes, liked, like, liking, loving, loves, love, loved, means, meaning, meant, mean, needs, need, needing, needed, planning, plan, planned, plans, preferred, prefer, preferring, prefers, prepares, prepare, preparing, prepared, refuses, refusing, refuse, refused, wanting, want, wants, wanted, wishes, wished, wish, wishing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allowance, allowing, allowed, allowancing, allow, allowances, allows, allowanced, attempting, attempted, attempts, attempt, enables, enabled, enabling, enable, encourages, encouraging, encouraged, encourage, fails, fail, failing, failed, help, helping, helps, helped, instructs, instructed, instruct, instructing, managing, managed, manage, manages, oblige, obligate, obliged, obligates, obliging, obligating, obliges, obligated, order, ordering, orders, ordered, permitted, permits, permit, permitting, persuaded, persuades, persuade, persuading, prompts, prompting, prompted, prompt, requiring, requisitions, requisitioning, required, requires, requisition, requisitioned, require, sought, seeking, seeks, seek, try, trying, tries, tried</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumed, assumes, assume, assuming, believing, believes, believe, believed, considered, considers, consider, considering, expecting, expects, expected, expect, find, found, finding, finds, forgetting, forget, forgets, forgot, forgotten, imagine, imagined, imagining, imagines, judge, adjudicates, adjudicate, judges, judged, knowing, knows, known, know, knew, learnt, learning, learns, learn, presumes, presuming, presumed, presume, pretend, pretends, pretended, pretending, remembered, remember, remembers, remembering, supposing, suppose, supposes, supposed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appear, appeared, appears, appearing, happens, happened, happen, happening, seemed, seems, seem, seeming, tending, tends, tended, tend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asks, ask, asking, asked, claiming, claims, claim, claimed, invite, inviting, invited, invites, promising, promised, promise, promises, reminding, remind, reminded, reminds, requesting, request, requests, requested, saying, say, said, says, teaches, teaching, taught, teach, tell, tells, telling, told, urging, urges, urged, urge, warning, warn, warned, warns</t>
+    </r>
+  </si>
+  <si>
+    <t>WhVATT</t>
+  </si>
+  <si>
+    <t>WhVCOM</t>
+  </si>
+  <si>
+    <t>WhVFCT</t>
+  </si>
+  <si>
+    <t>WhVLIK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realised, realizes, realises, realize, realise, realizing, realising, recognizes, recognises, recognize, recognise, recognized, recognised, recognizing, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesised, hypothesise, hypothesises, hypothesising,  hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subordinate clauses preceded by attitudinal verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subordinate clauses preceded by communicative verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subordinate clauses preceded by factive verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subordinate clauses preceded by likelihood verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anxious, (un)able, careful, determined, eager, eligible, hesitant, inclined, obliged, prepared, ready, reluctant, (un)willing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To immediately followed by a verb and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apt, certain, due, guaranteed, liable, likely, prone, unlikely, sure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>difficult, easier, easy, hard, (im)possible, tough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afraid, ashamed, disappointed, embarrassed, glad, happy, pleased, proud, puzzled, relieved, sorry, surprised, worried</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bad, worse, (in)appropriate, good, better, best, convenient, essential, important, interesting, necessary, nice, reasonable, silly, smart, stupid, surprising, useful, useless, unreasonable, wise, wrong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by stance nouns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, proposal, proposals, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
+    </r>
+  </si>
+  <si>
+    <t>PrepNSTNC</t>
+  </si>
+  <si>
+    <t>Prepositions preceded by stance nouns</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prepositions </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements, assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions, grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts, comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements, agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
+    </r>
+  </si>
+  <si>
+    <t>JJATDother</t>
+  </si>
+  <si>
+    <t>JJCOLR</t>
+  </si>
+  <si>
+    <t>Adjectives related to color</t>
+  </si>
+  <si>
+    <t>JJEPSTother</t>
+  </si>
+  <si>
+    <t>JJEVAL</t>
+  </si>
+  <si>
+    <t>JJREL</t>
+  </si>
+  <si>
+    <t>JJSIZE</t>
+  </si>
+  <si>
+    <t>JJTIME</t>
+  </si>
+  <si>
+    <t>JJTOPIC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>big, deep, heavy, huge, long, large, little, short, small, thin, wide, narrow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Epistemic adjectives without a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clause after</t>
+    </r>
+  </si>
+  <si>
+    <t>Attitudinal adjectives without a that clause after</t>
+  </si>
+  <si>
+    <t>Evaluative adjectives</t>
+  </si>
+  <si>
+    <t>Relational adjectives</t>
+  </si>
+  <si>
+    <t>Size related adjectives</t>
+  </si>
+  <si>
+    <t>Time related adjectives</t>
+  </si>
+  <si>
+    <t>Topical adjectives</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>annual, daily, early, late, new, old, recent, young, weekly, monthly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>black, white, dark, bright, blue, browm, green, grey, gray, red</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bad, beautiful, best, fine, good, great, lovely, nice, poor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>additional, average, chief, complete, different, direct, entire, external, final, following, general, initial, internal, left, main, maximum, necessary, original, particular, previous, primary, public, similar, single, standard, top, various, same</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chemical, commercial, environmental, human, industrial, legal, medical, mental, official, oral, phonetic, political, sexual, social, ventral, visual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause) tag: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause) tag: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apparent, certain, clear, confident, convinced, correct, evident, false, impossible, inevitable, obvious, positive, right, sure, true, well-known, doubtful, likely, possible, probable, unlikely</t>
     </r>
   </si>
 </sst>
@@ -15882,7 +17057,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -16017,6 +17192,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -16567,10 +17743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM112"/>
+  <dimension ref="A1:AMM136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="E129" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
@@ -17350,7 +18526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="69">
       <c r="A35" s="19" t="s">
         <v>226</v>
       </c>
@@ -21018,6 +22194,9 @@
       <c r="E109" s="19" t="s">
         <v>438</v>
       </c>
+      <c r="F109" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="110" spans="1:12" ht="409.6">
       <c r="A110" s="19" t="s">
@@ -21032,6 +22211,9 @@
       <c r="E110" s="19" t="s">
         <v>437</v>
       </c>
+      <c r="F110" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="138">
       <c r="A111" s="19" t="s">
@@ -21046,6 +22228,9 @@
       <c r="E111" s="19" t="s">
         <v>439</v>
       </c>
+      <c r="F111" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="124.2">
       <c r="A112" s="19" t="s">
@@ -21060,8 +22245,436 @@
       <c r="E112" s="19" t="s">
         <v>440</v>
       </c>
+      <c r="F112" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="55.2">
+      <c r="A113" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="55.2">
+      <c r="A114" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="55.2">
+      <c r="A115" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="55.2">
+      <c r="A116" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="55.2">
+      <c r="A117" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="110.4">
+      <c r="A118" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="138">
+      <c r="A119" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="110.4">
+      <c r="A120" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="55.2">
+      <c r="A121" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="69">
+      <c r="A122" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="96.6">
+      <c r="A123" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="409.6">
+      <c r="A124" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C124" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="138">
+      <c r="A125" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="124.2">
+      <c r="A126" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C126" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="69">
+      <c r="A127" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="179.4">
+      <c r="A128" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="69">
+      <c r="A129" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="41.4">
+      <c r="A130" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="69">
+      <c r="A131" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="27.6">
+      <c r="A132" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="55.2">
+      <c r="A133" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="41.4">
+      <c r="A134" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="27.6">
+      <c r="A135" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="41.4">
+      <c r="A136" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C129:D142">
+    <sortCondition ref="C129:C142"/>
+  </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.35" header="0" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD47ADB-E818-4665-AE3B-194B887191CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC496E17-2741-4EA9-98C1-117ED9D62C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="545">
   <si>
     <t>Feature</t>
   </si>
@@ -16762,6 +16762,455 @@
       </rPr>
       <t>apparent, certain, clear, confident, convinced, correct, evident, false, impossible, inevitable, obvious, positive, right, sure, true, well-known, doubtful, likely, possible, probable, unlikely</t>
     </r>
+  </si>
+  <si>
+    <t>NNABSPROC</t>
+  </si>
+  <si>
+    <t>NNCOG</t>
+  </si>
+  <si>
+    <t>Nouns cognitive</t>
+  </si>
+  <si>
+    <t>NNCONC</t>
+  </si>
+  <si>
+    <t>Nouns concrete</t>
+  </si>
+  <si>
+    <t>NNGRP</t>
+  </si>
+  <si>
+    <t>Nouns group</t>
+  </si>
+  <si>
+    <t>NNHUMAN</t>
+  </si>
+  <si>
+    <t>Nouns human</t>
+  </si>
+  <si>
+    <t>NNPLACE</t>
+  </si>
+  <si>
+    <t>Nouns place</t>
+  </si>
+  <si>
+    <t>NNQUANT</t>
+  </si>
+  <si>
+    <t>Nouns quantity</t>
+  </si>
+  <si>
+    <t>NNTECH</t>
+  </si>
+  <si>
+    <t>NOMZ</t>
+  </si>
+  <si>
+    <t>NSTNCother</t>
+  </si>
+  <si>
+    <t>Stance nouns without prepositions</t>
+  </si>
+  <si>
+    <t>Nouns abstract and process</t>
+  </si>
+  <si>
+    <t>Nominalizations</t>
+  </si>
+  <si>
+    <t>Nouns technical</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>airline, airlines, institute, institutes, colony, colonies, bank, banks, flight, flights, church, churches, hotel, hotels, firm, firms, hospital, hospitals, household, households, college, colleges, institution, institutions, house, houses, lab, labs, laboratory, laboratories, community, communities, company, companies, government, governments, university, universities, school, schools, home, homes, congress, congresses, committee, committees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action, actions, activity, activities, application, applications, argument, arguments, development, developments, education, educations, effect, effects, function, functions, method, methods, research, researches, result, results, process, processes, accounting, accountings, achievement, achievements, addition, additions, administration, administrations, approach, approaches, arrangement, arrangements, assignment, assignments, competition, competitions, construction, constructions, consumption, consumptions, contribution, contributions, counseling, counselings, criticism, criticisms, definition, definitions, discrimination, discriminations, description, descriptions, discussion, discussions, distribution, distributions, division, divisions, eruption, eruptions, evolution, evolutions, exchange, exchanges, exercise, exercises, experiment, experiments, explanation, explanations, expression, expressions, formation, formations, generation, generations, graduation, graduations, management, managements, marketing, marketings, marriage, marriages, mechanism, mechanisms, meeting, meetings, operation, operations, orientation, orientations, performance, performances, practice, practices, presentation, presentations, procedure, procedures, production, productions, progress, progresses, reaction, reactions, registration, registrations, regulation, regulations, revolution, revolutions, selection, selections, session, sessions, strategy, strategies, teaching, teachings, technique, techniques, tradition, traditions, training, trainings, transition, transitions, treatment, treatments, trial, trials, act, acts, agreement, agreements, attempt, attempts, attendance, attendances, birth, births, break, breaks, claim, claims, comment, comments, comparison, comparisons, conflict, conflicts, deal, deals, death, deaths, debate, debates, demand, demands, answer, answers, control, controls, flow, flows, service, services, work, works, test, tests, use, uses, war, wars, change, changes, question, questions, study, studies, talk, talks, task, tasks, trade, trades, transfer, transfers, admission, admissions, design, designs, detail, details, dimension, dimensions, direction, directions, disorder, disorders, diversity, diversities, economy, economies, emergency, emergencies, emphasis, emphases, employment, employments, equilibrium, equilibriums, equity, equities, error, errors, expense, expenses, facility, facilities, failure, failures, fallacy, fallacies, feature, features, format, formats, freedom, freedoms, fun, funs, gender, genders, goal, goals, grammar, grammars, health, healths, heat, heats, help, helps, identity, identities, image, images, impact, impacts, importance, importances, influence, influences, input, inputs, labor, labors, leadership, leaderships, link, links, manner, manners, math, maths, matrix, matrices, meaning, meanings, music, musics, network, networks, objective, objectives, opportunity, opportunities, option, options, origin, origins, output, outputs, past, pasts, pattern, patterns, phase, phases, philosophy, philosophies, plan, plans, potential, potentials, prerequisite, prerequisites, presence, presences, principle, principles, success, successes, profile, profiles, profit, profits, proposal, proposals, psychology, psychologies, quality, qualities, quiz, quizzes, race, races, reality, realities, religion, religions, resource, resources, respect, respects, rest, rests, return, returns, risk, risks, substance, substances, scene, scenes, security, securities, series, series, set, sets, setting, settings, sex, sexes, shape, shapes, share, shares, show, shows, sign, signs, signal, signals, sort, sorts, sound, sounds, spring, springs, stage, stages, standard, standards, start, starts, stimulus, stimuli, strength, strengths, stress, stresses, style, styles, support, supports, survey, surveys, symbol, symbols, topic, topics, track, tracks, trait, traits, trouble, troubles, truth, truths, variation, variations, variety, varieties, velocity, velocities, version, versions, whole, wholes, action, actions, account, accounts, condition, conditions, culture, cultures, end, ends, factor, factors, grade, grades, interest, interests, issue, issues, job, jobs, kind, kinds, language, languages, law, laws, level, levels, life, lives, model, models, name, names, nature, natures, order, orders, policy, policies, position, positions, power, powers, pressure, pressures, relationship, relationships, requirement, requirements, role, roles, rule, rules, science, sciences, side, sides, situation, situations, skill, skills, source, sources, structure, structures, subject, subjects, type, types, information, informations, right, rights, state, states, system, systems, value, values, way, ways, address, addresses, absence, absences, advantage, advantages, aid, aids, alternative, alternatives, aspect, aspects, authority, authorities, axis, axes, background, backgrounds, balance, balances, base, bases, beginning, beginnings, benefit, benefits, bias, biases, bond, bonds, capital, capitals, care, cares, career, careers, cause, causes, characteristic, characteristics, charge, charges, check, checks, choice, choices, circuit, circuits, circumstance, circumstances, climate, climates, code, codes, color, colors, column, columns, combination, combinations, complex, complexes, connection, connections, constant, constants, constraint, constraints, contact, contacts, content, contents, contract, contracts, context, contexts, contrast, contrasts, crime, crimes, criteria, criterias, cross, crosses, current, currents, curriculum, curriculums, curve, curves, debt, debts, density, densities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>analysis, analyses, decision, decisions, experience, experiences, assessment, assessments, calculation, calculations, conclusion, conclusions, consequence, consequences, consideration, considerations, evaluation, evaluations, examination, examinations, expectation, expectations, observation, observations, recognition, recognitions, relation, relations, understanding, understandings, hypothesis, hypotheses, ability, abilities, assumption, assumptions, attention, attentions, attitude, attitudes, belief, beliefs, concentration, concentrations, concern, concerns, consciousness, consciousnesses, concept, concepts, fact, facts, idea, ideas, knowledge, knowledges, look, looks, need, needs, reason, reasons, sense, senses, view, views, theory, theories, desire, desires, emotion, emotions, feeling, feelings, judgement, judgements, memory, memories, notion, notions, opinion, opinions, perception, perceptions, perspective, perspectives, possibility, possibilities, probability, probabilities, responsibility, responsibilities, thought, thoughts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tank, tanks, stick, sticks, target, targets, strata, stratas, telephone, telephones, string, strings, telescope, telescopes, sugar, sugars, ticket, tickets, syllabus, syllabuses, tip, tips, salt, salts, tissue, tissues, screen, screens, tooth, teeth, sculpture, sculptures, sphere, spheres, seawater, seawaters, spot, spots, ship, ships, steam, steams, silica, silicas, steel, steels, slide, slides, stem, stems, snow, snows, sodium, mud, muds, solid, solids, mushroom, mushrooms, gift, gifts, muscle, muscles, glacier, glaciers, tube, tubes, gun, guns, nail, nails, handbook, handbooks, newspaper, newspapers, handout, handouts, node, nodes, instrument, instruments, notice, notices, knot, knots, novel, novels, lava, lavas, page, pages, food, foods, transcript, transcripts, leg, legs, eye, eyes, lemon, lemons, brain, brains, magazine, magazines, device, devices, magnet, magnets, oak, oaks, manual, manuals, package, packages, marker, markers, peak, peaks, match, matches, pen, pens, metal, metals, pencil, pencils, block, blocks, pie, pies, board, boards, pipe, pipes, heart, hearts, load, loads, paper, papers, transistor, transistors, modem, modems, book, books, mole, moles, case, cases, motor, motors, computer, computers, mound, mounds, dollar, dollars, mouth, mouths, hand, hands, movie, movies, flower, flowers, object, objects, foot, feet, table, tables, frame, frames, water, waters, vessel, vessels, arm, arms, visa, visas, bar, bars, grain, grains, bed, beds, hair, hairs, body, bodies, head, heads, box, boxes, ice, ices, car, cars, item, items, card, cards, journal, journals, chain, chains, key, keys, chair, chairs, window, windows, vehicle, vehicles, leaf, leaves, copy, copies, machine, machines, document, documents, mail, mails, door, doors, map, maps, dot, dots, phone, phones, drug, drugs, picture, pictures, truck, trucks, piece, pieces, tape, tapes, note, notes, liquid, liquids, wire, wires, equipment, equipments, wood, woods, fiber, fibers, plant, plants, fig, figs, resistor, resistors, film, films, sand, sands, file, files, score, scores, seat, seats, belt, belts, sediment, sediments, boat, boats, seed, seeds, bone, bones, soil, soils, bubble, bubbles, bud, buds, water, waters, bulb, bulbs, portrait, portraits, bulletin, bulletins, step, steps, shell, shells, stone, stones, cake, cakes, tree, trees, camera, cameras, video, videos, face, faces, wall, walls, acid, acids, alcohol, alcohols, cap, caps, aluminium, aluminiums, clay, clays, artifact, artifacts, clock, clocks, rain, rains, clothing, clothings, asteroid, asteroids, club, clubs, automobile, automobiles, comet, comets, award, awards, sheet, sheets, bag, bags, branch, branches, ball, balls, copper, coppers, banana, bananas, counter, counters, band, bands, cover, covers, wheel, wheels, crop, crops, drop, drops, crystal, crystals, basin, basins, cylinder, cylinders, bell, bells, desk, desks, dinner, dinners, pole, poles, button, buttons, pot, pots, disk, disks, pottery, potteries, drain, drains, radio, radios, drink, drinks, reactor, reactors, drawing, drawings, retina, retinas, dust, dusts, ridge, ridges, edge, edges, ring, rings, engine, engines, ripple, ripples, plate, plates, game, games, cent, cents, post, posts, envelope, envelopes, rock, rocks, filter, filters, root, roots, finger, fingers, slope, slopes, fish, fish, space, spaces, fruit, fruits, statue, statues, furniture, furnitures, textbook, textbooks, gap, gaps, tool, tools, gate, gates, train, trains, gel, gels, deposit, deposits, chart, charts, mixture, mixtures</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>family, families, guy, guys, individual, individuals, kid, kids, man, men, manager, managers, member, members, parent, parents, teacher, teachers, child, children, people, peoples, person, people, student, students, woman, women, animal, animals, applicant, applicants, author, authors, baby, babies, boy, boys, client, clients, consumer, consumers, critic, critics, customer, customers, doctor, doctors, employee, employees, employer, employers, father, fathers, female, females, friend, friends, girl, girls, god, gods, historian, historians, husband, husbands, American, Americans, Indian, Indians, instructor, instructors, king, kings, leader, leaders, male, males, mother, mothers, owner, owners, president, presidents, professor, professors, researcher, researchers, scholar, scholars, speaker, speakers, species, species, supplier, suppliers, undergraduate, undergraduates, user, users, wife, wives, worker, workers, writer, writers, accountant, accountants, adult, adults, adviser, advisers, agent, agents, aide, aides, ancestor, ancestors, anthropologist, anthropologists, archaeologist, archaeologists, artist, artists, artiste, artistes, assistant, assistants, associate, associates, attorney, attorneys, audience, audiences, auditor, auditors, bachelor, bachelors, bird, birds, boss, bosses, brother, brothers, buddha, buddhas, buyer, buyers, candidate, candidates, cat, cats, citizen, citizens, colleague, colleagues, collector, collectors, competitor, competitors, counselor, counselors, daughter, daughters, deer, deer, defendant, defendants, designer, designers, developer, developers, director, directors, driver, drivers, economist, economists, engineer, engineers, executive, executives, expert, experts, farmer, farmers, feminist, feminists, freshman, freshmen, eologist, eologists, hero, heroes, host, hosts, hunter, hunters, immigrant, immigrants, infant, infants, investor, investors, jew, jews, judge, judges, lady, ladies, lawyer, lawyers, learner, learners, listener, listeners, maker, makers, manufacturer, manufacturers, miller, millers, minister, ministers, mom, moms, monitor, monitors, monkey, monkeys, neighbor, neighbors, observer, observers, officer, officers, official, officials, participant, participants, partner, partners, patient, patients, personnel, personnels, peer, peers, physician, physicians, plaintiff, plaintiffs, player, players, poet, poets, police, polices, processor, processors, professional, professionals, provider, providers, psychologist, psychologists, resident, residents, respondent, respondents, schizophrenic, schizophrenics, scientist, scientists, secretary, secretaries, server, servers, shareholder, shareholders, sikh, sikhs, sister, sisters, slave, slaves, son, sons, spouse, spouses, supervisor, supervisors, theorist, theorists, tourist, tourists, victim, victims, faculty, faculties, dean, deans, engineer, engineers, reader, readers, couple, couples, graduate, graduates, Pakistani(s), Bangladeshi(s), Srilanakn(s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apartment, apartments, interior, interiors, bathroom, bathrooms, moon, moons, bay, bays, museum, museums, bench, benches, neighborhood, neighborhoods, bookstore, bookstores, opposite, opposites, border, borders, orbit, orbits, cave, caves, orbital, orbitals, continent, continents, outside, outsides, delta, deltas, parallel, parallels, desert, deserts, passage, passages, estuary, estuaries, pool, pools, factory, factories, prison, prisons, farm, farms, restaurant, restaurants, forest, forests, sector, sectors, habitat, habitats, shaft, shafts, hell, hells, shop, shops, hemisphere, hemispheres, southwest, hill, hills, station, stations, hole, holes, territory, territories, horizon, horizons, road, roads, bottom, bottoms, store, stores, boundary, boundaries, stream, streams, building, buildings, top, tops, campus, campuses, valley, valleys, canyon, canyons, village, villages, coast, coasts, city, cities, county, counties, country, countries, court, courts, earth, earths, front, fronts, environment, environments, district, districts, field, fields, floor, floors, market, markets, lake, lakes, office, offices, land, lands, organization, organizations, lecture, lectures, place, places, left, lefts, room, rooms, library, libraries, area, areas, location, locations, class, classes, middle, middles, classroom, classrooms, mountain, mountains, ground, grounds, north, norths, hall, halls, ocean, oceans, park, parks, planet, planets, property, properties, region, regions, residence, residences, river, rivers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cycle, cycles, rate, rates, date, dates, second, seconds, frequency, frequencies, section, sections, future, futures, semester, semesters, half, halves, temperature, temperatures, height, heights, today, todays, number, numbers, amount, amounts, week, weeks, age, ages, day, days, century, centuries, part, parts, energy, energies, lot, lots, heat, heats, term, terms, hour, hours, time, times, month, months, mile, miles, period, periods, moment, moments, morning, mornings, volume, volumes, per, weekend, weekends, percentage, percentages, weight, weights, portion, portions, minute, minutes, quantity, quantities, percent, percents, quarter, quarters, length, lengths, ratio, ratios, measure, measures, summer, summers, meter, meters, volt, volts, voltage, voltages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell, cells, unit, units, gene, genes, wave, waves, ion, ions, bacteria, bacterias, electron, electrons, chromosome, chromosomes, element, elements, cloud, clouds, sample, samples, isotope, isotopes, schedule, schedules, neuron, neurons, software, softwares, nuclei, nucleus, solution, solutions, nucleus, nuclei, atom, atoms, ray, rays, margin, margins, virus, viruses, mark, marks, hydrogen, hydrogens, mineral, minerals, internet, internets, molecule, molecules, mineral, minerals, organism, organisms, message, messages, oxygen, oxygens, paragraph, paragraphs, particle, particles, sentence, sentences, play, plays, star, stars, poem, poems, thesis, theses, proton, protons, unit, units, web, webs, layer, layers, center, centers, matter, matters, chapter, chapters, square, squares, data, circle, circles, equation, equations, compound, compounds, exam, exams, letter, letters, bill, bills, page, pages, component, components, statement, statements, diagram, diagrams, word, words, dna, angle, angles, fire, fires, carbon, carbons, formula, formulas, graph, graphs, iron, irons, lead, leads, jury, juries, light, lights, list, lists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nouns ending at </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tion(s), ment(s), ness, nesses, ity, ities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having a length of greater than 5 characters and not having an additional tag aprt from the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_NN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag.</t>
+    </r>
+  </si>
+  <si>
+    <t>Biber 1988, Nini 2014 adapted by Shakir</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not followed by prepositions </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements, assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions, grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts, comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements, agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
+    </r>
+  </si>
+  <si>
+    <t>Biber 2006, adapted by Shakir</t>
+  </si>
+  <si>
+    <t>Biber 2006, additions and adapted by Shakir</t>
   </si>
 </sst>
 </file>
@@ -17743,10 +18192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM136"/>
+  <dimension ref="A1:AMM146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E129" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
@@ -22045,11 +22494,11 @@
       <c r="E101" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="F101" s="20" t="s">
+      <c r="F101" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="110.4">
@@ -22066,11 +22515,11 @@
       <c r="E102" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G102" s="20" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="110.4">
@@ -22086,11 +22535,11 @@
       <c r="E103" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="110.4">
@@ -22106,11 +22555,11 @@
       <c r="E104" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="F104" s="20" t="s">
+      <c r="F104" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>96</v>
+        <v>543</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="110.4">
@@ -22129,6 +22578,9 @@
       <c r="F105" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="G105" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="106" spans="1:12" ht="110.4">
       <c r="A106" s="19" t="s">
@@ -22146,6 +22598,9 @@
       <c r="F106" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="G106" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="107" spans="1:12" ht="110.4">
       <c r="A107" s="19" t="s">
@@ -22163,6 +22618,9 @@
       <c r="F107" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="G107" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="110.4">
       <c r="A108" s="19" t="s">
@@ -22180,6 +22638,9 @@
       <c r="F108" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="G108" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="109" spans="1:12" ht="110.4">
       <c r="A109" s="19" t="s">
@@ -22197,6 +22658,9 @@
       <c r="F109" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G109" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="110" spans="1:12" ht="409.6">
       <c r="A110" s="19" t="s">
@@ -22214,6 +22678,9 @@
       <c r="F110" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G110" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="138">
       <c r="A111" s="19" t="s">
@@ -22231,6 +22698,9 @@
       <c r="F111" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G111" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="124.2">
       <c r="A112" s="19" t="s">
@@ -22248,8 +22718,11 @@
       <c r="F112" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G112" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="113" spans="1:6" ht="55.2">
+    <row r="113" spans="1:7" ht="55.2">
       <c r="A113" s="19" t="s">
         <v>226</v>
       </c>
@@ -22266,8 +22739,11 @@
       <c r="F113" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G113" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="114" spans="1:6" ht="55.2">
+    <row r="114" spans="1:7" ht="55.2">
       <c r="A114" s="19" t="s">
         <v>226</v>
       </c>
@@ -22284,8 +22760,11 @@
       <c r="F114" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G114" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="115" spans="1:6" ht="55.2">
+    <row r="115" spans="1:7" ht="55.2">
       <c r="A115" s="19" t="s">
         <v>226</v>
       </c>
@@ -22302,8 +22781,11 @@
       <c r="F115" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G115" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="116" spans="1:6" ht="55.2">
+    <row r="116" spans="1:7" ht="55.2">
       <c r="A116" s="19" t="s">
         <v>226</v>
       </c>
@@ -22320,8 +22802,11 @@
       <c r="F116" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G116" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="117" spans="1:6" ht="55.2">
+    <row r="117" spans="1:7" ht="55.2">
       <c r="A117" s="19" t="s">
         <v>226</v>
       </c>
@@ -22338,8 +22823,11 @@
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G117" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="118" spans="1:6" ht="110.4">
+    <row r="118" spans="1:7" ht="110.4">
       <c r="A118" s="19" t="s">
         <v>226</v>
       </c>
@@ -22356,8 +22844,11 @@
       <c r="F118" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G118" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="119" spans="1:6" ht="138">
+    <row r="119" spans="1:7" ht="138">
       <c r="A119" s="19" t="s">
         <v>226</v>
       </c>
@@ -22374,8 +22865,11 @@
       <c r="F119" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G119" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="120" spans="1:6" ht="110.4">
+    <row r="120" spans="1:7" ht="110.4">
       <c r="A120" s="19" t="s">
         <v>226</v>
       </c>
@@ -22392,8 +22886,11 @@
       <c r="F120" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G120" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="121" spans="1:6" ht="55.2">
+    <row r="121" spans="1:7" ht="55.2">
       <c r="A121" s="19" t="s">
         <v>226</v>
       </c>
@@ -22410,8 +22907,11 @@
       <c r="F121" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G121" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="122" spans="1:6" ht="69">
+    <row r="122" spans="1:7" ht="69">
       <c r="A122" s="19" t="s">
         <v>226</v>
       </c>
@@ -22428,8 +22928,11 @@
       <c r="F122" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G122" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="123" spans="1:6" ht="96.6">
+    <row r="123" spans="1:7" ht="96.6">
       <c r="A123" s="19" t="s">
         <v>226</v>
       </c>
@@ -22446,8 +22949,11 @@
       <c r="F123" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G123" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="124" spans="1:6" ht="409.6">
+    <row r="124" spans="1:7" ht="409.6">
       <c r="A124" s="19" t="s">
         <v>226</v>
       </c>
@@ -22464,8 +22970,11 @@
       <c r="F124" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G124" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="125" spans="1:6" ht="138">
+    <row r="125" spans="1:7" ht="138">
       <c r="A125" s="19" t="s">
         <v>226</v>
       </c>
@@ -22482,8 +22991,11 @@
       <c r="F125" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G125" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="126" spans="1:6" ht="124.2">
+    <row r="126" spans="1:7" ht="124.2">
       <c r="A126" s="19" t="s">
         <v>226</v>
       </c>
@@ -22500,8 +23012,11 @@
       <c r="F126" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G126" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="127" spans="1:6" ht="69">
+    <row r="127" spans="1:7" ht="69">
       <c r="A127" s="19" t="s">
         <v>226</v>
       </c>
@@ -22517,8 +23032,11 @@
       <c r="F127" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G127" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="128" spans="1:6" ht="179.4">
+    <row r="128" spans="1:7" ht="179.4">
       <c r="A128" s="19" t="s">
         <v>226</v>
       </c>
@@ -22534,8 +23052,11 @@
       <c r="F128" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G128" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="129" spans="1:6" ht="69">
+    <row r="129" spans="1:7" ht="69">
       <c r="A129" s="19" t="s">
         <v>225</v>
       </c>
@@ -22551,8 +23072,11 @@
       <c r="F129" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G129" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="130" spans="1:6" ht="41.4">
+    <row r="130" spans="1:7" ht="55.2">
       <c r="A130" s="19" t="s">
         <v>225</v>
       </c>
@@ -22568,8 +23092,11 @@
       <c r="F130" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G130" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="131" spans="1:6" ht="69">
+    <row r="131" spans="1:7" ht="69">
       <c r="A131" s="19" t="s">
         <v>225</v>
       </c>
@@ -22585,8 +23112,11 @@
       <c r="F131" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G131" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="132" spans="1:6" ht="27.6">
+    <row r="132" spans="1:7" ht="55.2">
       <c r="A132" s="19" t="s">
         <v>225</v>
       </c>
@@ -22602,8 +23132,11 @@
       <c r="F132" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G132" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="133" spans="1:6" ht="55.2">
+    <row r="133" spans="1:7" ht="55.2">
       <c r="A133" s="19" t="s">
         <v>225</v>
       </c>
@@ -22619,8 +23152,11 @@
       <c r="F133" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G133" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="134" spans="1:6" ht="41.4">
+    <row r="134" spans="1:7" ht="55.2">
       <c r="A134" s="19" t="s">
         <v>225</v>
       </c>
@@ -22636,8 +23172,11 @@
       <c r="F134" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G134" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="135" spans="1:6" ht="27.6">
+    <row r="135" spans="1:7" ht="55.2">
       <c r="A135" s="19" t="s">
         <v>225</v>
       </c>
@@ -22653,8 +23192,11 @@
       <c r="F135" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G135" s="20" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="136" spans="1:6" ht="41.4">
+    <row r="136" spans="1:7" ht="55.2">
       <c r="A136" s="19" t="s">
         <v>225</v>
       </c>
@@ -22669,6 +23211,219 @@
       </c>
       <c r="F136" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="G136" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="409.6">
+      <c r="A137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="179.4">
+      <c r="A138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="409.6">
+      <c r="A139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="96.6">
+      <c r="A140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="409.6">
+      <c r="A141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="234.6">
+      <c r="A142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="138">
+      <c r="A143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="193.2">
+      <c r="A144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="82.8">
+      <c r="A145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="179.4">
+      <c r="A146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" s="20" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC496E17-2741-4EA9-98C1-117ED9D62C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B2358B-3E45-47FF-BFF8-D714D76805C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="557">
   <si>
     <t>Feature</t>
   </si>
@@ -17211,6 +17211,178 @@
   </si>
   <si>
     <t>Biber 2006, additions and adapted by Shakir</t>
+  </si>
+  <si>
+    <t>RATT</t>
+  </si>
+  <si>
+    <t>Attitudinal adverbs</t>
+  </si>
+  <si>
+    <t>RFACT</t>
+  </si>
+  <si>
+    <t>Factive adverbs</t>
+  </si>
+  <si>
+    <t>RLIKELY</t>
+  </si>
+  <si>
+    <t>Adverbs of likelihood</t>
+  </si>
+  <si>
+    <t>RNONFACT</t>
+  </si>
+  <si>
+    <t>Non factive adverbs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amazingly, astonishingly, conveniently, curiously, hopefully, fortunately, importantly, ironically, rightly, sadly, surprisingly, unfortunately, even worse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confidentially, frankly, generally, honestly, mainly, technically, truthfully, typically, reportedly, primarily, usually</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actually, always, certainly, definitely, indeed, inevitably, never, obviously, really, undoubtedly, nodoubt, ofcourse, infact, of course, in fact, without doubt, no doubt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apparently, evidently, perhaps, possibly, predictably, probably, roughly, maybe, in most cases</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -18192,10 +18364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM146"/>
+  <dimension ref="A1:AMM150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
@@ -23426,6 +23598,86 @@
         <v>543</v>
       </c>
     </row>
+    <row r="147" spans="1:7" ht="55.2">
+      <c r="A147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C147" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G147" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="55.2">
+      <c r="A148" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C148" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G148" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="55.2">
+      <c r="A149" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C149" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="55.2">
+      <c r="A150" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C150" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C129:D142">
     <sortCondition ref="C129:C142"/>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B2358B-3E45-47FF-BFF8-D714D76805C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A20F664-ED2B-4993-B991-8BDDFA8E4F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="646">
   <si>
     <t>Feature</t>
   </si>
@@ -17382,6 +17382,1154 @@
         <scheme val="minor"/>
       </rPr>
       <t>apparently, evidently, perhaps, possibly, predictably, probably, roughly, maybe, in most cases</t>
+    </r>
+  </si>
+  <si>
+    <t>FPPAll</t>
+  </si>
+  <si>
+    <t>MDPOSSCAll</t>
+  </si>
+  <si>
+    <t>MDPREDAll</t>
+  </si>
+  <si>
+    <t>PASSAll</t>
+  </si>
+  <si>
+    <t>RSTNCAll</t>
+  </si>
+  <si>
+    <t>ThJSTNCAll</t>
+  </si>
+  <si>
+    <t>ThNSTNCAll</t>
+  </si>
+  <si>
+    <t>ThSTNCAll</t>
+  </si>
+  <si>
+    <t>ThVSTNCAll</t>
+  </si>
+  <si>
+    <t>ToJSTNCAll</t>
+  </si>
+  <si>
+    <t>ToSTNCAll</t>
+  </si>
+  <si>
+    <t>ToVSTNCAll</t>
+  </si>
+  <si>
+    <t>WhVSTNCAll</t>
+  </si>
+  <si>
+    <t>Prnouns</t>
+  </si>
+  <si>
+    <t>Adjective semantics</t>
+  </si>
+  <si>
+    <t>Noun semantics</t>
+  </si>
+  <si>
+    <t>Adverb semantics</t>
+  </si>
+  <si>
+    <t>All 1st person pronouns</t>
+  </si>
+  <si>
+    <t>Al modals of possibility</t>
+  </si>
+  <si>
+    <t>All modals of prediction</t>
+  </si>
+  <si>
+    <t>All adverbs related to stance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> passives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses preceded by stance nouns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses preceded by stance adjectives, nouns, and verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses preceded by stance verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infinitive clauses preceded by stance adjectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infinitive clauses preceded by stance verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses preceded by stance verbs</t>
+    </r>
+  </si>
+  <si>
+    <t>JJSTNCAllother</t>
+  </si>
+  <si>
+    <t>All adjectives related to stance in other contexts</t>
+  </si>
+  <si>
+    <t>Any word tagged with FPP1P, FPP1S</t>
+  </si>
+  <si>
+    <t>Any word tagged as MDCA, MDCO, MDMM</t>
+  </si>
+  <si>
+    <t>Any word tagged as MDWS, MDWO, GTO</t>
+  </si>
+  <si>
+    <t>Any word tagged as PASS, PGET</t>
+  </si>
+  <si>
+    <t>Any word tagged as RATT, RNONFACT, RFACT, RLIKELY</t>
+  </si>
+  <si>
+    <t>All that complement clauses preceded by stance adjectives, nouns, and verbs</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThJATT, ThJFCT, ThJLIK, ThJEVL</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK, ThJATT, ThJFCT, ThJLIK, ThJEVL, ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL, ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL, ToNSTNC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infinitive clauses preceded by stance adjectives, nouns, and verbs</t>
+    </r>
+  </si>
+  <si>
+    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL</t>
+  </si>
+  <si>
+    <t>Any word tagged as WhVATT, WhVFCT, WhVLIK, WhVCOM</t>
+  </si>
+  <si>
+    <t>Composit tags</t>
+  </si>
+  <si>
+    <t>Biber 1988, adapted by Shakir</t>
+  </si>
+  <si>
+    <t>Shakir</t>
+  </si>
+  <si>
+    <t>Biber 1988, Le Foll, adapted by Shakir</t>
+  </si>
+  <si>
+    <t>Le Foll, adapted by Shakir</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All adjectives as mentioned in ThJATT, ThJEVL, ThJFCT, ThJLIK, JJATDother, JJEPSTother and (1) not having a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or _</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag afterwards (2) not having any other tag.</t>
+    </r>
+  </si>
+  <si>
+    <t>VATTother</t>
+  </si>
+  <si>
+    <t>VCOMMother</t>
+  </si>
+  <si>
+    <t>VFCTother</t>
+  </si>
+  <si>
+    <t>VLIKother</t>
+  </si>
+  <si>
+    <t>mental/attitudinal verbs in other contexts</t>
+  </si>
+  <si>
+    <t>communicaton verbs in other contexts</t>
+  </si>
+  <si>
+    <t>factive verbs in other contexts</t>
+  </si>
+  <si>
+    <t>likelihood verbs in other contexts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesising, hypothesised, hypothesise, hypothesises, hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realizes, realize, realizing, recognizes, recognize, recognized, recognizing, realised, realises, realise, realising, recognises, recognise, recognised, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
+    </r>
+  </si>
+  <si>
+    <t>INother</t>
+  </si>
+  <si>
+    <t>JJATother</t>
+  </si>
+  <si>
+    <t>JJPRother</t>
+  </si>
+  <si>
+    <t>NNother</t>
+  </si>
+  <si>
+    <t>RBother</t>
+  </si>
+  <si>
+    <t>THRCother</t>
+  </si>
+  <si>
+    <t>THSCother</t>
+  </si>
+  <si>
+    <t>WHSCother</t>
+  </si>
+  <si>
+    <t>Prepositions having no additional tag</t>
+  </si>
+  <si>
+    <t>Attributive adjectives having no additional tag</t>
+  </si>
+  <si>
+    <t>Predicative adjectives having no additional tag</t>
+  </si>
+  <si>
+    <t>Nouns having no additional tag</t>
+  </si>
+  <si>
+    <t>Adverbs having no additional tag</t>
+  </si>
+  <si>
+    <t>Adverbs</t>
+  </si>
+  <si>
+    <t>Discourse organization</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_JJAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_JJPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_NN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_RB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THRC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clauses not preceded by a stance noun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses not preceded by a stance adjective or verb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses not preceded by a stance verb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
     </r>
   </si>
 </sst>
@@ -17678,7 +18826,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -17814,6 +18962,14 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -18364,10 +19520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM150"/>
+  <dimension ref="A1:AMM177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
@@ -22654,7 +23810,7 @@
     </row>
     <row r="101" spans="1:12" ht="110.4">
       <c r="A101" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B101" s="29" t="s">
         <v>402</v>
@@ -22675,7 +23831,7 @@
     </row>
     <row r="102" spans="1:12" ht="110.4">
       <c r="A102" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>408</v>
@@ -22696,7 +23852,7 @@
     </row>
     <row r="103" spans="1:12" ht="110.4">
       <c r="A103" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>409</v>
@@ -22716,7 +23872,7 @@
     </row>
     <row r="104" spans="1:12" ht="110.4">
       <c r="A104" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>410</v>
@@ -22736,7 +23892,7 @@
     </row>
     <row r="105" spans="1:12" ht="110.4">
       <c r="A105" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>422</v>
@@ -22756,7 +23912,7 @@
     </row>
     <row r="106" spans="1:12" ht="110.4">
       <c r="A106" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>423</v>
@@ -22776,7 +23932,7 @@
     </row>
     <row r="107" spans="1:12" ht="110.4">
       <c r="A107" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>424</v>
@@ -22796,7 +23952,7 @@
     </row>
     <row r="108" spans="1:12" ht="110.4">
       <c r="A108" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>425</v>
@@ -22816,7 +23972,7 @@
     </row>
     <row r="109" spans="1:12" ht="110.4">
       <c r="A109" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>429</v>
@@ -22836,7 +23992,7 @@
     </row>
     <row r="110" spans="1:12" ht="409.6">
       <c r="A110" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>430</v>
@@ -22856,7 +24012,7 @@
     </row>
     <row r="111" spans="1:12" ht="138">
       <c r="A111" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>431</v>
@@ -22876,7 +24032,7 @@
     </row>
     <row r="112" spans="1:12" ht="124.2">
       <c r="A112" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>432</v>
@@ -22894,85 +24050,79 @@
         <v>543</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="55.2">
-      <c r="A113" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1" t="s">
-        <v>478</v>
+    <row r="113" spans="1:7" ht="110.4">
+      <c r="A113" s="19"/>
+      <c r="B113" s="41" t="s">
+        <v>612</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="E113" s="41" t="s">
+        <v>619</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G113" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="55.2">
+    <row r="114" spans="1:7" ht="409.6">
       <c r="A114" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1" t="s">
-        <v>479</v>
+        <v>93</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>609</v>
+      </c>
+      <c r="E114" s="41" t="s">
+        <v>618</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G114" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="55.2">
+    <row r="115" spans="1:7" ht="151.80000000000001">
       <c r="A115" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1" t="s">
-        <v>480</v>
+        <v>93</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="E115" s="41" t="s">
+        <v>617</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G115" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="55.2">
+    <row r="116" spans="1:7" ht="138">
       <c r="A116" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>454</v>
+        <v>93</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>615</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1" t="s">
-        <v>481</v>
+        <v>611</v>
+      </c>
+      <c r="E116" s="41" t="s">
+        <v>616</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>543</v>
@@ -22980,17 +24130,17 @@
     </row>
     <row r="117" spans="1:7" ht="55.2">
       <c r="A117" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>8</v>
@@ -22999,64 +24149,64 @@
         <v>543</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="110.4">
+    <row r="118" spans="1:7" ht="55.2">
       <c r="A118" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G118" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="138">
+    <row r="119" spans="1:7" ht="55.2">
       <c r="A119" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G119" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="110.4">
+    <row r="120" spans="1:7" ht="55.2">
       <c r="A120" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G120" s="20" t="s">
         <v>543</v>
@@ -23064,38 +24214,38 @@
     </row>
     <row r="121" spans="1:7" ht="55.2">
       <c r="A121" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G121" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="69">
+    <row r="122" spans="1:7" ht="110.4">
       <c r="A122" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>32</v>
@@ -23104,19 +24254,19 @@
         <v>543</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="96.6">
+    <row r="123" spans="1:7" ht="138">
       <c r="A123" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C123" s="39" t="s">
-        <v>466</v>
+        <v>457</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>32</v>
@@ -23125,19 +24275,19 @@
         <v>543</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="409.6">
+    <row r="124" spans="1:7" ht="110.4">
       <c r="A124" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C124" s="39" t="s">
-        <v>467</v>
+        <v>458</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>32</v>
@@ -23146,19 +24296,19 @@
         <v>543</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="138">
+    <row r="125" spans="1:7" ht="55.2">
       <c r="A125" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C125" s="39" t="s">
-        <v>468</v>
+        <v>459</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>32</v>
@@ -23167,19 +24317,19 @@
         <v>543</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="124.2">
+    <row r="126" spans="1:7" ht="69">
       <c r="A126" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C126" s="39" t="s">
-        <v>469</v>
+        <v>460</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>451</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>32</v>
@@ -23188,81 +24338,85 @@
         <v>543</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="69">
+    <row r="127" spans="1:7" ht="96.6">
       <c r="A127" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>446</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G127" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="179.4">
+    <row r="128" spans="1:7" ht="409.6">
       <c r="A128" s="19" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>485</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G128" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="69">
+    <row r="129" spans="1:7" ht="138">
       <c r="A129" s="19" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>488</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G129" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="55.2">
+    <row r="130" spans="1:7" ht="124.2">
       <c r="A130" s="19" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>489</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="C130" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G130" s="20" t="s">
         <v>543</v>
@@ -23270,16 +24424,16 @@
     </row>
     <row r="131" spans="1:7" ht="69">
       <c r="A131" s="19" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>17</v>
@@ -23288,18 +24442,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="55.2">
+    <row r="132" spans="1:7" ht="179.4">
       <c r="A132" s="19" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>17</v>
@@ -23308,18 +24462,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="55.2">
+    <row r="133" spans="1:7" ht="69">
       <c r="A133" s="19" t="s">
-        <v>225</v>
+        <v>571</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>17</v>
@@ -23330,16 +24484,16 @@
     </row>
     <row r="134" spans="1:7" ht="55.2">
       <c r="A134" s="19" t="s">
-        <v>225</v>
+        <v>571</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>17</v>
@@ -23348,18 +24502,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="55.2">
+    <row r="135" spans="1:7" ht="69">
       <c r="A135" s="19" t="s">
-        <v>225</v>
+        <v>571</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>17</v>
@@ -23370,16 +24524,16 @@
     </row>
     <row r="136" spans="1:7" ht="55.2">
       <c r="A136" s="19" t="s">
-        <v>225</v>
+        <v>571</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>17</v>
@@ -23388,19 +24542,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="409.6">
-      <c r="A137" s="1" t="s">
-        <v>17</v>
+    <row r="137" spans="1:7" ht="55.2">
+      <c r="A137" s="19" t="s">
+        <v>571</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="D137" s="1"/>
+        <v>493</v>
+      </c>
       <c r="E137" s="1" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>17</v>
@@ -23409,19 +24562,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="179.4">
-      <c r="A138" s="1" t="s">
-        <v>17</v>
+    <row r="138" spans="1:7" ht="55.2">
+      <c r="A138" s="19" t="s">
+        <v>571</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D138" s="1"/>
+        <v>494</v>
+      </c>
       <c r="E138" s="1" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>17</v>
@@ -23430,19 +24582,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="409.6">
-      <c r="A139" s="1" t="s">
-        <v>17</v>
+    <row r="139" spans="1:7" ht="55.2">
+      <c r="A139" s="19" t="s">
+        <v>571</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D139" s="1"/>
+        <v>495</v>
+      </c>
       <c r="E139" s="1" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>17</v>
@@ -23451,19 +24602,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="96.6">
-      <c r="A140" s="1" t="s">
-        <v>17</v>
+    <row r="140" spans="1:7" ht="55.2">
+      <c r="A140" s="19" t="s">
+        <v>571</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="D140" s="1"/>
+        <v>496</v>
+      </c>
       <c r="E140" s="1" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>17</v>
@@ -23474,38 +24624,38 @@
     </row>
     <row r="141" spans="1:7" ht="409.6">
       <c r="A141" s="1" t="s">
-        <v>17</v>
+        <v>572</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="234.6">
+    <row r="142" spans="1:7" ht="179.4">
       <c r="A142" s="1" t="s">
-        <v>17</v>
+        <v>572</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>17</v>
@@ -23514,19 +24664,19 @@
         <v>543</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="138">
+    <row r="143" spans="1:7" ht="409.6">
       <c r="A143" s="1" t="s">
-        <v>17</v>
+        <v>572</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>17</v>
@@ -23535,19 +24685,19 @@
         <v>543</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="193.2">
+    <row r="144" spans="1:7" ht="96.6">
       <c r="A144" s="1" t="s">
-        <v>17</v>
+        <v>572</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>17</v>
@@ -23556,40 +24706,40 @@
         <v>543</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="82.8">
+    <row r="145" spans="1:7" ht="409.6">
       <c r="A145" s="1" t="s">
-        <v>17</v>
+        <v>572</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="179.4">
+    <row r="146" spans="1:7" ht="234.6">
       <c r="A146" s="1" t="s">
-        <v>17</v>
+        <v>572</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>17</v>
@@ -23598,89 +24748,618 @@
         <v>543</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="55.2">
+    <row r="147" spans="1:7" ht="138">
       <c r="A147" s="1" t="s">
-        <v>223</v>
+        <v>572</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C147" s="39" t="s">
-        <v>545</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G147" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="55.2">
+    <row r="148" spans="1:7" ht="193.2">
       <c r="A148" s="1" t="s">
-        <v>223</v>
+        <v>572</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C148" s="39" t="s">
-        <v>547</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G148" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="55.2">
+    <row r="149" spans="1:7" ht="82.8">
       <c r="A149" s="1" t="s">
-        <v>223</v>
+        <v>572</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C149" s="39" t="s">
-        <v>549</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G149" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="55.2">
+    <row r="150" spans="1:7" ht="179.4">
       <c r="A150" s="1" t="s">
-        <v>223</v>
+        <v>572</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C150" s="39" t="s">
-        <v>551</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G150" s="20" t="s">
         <v>543</v>
       </c>
     </row>
+    <row r="151" spans="1:7" ht="55.2">
+      <c r="A151" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C151" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="55.2">
+      <c r="A152" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C152" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="55.2">
+      <c r="A153" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C153" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="55.2">
+      <c r="A154" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="D155" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="55.2">
+      <c r="A156" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E156" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="82.8">
+      <c r="A157" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="20" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="69">
+      <c r="A158" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E158" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="69">
+      <c r="A159" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="41.4">
+      <c r="A160" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="55.2">
+      <c r="A161" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="110.4">
+      <c r="A162" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G162" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="82.8">
+      <c r="A163" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G163" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="110.4">
+      <c r="A164" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="69">
+      <c r="A165" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E165" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="82.8">
+      <c r="A166" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E166" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="110.4">
+      <c r="A167" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="69">
+      <c r="A168" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E168" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G168" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="69">
+      <c r="A169" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="E169" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G169" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="55.2">
+      <c r="A170" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E170" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="69">
+      <c r="A171" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E171" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="69">
+      <c r="A172" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E172" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="55.2">
+      <c r="A173" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E173" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="55.2">
+      <c r="A174" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E174" s="38" t="s">
+        <v>639</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="82.8">
+      <c r="A175" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E175" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="96.6">
+      <c r="A176" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="E176" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="82.8">
+      <c r="A177" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E177" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C129:D142">
-    <sortCondition ref="C129:C142"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C133:D146">
+    <sortCondition ref="C133:C146"/>
   </sortState>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.35" header="0" footer="0.3"/>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A20F664-ED2B-4993-B991-8BDDFA8E4F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7781E85-78A3-4B8A-A5AE-5A08337F029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17740,8 +17740,74 @@
     <t>Le Foll, adapted by Shakir</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">All adjectives as mentioned in ThJATT, ThJEVL, ThJFCT, ThJLIK, JJATDother, JJEPSTother and (1) not having a </t>
+    <t>VATTother</t>
+  </si>
+  <si>
+    <t>VCOMMother</t>
+  </si>
+  <si>
+    <t>VFCTother</t>
+  </si>
+  <si>
+    <t>VLIKother</t>
+  </si>
+  <si>
+    <t>mental/attitudinal verbs in other contexts</t>
+  </si>
+  <si>
+    <t>communicaton verbs in other contexts</t>
+  </si>
+  <si>
+    <t>factive verbs in other contexts</t>
+  </si>
+  <si>
+    <t>likelihood verbs in other contexts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
     </r>
     <r>
       <rPr>
@@ -17762,6 +17828,686 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesising, hypothesised, hypothesise, hypothesises, hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realizes, realize, realizing, recognizes, recognize, recognized, recognizing, realised, realises, realise, realising, recognises, recognise, recognised, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
+    </r>
+  </si>
+  <si>
+    <t>INother</t>
+  </si>
+  <si>
+    <t>JJATother</t>
+  </si>
+  <si>
+    <t>JJPRother</t>
+  </si>
+  <si>
+    <t>NNother</t>
+  </si>
+  <si>
+    <t>RBother</t>
+  </si>
+  <si>
+    <t>THRCother</t>
+  </si>
+  <si>
+    <t>THSCother</t>
+  </si>
+  <si>
+    <t>WHSCother</t>
+  </si>
+  <si>
+    <t>Prepositions having no additional tag</t>
+  </si>
+  <si>
+    <t>Attributive adjectives having no additional tag</t>
+  </si>
+  <si>
+    <t>Predicative adjectives having no additional tag</t>
+  </si>
+  <si>
+    <t>Nouns having no additional tag</t>
+  </si>
+  <si>
+    <t>Adverbs having no additional tag</t>
+  </si>
+  <si>
+    <t>Adverbs</t>
+  </si>
+  <si>
+    <t>Discourse organization</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_JJAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_JJPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_NN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_RB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THRC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clauses not preceded by a stance noun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses not preceded by a stance adjective or verb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses not preceded by a stance verb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as JJATDother, JJEPSTother and (1) not having a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> or _</t>
     </r>
     <r>
@@ -17784,752 +18530,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> tag afterwards (2) not having any other tag.</t>
-    </r>
-  </si>
-  <si>
-    <t>VATTother</t>
-  </si>
-  <si>
-    <t>VCOMMother</t>
-  </si>
-  <si>
-    <t>VFCTother</t>
-  </si>
-  <si>
-    <t>VLIKother</t>
-  </si>
-  <si>
-    <t>mental/attitudinal verbs in other contexts</t>
-  </si>
-  <si>
-    <t>communicaton verbs in other contexts</t>
-  </si>
-  <si>
-    <t>factive verbs in other contexts</t>
-  </si>
-  <si>
-    <t>likelihood verbs in other contexts</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesising, hypothesised, hypothesise, hypothesises, hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realizes, realize, realizing, recognizes, recognize, recognized, recognizing, realised, realises, realise, realising, recognises, recognise, recognised, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
-    </r>
-  </si>
-  <si>
-    <t>INother</t>
-  </si>
-  <si>
-    <t>JJATother</t>
-  </si>
-  <si>
-    <t>JJPRother</t>
-  </si>
-  <si>
-    <t>NNother</t>
-  </si>
-  <si>
-    <t>RBother</t>
-  </si>
-  <si>
-    <t>THRCother</t>
-  </si>
-  <si>
-    <t>THSCother</t>
-  </si>
-  <si>
-    <t>WHSCother</t>
-  </si>
-  <si>
-    <t>Prepositions having no additional tag</t>
-  </si>
-  <si>
-    <t>Attributive adjectives having no additional tag</t>
-  </si>
-  <si>
-    <t>Predicative adjectives having no additional tag</t>
-  </si>
-  <si>
-    <t>Nouns having no additional tag</t>
-  </si>
-  <si>
-    <t>Adverbs having no additional tag</t>
-  </si>
-  <si>
-    <t>Adverbs</t>
-  </si>
-  <si>
-    <t>Discourse organization</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_IN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_JJAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_JJPR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_NN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_RB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THRC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clauses not preceded by a stance noun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses not preceded by a stance adjective or verb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses not preceded by a stance verb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
     </r>
   </si>
 </sst>
@@ -19522,8 +19522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="D155" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
@@ -20303,7 +20303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="55.2">
       <c r="A35" s="19" t="s">
         <v>226</v>
       </c>
@@ -24053,13 +24053,13 @@
     <row r="113" spans="1:7" ht="110.4">
       <c r="A113" s="19"/>
       <c r="B113" s="41" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
@@ -24073,13 +24073,13 @@
         <v>93</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
@@ -24093,13 +24093,13 @@
         <v>93</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E115" s="41" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
@@ -24113,13 +24113,13 @@
         <v>93</v>
       </c>
       <c r="B116" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="E116" s="41" t="s">
         <v>615</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="E116" s="41" t="s">
-        <v>616</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
@@ -24948,7 +24948,7 @@
         <v>585</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>17</v>
@@ -25202,13 +25202,13 @@
         <v>119</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>8</v>
@@ -25222,13 +25222,13 @@
         <v>225</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E171" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>17</v>
@@ -25242,13 +25242,13 @@
         <v>225</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E172" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>32</v>
@@ -25262,13 +25262,13 @@
         <v>17</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E173" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>8</v>
@@ -25279,16 +25279,16 @@
     </row>
     <row r="174" spans="1:7" ht="55.2">
       <c r="A174" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E174" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
@@ -25299,16 +25299,16 @@
     </row>
     <row r="175" spans="1:7" ht="82.8">
       <c r="A175" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E175" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>32</v>
@@ -25319,16 +25319,16 @@
     </row>
     <row r="176" spans="1:7" ht="96.6">
       <c r="A176" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
@@ -25339,16 +25339,16 @@
     </row>
     <row r="177" spans="1:7" ht="82.8">
       <c r="A177" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E177" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>32</v>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7781E85-78A3-4B8A-A5AE-5A08337F029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3BD9E-384E-4DCA-A15F-E3056341A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="642">
   <si>
     <t>Feature</t>
   </si>
@@ -17651,12 +17651,6 @@
     </r>
   </si>
   <si>
-    <t>JJSTNCAllother</t>
-  </si>
-  <si>
-    <t>All adjectives related to stance in other contexts</t>
-  </si>
-  <si>
     <t>Any word tagged with FPP1P, FPP1S</t>
   </si>
   <si>
@@ -17731,9 +17725,6 @@
     <t>Biber 1988, adapted by Shakir</t>
   </si>
   <si>
-    <t>Shakir</t>
-  </si>
-  <si>
     <t>Biber 1988, Le Foll, adapted by Shakir</t>
   </si>
   <si>
@@ -18483,53 +18474,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as JJATDother, JJEPSTother and (1) not having a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or _</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag afterwards (2) not having any other tag.</t>
     </r>
   </si>
 </sst>
@@ -19520,32 +19464,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM177"/>
+  <dimension ref="A1:AMM176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D155" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:XFD157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="38" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.796875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="70.69921875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="7.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.796875" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.19921875" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.69921875" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.796875" style="7"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.75" style="38" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.75" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.25" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.75" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="27.6">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="25.5">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
@@ -19579,7 +19523,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="55.2">
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="51">
       <c r="A3" s="13" t="s">
         <v>293</v>
       </c>
@@ -19602,7 +19546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="41.4">
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="38.25">
       <c r="A4" s="13" t="s">
         <v>293</v>
       </c>
@@ -19625,7 +19569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="55.2">
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="51">
       <c r="A5" s="13" t="s">
         <v>293</v>
       </c>
@@ -19648,7 +19592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="55.2">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="51">
       <c r="A6" s="13" t="s">
         <v>293</v>
       </c>
@@ -19671,7 +19615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="124.2">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="102">
       <c r="A7" s="13" t="s">
         <v>293</v>
       </c>
@@ -19705,7 +19649,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="96.6">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A9" s="19" t="s">
         <v>225</v>
       </c>
@@ -19728,7 +19672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A10" s="19" t="s">
         <v>225</v>
       </c>
@@ -19751,7 +19695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A11" s="19" t="s">
         <v>223</v>
       </c>
@@ -19774,7 +19718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="96.6">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A12" s="23" t="s">
         <v>223</v>
       </c>
@@ -19797,7 +19741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="110.4">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A13" s="23" t="s">
         <v>223</v>
       </c>
@@ -19820,7 +19764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A14" s="23" t="s">
         <v>223</v>
       </c>
@@ -19843,7 +19787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A15" s="19" t="s">
         <v>222</v>
       </c>
@@ -19866,7 +19810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="82.8">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A16" s="19" t="s">
         <v>222</v>
       </c>
@@ -19912,7 +19856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.05" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.150000000000006" customHeight="1">
       <c r="A18" s="22" t="s">
         <v>222</v>
       </c>
@@ -19935,7 +19879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A19" s="22" t="s">
         <v>222</v>
       </c>
@@ -19958,7 +19902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A20" s="19" t="s">
         <v>226</v>
       </c>
@@ -19981,7 +19925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="138">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A21" s="19" t="s">
         <v>226</v>
       </c>
@@ -20004,7 +19948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="110.4">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A22" s="19" t="s">
         <v>226</v>
       </c>
@@ -20027,7 +19971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A23" s="19" t="s">
         <v>226</v>
       </c>
@@ -20050,7 +19994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="27.6">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A24" s="19" t="s">
         <v>226</v>
       </c>
@@ -20073,7 +20017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="151.80000000000001">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A25" s="19" t="s">
         <v>226</v>
       </c>
@@ -20096,7 +20040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A26" s="19" t="s">
         <v>226</v>
       </c>
@@ -20119,7 +20063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A27" s="19" t="s">
         <v>226</v>
       </c>
@@ -20142,7 +20086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A28" s="19" t="s">
         <v>226</v>
       </c>
@@ -20165,7 +20109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A29" s="19" t="s">
         <v>226</v>
       </c>
@@ -20188,7 +20132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="96.6">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A30" s="19" t="s">
         <v>226</v>
       </c>
@@ -20211,7 +20155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A31" s="19" t="s">
         <v>226</v>
       </c>
@@ -20234,7 +20178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A32" s="19" t="s">
         <v>226</v>
       </c>
@@ -20257,7 +20201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="82.8">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A33" s="19" t="s">
         <v>226</v>
       </c>
@@ -20280,7 +20224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="124.2">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A34" s="19" t="s">
         <v>226</v>
       </c>
@@ -20303,7 +20247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A35" s="19" t="s">
         <v>226</v>
       </c>
@@ -20326,7 +20270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A36" s="19" t="s">
         <v>34</v>
       </c>
@@ -20349,7 +20293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="96.6">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A37" s="19" t="s">
         <v>34</v>
       </c>
@@ -20372,7 +20316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="96.6">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A38" s="19" t="s">
         <v>34</v>
       </c>
@@ -20395,7 +20339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="27.6">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A39" s="19" t="s">
         <v>34</v>
       </c>
@@ -20418,7 +20362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A40" s="19" t="s">
         <v>34</v>
       </c>
@@ -20441,7 +20385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A41" s="19" t="s">
         <v>73</v>
       </c>
@@ -20464,7 +20408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="96.6">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A42" s="19" t="s">
         <v>119</v>
       </c>
@@ -20487,7 +20431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A43" s="19" t="s">
         <v>60</v>
       </c>
@@ -20510,7 +20454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A44" s="19" t="s">
         <v>60</v>
       </c>
@@ -20533,7 +20477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A45" s="19" t="s">
         <v>60</v>
       </c>
@@ -20556,7 +20500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A46" s="19" t="s">
         <v>60</v>
       </c>
@@ -20579,7 +20523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A47" s="19" t="s">
         <v>60</v>
       </c>
@@ -20602,7 +20546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A48" s="19" t="s">
         <v>60</v>
       </c>
@@ -20625,7 +20569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A49" s="19" t="s">
         <v>60</v>
       </c>
@@ -20648,7 +20592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="27.6">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A50" s="19" t="s">
         <v>60</v>
       </c>
@@ -20671,7 +20615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A51" s="19" t="s">
         <v>229</v>
       </c>
@@ -20694,7 +20638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A52" s="19" t="s">
         <v>229</v>
       </c>
@@ -20717,7 +20661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A53" s="19" t="s">
         <v>229</v>
       </c>
@@ -20740,7 +20684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="82.8">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A54" s="19" t="s">
         <v>229</v>
       </c>
@@ -20763,7 +20707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="96.6">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A55" s="19" t="s">
         <v>229</v>
       </c>
@@ -20786,7 +20730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A56" s="19" t="s">
         <v>224</v>
       </c>
@@ -20809,7 +20753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="165.6">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A57" s="19" t="s">
         <v>224</v>
       </c>
@@ -20832,7 +20776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="82.8">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A58" s="19" t="s">
         <v>67</v>
       </c>
@@ -20878,7 +20822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A60" s="19" t="s">
         <v>230</v>
       </c>
@@ -20901,7 +20845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A61" s="19" t="s">
         <v>230</v>
       </c>
@@ -20924,7 +20868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="110.4">
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A62" s="19" t="s">
         <v>230</v>
       </c>
@@ -20947,7 +20891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A63" s="19" t="s">
         <v>230</v>
       </c>
@@ -20970,7 +20914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A64" s="19" t="s">
         <v>230</v>
       </c>
@@ -20993,7 +20937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A65" s="19" t="s">
         <v>230</v>
       </c>
@@ -21016,7 +20960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A66" s="19" t="s">
         <v>230</v>
       </c>
@@ -21039,7 +20983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="82.8">
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A67" s="19" t="s">
         <v>230</v>
       </c>
@@ -21062,7 +21006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" ht="165.6">
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A68" s="19" t="s">
         <v>230</v>
       </c>
@@ -21085,7 +21029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A69" s="19" t="s">
         <v>230</v>
       </c>
@@ -21108,7 +21052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" ht="124.2">
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A70" s="19" t="s">
         <v>230</v>
       </c>
@@ -21131,7 +21075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" ht="82.8">
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A71" s="19" t="s">
         <v>230</v>
       </c>
@@ -21154,7 +21098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" ht="69">
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A72" s="19" t="s">
         <v>230</v>
       </c>
@@ -21177,7 +21121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" ht="124.2">
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A73" s="19" t="s">
         <v>93</v>
       </c>
@@ -21200,7 +21144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="138">
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A74" s="19" t="s">
         <v>93</v>
       </c>
@@ -21223,7 +21167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A75" s="19" t="s">
         <v>93</v>
       </c>
@@ -21246,7 +21190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="55.2">
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A76" s="19" t="s">
         <v>93</v>
       </c>
@@ -21269,7 +21213,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="138">
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A77" s="19" t="s">
         <v>93</v>
       </c>
@@ -21292,7 +21236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="82.8">
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A78" s="19" t="s">
         <v>93</v>
       </c>
@@ -21315,7 +21259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="179.4">
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A79" s="19" t="s">
         <v>93</v>
       </c>
@@ -21338,7 +21282,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="41.4">
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A80" s="19" t="s">
         <v>93</v>
       </c>
@@ -21361,7 +21305,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="7" customFormat="1" ht="69">
+    <row r="81" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A81" s="19" t="s">
         <v>93</v>
       </c>
@@ -21384,7 +21328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="7" customFormat="1" ht="27.6">
+    <row r="82" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A82" s="19" t="s">
         <v>93</v>
       </c>
@@ -21407,7 +21351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="7" customFormat="1" ht="55.2">
+    <row r="83" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A83" s="19" t="s">
         <v>93</v>
       </c>
@@ -21430,7 +21374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="7" customFormat="1" ht="41.4">
+    <row r="84" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A84" s="19" t="s">
         <v>93</v>
       </c>
@@ -21453,7 +21397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="7" customFormat="1" ht="27.6">
+    <row r="85" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A85" s="19" t="s">
         <v>93</v>
       </c>
@@ -21476,7 +21420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="7" customFormat="1" ht="55.2">
+    <row r="86" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A86" s="19" t="s">
         <v>93</v>
       </c>
@@ -21499,7 +21443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="7" customFormat="1" ht="41.4">
+    <row r="87" spans="1:1022" s="7" customFormat="1" ht="38.25">
       <c r="A87" s="19" t="s">
         <v>93</v>
       </c>
@@ -21533,7 +21477,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:1022" s="9" customFormat="1" ht="55.2">
+    <row r="89" spans="1:1022" s="9" customFormat="1" ht="51">
       <c r="A89" s="13" t="s">
         <v>34</v>
       </c>
@@ -22571,7 +22515,7 @@
       <c r="AMG89" s="5"/>
       <c r="AMH89" s="5"/>
     </row>
-    <row r="90" spans="1:1022" s="9" customFormat="1" ht="55.2">
+    <row r="90" spans="1:1022" s="9" customFormat="1" ht="51">
       <c r="A90" s="13" t="s">
         <v>34</v>
       </c>
@@ -23609,7 +23553,7 @@
       <c r="AMG90" s="5"/>
       <c r="AMH90" s="5"/>
     </row>
-    <row r="91" spans="1:1022" s="9" customFormat="1" ht="69">
+    <row r="91" spans="1:1022" s="9" customFormat="1" ht="63.75">
       <c r="A91" s="13" t="s">
         <v>230</v>
       </c>
@@ -23632,7 +23576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="7" customFormat="1" ht="69">
+    <row r="92" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A92" s="13" t="s">
         <v>230</v>
       </c>
@@ -23655,7 +23599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="9" customFormat="1" ht="110.4">
+    <row r="93" spans="1:1022" s="9" customFormat="1" ht="89.25">
       <c r="A93" s="13" t="s">
         <v>93</v>
       </c>
@@ -23678,7 +23622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="9" customFormat="1" ht="82.8">
+    <row r="94" spans="1:1022" s="9" customFormat="1" ht="76.5">
       <c r="A94" s="13" t="s">
         <v>93</v>
       </c>
@@ -23701,7 +23645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="9" customFormat="1" ht="69">
+    <row r="95" spans="1:1022" s="9" customFormat="1" ht="63.75">
       <c r="A95" s="13" t="s">
         <v>93</v>
       </c>
@@ -23724,7 +23668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="9" customFormat="1" ht="37.049999999999997" customHeight="1">
+    <row r="96" spans="1:1022" s="9" customFormat="1" ht="37.15" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="31"/>
       <c r="C96" s="17"/>
@@ -23735,7 +23679,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="1:12" s="9" customFormat="1" ht="55.2">
+    <row r="97" spans="1:12" s="9" customFormat="1" ht="51">
       <c r="A97" s="13" t="s">
         <v>93</v>
       </c>
@@ -23758,7 +23702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="9" customFormat="1" ht="41.4">
+    <row r="98" spans="1:12" s="9" customFormat="1" ht="38.25">
       <c r="A98" s="13" t="s">
         <v>230</v>
       </c>
@@ -23781,7 +23725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="9" customFormat="1" ht="55.2">
+    <row r="99" spans="1:12" s="9" customFormat="1" ht="51">
       <c r="A99" s="13" t="s">
         <v>226</v>
       </c>
@@ -23808,7 +23752,7 @@
       <c r="D100" s="20"/>
       <c r="L100" s="8"/>
     </row>
-    <row r="101" spans="1:12" ht="110.4">
+    <row r="101" spans="1:12" ht="102">
       <c r="A101" s="19" t="s">
         <v>67</v>
       </c>
@@ -23829,7 +23773,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="110.4">
+    <row r="102" spans="1:12" ht="102">
       <c r="A102" s="19" t="s">
         <v>67</v>
       </c>
@@ -23850,7 +23794,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="110.4">
+    <row r="103" spans="1:12" ht="102">
       <c r="A103" s="19" t="s">
         <v>67</v>
       </c>
@@ -23870,7 +23814,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="110.4">
+    <row r="104" spans="1:12" ht="102">
       <c r="A104" s="19" t="s">
         <v>67</v>
       </c>
@@ -23890,7 +23834,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="110.4">
+    <row r="105" spans="1:12" ht="102">
       <c r="A105" s="19" t="s">
         <v>67</v>
       </c>
@@ -23910,7 +23854,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="110.4">
+    <row r="106" spans="1:12" ht="102">
       <c r="A106" s="19" t="s">
         <v>67</v>
       </c>
@@ -23930,7 +23874,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="110.4">
+    <row r="107" spans="1:12" ht="102">
       <c r="A107" s="19" t="s">
         <v>67</v>
       </c>
@@ -23950,7 +23894,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="110.4">
+    <row r="108" spans="1:12" ht="102">
       <c r="A108" s="19" t="s">
         <v>67</v>
       </c>
@@ -23970,7 +23914,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="110.4">
+    <row r="109" spans="1:12" ht="102">
       <c r="A109" s="19" t="s">
         <v>67</v>
       </c>
@@ -23990,7 +23934,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="409.6">
+    <row r="110" spans="1:12" ht="382.5">
       <c r="A110" s="19" t="s">
         <v>67</v>
       </c>
@@ -24010,7 +23954,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="138">
+    <row r="111" spans="1:12" ht="114.75">
       <c r="A111" s="19" t="s">
         <v>67</v>
       </c>
@@ -24030,7 +23974,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="124.2">
+    <row r="112" spans="1:12" ht="114.75">
       <c r="A112" s="19" t="s">
         <v>67</v>
       </c>
@@ -24050,16 +23994,16 @@
         <v>543</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="110.4">
+    <row r="113" spans="1:7" ht="102">
       <c r="A113" s="19"/>
       <c r="B113" s="41" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E113" s="41" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
@@ -24068,18 +24012,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="409.6">
+    <row r="114" spans="1:7" ht="395.25">
       <c r="A114" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E114" s="41" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
@@ -24088,18 +24032,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="151.80000000000001">
+    <row r="115" spans="1:7" ht="127.5">
       <c r="A115" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B115" s="41" t="s">
+        <v>610</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="E115" s="41" t="s">
         <v>613</v>
-      </c>
-      <c r="C115" s="40" t="s">
-        <v>609</v>
-      </c>
-      <c r="E115" s="41" t="s">
-        <v>616</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
@@ -24108,18 +24052,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="138">
+    <row r="116" spans="1:7" ht="114.75">
       <c r="A116" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B116" s="41" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E116" s="41" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
@@ -24128,7 +24072,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="55.2">
+    <row r="117" spans="1:7" ht="51.75">
       <c r="A117" s="19" t="s">
         <v>67</v>
       </c>
@@ -24149,7 +24093,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="55.2">
+    <row r="118" spans="1:7" ht="51.75">
       <c r="A118" s="19" t="s">
         <v>67</v>
       </c>
@@ -24170,7 +24114,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="55.2">
+    <row r="119" spans="1:7" ht="51.75">
       <c r="A119" s="19" t="s">
         <v>67</v>
       </c>
@@ -24191,7 +24135,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="55.2">
+    <row r="120" spans="1:7" ht="51.75">
       <c r="A120" s="19" t="s">
         <v>67</v>
       </c>
@@ -24212,7 +24156,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="55.2">
+    <row r="121" spans="1:7" ht="51.75">
       <c r="A121" s="19" t="s">
         <v>67</v>
       </c>
@@ -24233,7 +24177,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="110.4">
+    <row r="122" spans="1:7" ht="90">
       <c r="A122" s="19" t="s">
         <v>67</v>
       </c>
@@ -24254,7 +24198,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="138">
+    <row r="123" spans="1:7" ht="115.5">
       <c r="A123" s="19" t="s">
         <v>67</v>
       </c>
@@ -24275,7 +24219,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="110.4">
+    <row r="124" spans="1:7" ht="90">
       <c r="A124" s="19" t="s">
         <v>67</v>
       </c>
@@ -24296,7 +24240,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="55.2">
+    <row r="125" spans="1:7" ht="51.75">
       <c r="A125" s="19" t="s">
         <v>67</v>
       </c>
@@ -24317,7 +24261,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="69">
+    <row r="126" spans="1:7" ht="64.5">
       <c r="A126" s="19" t="s">
         <v>67</v>
       </c>
@@ -24338,7 +24282,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="96.6">
+    <row r="127" spans="1:7" ht="90">
       <c r="A127" s="19" t="s">
         <v>67</v>
       </c>
@@ -24359,7 +24303,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="409.6">
+    <row r="128" spans="1:7" ht="383.25">
       <c r="A128" s="19" t="s">
         <v>67</v>
       </c>
@@ -24380,7 +24324,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="138">
+    <row r="129" spans="1:7" ht="115.5">
       <c r="A129" s="19" t="s">
         <v>67</v>
       </c>
@@ -24401,7 +24345,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="124.2">
+    <row r="130" spans="1:7" ht="102.75">
       <c r="A130" s="19" t="s">
         <v>67</v>
       </c>
@@ -24422,7 +24366,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="69">
+    <row r="131" spans="1:7" ht="64.5">
       <c r="A131" s="19" t="s">
         <v>67</v>
       </c>
@@ -24442,7 +24386,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="179.4">
+    <row r="132" spans="1:7" ht="166.5">
       <c r="A132" s="19" t="s">
         <v>67</v>
       </c>
@@ -24462,7 +24406,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="69">
+    <row r="133" spans="1:7" ht="64.5">
       <c r="A133" s="19" t="s">
         <v>571</v>
       </c>
@@ -24482,7 +24426,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="55.2">
+    <row r="134" spans="1:7" ht="51">
       <c r="A134" s="19" t="s">
         <v>571</v>
       </c>
@@ -24502,7 +24446,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="69">
+    <row r="135" spans="1:7" ht="64.5">
       <c r="A135" s="19" t="s">
         <v>571</v>
       </c>
@@ -24522,7 +24466,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="55.2">
+    <row r="136" spans="1:7" ht="51">
       <c r="A136" s="19" t="s">
         <v>571</v>
       </c>
@@ -24542,7 +24486,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="55.2">
+    <row r="137" spans="1:7" ht="51.75">
       <c r="A137" s="19" t="s">
         <v>571</v>
       </c>
@@ -24562,7 +24506,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="55.2">
+    <row r="138" spans="1:7" ht="51">
       <c r="A138" s="19" t="s">
         <v>571</v>
       </c>
@@ -24582,7 +24526,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="55.2">
+    <row r="139" spans="1:7" ht="51">
       <c r="A139" s="19" t="s">
         <v>571</v>
       </c>
@@ -24602,7 +24546,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="55.2">
+    <row r="140" spans="1:7" ht="51">
       <c r="A140" s="19" t="s">
         <v>571</v>
       </c>
@@ -24643,7 +24587,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="179.4">
+    <row r="142" spans="1:7" ht="153.75">
       <c r="A142" s="1" t="s">
         <v>572</v>
       </c>
@@ -24685,7 +24629,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="96.6">
+    <row r="144" spans="1:7" ht="77.25">
       <c r="A144" s="1" t="s">
         <v>572</v>
       </c>
@@ -24706,7 +24650,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="409.6">
+    <row r="145" spans="1:7" ht="383.25">
       <c r="A145" s="1" t="s">
         <v>572</v>
       </c>
@@ -24727,7 +24671,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="234.6">
+    <row r="146" spans="1:7" ht="204.75">
       <c r="A146" s="1" t="s">
         <v>572</v>
       </c>
@@ -24748,7 +24692,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="138">
+    <row r="147" spans="1:7" ht="115.5">
       <c r="A147" s="1" t="s">
         <v>572</v>
       </c>
@@ -24769,7 +24713,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="193.2">
+    <row r="148" spans="1:7" ht="166.5">
       <c r="A148" s="1" t="s">
         <v>572</v>
       </c>
@@ -24790,7 +24734,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="82.8">
+    <row r="149" spans="1:7" ht="76.5">
       <c r="A149" s="1" t="s">
         <v>572</v>
       </c>
@@ -24811,7 +24755,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="179.4">
+    <row r="150" spans="1:7" ht="166.5">
       <c r="A150" s="1" t="s">
         <v>572</v>
       </c>
@@ -24832,7 +24776,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="55.2">
+    <row r="151" spans="1:7" ht="51">
       <c r="A151" s="1" t="s">
         <v>573</v>
       </c>
@@ -24852,7 +24796,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="55.2">
+    <row r="152" spans="1:7" ht="51">
       <c r="A152" s="1" t="s">
         <v>573</v>
       </c>
@@ -24872,7 +24816,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="55.2">
+    <row r="153" spans="1:7" ht="51">
       <c r="A153" s="1" t="s">
         <v>573</v>
       </c>
@@ -24892,7 +24836,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="55.2">
+    <row r="154" spans="1:7" ht="51">
       <c r="A154" s="1" t="s">
         <v>573</v>
       </c>
@@ -24914,10 +24858,10 @@
     </row>
     <row r="155" spans="1:7">
       <c r="D155" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="55.2">
+    <row r="156" spans="1:7" ht="51.75">
       <c r="A156" s="1" t="s">
         <v>570</v>
       </c>
@@ -24928,127 +24872,127 @@
         <v>557</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="82.8">
+    <row r="157" spans="1:7" ht="64.5">
       <c r="A157" s="1" t="s">
-        <v>571</v>
+        <v>93</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E157" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="F157" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" s="20" t="s">
-        <v>604</v>
+        <v>32</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>602</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="69">
+    <row r="158" spans="1:7" ht="64.5">
       <c r="A158" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E158" s="38" t="s">
-        <v>588</v>
+        <v>559</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="69">
-      <c r="A159" s="1" t="s">
-        <v>93</v>
+    <row r="159" spans="1:7" ht="39">
+      <c r="A159" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="41.4">
-      <c r="A160" s="19" t="s">
-        <v>230</v>
+    <row r="160" spans="1:7" ht="51">
+      <c r="A160" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="102.75">
+      <c r="A161" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="55.2">
-      <c r="A161" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="C161" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>591</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G161" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="110.4">
+    <row r="162" spans="1:7" ht="64.5">
       <c r="A162" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>32</v>
@@ -25057,78 +25001,78 @@
         <v>543</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="82.8">
+    <row r="163" spans="1:7" ht="102.75">
       <c r="A163" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G163" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="110.4">
+    <row r="164" spans="1:7" ht="64.5">
       <c r="A164" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>595</v>
+        <v>565</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G164" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="69">
+    <row r="165" spans="1:7" ht="77.25">
       <c r="A165" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E165" s="38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G165" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="82.8">
+    <row r="166" spans="1:7" ht="102.75">
       <c r="A166" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="E166" s="38" t="s">
-        <v>597</v>
+        <v>567</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>8</v>
@@ -25137,38 +25081,38 @@
         <v>543</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="110.4">
+    <row r="167" spans="1:7" ht="64.5">
       <c r="A167" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E167" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E167" s="38" t="s">
         <v>598</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G167" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="69">
+    <row r="168" spans="1:7" ht="64.5">
       <c r="A168" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E168" s="38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>32</v>
@@ -25177,184 +25121,164 @@
         <v>543</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="69">
+    <row r="169" spans="1:7" ht="51.75">
       <c r="A169" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="E169" s="38" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G169" s="20" t="s">
-        <v>543</v>
+        <v>8</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>603</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="55.2">
+    <row r="170" spans="1:7" ht="64.5">
       <c r="A170" s="1" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="69">
+    <row r="171" spans="1:7" ht="64.5">
       <c r="A171" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E171" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="51.75">
+      <c r="A172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E172" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="51.75">
+      <c r="A173" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="E171" s="38" t="s">
+      <c r="E173" s="38" t="s">
         <v>635</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="69">
-      <c r="A172" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="E172" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="55.2">
-      <c r="A173" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="E173" s="38" t="s">
-        <v>637</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="55.2">
+    <row r="174" spans="1:7" ht="64.5">
       <c r="A174" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E174" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="90">
+      <c r="A175" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="82.8">
-      <c r="A175" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E175" s="38" t="s">
         <v>640</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="E175" s="38" t="s">
-        <v>639</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="96.6">
+    <row r="176" spans="1:7" ht="64.5">
       <c r="A176" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E176" s="38" t="s">
         <v>641</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="E176" s="38" t="s">
-        <v>643</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="82.8">
-      <c r="A177" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="E177" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D3BD9E-384E-4DCA-A15F-E3056341A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18CD4CE-4A60-4872-B76F-04A3CC0D47AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="648">
   <si>
     <t>Feature</t>
   </si>
@@ -18474,6 +18474,68 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <t>Remaining modal verbs</t>
+  </si>
+  <si>
+    <t>MDother</t>
+  </si>
+  <si>
+    <t>Any word tagged as MD by Stanford tagger and remains as it is after MFTE tagging is completed.</t>
+  </si>
+  <si>
+    <t>PRPother </t>
+  </si>
+  <si>
+    <t>Other personal pronouns</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as PRPS or PRP by Stanford tagger. For example </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (the dialectal fom of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>your</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) is tagged as PRPS.</t>
     </r>
   </si>
 </sst>
@@ -19464,10 +19526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM176"/>
+  <dimension ref="A1:AMM178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157:XFD157"/>
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
@@ -24881,38 +24943,33 @@
         <v>601</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="64.5">
+    <row r="157" spans="1:7" ht="39">
       <c r="A157" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>602</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" ht="64.5">
       <c r="A158" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>587</v>
+        <v>558</v>
+      </c>
+      <c r="E158" s="38" t="s">
+        <v>586</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
@@ -24921,81 +24978,81 @@
         <v>602</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="39">
-      <c r="A159" s="19" t="s">
-        <v>230</v>
+    <row r="159" spans="1:7" ht="64.5">
+      <c r="A159" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="39">
+      <c r="A160" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="51">
-      <c r="A160" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G160" s="20" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="102.75">
-      <c r="A161" s="1" t="s">
-        <v>67</v>
+    <row r="161" spans="1:7" ht="39">
+      <c r="A161" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G161" s="20" t="s">
-        <v>543</v>
+      <c r="G161" s="6" t="s">
+        <v>603</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="64.5">
+    <row r="162" spans="1:7" ht="51">
       <c r="A162" s="1" t="s">
-        <v>67</v>
+        <v>573</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G162" s="20" t="s">
         <v>543</v>
@@ -25006,16 +25063,16 @@
         <v>67</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G163" s="20" t="s">
         <v>543</v>
@@ -25026,13 +25083,13 @@
         <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="E164" s="38" t="s">
-        <v>594</v>
+        <v>563</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>32</v>
@@ -25041,18 +25098,18 @@
         <v>543</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="77.25">
+    <row r="165" spans="1:7" ht="102.75">
       <c r="A165" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="E165" s="38" t="s">
-        <v>595</v>
+        <v>564</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
@@ -25061,201 +25118,201 @@
         <v>543</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="102.75">
+    <row r="166" spans="1:7" ht="64.5">
       <c r="A166" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>596</v>
+        <v>565</v>
+      </c>
+      <c r="E166" s="38" t="s">
+        <v>594</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G166" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="64.5">
+    <row r="167" spans="1:7" ht="77.25">
       <c r="A167" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E167" s="38" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G167" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="64.5">
+    <row r="168" spans="1:7" ht="102.75">
       <c r="A168" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="E168" s="38" t="s">
-        <v>599</v>
+        <v>567</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G168" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51.75">
+    <row r="169" spans="1:7" ht="64.5">
       <c r="A169" s="1" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>624</v>
+        <v>583</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>616</v>
+        <v>568</v>
       </c>
       <c r="E169" s="38" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>603</v>
+        <v>32</v>
+      </c>
+      <c r="G169" s="20" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="64.5">
       <c r="A170" s="1" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>625</v>
+        <v>584</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="E170" s="38" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>603</v>
+        <v>32</v>
+      </c>
+      <c r="G170" s="20" t="s">
+        <v>543</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="64.5">
+    <row r="171" spans="1:7" ht="51.75">
       <c r="A171" s="1" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E171" s="38" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="51.75">
+    <row r="172" spans="1:7" ht="64.5">
       <c r="A172" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E172" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="E172" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G172" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="51.75">
+    <row r="173" spans="1:7" ht="64.5">
       <c r="A173" s="1" t="s">
-        <v>629</v>
+        <v>225</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E173" s="38" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G173" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="64.5">
+    <row r="174" spans="1:7" ht="51.75">
       <c r="A174" s="1" t="s">
-        <v>630</v>
+        <v>17</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E174" s="38" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G174" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="90">
+    <row r="175" spans="1:7" ht="51.75">
       <c r="A175" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E175" s="38" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G175" s="6" t="s">
         <v>603</v>
@@ -25266,18 +25323,58 @@
         <v>630</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="90">
+      <c r="A177" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="E177" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="64.5">
+      <c r="A178" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E178" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>603</v>
       </c>
     </row>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Documents/PhD/Publications/2023_Shakir_LeFoll/MFTE_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A5029-CB92-4941-85CD-FB136F328909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64DC17A-5791-4D04-A1AF-C08FBFC36A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5340" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -15197,3456 +15197,3456 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>preceded by communicative verbs</t>
+    </r>
+  </si>
+  <si>
+    <t>ThVATT</t>
+  </si>
+  <si>
+    <t>ThVCOMM</t>
+  </si>
+  <si>
+    <t>ThVFCT</t>
+  </si>
+  <si>
+    <t>ThVLIK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realised, realizes, realises, realize, realise, realizing, realising, recognizes, recognises, recognize, recognise, recognized, recognised, recognizing, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesised, hypothesise, hypothesises, hypothesising,  hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
+    </r>
+  </si>
+  <si>
+    <t>ToJABL</t>
+  </si>
+  <si>
+    <t>ToJCRTN</t>
+  </si>
+  <si>
+    <t>ToJEASE</t>
+  </si>
+  <si>
+    <t>ToJEFCT</t>
+  </si>
+  <si>
+    <t>ToJEVAL</t>
+  </si>
+  <si>
+    <t>ToNSTNC</t>
+  </si>
+  <si>
+    <t>ToVDSR</t>
+  </si>
+  <si>
+    <t>ToVEFRT</t>
+  </si>
+  <si>
+    <t>ToVMNTL</t>
+  </si>
+  <si>
+    <t>ToVPROB</t>
+  </si>
+  <si>
+    <t>ToVSPCH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by ability adjectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by adjectives of ease</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by factive adjectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by evaluative adjectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by verbs of desire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by verbs of effort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by mental verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by verbs of probability</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by verbs of speech</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, chooses, chosen, choose, choosing, chose, decide, deciding, decided, decides, hate, hates, hating, hated, hesitated, hesitates, hesitate, hesitating, hoped, hope, hopes, hoping, intended, intend, intending, intends, likes, liked, like, liking, loving, loves, love, loved, means, meaning, meant, mean, needs, need, needing, needed, planning, plan, planned, plans, preferred, prefer, preferring, prefers, prepares, prepare, preparing, prepared, refuses, refusing, refuse, refused, wanting, want, wants, wanted, wishes, wished, wish, wishing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allowance, allowing, allowed, allowancing, allow, allowances, allows, allowanced, attempting, attempted, attempts, attempt, enables, enabled, enabling, enable, encourages, encouraging, encouraged, encourage, fails, fail, failing, failed, help, helping, helps, helped, instructs, instructed, instruct, instructing, managing, managed, manage, manages, oblige, obligate, obliged, obligates, obliging, obligating, obliges, obligated, order, ordering, orders, ordered, permitted, permits, permit, permitting, persuaded, persuades, persuade, persuading, prompts, prompting, prompted, prompt, requiring, requisitions, requisitioning, required, requires, requisition, requisitioned, require, sought, seeking, seeks, seek, try, trying, tries, tried</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumed, assumes, assume, assuming, believing, believes, believe, believed, considered, considers, consider, considering, expecting, expects, expected, expect, find, found, finding, finds, forgetting, forget, forgets, forgot, forgotten, imagine, imagined, imagining, imagines, judge, adjudicates, adjudicate, judges, judged, knowing, knows, known, know, knew, learnt, learning, learns, learn, presumes, presuming, presumed, presume, pretend, pretends, pretended, pretending, remembered, remember, remembers, remembering, supposing, suppose, supposes, supposed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appear, appeared, appears, appearing, happens, happened, happen, happening, seemed, seems, seem, seeming, tending, tends, tended, tend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>asks, ask, asking, asked, claiming, claims, claim, claimed, invite, inviting, invited, invites, promising, promised, promise, promises, reminding, remind, reminded, reminds, requesting, request, requests, requested, saying, say, said, says, teaches, teaching, taught, teach, tell, tells, telling, told, urging, urges, urged, urge, warning, warn, warned, warns</t>
+    </r>
+  </si>
+  <si>
+    <t>WhVATT</t>
+  </si>
+  <si>
+    <t>WhVCOM</t>
+  </si>
+  <si>
+    <t>WhVFCT</t>
+  </si>
+  <si>
+    <t>WhVLIK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realised, realizes, realises, realize, realise, realizing, realising, recognizes, recognises, recognize, recognise, recognized, recognised, recognizing, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesised, hypothesise, hypothesises, hypothesising,  hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subordinate clauses preceded by attitudinal verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subordinate clauses preceded by communicative verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subordinate clauses preceded by factive verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subordinate clauses preceded by likelihood verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anxious, (un)able, careful, determined, eager, eligible, hesitant, inclined, obliged, prepared, ready, reluctant, (un)willing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To immediately followed by a verb and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apt, certain, due, guaranteed, liable, likely, prone, unlikely, sure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>difficult, easier, easy, hard, (im)possible, tough</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afraid, ashamed, disappointed, embarrassed, glad, happy, pleased, proud, puzzled, relieved, sorry, surprised, worried</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bad, worse, (in)appropriate, good, better, best, convenient, essential, important, interesting, necessary, nice, reasonable, silly, smart, stupid, surprising, useful, useless, unreasonable, wise, wrong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by stance nouns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, proposal, proposals, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
+    </r>
+  </si>
+  <si>
+    <t>PrepNSTNC</t>
+  </si>
+  <si>
+    <t>Prepositions preceded by stance nouns</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prepositions </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements, assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions, grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts, comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements, agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
+    </r>
+  </si>
+  <si>
+    <t>JJATDother</t>
+  </si>
+  <si>
+    <t>JJCOLR</t>
+  </si>
+  <si>
+    <t>Adjectives related to color</t>
+  </si>
+  <si>
+    <t>JJEPSTother</t>
+  </si>
+  <si>
+    <t>JJEVAL</t>
+  </si>
+  <si>
+    <t>JJREL</t>
+  </si>
+  <si>
+    <t>JJSIZE</t>
+  </si>
+  <si>
+    <t>JJTIME</t>
+  </si>
+  <si>
+    <t>JJTOPIC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>big, deep, heavy, huge, long, large, little, short, small, thin, wide, narrow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Epistemic adjectives without a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clause after</t>
+    </r>
+  </si>
+  <si>
+    <t>Attitudinal adjectives without a that clause after</t>
+  </si>
+  <si>
+    <t>Evaluative adjectives</t>
+  </si>
+  <si>
+    <t>Relational adjectives</t>
+  </si>
+  <si>
+    <t>Size related adjectives</t>
+  </si>
+  <si>
+    <t>Time related adjectives</t>
+  </si>
+  <si>
+    <t>Topical adjectives</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>annual, daily, early, late, new, old, recent, young, weekly, monthly</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>black, white, dark, bright, blue, browm, green, grey, gray, red</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bad, beautiful, best, fine, good, great, lovely, nice, poor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>additional, average, chief, complete, different, direct, entire, external, final, following, general, initial, internal, left, main, maximum, necessary, original, particular, previous, primary, public, similar, single, standard, top, various, same</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chemical, commercial, environmental, human, industrial, legal, medical, mental, official, oral, phonetic, political, sexual, social, ventral, visual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause) tag: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adjective and not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause) tag: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apparent, certain, clear, confident, convinced, correct, evident, false, impossible, inevitable, obvious, positive, right, sure, true, well-known, doubtful, likely, possible, probable, unlikely</t>
+    </r>
+  </si>
+  <si>
+    <t>NNABSPROC</t>
+  </si>
+  <si>
+    <t>NNCOG</t>
+  </si>
+  <si>
+    <t>Nouns cognitive</t>
+  </si>
+  <si>
+    <t>NNCONC</t>
+  </si>
+  <si>
+    <t>Nouns concrete</t>
+  </si>
+  <si>
+    <t>NNGRP</t>
+  </si>
+  <si>
+    <t>Nouns group</t>
+  </si>
+  <si>
+    <t>NNHUMAN</t>
+  </si>
+  <si>
+    <t>Nouns human</t>
+  </si>
+  <si>
+    <t>NNPLACE</t>
+  </si>
+  <si>
+    <t>Nouns place</t>
+  </si>
+  <si>
+    <t>NNQUANT</t>
+  </si>
+  <si>
+    <t>Nouns quantity</t>
+  </si>
+  <si>
+    <t>NNTECH</t>
+  </si>
+  <si>
+    <t>NOMZ</t>
+  </si>
+  <si>
+    <t>NSTNCother</t>
+  </si>
+  <si>
+    <t>Stance nouns without prepositions</t>
+  </si>
+  <si>
+    <t>Nouns abstract and process</t>
+  </si>
+  <si>
+    <t>Nominalizations</t>
+  </si>
+  <si>
+    <t>Nouns technical</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>airline, airlines, institute, institutes, colony, colonies, bank, banks, flight, flights, church, churches, hotel, hotels, firm, firms, hospital, hospitals, household, households, college, colleges, institution, institutions, house, houses, lab, labs, laboratory, laboratories, community, communities, company, companies, government, governments, university, universities, school, schools, home, homes, congress, congresses, committee, committees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action, actions, activity, activities, application, applications, argument, arguments, development, developments, education, educations, effect, effects, function, functions, method, methods, research, researches, result, results, process, processes, accounting, accountings, achievement, achievements, addition, additions, administration, administrations, approach, approaches, arrangement, arrangements, assignment, assignments, competition, competitions, construction, constructions, consumption, consumptions, contribution, contributions, counseling, counselings, criticism, criticisms, definition, definitions, discrimination, discriminations, description, descriptions, discussion, discussions, distribution, distributions, division, divisions, eruption, eruptions, evolution, evolutions, exchange, exchanges, exercise, exercises, experiment, experiments, explanation, explanations, expression, expressions, formation, formations, generation, generations, graduation, graduations, management, managements, marketing, marketings, marriage, marriages, mechanism, mechanisms, meeting, meetings, operation, operations, orientation, orientations, performance, performances, practice, practices, presentation, presentations, procedure, procedures, production, productions, progress, progresses, reaction, reactions, registration, registrations, regulation, regulations, revolution, revolutions, selection, selections, session, sessions, strategy, strategies, teaching, teachings, technique, techniques, tradition, traditions, training, trainings, transition, transitions, treatment, treatments, trial, trials, act, acts, agreement, agreements, attempt, attempts, attendance, attendances, birth, births, break, breaks, claim, claims, comment, comments, comparison, comparisons, conflict, conflicts, deal, deals, death, deaths, debate, debates, demand, demands, answer, answers, control, controls, flow, flows, service, services, work, works, test, tests, use, uses, war, wars, change, changes, question, questions, study, studies, talk, talks, task, tasks, trade, trades, transfer, transfers, admission, admissions, design, designs, detail, details, dimension, dimensions, direction, directions, disorder, disorders, diversity, diversities, economy, economies, emergency, emergencies, emphasis, emphases, employment, employments, equilibrium, equilibriums, equity, equities, error, errors, expense, expenses, facility, facilities, failure, failures, fallacy, fallacies, feature, features, format, formats, freedom, freedoms, fun, funs, gender, genders, goal, goals, grammar, grammars, health, healths, heat, heats, help, helps, identity, identities, image, images, impact, impacts, importance, importances, influence, influences, input, inputs, labor, labors, leadership, leaderships, link, links, manner, manners, math, maths, matrix, matrices, meaning, meanings, music, musics, network, networks, objective, objectives, opportunity, opportunities, option, options, origin, origins, output, outputs, past, pasts, pattern, patterns, phase, phases, philosophy, philosophies, plan, plans, potential, potentials, prerequisite, prerequisites, presence, presences, principle, principles, success, successes, profile, profiles, profit, profits, proposal, proposals, psychology, psychologies, quality, qualities, quiz, quizzes, race, races, reality, realities, religion, religions, resource, resources, respect, respects, rest, rests, return, returns, risk, risks, substance, substances, scene, scenes, security, securities, series, series, set, sets, setting, settings, sex, sexes, shape, shapes, share, shares, show, shows, sign, signs, signal, signals, sort, sorts, sound, sounds, spring, springs, stage, stages, standard, standards, start, starts, stimulus, stimuli, strength, strengths, stress, stresses, style, styles, support, supports, survey, surveys, symbol, symbols, topic, topics, track, tracks, trait, traits, trouble, troubles, truth, truths, variation, variations, variety, varieties, velocity, velocities, version, versions, whole, wholes, action, actions, account, accounts, condition, conditions, culture, cultures, end, ends, factor, factors, grade, grades, interest, interests, issue, issues, job, jobs, kind, kinds, language, languages, law, laws, level, levels, life, lives, model, models, name, names, nature, natures, order, orders, policy, policies, position, positions, power, powers, pressure, pressures, relationship, relationships, requirement, requirements, role, roles, rule, rules, science, sciences, side, sides, situation, situations, skill, skills, source, sources, structure, structures, subject, subjects, type, types, information, informations, right, rights, state, states, system, systems, value, values, way, ways, address, addresses, absence, absences, advantage, advantages, aid, aids, alternative, alternatives, aspect, aspects, authority, authorities, axis, axes, background, backgrounds, balance, balances, base, bases, beginning, beginnings, benefit, benefits, bias, biases, bond, bonds, capital, capitals, care, cares, career, careers, cause, causes, characteristic, characteristics, charge, charges, check, checks, choice, choices, circuit, circuits, circumstance, circumstances, climate, climates, code, codes, color, colors, column, columns, combination, combinations, complex, complexes, connection, connections, constant, constants, constraint, constraints, contact, contacts, content, contents, contract, contracts, context, contexts, contrast, contrasts, crime, crimes, criteria, criterias, cross, crosses, current, currents, curriculum, curriculums, curve, curves, debt, debts, density, densities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>analysis, analyses, decision, decisions, experience, experiences, assessment, assessments, calculation, calculations, conclusion, conclusions, consequence, consequences, consideration, considerations, evaluation, evaluations, examination, examinations, expectation, expectations, observation, observations, recognition, recognitions, relation, relations, understanding, understandings, hypothesis, hypotheses, ability, abilities, assumption, assumptions, attention, attentions, attitude, attitudes, belief, beliefs, concentration, concentrations, concern, concerns, consciousness, consciousnesses, concept, concepts, fact, facts, idea, ideas, knowledge, knowledges, look, looks, need, needs, reason, reasons, sense, senses, view, views, theory, theories, desire, desires, emotion, emotions, feeling, feelings, judgement, judgements, memory, memories, notion, notions, opinion, opinions, perception, perceptions, perspective, perspectives, possibility, possibilities, probability, probabilities, responsibility, responsibilities, thought, thoughts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tank, tanks, stick, sticks, target, targets, strata, stratas, telephone, telephones, string, strings, telescope, telescopes, sugar, sugars, ticket, tickets, syllabus, syllabuses, tip, tips, salt, salts, tissue, tissues, screen, screens, tooth, teeth, sculpture, sculptures, sphere, spheres, seawater, seawaters, spot, spots, ship, ships, steam, steams, silica, silicas, steel, steels, slide, slides, stem, stems, snow, snows, sodium, mud, muds, solid, solids, mushroom, mushrooms, gift, gifts, muscle, muscles, glacier, glaciers, tube, tubes, gun, guns, nail, nails, handbook, handbooks, newspaper, newspapers, handout, handouts, node, nodes, instrument, instruments, notice, notices, knot, knots, novel, novels, lava, lavas, page, pages, food, foods, transcript, transcripts, leg, legs, eye, eyes, lemon, lemons, brain, brains, magazine, magazines, device, devices, magnet, magnets, oak, oaks, manual, manuals, package, packages, marker, markers, peak, peaks, match, matches, pen, pens, metal, metals, pencil, pencils, block, blocks, pie, pies, board, boards, pipe, pipes, heart, hearts, load, loads, paper, papers, transistor, transistors, modem, modems, book, books, mole, moles, case, cases, motor, motors, computer, computers, mound, mounds, dollar, dollars, mouth, mouths, hand, hands, movie, movies, flower, flowers, object, objects, foot, feet, table, tables, frame, frames, water, waters, vessel, vessels, arm, arms, visa, visas, bar, bars, grain, grains, bed, beds, hair, hairs, body, bodies, head, heads, box, boxes, ice, ices, car, cars, item, items, card, cards, journal, journals, chain, chains, key, keys, chair, chairs, window, windows, vehicle, vehicles, leaf, leaves, copy, copies, machine, machines, document, documents, mail, mails, door, doors, map, maps, dot, dots, phone, phones, drug, drugs, picture, pictures, truck, trucks, piece, pieces, tape, tapes, note, notes, liquid, liquids, wire, wires, equipment, equipments, wood, woods, fiber, fibers, plant, plants, fig, figs, resistor, resistors, film, films, sand, sands, file, files, score, scores, seat, seats, belt, belts, sediment, sediments, boat, boats, seed, seeds, bone, bones, soil, soils, bubble, bubbles, bud, buds, water, waters, bulb, bulbs, portrait, portraits, bulletin, bulletins, step, steps, shell, shells, stone, stones, cake, cakes, tree, trees, camera, cameras, video, videos, face, faces, wall, walls, acid, acids, alcohol, alcohols, cap, caps, aluminium, aluminiums, clay, clays, artifact, artifacts, clock, clocks, rain, rains, clothing, clothings, asteroid, asteroids, club, clubs, automobile, automobiles, comet, comets, award, awards, sheet, sheets, bag, bags, branch, branches, ball, balls, copper, coppers, banana, bananas, counter, counters, band, bands, cover, covers, wheel, wheels, crop, crops, drop, drops, crystal, crystals, basin, basins, cylinder, cylinders, bell, bells, desk, desks, dinner, dinners, pole, poles, button, buttons, pot, pots, disk, disks, pottery, potteries, drain, drains, radio, radios, drink, drinks, reactor, reactors, drawing, drawings, retina, retinas, dust, dusts, ridge, ridges, edge, edges, ring, rings, engine, engines, ripple, ripples, plate, plates, game, games, cent, cents, post, posts, envelope, envelopes, rock, rocks, filter, filters, root, roots, finger, fingers, slope, slopes, fish, fish, space, spaces, fruit, fruits, statue, statues, furniture, furnitures, textbook, textbooks, gap, gaps, tool, tools, gate, gates, train, trains, gel, gels, deposit, deposits, chart, charts, mixture, mixtures</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>family, families, guy, guys, individual, individuals, kid, kids, man, men, manager, managers, member, members, parent, parents, teacher, teachers, child, children, people, peoples, person, people, student, students, woman, women, animal, animals, applicant, applicants, author, authors, baby, babies, boy, boys, client, clients, consumer, consumers, critic, critics, customer, customers, doctor, doctors, employee, employees, employer, employers, father, fathers, female, females, friend, friends, girl, girls, god, gods, historian, historians, husband, husbands, American, Americans, Indian, Indians, instructor, instructors, king, kings, leader, leaders, male, males, mother, mothers, owner, owners, president, presidents, professor, professors, researcher, researchers, scholar, scholars, speaker, speakers, species, species, supplier, suppliers, undergraduate, undergraduates, user, users, wife, wives, worker, workers, writer, writers, accountant, accountants, adult, adults, adviser, advisers, agent, agents, aide, aides, ancestor, ancestors, anthropologist, anthropologists, archaeologist, archaeologists, artist, artists, artiste, artistes, assistant, assistants, associate, associates, attorney, attorneys, audience, audiences, auditor, auditors, bachelor, bachelors, bird, birds, boss, bosses, brother, brothers, buddha, buddhas, buyer, buyers, candidate, candidates, cat, cats, citizen, citizens, colleague, colleagues, collector, collectors, competitor, competitors, counselor, counselors, daughter, daughters, deer, deer, defendant, defendants, designer, designers, developer, developers, director, directors, driver, drivers, economist, economists, engineer, engineers, executive, executives, expert, experts, farmer, farmers, feminist, feminists, freshman, freshmen, eologist, eologists, hero, heroes, host, hosts, hunter, hunters, immigrant, immigrants, infant, infants, investor, investors, jew, jews, judge, judges, lady, ladies, lawyer, lawyers, learner, learners, listener, listeners, maker, makers, manufacturer, manufacturers, miller, millers, minister, ministers, mom, moms, monitor, monitors, monkey, monkeys, neighbor, neighbors, observer, observers, officer, officers, official, officials, participant, participants, partner, partners, patient, patients, personnel, personnels, peer, peers, physician, physicians, plaintiff, plaintiffs, player, players, poet, poets, police, polices, processor, processors, professional, professionals, provider, providers, psychologist, psychologists, resident, residents, respondent, respondents, schizophrenic, schizophrenics, scientist, scientists, secretary, secretaries, server, servers, shareholder, shareholders, sikh, sikhs, sister, sisters, slave, slaves, son, sons, spouse, spouses, supervisor, supervisors, theorist, theorists, tourist, tourists, victim, victims, faculty, faculties, dean, deans, engineer, engineers, reader, readers, couple, couples, graduate, graduates, Pakistani(s), Bangladeshi(s), Srilanakn(s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apartment, apartments, interior, interiors, bathroom, bathrooms, moon, moons, bay, bays, museum, museums, bench, benches, neighborhood, neighborhoods, bookstore, bookstores, opposite, opposites, border, borders, orbit, orbits, cave, caves, orbital, orbitals, continent, continents, outside, outsides, delta, deltas, parallel, parallels, desert, deserts, passage, passages, estuary, estuaries, pool, pools, factory, factories, prison, prisons, farm, farms, restaurant, restaurants, forest, forests, sector, sectors, habitat, habitats, shaft, shafts, hell, hells, shop, shops, hemisphere, hemispheres, southwest, hill, hills, station, stations, hole, holes, territory, territories, horizon, horizons, road, roads, bottom, bottoms, store, stores, boundary, boundaries, stream, streams, building, buildings, top, tops, campus, campuses, valley, valleys, canyon, canyons, village, villages, coast, coasts, city, cities, county, counties, country, countries, court, courts, earth, earths, front, fronts, environment, environments, district, districts, field, fields, floor, floors, market, markets, lake, lakes, office, offices, land, lands, organization, organizations, lecture, lectures, place, places, left, lefts, room, rooms, library, libraries, area, areas, location, locations, class, classes, middle, middles, classroom, classrooms, mountain, mountains, ground, grounds, north, norths, hall, halls, ocean, oceans, park, parks, planet, planets, property, properties, region, regions, residence, residences, river, rivers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cycle, cycles, rate, rates, date, dates, second, seconds, frequency, frequencies, section, sections, future, futures, semester, semesters, half, halves, temperature, temperatures, height, heights, today, todays, number, numbers, amount, amounts, week, weeks, age, ages, day, days, century, centuries, part, parts, energy, energies, lot, lots, heat, heats, term, terms, hour, hours, time, times, month, months, mile, miles, period, periods, moment, moments, morning, mornings, volume, volumes, per, weekend, weekends, percentage, percentages, weight, weights, portion, portions, minute, minutes, quantity, quantities, percent, percents, quarter, quarters, length, lengths, ratio, ratios, measure, measures, summer, summers, meter, meters, volt, volts, voltage, voltages</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell, cells, unit, units, gene, genes, wave, waves, ion, ions, bacteria, bacterias, electron, electrons, chromosome, chromosomes, element, elements, cloud, clouds, sample, samples, isotope, isotopes, schedule, schedules, neuron, neurons, software, softwares, nuclei, nucleus, solution, solutions, nucleus, nuclei, atom, atoms, ray, rays, margin, margins, virus, viruses, mark, marks, hydrogen, hydrogens, mineral, minerals, internet, internets, molecule, molecules, mineral, minerals, organism, organisms, message, messages, oxygen, oxygens, paragraph, paragraphs, particle, particles, sentence, sentences, play, plays, star, stars, poem, poems, thesis, theses, proton, protons, unit, units, web, webs, layer, layers, center, centers, matter, matters, chapter, chapters, square, squares, data, circle, circles, equation, equations, compound, compounds, exam, exams, letter, letters, bill, bills, page, pages, component, components, statement, statements, diagram, diagrams, word, words, dna, angle, angles, fire, fires, carbon, carbons, formula, formulas, graph, graphs, iron, irons, lead, leads, jury, juries, light, lights, list, lists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nouns ending at </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tion(s), ment(s), ness, nesses, ity, ities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having a length of greater than 5 characters and not having an additional tag aprt from the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_NN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag.</t>
+    </r>
+  </si>
+  <si>
+    <t>Biber 1988, Nini 2014 adapted by Shakir</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as noun and not followed by prepositions </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements, assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions, grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts, comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements, agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
+    </r>
+  </si>
+  <si>
+    <t>Biber 2006, adapted by Shakir</t>
+  </si>
+  <si>
+    <t>Biber 2006, additions and adapted by Shakir</t>
+  </si>
+  <si>
+    <t>RATT</t>
+  </si>
+  <si>
+    <t>Attitudinal adverbs</t>
+  </si>
+  <si>
+    <t>RFACT</t>
+  </si>
+  <si>
+    <t>Factive adverbs</t>
+  </si>
+  <si>
+    <t>RLIKELY</t>
+  </si>
+  <si>
+    <t>Adverbs of likelihood</t>
+  </si>
+  <si>
+    <t>RNONFACT</t>
+  </si>
+  <si>
+    <t>Non factive adverbs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amazingly, astonishingly, conveniently, curiously, hopefully, fortunately, importantly, ironically, rightly, sadly, surprisingly, unfortunately, even worse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>confidentially, frankly, generally, honestly, mainly, technically, truthfully, typically, reportedly, primarily, usually</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actually, always, certainly, definitely, indeed, inevitably, never, obviously, really, undoubtedly, nodoubt, ofcourse, infact, of course, in fact, without doubt, no doubt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apparently, evidently, perhaps, possibly, predictably, probably, roughly, maybe, in most cases</t>
+    </r>
+  </si>
+  <si>
+    <t>FPPAll</t>
+  </si>
+  <si>
+    <t>MDPOSSCAll</t>
+  </si>
+  <si>
+    <t>MDPREDAll</t>
+  </si>
+  <si>
+    <t>PASSAll</t>
+  </si>
+  <si>
+    <t>RSTNCAll</t>
+  </si>
+  <si>
+    <t>ThJSTNCAll</t>
+  </si>
+  <si>
+    <t>ThNSTNCAll</t>
+  </si>
+  <si>
+    <t>ThSTNCAll</t>
+  </si>
+  <si>
+    <t>ThVSTNCAll</t>
+  </si>
+  <si>
+    <t>ToJSTNCAll</t>
+  </si>
+  <si>
+    <t>ToSTNCAll</t>
+  </si>
+  <si>
+    <t>ToVSTNCAll</t>
+  </si>
+  <si>
+    <t>WhVSTNCAll</t>
+  </si>
+  <si>
+    <t>Adjective semantics</t>
+  </si>
+  <si>
+    <t>Noun semantics</t>
+  </si>
+  <si>
+    <t>Adverb semantics</t>
+  </si>
+  <si>
+    <t>All 1st person pronouns</t>
+  </si>
+  <si>
+    <t>Al modals of possibility</t>
+  </si>
+  <si>
+    <t>All modals of prediction</t>
+  </si>
+  <si>
+    <t>All adverbs related to stance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> passives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses preceded by stance nouns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses preceded by stance adjectives, nouns, and verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses preceded by stance verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infinitive clauses preceded by stance adjectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infinitive clauses preceded by stance verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses preceded by stance verbs</t>
+    </r>
+  </si>
+  <si>
+    <t>Any word tagged with FPP1P, FPP1S</t>
+  </si>
+  <si>
+    <t>Any word tagged as MDCA, MDCO, MDMM</t>
+  </si>
+  <si>
+    <t>Any word tagged as MDWS, MDWO, GTO</t>
+  </si>
+  <si>
+    <t>Any word tagged as PASS, PGET</t>
+  </si>
+  <si>
+    <t>Any word tagged as RATT, RNONFACT, RFACT, RLIKELY</t>
+  </si>
+  <si>
+    <t>All that complement clauses preceded by stance adjectives, nouns, and verbs</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThJATT, ThJFCT, ThJLIK, ThJEVL</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK, ThJATT, ThJFCT, ThJLIK, ThJEVL, ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL, ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL, ToNSTNC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> infinitive clauses preceded by stance adjectives, nouns, and verbs</t>
+    </r>
+  </si>
+  <si>
+    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL</t>
+  </si>
+  <si>
+    <t>Any word tagged as WhVATT, WhVFCT, WhVLIK, WhVCOM</t>
+  </si>
+  <si>
+    <t>Biber 1988, adapted by Shakir</t>
+  </si>
+  <si>
+    <t>VATTother</t>
+  </si>
+  <si>
+    <t>VCOMMother</t>
+  </si>
+  <si>
+    <t>VFCTother</t>
+  </si>
+  <si>
+    <t>VLIKother</t>
+  </si>
+  <si>
+    <t>mental/attitudinal verbs in other contexts</t>
+  </si>
+  <si>
+    <t>communicaton verbs in other contexts</t>
+  </si>
+  <si>
+    <t>factive verbs in other contexts</t>
+  </si>
+  <si>
+    <t>likelihood verbs in other contexts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesising, hypothesised, hypothesise, hypothesises, hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
+    </r>
+  </si>
+  <si>
+    <t>INother</t>
+  </si>
+  <si>
+    <t>JJATother</t>
+  </si>
+  <si>
+    <t>JJPRother</t>
+  </si>
+  <si>
+    <t>NNother</t>
+  </si>
+  <si>
+    <t>RBother</t>
+  </si>
+  <si>
+    <t>THRCother</t>
+  </si>
+  <si>
+    <t>THSCother</t>
+  </si>
+  <si>
+    <t>WHSCother</t>
+  </si>
+  <si>
+    <t>Prepositions having no additional tag</t>
+  </si>
+  <si>
+    <t>Attributive adjectives having no additional tag</t>
+  </si>
+  <si>
+    <t>Predicative adjectives having no additional tag</t>
+  </si>
+  <si>
+    <t>Nouns having no additional tag</t>
+  </si>
+  <si>
+    <t>Adverbs having no additional tag</t>
+  </si>
+  <si>
+    <t>Adverbs</t>
+  </si>
+  <si>
+    <t>Discourse organization</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_JJAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_JJPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_NN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_RB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THRC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clauses not preceded by a stance noun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses not preceded by a stance adjective or verb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses not preceded by a stance verb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <t>Shakir</t>
+  </si>
+  <si>
+    <t>Composite tags</t>
+  </si>
+  <si>
+    <t>Features added in the MFTE python version 1.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doubtful, likely, possible, probable, unlikely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apparent, certain, clear, confident, convinced, correct, evident, false, impossible, inevitable, obvious, positive, right, sure, true, well-known.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realizes, realize, realizing, recognizes, recognize, recognized, recognizing, realised, realises, realise, realising, recognises, recognise, recognised, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subordinate clauses (other than relatives) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preceded by likelihood verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subordinate clauses (other than relatives)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preceded by factive verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subordinate clauses (other than relatives) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>preceded by attitutidinal verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subordinate clauses (other than relatives)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>preceded by communicative verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subordinate clauses (other than relatives)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>preceded by factive verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>subordinate clauses (other than relatives)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>preceded by likelihood verbs</t>
-    </r>
-  </si>
-  <si>
-    <t>ThVATT</t>
-  </si>
-  <si>
-    <t>ThVCOMM</t>
-  </si>
-  <si>
-    <t>ThVFCT</t>
-  </si>
-  <si>
-    <t>ThVLIK</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realised, realizes, realises, realize, realise, realizing, realising, recognizes, recognises, recognize, recognise, recognized, recognised, recognizing, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesised, hypothesise, hypothesises, hypothesising,  hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
-    </r>
-  </si>
-  <si>
-    <t>ToJABL</t>
-  </si>
-  <si>
-    <t>ToJCRTN</t>
-  </si>
-  <si>
-    <t>ToJEASE</t>
-  </si>
-  <si>
-    <t>ToJEFCT</t>
-  </si>
-  <si>
-    <t>ToJEVAL</t>
-  </si>
-  <si>
-    <t>ToNSTNC</t>
-  </si>
-  <si>
-    <t>ToVDSR</t>
-  </si>
-  <si>
-    <t>ToVEFRT</t>
-  </si>
-  <si>
-    <t>ToVMNTL</t>
-  </si>
-  <si>
-    <t>ToVPROB</t>
-  </si>
-  <si>
-    <t>ToVSPCH</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by ability adjectives</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by adjectives of ease</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by factive adjectives</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by evaluative adjectives</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by verbs of desire</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by verbs of effort</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by mental verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by verbs of probability</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by verbs of speech</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agreeing, agreed, agree, agrees, chooses, chosen, choose, choosing, chose, decide, deciding, decided, decides, hate, hates, hating, hated, hesitated, hesitates, hesitate, hesitating, hoped, hope, hopes, hoping, intended, intend, intending, intends, likes, liked, like, liking, loving, loves, love, loved, means, meaning, meant, mean, needs, need, needing, needed, planning, plan, planned, plans, preferred, prefer, preferring, prefers, prepares, prepare, preparing, prepared, refuses, refusing, refuse, refused, wanting, want, wants, wanted, wishes, wished, wish, wishing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>allowance, allowing, allowed, allowancing, allow, allowances, allows, allowanced, attempting, attempted, attempts, attempt, enables, enabled, enabling, enable, encourages, encouraging, encouraged, encourage, fails, fail, failing, failed, help, helping, helps, helped, instructs, instructed, instruct, instructing, managing, managed, manage, manages, oblige, obligate, obliged, obligates, obliging, obligating, obliges, obligated, order, ordering, orders, ordered, permitted, permits, permit, permitting, persuaded, persuades, persuade, persuading, prompts, prompting, prompted, prompt, requiring, requisitions, requisitioning, required, requires, requisition, requisitioned, require, sought, seeking, seeks, seek, try, trying, tries, tried</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assumed, assumes, assume, assuming, believing, believes, believe, believed, considered, considers, consider, considering, expecting, expects, expected, expect, find, found, finding, finds, forgetting, forget, forgets, forgot, forgotten, imagine, imagined, imagining, imagines, judge, adjudicates, adjudicate, judges, judged, knowing, knows, known, know, knew, learnt, learning, learns, learn, presumes, presuming, presumed, presume, pretend, pretends, pretended, pretending, remembered, remember, remembers, remembering, supposing, suppose, supposes, supposed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>appear, appeared, appears, appearing, happens, happened, happen, happening, seemed, seems, seem, seeming, tending, tends, tended, tend</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and split infinitive clauses (cf. SPLIT above for explaination) preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>asks, ask, asking, asked, claiming, claims, claim, claimed, invite, inviting, invited, invites, promising, promised, promise, promises, reminding, remind, reminded, reminds, requesting, request, requests, requested, saying, say, said, says, teaches, teaching, taught, teach, tell, tells, telling, told, urging, urges, urged, urge, warning, warn, warned, warns</t>
-    </r>
-  </si>
-  <si>
-    <t>WhVATT</t>
-  </si>
-  <si>
-    <t>WhVCOM</t>
-  </si>
-  <si>
-    <t>WhVFCT</t>
-  </si>
-  <si>
-    <t>WhVLIK</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realised, realizes, realises, realize, realise, realizing, realising, recognizes, recognises, recognize, recognise, recognized, recognised, recognizing, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WHSC tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesised, hypothesise, hypothesises, hypothesising,  hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> subordinate clauses preceded by attitudinal verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> subordinate clauses preceded by communicative verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> subordinate clauses preceded by factive verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> subordinate clauses preceded by likelihood verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>anxious, (un)able, careful, determined, eager, eligible, hesitant, inclined, obliged, prepared, ready, reluctant, (un)willing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">To immediately followed by a verb and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>apt, certain, due, guaranteed, liable, likely, prone, unlikely, sure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>difficult, easier, easy, hard, (im)possible, tough</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>afraid, ashamed, disappointed, embarrassed, glad, happy, pleased, proud, puzzled, relieved, sorry, surprised, worried</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bad, worse, (in)appropriate, good, better, best, convenient, essential, important, interesting, necessary, nice, reasonable, silly, smart, stupid, surprising, useful, useless, unreasonable, wise, wrong</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clauses preceded by stance nouns</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>To</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> immediately followed by a verb and preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, proposal, proposals, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
-    </r>
-  </si>
-  <si>
-    <t>PrepNSTNC</t>
-  </si>
-  <si>
-    <t>Prepositions preceded by stance nouns</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Prepositions </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements, assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions, grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts, comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements, agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
-    </r>
-  </si>
-  <si>
-    <t>JJATDother</t>
-  </si>
-  <si>
-    <t>JJCOLR</t>
-  </si>
-  <si>
-    <t>Adjectives related to color</t>
-  </si>
-  <si>
-    <t>JJEPSTother</t>
-  </si>
-  <si>
-    <t>JJEVAL</t>
-  </si>
-  <si>
-    <t>JJREL</t>
-  </si>
-  <si>
-    <t>JJSIZE</t>
-  </si>
-  <si>
-    <t>JJTIME</t>
-  </si>
-  <si>
-    <t>JJTOPIC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>big, deep, heavy, huge, long, large, little, short, small, thin, wide, narrow</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Epistemic adjectives without a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clause after</t>
-    </r>
-  </si>
-  <si>
-    <t>Attitudinal adjectives without a that clause after</t>
-  </si>
-  <si>
-    <t>Evaluative adjectives</t>
-  </si>
-  <si>
-    <t>Relational adjectives</t>
-  </si>
-  <si>
-    <t>Size related adjectives</t>
-  </si>
-  <si>
-    <t>Time related adjectives</t>
-  </si>
-  <si>
-    <t>Topical adjectives</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>annual, daily, early, late, new, old, recent, young, weekly, monthly</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>black, white, dark, bright, blue, browm, green, grey, gray, red</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bad, beautiful, best, fine, good, great, lovely, nice, poor</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>additional, average, chief, complete, different, direct, entire, external, final, following, general, initial, internal, left, main, maximum, necessary, original, particular, previous, primary, public, similar, single, standard, top, various, same</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adjective and not having an additional tag apart from the underscore separated _TAG: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chemical, commercial, environmental, human, industrial, legal, medical, mental, official, oral, phonetic, political, sexual, social, ventral, visual</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adjective and not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause) tag: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adjective and not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause) tag: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>apparent, certain, clear, confident, convinced, correct, evident, false, impossible, inevitable, obvious, positive, right, sure, true, well-known, doubtful, likely, possible, probable, unlikely</t>
-    </r>
-  </si>
-  <si>
-    <t>NNABSPROC</t>
-  </si>
-  <si>
-    <t>NNCOG</t>
-  </si>
-  <si>
-    <t>Nouns cognitive</t>
-  </si>
-  <si>
-    <t>NNCONC</t>
-  </si>
-  <si>
-    <t>Nouns concrete</t>
-  </si>
-  <si>
-    <t>NNGRP</t>
-  </si>
-  <si>
-    <t>Nouns group</t>
-  </si>
-  <si>
-    <t>NNHUMAN</t>
-  </si>
-  <si>
-    <t>Nouns human</t>
-  </si>
-  <si>
-    <t>NNPLACE</t>
-  </si>
-  <si>
-    <t>Nouns place</t>
-  </si>
-  <si>
-    <t>NNQUANT</t>
-  </si>
-  <si>
-    <t>Nouns quantity</t>
-  </si>
-  <si>
-    <t>NNTECH</t>
-  </si>
-  <si>
-    <t>NOMZ</t>
-  </si>
-  <si>
-    <t>NSTNCother</t>
-  </si>
-  <si>
-    <t>Stance nouns without prepositions</t>
-  </si>
-  <si>
-    <t>Nouns abstract and process</t>
-  </si>
-  <si>
-    <t>Nominalizations</t>
-  </si>
-  <si>
-    <t>Nouns technical</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>airline, airlines, institute, institutes, colony, colonies, bank, banks, flight, flights, church, churches, hotel, hotels, firm, firms, hospital, hospitals, household, households, college, colleges, institution, institutions, house, houses, lab, labs, laboratory, laboratories, community, communities, company, companies, government, governments, university, universities, school, schools, home, homes, congress, congresses, committee, committees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>action, actions, activity, activities, application, applications, argument, arguments, development, developments, education, educations, effect, effects, function, functions, method, methods, research, researches, result, results, process, processes, accounting, accountings, achievement, achievements, addition, additions, administration, administrations, approach, approaches, arrangement, arrangements, assignment, assignments, competition, competitions, construction, constructions, consumption, consumptions, contribution, contributions, counseling, counselings, criticism, criticisms, definition, definitions, discrimination, discriminations, description, descriptions, discussion, discussions, distribution, distributions, division, divisions, eruption, eruptions, evolution, evolutions, exchange, exchanges, exercise, exercises, experiment, experiments, explanation, explanations, expression, expressions, formation, formations, generation, generations, graduation, graduations, management, managements, marketing, marketings, marriage, marriages, mechanism, mechanisms, meeting, meetings, operation, operations, orientation, orientations, performance, performances, practice, practices, presentation, presentations, procedure, procedures, production, productions, progress, progresses, reaction, reactions, registration, registrations, regulation, regulations, revolution, revolutions, selection, selections, session, sessions, strategy, strategies, teaching, teachings, technique, techniques, tradition, traditions, training, trainings, transition, transitions, treatment, treatments, trial, trials, act, acts, agreement, agreements, attempt, attempts, attendance, attendances, birth, births, break, breaks, claim, claims, comment, comments, comparison, comparisons, conflict, conflicts, deal, deals, death, deaths, debate, debates, demand, demands, answer, answers, control, controls, flow, flows, service, services, work, works, test, tests, use, uses, war, wars, change, changes, question, questions, study, studies, talk, talks, task, tasks, trade, trades, transfer, transfers, admission, admissions, design, designs, detail, details, dimension, dimensions, direction, directions, disorder, disorders, diversity, diversities, economy, economies, emergency, emergencies, emphasis, emphases, employment, employments, equilibrium, equilibriums, equity, equities, error, errors, expense, expenses, facility, facilities, failure, failures, fallacy, fallacies, feature, features, format, formats, freedom, freedoms, fun, funs, gender, genders, goal, goals, grammar, grammars, health, healths, heat, heats, help, helps, identity, identities, image, images, impact, impacts, importance, importances, influence, influences, input, inputs, labor, labors, leadership, leaderships, link, links, manner, manners, math, maths, matrix, matrices, meaning, meanings, music, musics, network, networks, objective, objectives, opportunity, opportunities, option, options, origin, origins, output, outputs, past, pasts, pattern, patterns, phase, phases, philosophy, philosophies, plan, plans, potential, potentials, prerequisite, prerequisites, presence, presences, principle, principles, success, successes, profile, profiles, profit, profits, proposal, proposals, psychology, psychologies, quality, qualities, quiz, quizzes, race, races, reality, realities, religion, religions, resource, resources, respect, respects, rest, rests, return, returns, risk, risks, substance, substances, scene, scenes, security, securities, series, series, set, sets, setting, settings, sex, sexes, shape, shapes, share, shares, show, shows, sign, signs, signal, signals, sort, sorts, sound, sounds, spring, springs, stage, stages, standard, standards, start, starts, stimulus, stimuli, strength, strengths, stress, stresses, style, styles, support, supports, survey, surveys, symbol, symbols, topic, topics, track, tracks, trait, traits, trouble, troubles, truth, truths, variation, variations, variety, varieties, velocity, velocities, version, versions, whole, wholes, action, actions, account, accounts, condition, conditions, culture, cultures, end, ends, factor, factors, grade, grades, interest, interests, issue, issues, job, jobs, kind, kinds, language, languages, law, laws, level, levels, life, lives, model, models, name, names, nature, natures, order, orders, policy, policies, position, positions, power, powers, pressure, pressures, relationship, relationships, requirement, requirements, role, roles, rule, rules, science, sciences, side, sides, situation, situations, skill, skills, source, sources, structure, structures, subject, subjects, type, types, information, informations, right, rights, state, states, system, systems, value, values, way, ways, address, addresses, absence, absences, advantage, advantages, aid, aids, alternative, alternatives, aspect, aspects, authority, authorities, axis, axes, background, backgrounds, balance, balances, base, bases, beginning, beginnings, benefit, benefits, bias, biases, bond, bonds, capital, capitals, care, cares, career, careers, cause, causes, characteristic, characteristics, charge, charges, check, checks, choice, choices, circuit, circuits, circumstance, circumstances, climate, climates, code, codes, color, colors, column, columns, combination, combinations, complex, complexes, connection, connections, constant, constants, constraint, constraints, contact, contacts, content, contents, contract, contracts, context, contexts, contrast, contrasts, crime, crimes, criteria, criterias, cross, crosses, current, currents, curriculum, curriculums, curve, curves, debt, debts, density, densities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>analysis, analyses, decision, decisions, experience, experiences, assessment, assessments, calculation, calculations, conclusion, conclusions, consequence, consequences, consideration, considerations, evaluation, evaluations, examination, examinations, expectation, expectations, observation, observations, recognition, recognitions, relation, relations, understanding, understandings, hypothesis, hypotheses, ability, abilities, assumption, assumptions, attention, attentions, attitude, attitudes, belief, beliefs, concentration, concentrations, concern, concerns, consciousness, consciousnesses, concept, concepts, fact, facts, idea, ideas, knowledge, knowledges, look, looks, need, needs, reason, reasons, sense, senses, view, views, theory, theories, desire, desires, emotion, emotions, feeling, feelings, judgement, judgements, memory, memories, notion, notions, opinion, opinions, perception, perceptions, perspective, perspectives, possibility, possibilities, probability, probabilities, responsibility, responsibilities, thought, thoughts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tank, tanks, stick, sticks, target, targets, strata, stratas, telephone, telephones, string, strings, telescope, telescopes, sugar, sugars, ticket, tickets, syllabus, syllabuses, tip, tips, salt, salts, tissue, tissues, screen, screens, tooth, teeth, sculpture, sculptures, sphere, spheres, seawater, seawaters, spot, spots, ship, ships, steam, steams, silica, silicas, steel, steels, slide, slides, stem, stems, snow, snows, sodium, mud, muds, solid, solids, mushroom, mushrooms, gift, gifts, muscle, muscles, glacier, glaciers, tube, tubes, gun, guns, nail, nails, handbook, handbooks, newspaper, newspapers, handout, handouts, node, nodes, instrument, instruments, notice, notices, knot, knots, novel, novels, lava, lavas, page, pages, food, foods, transcript, transcripts, leg, legs, eye, eyes, lemon, lemons, brain, brains, magazine, magazines, device, devices, magnet, magnets, oak, oaks, manual, manuals, package, packages, marker, markers, peak, peaks, match, matches, pen, pens, metal, metals, pencil, pencils, block, blocks, pie, pies, board, boards, pipe, pipes, heart, hearts, load, loads, paper, papers, transistor, transistors, modem, modems, book, books, mole, moles, case, cases, motor, motors, computer, computers, mound, mounds, dollar, dollars, mouth, mouths, hand, hands, movie, movies, flower, flowers, object, objects, foot, feet, table, tables, frame, frames, water, waters, vessel, vessels, arm, arms, visa, visas, bar, bars, grain, grains, bed, beds, hair, hairs, body, bodies, head, heads, box, boxes, ice, ices, car, cars, item, items, card, cards, journal, journals, chain, chains, key, keys, chair, chairs, window, windows, vehicle, vehicles, leaf, leaves, copy, copies, machine, machines, document, documents, mail, mails, door, doors, map, maps, dot, dots, phone, phones, drug, drugs, picture, pictures, truck, trucks, piece, pieces, tape, tapes, note, notes, liquid, liquids, wire, wires, equipment, equipments, wood, woods, fiber, fibers, plant, plants, fig, figs, resistor, resistors, film, films, sand, sands, file, files, score, scores, seat, seats, belt, belts, sediment, sediments, boat, boats, seed, seeds, bone, bones, soil, soils, bubble, bubbles, bud, buds, water, waters, bulb, bulbs, portrait, portraits, bulletin, bulletins, step, steps, shell, shells, stone, stones, cake, cakes, tree, trees, camera, cameras, video, videos, face, faces, wall, walls, acid, acids, alcohol, alcohols, cap, caps, aluminium, aluminiums, clay, clays, artifact, artifacts, clock, clocks, rain, rains, clothing, clothings, asteroid, asteroids, club, clubs, automobile, automobiles, comet, comets, award, awards, sheet, sheets, bag, bags, branch, branches, ball, balls, copper, coppers, banana, bananas, counter, counters, band, bands, cover, covers, wheel, wheels, crop, crops, drop, drops, crystal, crystals, basin, basins, cylinder, cylinders, bell, bells, desk, desks, dinner, dinners, pole, poles, button, buttons, pot, pots, disk, disks, pottery, potteries, drain, drains, radio, radios, drink, drinks, reactor, reactors, drawing, drawings, retina, retinas, dust, dusts, ridge, ridges, edge, edges, ring, rings, engine, engines, ripple, ripples, plate, plates, game, games, cent, cents, post, posts, envelope, envelopes, rock, rocks, filter, filters, root, roots, finger, fingers, slope, slopes, fish, fish, space, spaces, fruit, fruits, statue, statues, furniture, furnitures, textbook, textbooks, gap, gaps, tool, tools, gate, gates, train, trains, gel, gels, deposit, deposits, chart, charts, mixture, mixtures</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>family, families, guy, guys, individual, individuals, kid, kids, man, men, manager, managers, member, members, parent, parents, teacher, teachers, child, children, people, peoples, person, people, student, students, woman, women, animal, animals, applicant, applicants, author, authors, baby, babies, boy, boys, client, clients, consumer, consumers, critic, critics, customer, customers, doctor, doctors, employee, employees, employer, employers, father, fathers, female, females, friend, friends, girl, girls, god, gods, historian, historians, husband, husbands, American, Americans, Indian, Indians, instructor, instructors, king, kings, leader, leaders, male, males, mother, mothers, owner, owners, president, presidents, professor, professors, researcher, researchers, scholar, scholars, speaker, speakers, species, species, supplier, suppliers, undergraduate, undergraduates, user, users, wife, wives, worker, workers, writer, writers, accountant, accountants, adult, adults, adviser, advisers, agent, agents, aide, aides, ancestor, ancestors, anthropologist, anthropologists, archaeologist, archaeologists, artist, artists, artiste, artistes, assistant, assistants, associate, associates, attorney, attorneys, audience, audiences, auditor, auditors, bachelor, bachelors, bird, birds, boss, bosses, brother, brothers, buddha, buddhas, buyer, buyers, candidate, candidates, cat, cats, citizen, citizens, colleague, colleagues, collector, collectors, competitor, competitors, counselor, counselors, daughter, daughters, deer, deer, defendant, defendants, designer, designers, developer, developers, director, directors, driver, drivers, economist, economists, engineer, engineers, executive, executives, expert, experts, farmer, farmers, feminist, feminists, freshman, freshmen, eologist, eologists, hero, heroes, host, hosts, hunter, hunters, immigrant, immigrants, infant, infants, investor, investors, jew, jews, judge, judges, lady, ladies, lawyer, lawyers, learner, learners, listener, listeners, maker, makers, manufacturer, manufacturers, miller, millers, minister, ministers, mom, moms, monitor, monitors, monkey, monkeys, neighbor, neighbors, observer, observers, officer, officers, official, officials, participant, participants, partner, partners, patient, patients, personnel, personnels, peer, peers, physician, physicians, plaintiff, plaintiffs, player, players, poet, poets, police, polices, processor, processors, professional, professionals, provider, providers, psychologist, psychologists, resident, residents, respondent, respondents, schizophrenic, schizophrenics, scientist, scientists, secretary, secretaries, server, servers, shareholder, shareholders, sikh, sikhs, sister, sisters, slave, slaves, son, sons, spouse, spouses, supervisor, supervisors, theorist, theorists, tourist, tourists, victim, victims, faculty, faculties, dean, deans, engineer, engineers, reader, readers, couple, couples, graduate, graduates, Pakistani(s), Bangladeshi(s), Srilanakn(s)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>apartment, apartments, interior, interiors, bathroom, bathrooms, moon, moons, bay, bays, museum, museums, bench, benches, neighborhood, neighborhoods, bookstore, bookstores, opposite, opposites, border, borders, orbit, orbits, cave, caves, orbital, orbitals, continent, continents, outside, outsides, delta, deltas, parallel, parallels, desert, deserts, passage, passages, estuary, estuaries, pool, pools, factory, factories, prison, prisons, farm, farms, restaurant, restaurants, forest, forests, sector, sectors, habitat, habitats, shaft, shafts, hell, hells, shop, shops, hemisphere, hemispheres, southwest, hill, hills, station, stations, hole, holes, territory, territories, horizon, horizons, road, roads, bottom, bottoms, store, stores, boundary, boundaries, stream, streams, building, buildings, top, tops, campus, campuses, valley, valleys, canyon, canyons, village, villages, coast, coasts, city, cities, county, counties, country, countries, court, courts, earth, earths, front, fronts, environment, environments, district, districts, field, fields, floor, floors, market, markets, lake, lakes, office, offices, land, lands, organization, organizations, lecture, lectures, place, places, left, lefts, room, rooms, library, libraries, area, areas, location, locations, class, classes, middle, middles, classroom, classrooms, mountain, mountains, ground, grounds, north, norths, hall, halls, ocean, oceans, park, parks, planet, planets, property, properties, region, regions, residence, residences, river, rivers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cycle, cycles, rate, rates, date, dates, second, seconds, frequency, frequencies, section, sections, future, futures, semester, semesters, half, halves, temperature, temperatures, height, heights, today, todays, number, numbers, amount, amounts, week, weeks, age, ages, day, days, century, centuries, part, parts, energy, energies, lot, lots, heat, heats, term, terms, hour, hours, time, times, month, months, mile, miles, period, periods, moment, moments, morning, mornings, volume, volumes, per, weekend, weekends, percentage, percentages, weight, weights, portion, portions, minute, minutes, quantity, quantities, percent, percents, quarter, quarters, length, lengths, ratio, ratios, measure, measures, summer, summers, meter, meters, volt, volts, voltage, voltages</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cell, cells, unit, units, gene, genes, wave, waves, ion, ions, bacteria, bacterias, electron, electrons, chromosome, chromosomes, element, elements, cloud, clouds, sample, samples, isotope, isotopes, schedule, schedules, neuron, neurons, software, softwares, nuclei, nucleus, solution, solutions, nucleus, nuclei, atom, atoms, ray, rays, margin, margins, virus, viruses, mark, marks, hydrogen, hydrogens, mineral, minerals, internet, internets, molecule, molecules, mineral, minerals, organism, organisms, message, messages, oxygen, oxygens, paragraph, paragraphs, particle, particles, sentence, sentences, play, plays, star, stars, poem, poems, thesis, theses, proton, protons, unit, units, web, webs, layer, layers, center, centers, matter, matters, chapter, chapters, square, squares, data, circle, circles, equation, equations, compound, compounds, exam, exams, letter, letters, bill, bills, page, pages, component, components, statement, statements, diagram, diagrams, word, words, dna, angle, angles, fire, fires, carbon, carbons, formula, formulas, graph, graphs, iron, irons, lead, leads, jury, juries, light, lights, list, lists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nouns ending at </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tion(s), ment(s), ness, nesses, ity, ities</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having a length of greater than 5 characters and not having an additional tag aprt from the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_NN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag.</t>
-    </r>
-  </si>
-  <si>
-    <t>Biber 1988, Nini 2014 adapted by Shakir</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as noun and not followed by prepositions </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements, assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions, grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts, comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements, agreement, agreements, decision, decisions, desire, desires, failure, failures, inclination, inclinations, intention, intentions, obligation, obligations, opportunity, opportunities, plan, plans, promise, promises, reluctance, reluctances, responsibility, responsibilities, right, rights, tendency, tendencies, threat, threats, wish, wishes, willingness, willingnesses</t>
-    </r>
-  </si>
-  <si>
-    <t>Biber 2006, adapted by Shakir</t>
-  </si>
-  <si>
-    <t>Biber 2006, additions and adapted by Shakir</t>
-  </si>
-  <si>
-    <t>RATT</t>
-  </si>
-  <si>
-    <t>Attitudinal adverbs</t>
-  </si>
-  <si>
-    <t>RFACT</t>
-  </si>
-  <si>
-    <t>Factive adverbs</t>
-  </si>
-  <si>
-    <t>RLIKELY</t>
-  </si>
-  <si>
-    <t>Adverbs of likelihood</t>
-  </si>
-  <si>
-    <t>RNONFACT</t>
-  </si>
-  <si>
-    <t>Non factive adverbs</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amazingly, astonishingly, conveniently, curiously, hopefully, fortunately, importantly, ironically, rightly, sadly, surprisingly, unfortunately, even worse</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>confidentially, frankly, generally, honestly, mainly, technically, truthfully, typically, reportedly, primarily, usually</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>actually, always, certainly, definitely, indeed, inevitably, never, obviously, really, undoubtedly, nodoubt, ofcourse, infact, of course, in fact, without doubt, no doubt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any of the following words tagged as adverb and not having an additional tag apart from the underscore separated </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>apparently, evidently, perhaps, possibly, predictably, probably, roughly, maybe, in most cases</t>
-    </r>
-  </si>
-  <si>
-    <t>FPPAll</t>
-  </si>
-  <si>
-    <t>MDPOSSCAll</t>
-  </si>
-  <si>
-    <t>MDPREDAll</t>
-  </si>
-  <si>
-    <t>PASSAll</t>
-  </si>
-  <si>
-    <t>RSTNCAll</t>
-  </si>
-  <si>
-    <t>ThJSTNCAll</t>
-  </si>
-  <si>
-    <t>ThNSTNCAll</t>
-  </si>
-  <si>
-    <t>ThSTNCAll</t>
-  </si>
-  <si>
-    <t>ThVSTNCAll</t>
-  </si>
-  <si>
-    <t>ToJSTNCAll</t>
-  </si>
-  <si>
-    <t>ToSTNCAll</t>
-  </si>
-  <si>
-    <t>ToVSTNCAll</t>
-  </si>
-  <si>
-    <t>WhVSTNCAll</t>
-  </si>
-  <si>
-    <t>Adjective semantics</t>
-  </si>
-  <si>
-    <t>Noun semantics</t>
-  </si>
-  <si>
-    <t>Adverb semantics</t>
-  </si>
-  <si>
-    <t>All 1st person pronouns</t>
-  </si>
-  <si>
-    <t>Al modals of possibility</t>
-  </si>
-  <si>
-    <t>All modals of prediction</t>
-  </si>
-  <si>
-    <t>All adverbs related to stance</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> passives</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses preceded by stance nouns</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses preceded by stance adjectives, nouns, and verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses preceded by stance verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> infinitive clauses preceded by stance adjectives</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> infinitive clauses preceded by stance verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses preceded by stance verbs</t>
-    </r>
-  </si>
-  <si>
-    <t>Any word tagged with FPP1P, FPP1S</t>
-  </si>
-  <si>
-    <t>Any word tagged as MDCA, MDCO, MDMM</t>
-  </si>
-  <si>
-    <t>Any word tagged as MDWS, MDWO, GTO</t>
-  </si>
-  <si>
-    <t>Any word tagged as PASS, PGET</t>
-  </si>
-  <si>
-    <t>Any word tagged as RATT, RNONFACT, RFACT, RLIKELY</t>
-  </si>
-  <si>
-    <t>All that complement clauses preceded by stance adjectives, nouns, and verbs</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThJATT, ThJFCT, ThJLIK, ThJEVL</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK, ThJATT, ThJFCT, ThJLIK, ThJEVL, ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK</t>
-  </si>
-  <si>
-    <t>Any word tagged as ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL</t>
-  </si>
-  <si>
-    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL, ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL, ToNSTNC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> infinitive clauses preceded by stance adjectives, nouns, and verbs</t>
-    </r>
-  </si>
-  <si>
-    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL</t>
-  </si>
-  <si>
-    <t>Any word tagged as WhVATT, WhVFCT, WhVLIK, WhVCOM</t>
-  </si>
-  <si>
-    <t>Biber 1988, adapted by Shakir</t>
-  </si>
-  <si>
-    <t>VATTother</t>
-  </si>
-  <si>
-    <t>VCOMMother</t>
-  </si>
-  <si>
-    <t>VFCTother</t>
-  </si>
-  <si>
-    <t>VLIKother</t>
-  </si>
-  <si>
-    <t>mental/attitudinal verbs in other contexts</t>
-  </si>
-  <si>
-    <t>communicaton verbs in other contexts</t>
-  </si>
-  <si>
-    <t>factive verbs in other contexts</t>
-  </si>
-  <si>
-    <t>likelihood verbs in other contexts</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assumes, assumed, assuming, assume, believe, believing, believes, believed, doubting, doubted, doubts, doubt, gathers, gathering, gathered, gather, guessed, guess, guessing, guesses, hypothesising, hypothesised, hypothesise, hypothesises, hypothesizing, hypothesized, hypothesize, hypothesizes, imagine, imagining, imagines, imagined, predict, predicted, predicting, predicts, presupposing, presupposes, presuppose, presupposed, presumes, presuming, presumed, presume, reckon, reckoning, reckoned, reckons, seemed, seems, seem, seeming, speculated, speculate, speculating, speculates, suppose, supposes, supposing, supposed, suspected, suspect, suspects, suspecting, think, thinks, thinking, thought</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>say, says, saying, said, tell, tells, telling, told, call, calls, calling, called, ask, asks, asking, asked, write, writes, writing, wrote, written, talk, talks, talking, talked, speak, speaks, spoke, spoken, speaking, thank, thanks, thanking, thanked, describe, describing, describes, described, claim, claims, claiming, claimed, offer, offers, offering, offered, admit, admits, admitting, admitted, announce, announces, announcing, announced, answer, answers, answering, answered, argue, argues, arguing, argued, deny, denies, denying, denied, discuss, discusses, discussing, discussed, encourage, encourages, encouraging, encouraged, explain, explains, explaining, explained, express, expresses, expressing, expressed, insist, insists, insisting, insisted, mention, mentions, mentioning, mentioned, offer, offers, offering, offered, propose, proposes, proposing, proposed, quote, quotes, quoting, quoted, reply, replies, replying, replied, shout, shouts, shouting, shouted, sign, signs, signing, signed, sing, sings, singing, sang, sung, state, states, stating, stated, teach, teaches, teaching, taught, warn, warns, warning, warned, accuse, accuses, accusing, accused, acknowledge, acknowledges, acknowledging, acknowledged, address, addresses, addressing, addressed, advise, advises, advising, advised, appeal, appeals, appealing, appealed, assure, assures, assuring, assured, challenge, challenges, challenging, challenged, complain, complains, complaining, complained, consult, consults, consulting, consulted, convince, convinces, convincing, convinced, declare, declares, declaring, declared, demand, demands, demanding, demanded, emphasize, emphasizes, emphasizing, emphasized, emphasise, emphasises, emphasising, emphasised, excuse, excuses, excusing, excused, inform, informs, informing, informed, invite, invites, inviting, invited, persuade, persuades, persuading, persuaded, phone, phones, phoning, phoned, pray, prays, praying, prayed, promise, promises, promising, promised, question, questions, questioning, questioned, recommend, recommends, recommending, recommended, remark, remarks, remarking, remarked, respond, responds, responding, responded, specify, specifies, specifying, specified, swear, swears, swearing, swore, sworn, threaten, threatens, threatening, threatened, urge, urges, urging, urged, welcome, welcomes, welcoming, welcomed, whisper, whispers, whispering, whispered, suggest, suggests, suggesting, suggested, plead, pleads, pleaded, pleading, agree, agrees, agreed, agreeing, assert, asserts, asserting, asserted, beg, begs, begging, begged, confide, confides, confiding, confided, command, commands, commanding, commanded, disagree, disagreeing, disagrees, disagreed, object, objects, objected, objects, pledge, pledges, pledging, pledged, report, reports, reported, reporting, testify, testifies, testified, testifying, vow, vows, vowing, vowed, mean, means, meaning, meant</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
-    </r>
-  </si>
-  <si>
-    <t>INother</t>
-  </si>
-  <si>
-    <t>JJATother</t>
-  </si>
-  <si>
-    <t>JJPRother</t>
-  </si>
-  <si>
-    <t>NNother</t>
-  </si>
-  <si>
-    <t>RBother</t>
-  </si>
-  <si>
-    <t>THRCother</t>
-  </si>
-  <si>
-    <t>THSCother</t>
-  </si>
-  <si>
-    <t>WHSCother</t>
-  </si>
-  <si>
-    <t>Prepositions having no additional tag</t>
-  </si>
-  <si>
-    <t>Attributive adjectives having no additional tag</t>
-  </si>
-  <si>
-    <t>Predicative adjectives having no additional tag</t>
-  </si>
-  <si>
-    <t>Nouns having no additional tag</t>
-  </si>
-  <si>
-    <t>Adverbs having no additional tag</t>
-  </si>
-  <si>
-    <t>Adverbs</t>
-  </si>
-  <si>
-    <t>Discourse organization</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_IN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_JJAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_JJPR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_NN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_RB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THRC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clauses not preceded by a stance noun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses not preceded by a stance adjective or verb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses not preceded by a stance verb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <t>Shakir</t>
-  </si>
-  <si>
-    <t>Composite tags</t>
-  </si>
-  <si>
-    <t>Features added in the MFTE python version 1.0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doubtful, likely, possible, probable, unlikely</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>apparent, certain, clear, confident, convinced, correct, evident, false, impossible, inevitable, obvious, positive, right, sure, true, well-known.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realizes, realize, realizing, recognizes, recognize, recognized, recognizing, realised, realises, realise, realising, recognises, recognise, recognised, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
 </sst>
@@ -19658,30 +19658,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="70.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.6640625" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.1640625" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.6640625" style="7"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.625" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.125" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.625" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1" ht="30">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="25.5">
       <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
@@ -19715,7 +19715,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A3" s="12" t="s">
         <v>293</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="45">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="38.25">
       <c r="A4" s="12" t="s">
         <v>293</v>
       </c>
@@ -19761,7 +19761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
         <v>293</v>
       </c>
@@ -19784,7 +19784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="45">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="51">
       <c r="A6" s="12" t="s">
         <v>293</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="120">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="114.75">
       <c r="A7" s="12" t="s">
         <v>293</v>
       </c>
@@ -19841,7 +19841,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A9" s="18" t="s">
         <v>225</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A10" s="18" t="s">
         <v>225</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A11" s="18" t="s">
         <v>223</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A12" s="22" t="s">
         <v>223</v>
       </c>
@@ -19933,7 +19933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A13" s="22" t="s">
         <v>223</v>
       </c>
@@ -19956,7 +19956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A14" s="22" t="s">
         <v>223</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A15" s="18" t="s">
         <v>222</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A16" s="18" t="s">
         <v>222</v>
       </c>
@@ -20048,7 +20048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.25" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.349999999999994" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>222</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A19" s="21" t="s">
         <v>222</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A20" s="18" t="s">
         <v>226</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A21" s="18" t="s">
         <v>226</v>
       </c>
@@ -20140,7 +20140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A22" s="18" t="s">
         <v>226</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A23" s="18" t="s">
         <v>226</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A24" s="18" t="s">
         <v>226</v>
       </c>
@@ -20209,7 +20209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A25" s="18" t="s">
         <v>226</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A26" s="18" t="s">
         <v>226</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A27" s="18" t="s">
         <v>226</v>
       </c>
@@ -20278,7 +20278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A28" s="18" t="s">
         <v>226</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A29" s="18" t="s">
         <v>226</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A30" s="18" t="s">
         <v>226</v>
       </c>
@@ -20347,7 +20347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A31" s="18" t="s">
         <v>226</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A32" s="18" t="s">
         <v>226</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A33" s="18" t="s">
         <v>226</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A34" s="18" t="s">
         <v>226</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A35" s="18" t="s">
         <v>226</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A36" s="18" t="s">
         <v>34</v>
       </c>
@@ -20485,7 +20485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A37" s="18" t="s">
         <v>34</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A38" s="18" t="s">
         <v>34</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A39" s="18" t="s">
         <v>34</v>
       </c>
@@ -20554,7 +20554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A40" s="18" t="s">
         <v>34</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A41" s="18" t="s">
         <v>73</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A42" s="18" t="s">
         <v>119</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A45" s="18" t="s">
         <v>60</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A47" s="18" t="s">
         <v>60</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A48" s="18" t="s">
         <v>60</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A49" s="18" t="s">
         <v>60</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A50" s="18" t="s">
         <v>60</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A51" s="18" t="s">
         <v>229</v>
       </c>
@@ -20830,7 +20830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A52" s="18" t="s">
         <v>229</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A53" s="18" t="s">
         <v>229</v>
       </c>
@@ -20876,7 +20876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A54" s="18" t="s">
         <v>229</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A55" s="18" t="s">
         <v>229</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A56" s="18" t="s">
         <v>224</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A57" s="18" t="s">
         <v>224</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A58" s="18" t="s">
         <v>67</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A60" s="18" t="s">
         <v>230</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A61" s="18" t="s">
         <v>230</v>
       </c>
@@ -21060,7 +21060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="120">
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A62" s="18" t="s">
         <v>230</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A63" s="18" t="s">
         <v>230</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A64" s="18" t="s">
         <v>230</v>
       </c>
@@ -21129,7 +21129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A65" s="18" t="s">
         <v>230</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A66" s="18" t="s">
         <v>230</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A67" s="18" t="s">
         <v>230</v>
       </c>
@@ -21198,7 +21198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A68" s="18" t="s">
         <v>230</v>
       </c>
@@ -21221,7 +21221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A69" s="18" t="s">
         <v>230</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" ht="120">
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A70" s="18" t="s">
         <v>230</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A71" s="18" t="s">
         <v>230</v>
       </c>
@@ -21290,7 +21290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A72" s="18" t="s">
         <v>230</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A73" s="18" t="s">
         <v>93</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A74" s="18" t="s">
         <v>93</v>
       </c>
@@ -21359,7 +21359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A75" s="18" t="s">
         <v>93</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A76" s="18" t="s">
         <v>93</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="150">
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A77" s="18" t="s">
         <v>93</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A78" s="18" t="s">
         <v>93</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="180">
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A79" s="18" t="s">
         <v>93</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A80" s="18" t="s">
         <v>93</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="7" customFormat="1" ht="75">
+    <row r="81" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A81" s="18" t="s">
         <v>93</v>
       </c>
@@ -21520,7 +21520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="82" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A82" s="18" t="s">
         <v>93</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="7" customFormat="1" ht="60">
+    <row r="83" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A83" s="18" t="s">
         <v>93</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="84" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A84" s="18" t="s">
         <v>93</v>
       </c>
@@ -21589,7 +21589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="85" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A85" s="18" t="s">
         <v>93</v>
       </c>
@@ -21612,7 +21612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="7" customFormat="1" ht="60">
+    <row r="86" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A86" s="18" t="s">
         <v>93</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="7" customFormat="1" ht="45">
+    <row r="87" spans="1:1022" s="7" customFormat="1" ht="38.25">
       <c r="A87" s="18" t="s">
         <v>93</v>
       </c>
@@ -21669,7 +21669,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:1022" s="8" customFormat="1" ht="60">
+    <row r="89" spans="1:1022" s="8" customFormat="1" ht="51">
       <c r="A89" s="12" t="s">
         <v>34</v>
       </c>
@@ -22707,7 +22707,7 @@
       <c r="AMG89" s="5"/>
       <c r="AMH89" s="5"/>
     </row>
-    <row r="90" spans="1:1022" s="8" customFormat="1" ht="45">
+    <row r="90" spans="1:1022" s="8" customFormat="1" ht="51">
       <c r="A90" s="12" t="s">
         <v>34</v>
       </c>
@@ -23745,7 +23745,7 @@
       <c r="AMG90" s="5"/>
       <c r="AMH90" s="5"/>
     </row>
-    <row r="91" spans="1:1022" s="8" customFormat="1" ht="75">
+    <row r="91" spans="1:1022" s="8" customFormat="1" ht="63.75">
       <c r="A91" s="12" t="s">
         <v>230</v>
       </c>
@@ -23768,7 +23768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="7" customFormat="1" ht="75">
+    <row r="92" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A92" s="12" t="s">
         <v>230</v>
       </c>
@@ -23791,7 +23791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="8" customFormat="1" ht="105">
+    <row r="93" spans="1:1022" s="8" customFormat="1" ht="89.25">
       <c r="A93" s="12" t="s">
         <v>93</v>
       </c>
@@ -23814,7 +23814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="8" customFormat="1" ht="90">
+    <row r="94" spans="1:1022" s="8" customFormat="1" ht="76.5">
       <c r="A94" s="12" t="s">
         <v>93</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="8" customFormat="1" ht="75">
+    <row r="95" spans="1:1022" s="8" customFormat="1" ht="63.75">
       <c r="A95" s="12" t="s">
         <v>93</v>
       </c>
@@ -23860,7 +23860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.25" customHeight="1">
+    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.35" customHeight="1">
       <c r="A96" s="15"/>
       <c r="B96" s="30"/>
       <c r="C96" s="16"/>
@@ -23871,7 +23871,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A97" s="12" t="s">
         <v>93</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" ht="45">
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="38.25">
       <c r="A98" s="12" t="s">
         <v>230</v>
       </c>
@@ -23917,7 +23917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A99" s="12" t="s">
         <v>226</v>
       </c>
@@ -23940,18 +23940,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.25" customHeight="1">
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.35" customHeight="1">
       <c r="A100" s="41"/>
       <c r="B100" s="42"/>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="45" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="1:7" ht="120">
+    <row r="101" spans="1:7" ht="102">
       <c r="A101" s="18" t="s">
         <v>67</v>
       </c>
@@ -23969,10 +23969,10 @@
         <v>32</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="120">
+    <row r="102" spans="1:7" ht="102">
       <c r="A102" s="18" t="s">
         <v>67</v>
       </c>
@@ -23984,16 +23984,16 @@
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="18" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="120">
+    <row r="103" spans="1:7" ht="102">
       <c r="A103" s="18" t="s">
         <v>67</v>
       </c>
@@ -24004,16 +24004,16 @@
         <v>406</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="120">
+    <row r="104" spans="1:7" ht="102">
       <c r="A104" s="18" t="s">
         <v>67</v>
       </c>
@@ -24024,16 +24024,16 @@
         <v>407</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="120">
+    <row r="105" spans="1:7" ht="102">
       <c r="A105" s="18" t="s">
         <v>67</v>
       </c>
@@ -24044,16 +24044,16 @@
         <v>411</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="105">
+    <row r="106" spans="1:7" ht="102">
       <c r="A106" s="18" t="s">
         <v>67</v>
       </c>
@@ -24064,16 +24064,16 @@
         <v>412</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="120">
+    <row r="107" spans="1:7" ht="102">
       <c r="A107" s="18" t="s">
         <v>67</v>
       </c>
@@ -24084,16 +24084,16 @@
         <v>413</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="120">
+    <row r="108" spans="1:7" ht="102">
       <c r="A108" s="18" t="s">
         <v>67</v>
       </c>
@@ -24104,1380 +24104,1380 @@
         <v>414</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="120">
+    <row r="109" spans="1:7" ht="102">
       <c r="A109" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>423</v>
+        <v>641</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="409.6">
+    <row r="110" spans="1:7" ht="382.5">
       <c r="A110" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C110" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="E110" s="18" t="s">
         <v>428</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>431</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="135">
+    <row r="111" spans="1:7" ht="127.5">
       <c r="A111" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>425</v>
+        <v>640</v>
       </c>
       <c r="C111" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="E111" s="18" t="s">
         <v>429</v>
-      </c>
-      <c r="E111" s="18" t="s">
-        <v>432</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="120">
+    <row r="112" spans="1:7" ht="114.75">
       <c r="A112" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>426</v>
+        <v>639</v>
       </c>
       <c r="C112" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" s="18" t="s">
         <v>430</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>433</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="120">
+    <row r="113" spans="1:7" ht="102">
       <c r="A113" s="18"/>
       <c r="B113" s="40" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="409.6">
+    <row r="114" spans="1:7" ht="395.25">
       <c r="A114" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="150">
+    <row r="115" spans="1:7" ht="127.5">
       <c r="A115" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="135">
+    <row r="116" spans="1:7" ht="127.5">
       <c r="A116" s="18" t="s">
         <v>93</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="75">
+    <row r="117" spans="1:7" ht="51.75">
       <c r="A117" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="75">
+    <row r="118" spans="1:7" ht="51.75">
       <c r="A118" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="75">
+    <row r="119" spans="1:7" ht="51.75">
       <c r="A119" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="75">
+    <row r="120" spans="1:7" ht="51.75">
       <c r="A120" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="75">
+    <row r="121" spans="1:7" ht="51.75">
       <c r="A121" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="105">
+    <row r="122" spans="1:7" ht="90">
       <c r="A122" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="135">
+    <row r="123" spans="1:7" ht="115.5">
       <c r="A123" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="105">
+    <row r="124" spans="1:7" ht="90">
       <c r="A124" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="75">
+    <row r="125" spans="1:7" ht="51.75">
       <c r="A125" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="75">
+    <row r="126" spans="1:7" ht="64.5">
       <c r="A126" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="105">
+    <row r="127" spans="1:7" ht="90">
       <c r="A127" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="409.6">
+    <row r="128" spans="1:7" ht="383.25">
       <c r="A128" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="135">
+    <row r="129" spans="1:7" ht="115.5">
       <c r="A129" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="120">
+    <row r="130" spans="1:7" ht="102.75">
       <c r="A130" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="75">
+    <row r="131" spans="1:7" ht="64.5">
       <c r="A131" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="180">
+    <row r="132" spans="1:7" ht="166.5">
       <c r="A132" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="75">
+    <row r="133" spans="1:7" ht="64.5">
       <c r="A133" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="75">
+    <row r="134" spans="1:7" ht="51">
       <c r="A134" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="75">
+    <row r="135" spans="1:7" ht="64.5">
       <c r="A135" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="75">
+    <row r="136" spans="1:7" ht="51">
       <c r="A136" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="75">
+    <row r="137" spans="1:7" ht="51.75">
       <c r="A137" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="75">
+    <row r="138" spans="1:7" ht="51">
       <c r="A138" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C138" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="75">
+    <row r="139" spans="1:7" ht="51">
       <c r="A139" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="75">
+    <row r="140" spans="1:7" ht="51">
       <c r="A140" s="18" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="409.6">
       <c r="A141" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="180">
+    <row r="142" spans="1:7" ht="153.75">
       <c r="A142" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="409.6">
       <c r="A143" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="90">
+    <row r="144" spans="1:7" ht="77.25">
       <c r="A144" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="409.6">
+    <row r="145" spans="1:7" ht="383.25">
       <c r="A145" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="240">
+    <row r="146" spans="1:7" ht="204.75">
       <c r="A146" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="135">
+    <row r="147" spans="1:7" ht="115.5">
       <c r="A147" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="195">
+    <row r="148" spans="1:7" ht="166.5">
       <c r="A148" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="105">
+    <row r="149" spans="1:7" ht="76.5">
       <c r="A149" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G149" s="19" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="180">
+    <row r="150" spans="1:7" ht="166.5">
       <c r="A150" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="51">
+      <c r="A151" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="75">
-      <c r="A151" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="C151" s="38" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="75">
+    <row r="152" spans="1:7" ht="51">
       <c r="A152" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G152" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="75">
+    <row r="153" spans="1:7" ht="51">
       <c r="A153" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="75">
+    <row r="154" spans="1:7" ht="51">
       <c r="A154" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C154" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="D155" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="75">
+    <row r="156" spans="1:7" ht="51.75">
       <c r="A156" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E156" s="37" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30">
+    <row r="157" spans="1:7" ht="26.25">
       <c r="A157" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="30">
+    <row r="158" spans="1:7" ht="26.25">
       <c r="A158" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="30">
+    <row r="159" spans="1:7" ht="26.25">
       <c r="A159" s="18" t="s">
         <v>230</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="75">
+    <row r="160" spans="1:7" ht="51">
       <c r="A160" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G160" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="120">
+    <row r="161" spans="1:7" ht="102.75">
       <c r="A161" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G161" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="75">
+    <row r="162" spans="1:7" ht="64.5">
       <c r="A162" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G162" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="120">
+    <row r="163" spans="1:7" ht="102.75">
       <c r="A163" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="75">
+    <row r="164" spans="1:7" ht="64.5">
       <c r="A164" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G164" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="90">
+    <row r="165" spans="1:7" ht="77.25">
       <c r="A165" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G165" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="120">
+    <row r="166" spans="1:7" ht="102.75">
       <c r="A166" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G166" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="75">
+    <row r="167" spans="1:7" ht="64.5">
       <c r="A167" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G167" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="75">
+    <row r="168" spans="1:7" ht="64.5">
       <c r="A168" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G168" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="60">
+    <row r="169" spans="1:7" ht="51.75">
       <c r="A169" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="75">
+    <row r="170" spans="1:7" ht="64.5">
       <c r="A170" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E170" s="37" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="75">
+    <row r="171" spans="1:7" ht="64.5">
       <c r="A171" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="60">
+    <row r="172" spans="1:7" ht="51.75">
       <c r="A172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="60">
+    <row r="173" spans="1:7" ht="51.75">
       <c r="A173" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="75">
+    <row r="174" spans="1:7" ht="64.5">
       <c r="A174" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="105">
+    <row r="175" spans="1:7" ht="90">
       <c r="A175" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="75">
+    <row r="176" spans="1:7" ht="64.5">
       <c r="A176" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64DC17A-5791-4D04-A1AF-C08FBFC36A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890C1F5-AE46-430F-98D0-229AAFCE08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17162,9 +17162,6 @@
     <t>All 1st person pronouns</t>
   </si>
   <si>
-    <t>Al modals of possibility</t>
-  </si>
-  <si>
     <t>All modals of prediction</t>
   </si>
   <si>
@@ -18648,6 +18645,9 @@
       </rPr>
       <t>preceded by attitutidinal verbs</t>
     </r>
+  </si>
+  <si>
+    <t>All modals of possibility</t>
   </si>
 </sst>
 </file>
@@ -19658,8 +19658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
@@ -19807,7 +19807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="114.75">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="102">
       <c r="A7" s="12" t="s">
         <v>293</v>
       </c>
@@ -23946,7 +23946,7 @@
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="45" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>32</v>
@@ -24004,7 +24004,7 @@
         <v>406</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>32</v>
@@ -24024,7 +24024,7 @@
         <v>407</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>32</v>
@@ -24044,7 +24044,7 @@
         <v>411</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>17</v>
@@ -24064,7 +24064,7 @@
         <v>412</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>17</v>
@@ -24084,7 +24084,7 @@
         <v>413</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>17</v>
@@ -24104,7 +24104,7 @@
         <v>414</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>17</v>
@@ -24118,13 +24118,13 @@
         <v>67</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>424</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>32</v>
@@ -24158,7 +24158,7 @@
         <v>67</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>426</v>
@@ -24178,7 +24178,7 @@
         <v>67</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>427</v>
@@ -24196,13 +24196,13 @@
     <row r="113" spans="1:7" ht="102">
       <c r="A113" s="18"/>
       <c r="B113" s="40" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
@@ -24216,13 +24216,13 @@
         <v>93</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
@@ -24236,13 +24236,13 @@
         <v>93</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
@@ -24256,13 +24256,13 @@
         <v>93</v>
       </c>
       <c r="B116" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E116" s="40" t="s">
         <v>597</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E116" s="40" t="s">
-        <v>598</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
@@ -25057,7 +25057,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="D155" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="51.75">
@@ -25071,13 +25071,13 @@
         <v>547</v>
       </c>
       <c r="E156" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="26.25">
@@ -25085,19 +25085,19 @@
         <v>93</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>548</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="26.25">
@@ -25105,19 +25105,19 @@
         <v>93</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>549</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="26.25">
@@ -25125,19 +25125,19 @@
         <v>230</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>550</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="51">
@@ -25145,13 +25145,13 @@
         <v>562</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>551</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>8</v>
@@ -25165,13 +25165,13 @@
         <v>67</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>552</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>32</v>
@@ -25185,13 +25185,13 @@
         <v>67</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>553</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>32</v>
@@ -25205,13 +25205,13 @@
         <v>67</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>554</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>8</v>
@@ -25225,13 +25225,13 @@
         <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>555</v>
       </c>
       <c r="E164" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>32</v>
@@ -25245,13 +25245,13 @@
         <v>67</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>556</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
@@ -25265,13 +25265,13 @@
         <v>67</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>557</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>8</v>
@@ -25285,13 +25285,13 @@
         <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>558</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>32</v>
@@ -25305,13 +25305,13 @@
         <v>67</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>559</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>32</v>
@@ -25325,19 +25325,19 @@
         <v>119</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="64.5">
@@ -25345,19 +25345,19 @@
         <v>225</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E170" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="64.5">
@@ -25365,19 +25365,19 @@
         <v>225</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="51.75">
@@ -25385,99 +25385,99 @@
         <v>17</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="51.75">
       <c r="A173" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="64.5">
       <c r="A174" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="90">
       <c r="A175" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="64.5">
       <c r="A176" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890C1F5-AE46-430F-98D0-229AAFCE08CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55292E9C-C81B-4A9E-88CD-5D36B8C9CA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="646">
   <si>
     <t>Feature</t>
   </si>
@@ -18648,6 +18648,18 @@
   </si>
   <si>
     <t>All modals of possibility</t>
+  </si>
+  <si>
+    <t>Proper nouns</t>
+  </si>
+  <si>
+    <t>NNP</t>
+  </si>
+  <si>
+    <t>Nouns tagged as NNP and NNPS by Stanford Tagger.</t>
+  </si>
+  <si>
+    <t>Le Foll and Shakir</t>
   </si>
 </sst>
 </file>
@@ -19656,10 +19668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM176"/>
+  <dimension ref="A1:AMM177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="C149" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
@@ -19807,7 +19819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="102">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="114.75">
       <c r="A7" s="12" t="s">
         <v>293</v>
       </c>
@@ -24954,42 +24966,43 @@
         <v>531</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="166.5">
+    <row r="150" spans="1:7" ht="38.25">
       <c r="A150" s="1" t="s">
         <v>561</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>518</v>
+        <v>642</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>517</v>
+        <v>643</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>533</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="51">
+    <row r="151" spans="1:7" ht="166.5">
       <c r="A151" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C151" s="38" t="s">
-        <v>535</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G151" s="19" t="s">
         <v>533</v>
@@ -25000,13 +25013,13 @@
         <v>562</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>8</v>
@@ -25020,13 +25033,13 @@
         <v>562</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>8</v>
@@ -25040,13 +25053,13 @@
         <v>562</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="C154" s="38" t="s">
+        <v>539</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>8</v>
@@ -25055,49 +25068,49 @@
         <v>533</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="D155" s="6" t="s">
+    <row r="155" spans="1:7" ht="51">
+      <c r="A155" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="D156" s="6" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51.75">
-      <c r="A156" s="1" t="s">
+    <row r="157" spans="1:7" ht="51.75">
+      <c r="A157" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="E156" s="37" t="s">
+      <c r="E157" s="37" t="s">
         <v>573</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="26.25">
-      <c r="A157" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E157" s="37" t="s">
-        <v>574</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>626</v>
+        <v>588</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="26.25">
@@ -25105,13 +25118,13 @@
         <v>93</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>575</v>
+        <v>548</v>
+      </c>
+      <c r="E158" s="37" t="s">
+        <v>574</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
@@ -25121,17 +25134,17 @@
       </c>
     </row>
     <row r="159" spans="1:7" ht="26.25">
-      <c r="A159" s="18" t="s">
-        <v>230</v>
+      <c r="A159" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
@@ -25140,58 +25153,58 @@
         <v>626</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="51">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:7" ht="26.25">
+      <c r="A160" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="51">
+      <c r="A161" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C161" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G160" s="19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="102.75">
-      <c r="A161" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G161" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="64.5">
+    <row r="162" spans="1:7" ht="102.75">
       <c r="A162" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>32</v>
@@ -25200,78 +25213,78 @@
         <v>533</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="102.75">
+    <row r="163" spans="1:7" ht="64.5">
       <c r="A163" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G163" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="64.5">
+    <row r="164" spans="1:7" ht="102.75">
       <c r="A164" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E164" s="37" t="s">
-        <v>582</v>
+        <v>554</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G164" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="77.25">
+    <row r="165" spans="1:7" ht="64.5">
       <c r="A165" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G165" s="19" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="102.75">
+    <row r="166" spans="1:7" ht="77.25">
       <c r="A166" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>584</v>
+        <v>556</v>
+      </c>
+      <c r="E166" s="37" t="s">
+        <v>583</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>8</v>
@@ -25280,21 +25293,21 @@
         <v>533</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="64.5">
+    <row r="167" spans="1:7" ht="102.75">
       <c r="A167" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="E167" s="37" t="s">
-        <v>586</v>
+        <v>557</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G167" s="19" t="s">
         <v>533</v>
@@ -25305,13 +25318,13 @@
         <v>67</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>32</v>
@@ -25320,41 +25333,41 @@
         <v>533</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51.75">
+    <row r="169" spans="1:7" ht="64.5">
       <c r="A169" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E169" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G169" s="19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="51.75">
+      <c r="A170" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="E169" s="37" t="s">
+      <c r="E170" s="37" t="s">
         <v>615</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="64.5">
-      <c r="A170" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="E170" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G170" s="6" t="s">
         <v>626</v>
@@ -25365,36 +25378,36 @@
         <v>225</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="51.75">
+    <row r="172" spans="1:7" ht="64.5">
       <c r="A172" s="1" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G172" s="6" t="s">
         <v>626</v>
@@ -25402,16 +25415,16 @@
     </row>
     <row r="173" spans="1:7" ht="51.75">
       <c r="A173" s="1" t="s">
-        <v>613</v>
+        <v>17</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>8</v>
@@ -25420,38 +25433,38 @@
         <v>626</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="64.5">
+    <row r="174" spans="1:7" ht="51.75">
       <c r="A174" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G174" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="90">
+    <row r="175" spans="1:7" ht="64.5">
       <c r="A175" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>32</v>
@@ -25460,23 +25473,43 @@
         <v>626</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="64.5">
+    <row r="176" spans="1:7" ht="90">
       <c r="A176" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="64.5">
+      <c r="A177" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E177" s="37" t="s">
+        <v>625</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>626</v>
       </c>
     </row>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Documents/PhD/Publications/2023_Shakir_LeFoll/MFTE_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C497E9-1B9C-144D-BE1F-ACAB019E29F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76AA7A-831A-469C-B39B-AA95D627BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="649">
   <si>
     <t>Feature</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Quantifying pronouns</t>
   </si>
   <si>
-    <t>SPP2</t>
-  </si>
-  <si>
     <t>Question tags</t>
   </si>
   <si>
@@ -7703,9 +7700,6 @@
     </r>
   </si>
   <si>
-    <t>FPP1S</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -7802,9 +7796,6 @@
     </r>
   </si>
   <si>
-    <t>FPP1P</t>
-  </si>
-  <si>
     <t>Reference to the speaker/writer</t>
   </si>
   <si>
@@ -7841,12 +7832,6 @@
   </si>
   <si>
     <t>Reference to one non-interactant</t>
-  </si>
-  <si>
-    <t>TPP3S</t>
-  </si>
-  <si>
-    <t>TPP3P</t>
   </si>
   <si>
     <r>
@@ -17077,9 +17062,6 @@
     </r>
   </si>
   <si>
-    <t>FPPAll</t>
-  </si>
-  <si>
     <t>MDPOSSCAll</t>
   </si>
   <si>
@@ -17337,9 +17319,6 @@
     </r>
   </si>
   <si>
-    <t>Any word tagged with FPP1P, FPP1S</t>
-  </si>
-  <si>
     <t>Any word tagged as MDCA, MDCO, MDMM</t>
   </si>
   <si>
@@ -18671,6 +18650,36 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>PP1S</t>
+  </si>
+  <si>
+    <t>PP1P</t>
+  </si>
+  <si>
+    <t>PP2</t>
+  </si>
+  <si>
+    <t>PP3S</t>
+  </si>
+  <si>
+    <t>PP3P</t>
+  </si>
+  <si>
+    <t>PP1</t>
+  </si>
+  <si>
+    <t>Any word tagged with PP1P, PP1S</t>
+  </si>
+  <si>
+    <t>All 3rd person pronouns</t>
+  </si>
+  <si>
+    <t>PP3</t>
+  </si>
+  <si>
+    <t>Any word tagged with PP3P, PP3S</t>
   </si>
 </sst>
 </file>
@@ -19702,32 +19711,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM177"/>
+  <dimension ref="A1:AMM178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="70.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.6640625" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.1640625" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.6640625" style="7"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.625" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.125" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.625" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1" ht="30">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="25.5">
       <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
@@ -19735,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>2</v>
@@ -19756,14 +19765,14 @@
       <c r="C2" s="10"/>
       <c r="D2" s="35"/>
       <c r="E2" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A3" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>13</v>
@@ -19772,10 +19781,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
@@ -19784,9 +19793,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="45">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="38.25">
       <c r="A4" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>7</v>
@@ -19795,10 +19804,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>8</v>
@@ -19807,44 +19816,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="45">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="51">
       <c r="A6" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>8</v>
@@ -19853,21 +19862,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="120">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="102">
       <c r="A7" s="12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -19882,26 +19891,26 @@
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="31" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A9" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>17</v>
@@ -19910,21 +19919,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A10" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>32</v>
@@ -19933,21 +19942,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A11" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>32</v>
@@ -19956,21 +19965,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A12" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>32</v>
@@ -19979,21 +19988,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A13" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>32</v>
@@ -20002,9 +20011,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A14" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>53</v>
@@ -20013,10 +20022,10 @@
         <v>52</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>8</v>
@@ -20025,21 +20034,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A15" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>17</v>
@@ -20048,9 +20057,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A16" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>27</v>
@@ -20059,10 +20068,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>17</v>
@@ -20073,7 +20082,7 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="90" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>30</v>
@@ -20082,10 +20091,10 @@
         <v>29</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>17</v>
@@ -20094,21 +20103,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.25" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.349999999999994" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>8</v>
@@ -20117,9 +20126,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A19" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>26</v>
@@ -20128,10 +20137,10 @@
         <v>25</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>8</v>
@@ -20140,21 +20149,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A20" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>32</v>
@@ -20163,21 +20172,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A21" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>32</v>
@@ -20186,21 +20195,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A22" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>32</v>
@@ -20209,21 +20218,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A23" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>32</v>
@@ -20232,21 +20241,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A24" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>32</v>
@@ -20255,9 +20264,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A25" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>38</v>
@@ -20266,10 +20275,10 @@
         <v>37</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>8</v>
@@ -20278,9 +20287,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A26" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>45</v>
@@ -20289,10 +20298,10 @@
         <v>44</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>8</v>
@@ -20301,9 +20310,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A27" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>50</v>
@@ -20312,10 +20321,10 @@
         <v>49</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>8</v>
@@ -20324,9 +20333,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A28" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>57</v>
@@ -20335,10 +20344,10 @@
         <v>56</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>8</v>
@@ -20347,21 +20356,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A29" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>32</v>
@@ -20370,21 +20379,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A30" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>32</v>
@@ -20393,21 +20402,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A31" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>32</v>
@@ -20416,21 +20425,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A32" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>32</v>
@@ -20439,21 +20448,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A33" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>32</v>
@@ -20462,21 +20471,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A34" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>32</v>
@@ -20485,21 +20494,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A35" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>32</v>
@@ -20508,21 +20517,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A36" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>228</v>
-      </c>
       <c r="E36" s="18" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>8</v>
@@ -20531,21 +20540,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A37" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>17</v>
@@ -20554,21 +20563,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A38" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>8</v>
@@ -20577,21 +20586,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A39" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>316</v>
-      </c>
       <c r="E39" s="18" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>8</v>
@@ -20600,21 +20609,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A40" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>8</v>
@@ -20623,21 +20632,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A41" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>32</v>
@@ -20646,21 +20655,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A42" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>8</v>
@@ -20669,21 +20678,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>244</v>
+        <v>639</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>32</v>
@@ -20692,21 +20701,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>247</v>
+        <v>640</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>32</v>
@@ -20715,21 +20724,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A45" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>65</v>
+        <v>641</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>32</v>
@@ -20738,21 +20747,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>32</v>
@@ -20761,21 +20770,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A47" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>32</v>
@@ -20784,21 +20793,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A48" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>32</v>
@@ -20807,21 +20816,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A49" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B49" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>257</v>
-      </c>
       <c r="E49" s="18" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>32</v>
@@ -20830,7 +20839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A50" s="18" t="s">
         <v>60</v>
       </c>
@@ -20841,10 +20850,10 @@
         <v>63</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>32</v>
@@ -20853,21 +20862,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A51" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>8</v>
@@ -20876,9 +20885,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A52" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>36</v>
@@ -20887,10 +20896,10 @@
         <v>35</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>8</v>
@@ -20899,9 +20908,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A53" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>40</v>
@@ -20910,10 +20919,10 @@
         <v>39</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>8</v>
@@ -20922,9 +20931,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A54" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>43</v>
@@ -20933,10 +20942,10 @@
         <v>42</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>8</v>
@@ -20945,9 +20954,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A55" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>48</v>
@@ -20956,10 +20965,10 @@
         <v>47</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>8</v>
@@ -20968,21 +20977,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A56" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>32</v>
@@ -20991,21 +21000,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A57" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>32</v>
@@ -21014,21 +21023,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A58" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="C58" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>32</v>
@@ -21039,19 +21048,19 @@
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="141" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>32</v>
@@ -21060,21 +21069,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A60" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>32</v>
@@ -21083,9 +21092,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A61" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>55</v>
@@ -21094,10 +21103,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>32</v>
@@ -21106,21 +21115,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="120">
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A62" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>32</v>
@@ -21129,21 +21138,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A63" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>32</v>
@@ -21152,21 +21161,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A64" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F64" s="18" t="s">
         <v>32</v>
@@ -21175,21 +21184,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A65" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>32</v>
@@ -21198,21 +21207,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A66" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>32</v>
@@ -21221,21 +21230,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A67" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>32</v>
@@ -21244,21 +21253,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A68" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>32</v>
@@ -21267,21 +21276,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A69" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>32</v>
@@ -21290,21 +21299,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" ht="120">
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A70" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>32</v>
@@ -21313,21 +21322,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A71" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F71" s="18" t="s">
         <v>32</v>
@@ -21336,21 +21345,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A72" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>32</v>
@@ -21359,21 +21368,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A73" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>32</v>
@@ -21382,182 +21391,182 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A74" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G74" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="25.5">
+      <c r="A75" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="30">
-      <c r="A75" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="C75" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A76" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="150">
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F77" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A78" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F78" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="180">
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A79" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F79" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A80" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="7" customFormat="1" ht="75">
+    <row r="81" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A81" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>32</v>
@@ -21566,21 +21575,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="82" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A82" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>32</v>
@@ -21589,21 +21598,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="7" customFormat="1" ht="60">
+    <row r="83" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A83" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>32</v>
@@ -21612,21 +21621,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="84" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A84" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>32</v>
@@ -21635,21 +21644,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="85" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A85" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>174</v>
-      </c>
       <c r="E85" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>32</v>
@@ -21658,21 +21667,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="7" customFormat="1" ht="60">
+    <row r="86" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A86" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>32</v>
@@ -21681,21 +21690,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="7" customFormat="1" ht="45">
+    <row r="87" spans="1:1022" s="7" customFormat="1" ht="38.25">
       <c r="A87" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="D87" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="E87" s="18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F87" s="18" t="s">
         <v>32</v>
@@ -21710,32 +21719,32 @@
       <c r="C88" s="16"/>
       <c r="D88" s="17"/>
       <c r="E88" s="31" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:1022" s="8" customFormat="1" ht="60">
+    <row r="89" spans="1:1022" s="8" customFormat="1" ht="51">
       <c r="A89" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -22753,27 +22762,27 @@
       <c r="AMG89" s="5"/>
       <c r="AMH89" s="5"/>
     </row>
-    <row r="90" spans="1:1022" s="8" customFormat="1" ht="45">
+    <row r="90" spans="1:1022" s="8" customFormat="1" ht="51">
       <c r="A90" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -23791,21 +23800,21 @@
       <c r="AMG90" s="5"/>
       <c r="AMH90" s="5"/>
     </row>
-    <row r="91" spans="1:1022" s="8" customFormat="1" ht="75">
+    <row r="91" spans="1:1022" s="8" customFormat="1" ht="63.75">
       <c r="A91" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>14</v>
@@ -23814,21 +23823,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="7" customFormat="1" ht="75">
+    <row r="92" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A92" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>14</v>
@@ -23837,21 +23846,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="8" customFormat="1" ht="105">
+    <row r="93" spans="1:1022" s="8" customFormat="1" ht="89.25">
       <c r="A93" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>14</v>
@@ -23860,21 +23869,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="8" customFormat="1" ht="90">
+    <row r="94" spans="1:1022" s="8" customFormat="1" ht="76.5">
       <c r="A94" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>14</v>
@@ -23883,21 +23892,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="8" customFormat="1" ht="75">
+    <row r="95" spans="1:1022" s="8" customFormat="1" ht="63.75">
       <c r="A95" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>14</v>
@@ -23906,32 +23915,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.25" customHeight="1">
+    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.35" customHeight="1">
       <c r="A96" s="15"/>
       <c r="B96" s="30"/>
       <c r="C96" s="16"/>
       <c r="D96" s="17"/>
       <c r="E96" s="31" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A97" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>32</v>
@@ -23940,21 +23949,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" ht="45">
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="38.25">
       <c r="A98" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>32</v>
@@ -23963,9 +23972,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A99" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>24</v>
@@ -23974,10 +23983,10 @@
         <v>23</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>14</v>
@@ -23986,1140 +23995,1140 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.25" customHeight="1">
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.35" customHeight="1">
       <c r="A100" s="41"/>
       <c r="B100" s="42"/>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="45" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="1:7" ht="120">
+    <row r="101" spans="1:7" ht="102">
       <c r="A101" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F101" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="120">
+    <row r="102" spans="1:7" ht="102">
       <c r="A102" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="18" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="120">
+    <row r="103" spans="1:7" ht="102">
       <c r="A103" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="120">
+    <row r="104" spans="1:7" ht="102">
       <c r="A104" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="120">
+    <row r="105" spans="1:7" ht="102">
       <c r="A105" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="105">
+    <row r="106" spans="1:7" ht="102">
       <c r="A106" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="120">
+    <row r="107" spans="1:7" ht="102">
       <c r="A107" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="120">
+    <row r="108" spans="1:7" ht="102">
       <c r="A108" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="120">
+    <row r="109" spans="1:7" ht="102">
       <c r="A109" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="409.6">
+    <row r="110" spans="1:7" ht="382.5">
       <c r="A110" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B110" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="E110" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>427</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="135">
+    <row r="111" spans="1:7" ht="127.5">
       <c r="A111" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="120">
+    <row r="112" spans="1:7" ht="114.75">
       <c r="A112" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="120">
+    <row r="113" spans="1:7" ht="102">
       <c r="A113" s="18"/>
       <c r="B113" s="40" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="409.6">
+    <row r="114" spans="1:7" ht="395.25">
       <c r="A114" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="150">
+    <row r="115" spans="1:7" ht="127.5">
       <c r="A115" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="135">
+    <row r="116" spans="1:7" ht="127.5">
       <c r="A116" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="75">
+    <row r="117" spans="1:7" ht="51.75">
       <c r="A117" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="75">
+    <row r="118" spans="1:7" ht="51.75">
       <c r="A118" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="75">
+    <row r="119" spans="1:7" ht="51.75">
       <c r="A119" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="75">
+    <row r="120" spans="1:7" ht="51.75">
       <c r="A120" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="75">
+    <row r="121" spans="1:7" ht="51.75">
       <c r="A121" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="105">
+    <row r="122" spans="1:7" ht="90">
       <c r="A122" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="135">
+    <row r="123" spans="1:7" ht="115.5">
       <c r="A123" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="105">
+    <row r="124" spans="1:7" ht="90">
       <c r="A124" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="75">
+    <row r="125" spans="1:7" ht="51.75">
       <c r="A125" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="75">
+    <row r="126" spans="1:7" ht="64.5">
       <c r="A126" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="105">
+    <row r="127" spans="1:7" ht="90">
       <c r="A127" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="409.6">
+    <row r="128" spans="1:7" ht="383.25">
       <c r="A128" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="135">
+    <row r="129" spans="1:7" ht="115.5">
       <c r="A129" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="120">
+    <row r="130" spans="1:7" ht="102.75">
       <c r="A130" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="75">
+    <row r="131" spans="1:7" ht="64.5">
       <c r="A131" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="180">
+    <row r="132" spans="1:7" ht="166.5">
       <c r="A132" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="75">
+    <row r="133" spans="1:7" ht="64.5">
       <c r="A133" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="75">
+    <row r="134" spans="1:7" ht="51">
       <c r="A134" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="75">
+    <row r="135" spans="1:7" ht="64.5">
       <c r="A135" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="75">
+    <row r="136" spans="1:7" ht="51">
       <c r="A136" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="75">
+    <row r="137" spans="1:7" ht="51.75">
       <c r="A137" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="75">
+    <row r="138" spans="1:7" ht="51">
       <c r="A138" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="75">
+    <row r="139" spans="1:7" ht="51">
       <c r="A139" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="75">
+    <row r="140" spans="1:7" ht="51">
       <c r="A140" s="18" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="409.6">
       <c r="A141" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="180">
+    <row r="142" spans="1:7" ht="153.75">
       <c r="A142" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="409.6">
       <c r="A143" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="90">
+    <row r="144" spans="1:7" ht="77.25">
       <c r="A144" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="145" spans="1:1027" ht="409.6">
+    <row r="145" spans="1:1027" ht="383.25">
       <c r="A145" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="146" spans="1:1027" ht="240">
+    <row r="146" spans="1:1027" ht="204.75">
       <c r="A146" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="147" spans="1:1027" ht="135">
+    <row r="147" spans="1:1027" ht="115.5">
       <c r="A147" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="148" spans="1:1027" ht="195">
+    <row r="148" spans="1:1027" ht="166.5">
       <c r="A148" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="149" spans="1:1027" ht="105">
+    <row r="149" spans="1:1027" ht="76.5">
       <c r="A149" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G149" s="19" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="150" spans="1:1027" ht="45">
+    <row r="150" spans="1:1027" ht="38.25">
       <c r="A150" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
-    <row r="151" spans="1:1027" ht="180">
+    <row r="151" spans="1:1027" ht="166.5">
       <c r="A151" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="152" spans="1:1027" ht="75">
+    <row r="152" spans="1:1027" ht="51">
       <c r="A152" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G152" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1027" ht="51">
+      <c r="A153" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="153" spans="1:1027" ht="75">
-      <c r="A153" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="C153" s="38" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="154" spans="1:1027" ht="75">
+    <row r="154" spans="1:1027" ht="51">
       <c r="A154" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="155" spans="1:1027" ht="75">
+    <row r="155" spans="1:1027" ht="51">
       <c r="A155" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="156" spans="1:1027" s="52" customFormat="1">
@@ -25127,7 +25136,7 @@
       <c r="B156" s="47"/>
       <c r="C156" s="46"/>
       <c r="D156" s="48" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E156" s="47"/>
       <c r="F156" s="46"/>
@@ -26153,424 +26162,444 @@
       <c r="AML156" s="46"/>
       <c r="AMM156" s="46"/>
     </row>
-    <row r="157" spans="1:1027" ht="75">
+    <row r="157" spans="1:1027" ht="51.75">
       <c r="A157" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>546</v>
+        <v>644</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="158" spans="1:1027" ht="30">
+    <row r="158" spans="1:1027" ht="51.75">
       <c r="A158" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>547</v>
+        <v>647</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>625</v>
+        <v>580</v>
       </c>
     </row>
-    <row r="159" spans="1:1027" ht="30">
+    <row r="159" spans="1:1027" ht="26.25">
       <c r="A159" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>574</v>
+        <v>541</v>
+      </c>
+      <c r="E159" s="37" t="s">
+        <v>566</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="160" spans="1:1027" ht="30">
-      <c r="A160" s="18" t="s">
-        <v>230</v>
+    <row r="160" spans="1:1027" ht="26.25">
+      <c r="A160" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="75">
-      <c r="A161" s="1" t="s">
-        <v>561</v>
+    <row r="161" spans="1:7" ht="26.25">
+      <c r="A161" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="51">
+      <c r="A162" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G161" s="19" t="s">
-        <v>532</v>
+      <c r="G162" s="19" t="s">
+        <v>527</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="120">
-      <c r="A162" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G162" s="19" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="75">
+    <row r="163" spans="1:7" ht="102.75">
       <c r="A163" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="120">
+    <row r="164" spans="1:7" ht="64.5">
       <c r="A164" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G164" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="102.75">
+      <c r="A165" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G164" s="19" t="s">
-        <v>532</v>
+      <c r="G165" s="19" t="s">
+        <v>527</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="75">
-      <c r="A165" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="E165" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="F165" s="1" t="s">
+    <row r="166" spans="1:7" ht="64.5">
+      <c r="A166" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="E166" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G165" s="19" t="s">
-        <v>532</v>
+      <c r="G166" s="19" t="s">
+        <v>527</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="90">
-      <c r="A166" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="E166" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G166" s="19" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="120">
+    <row r="167" spans="1:7" ht="77.25">
       <c r="A167" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>583</v>
+        <v>549</v>
+      </c>
+      <c r="E167" s="37" t="s">
+        <v>575</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G167" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="75">
+    <row r="168" spans="1:7" ht="102.75">
       <c r="A168" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E168" s="37" t="s">
-        <v>585</v>
+        <v>550</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G168" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="75">
+    <row r="169" spans="1:7" ht="64.5">
       <c r="A169" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="60">
+    <row r="170" spans="1:7" ht="64.5">
       <c r="A170" s="1" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E170" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G170" s="19" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="51.75">
+      <c r="A171" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E171" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="E170" s="37" t="s">
-        <v>614</v>
-      </c>
-      <c r="F170" s="1" t="s">
+      <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G170" s="6" t="s">
-        <v>625</v>
+      <c r="G171" s="6" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="75">
-      <c r="A171" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B171" s="1" t="s">
+    <row r="172" spans="1:7" ht="64.5">
+      <c r="A172" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E172" s="37" t="s">
         <v>608</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="E171" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="F171" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G171" s="6" t="s">
-        <v>625</v>
+      <c r="G172" s="6" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="75">
-      <c r="A172" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B172" s="1" t="s">
+    <row r="173" spans="1:7" ht="64.5">
+      <c r="A173" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E173" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="E172" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G172" s="6" t="s">
-        <v>625</v>
+      <c r="G173" s="6" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="60">
-      <c r="A173" s="1" t="s">
+    <row r="174" spans="1:7" ht="51.75">
+      <c r="A174" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B174" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E174" s="37" t="s">
         <v>610</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="E173" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="60">
-      <c r="A174" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="E174" s="37" t="s">
-        <v>618</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="75">
+    <row r="175" spans="1:7" ht="51.75">
       <c r="A175" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E175" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="64.5">
+      <c r="A176" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E175" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="105">
-      <c r="A176" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="C176" s="6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="75">
+    <row r="177" spans="1:7" ht="90">
       <c r="A177" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E177" s="37" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>625</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="64.5">
+      <c r="A178" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E178" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Documents/PhD/Publications/2023_Shakir_LeFoll/MFTE_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB76AA7A-831A-469C-B39B-AA95D627BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F867EBD-376C-D441-9C19-1065B624040E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>PIT</t>
   </si>
   <si>
-    <t>PRP</t>
-  </si>
-  <si>
     <t>QUPR</t>
   </si>
   <si>
@@ -7805,29 +7802,6 @@
     <t>Reference to the addressee</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>One</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as a personal pronoun</t>
-    </r>
-  </si>
-  <si>
     <t>Reference to more than one non-interactant</t>
   </si>
   <si>
@@ -8300,128 +8274,218 @@
     <t>CUZ</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Assigned to all occurrences of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>as long as,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>unless,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lest, in that case, otherwise,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>whether.</t>
-    </r>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
     <t>NN</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This tag consists of the remaining personal pronouns not yet tagged as either first (FPP1S and FPP1P), second (SPP2) or third (TPP3) person pronouns. In practice, this should only leave </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>one</t>
-    </r>
-    <r>
-      <rPr>
+    <t>General text properties</t>
+  </si>
+  <si>
+    <t>Foreign words</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>Symbols</t>
+  </si>
+  <si>
+    <t>SYM</t>
+  </si>
+  <si>
+    <t>Emoji and emoticons</t>
+  </si>
+  <si>
+    <t>EMO</t>
+  </si>
+  <si>
+    <t>JJPR</t>
+  </si>
+  <si>
+    <t>JJAT</t>
+  </si>
+  <si>
+    <t>Assigned to occurrences of the bigram (un)able to, whenever (un)able has previously been identified as a predicative adjective (JJPR). These occurrences of (un)able are subsequently excluded from the JJPR count.</t>
+  </si>
+  <si>
+    <t>Place references</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It’s not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>far</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to go. I’ll get it from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>upstairs</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. It’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>downhill</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all the way. It’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>there</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not here.</t>
+    </r>
+  </si>
+  <si>
+    <t>Corresponds to all the tokens tagged as RB, RBS, RBR or WRB by the Stanford Tagger apart from those identified as adverbs of frequency (FREQ), place (PLACE) or time (TIME), amplifiers (AMP), emphatics (EMPH), hedges (HDG) and downtoners (DWNT).</t>
+  </si>
+  <si>
+    <t>Time references</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">soon </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">be possible. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Now </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is the time. I haven't come across any issues </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -8432,222 +8496,6 @@
     </r>
   </si>
   <si>
-    <t>General text properties</t>
-  </si>
-  <si>
-    <t>Foreign words</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>Symbols</t>
-  </si>
-  <si>
-    <t>SYM</t>
-  </si>
-  <si>
-    <t>Emoji and emoticons</t>
-  </si>
-  <si>
-    <t>EMO</t>
-  </si>
-  <si>
-    <t>JJPR</t>
-  </si>
-  <si>
-    <t>JJAT</t>
-  </si>
-  <si>
-    <t>Assigned to occurrences of the bigram (un)able to, whenever (un)able has previously been identified as a predicative adjective (JJPR). These occurrences of (un)able are subsequently excluded from the JJPR count.</t>
-  </si>
-  <si>
-    <t>Place references</t>
-  </si>
-  <si>
-    <t>PLACE</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It’s not </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>far</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to go. I’ll get it from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>upstairs</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. It’s </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>downhill</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all the way. It’s </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>there</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> not here.</t>
-    </r>
-  </si>
-  <si>
-    <t>Corresponds to all the tokens tagged as RB, RBS, RBR or WRB by the Stanford Tagger apart from those identified as adverbs of frequency (FREQ), place (PLACE) or time (TIME), amplifiers (AMP), emphatics (EMPH), hedges (HDG) and downtoners (DWNT).</t>
-  </si>
-  <si>
-    <t>Time references</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It will </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">soon </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">be possible. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Now </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is the time. I haven't come across any issues </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yet</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">All occurrences of </t>
     </r>
@@ -8689,137 +8537,6 @@
   </si>
   <si>
     <t>HST</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Following Biber (1988), all occurrences of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>you, your, yourself, yourselves</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Following Nini (2014: 18), also includes </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">thy, thee </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>thyself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. In addition, the forms</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ur, ye, y'all, ya</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>thine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and the nominal possessive pronoun </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> were also added.</t>
-    </r>
   </si>
   <si>
     <t>URL and e-mail addresses</t>
@@ -17107,9 +16824,6 @@
     <t>Adverb semantics</t>
   </si>
   <si>
-    <t>All 1st person pronouns</t>
-  </si>
-  <si>
     <t>All modals of prediction</t>
   </si>
   <si>
@@ -18673,13 +18387,279 @@
     <t>Any word tagged with PP1P, PP1S</t>
   </si>
   <si>
-    <t>All 3rd person pronouns</t>
-  </si>
-  <si>
     <t>PP3</t>
   </si>
   <si>
     <t>Any word tagged with PP3P, PP3S</t>
+  </si>
+  <si>
+    <t>All 1st person referents</t>
+  </si>
+  <si>
+    <t>All 3rd person referents</t>
+  </si>
+  <si>
+    <t>Any personal pronoun not included in the other categories</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This tag consists of the remaining personal pronouns not yet tagged as either first (PR1), second (PR2) or third (PR3) person pronouns. In practice, this should only leave </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and any misspelt, historical or dialectal forms not captured by the other categories.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ppother</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Following Biber (1988), all occurrences of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you, your, yourself, yourselves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Following Nini (2014: 18), also includes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">thy, thee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thyself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In addition, the forms</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> u, ur, ye, y'all, ya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the nominal possessive pronoun </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> were also added.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assigned to all occurrences of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as long as,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unless,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lest, in that case, otherwise, even when </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whether.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -19713,30 +19693,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="70.625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.625" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.125" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.625" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.625" style="7"/>
+    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1" ht="25.5">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="30">
       <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
@@ -19744,7 +19724,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>2</v>
@@ -19765,14 +19745,14 @@
       <c r="C2" s="10"/>
       <c r="D2" s="35"/>
       <c r="E2" s="11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="51">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="60">
       <c r="A3" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>13</v>
@@ -19781,10 +19761,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
@@ -19793,9 +19773,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="38.25">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="45">
       <c r="A4" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>7</v>
@@ -19804,10 +19784,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>8</v>
@@ -19816,44 +19796,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="51">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="60">
       <c r="A5" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="51">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="45">
       <c r="A6" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>8</v>
@@ -19862,21 +19842,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="102">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="120">
       <c r="A7" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>14</v>
@@ -19891,26 +19871,26 @@
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="31" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A9" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>17</v>
@@ -19919,21 +19899,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A10" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>32</v>
@@ -19942,21 +19922,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A11" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>32</v>
@@ -19965,21 +19945,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A12" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>32</v>
@@ -19988,21 +19968,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A13" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>32</v>
@@ -20011,9 +19991,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A14" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>53</v>
@@ -20022,10 +20002,10 @@
         <v>52</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>8</v>
@@ -20034,21 +20014,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A15" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>17</v>
@@ -20057,9 +20037,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A16" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>27</v>
@@ -20068,10 +20048,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>17</v>
@@ -20082,7 +20062,7 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="90" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>30</v>
@@ -20091,10 +20071,10 @@
         <v>29</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>17</v>
@@ -20103,21 +20083,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.349999999999994" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.25" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>8</v>
@@ -20126,9 +20106,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A19" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>26</v>
@@ -20137,10 +20117,10 @@
         <v>25</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>8</v>
@@ -20149,21 +20129,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A20" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>32</v>
@@ -20172,21 +20152,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="114.75">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="135">
       <c r="A21" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>32</v>
@@ -20195,21 +20175,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A22" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>283</v>
-      </c>
       <c r="D22" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>32</v>
@@ -20218,21 +20198,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A23" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>32</v>
@@ -20241,21 +20221,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="30">
       <c r="A24" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>284</v>
+        <v>648</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>32</v>
@@ -20264,9 +20244,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="140.25">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="165">
       <c r="A25" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>38</v>
@@ -20275,10 +20255,10 @@
         <v>37</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>8</v>
@@ -20287,9 +20267,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A26" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>45</v>
@@ -20298,10 +20278,10 @@
         <v>44</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>8</v>
@@ -20310,9 +20290,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A27" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>50</v>
@@ -20321,10 +20301,10 @@
         <v>49</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>8</v>
@@ -20333,9 +20313,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A28" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>57</v>
@@ -20344,10 +20324,10 @@
         <v>56</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>8</v>
@@ -20356,21 +20336,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A29" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>32</v>
@@ -20379,21 +20359,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A30" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>32</v>
@@ -20402,21 +20382,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A31" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>32</v>
@@ -20425,21 +20405,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A32" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>32</v>
@@ -20448,21 +20428,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A33" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>32</v>
@@ -20471,21 +20451,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="114.75">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="135">
       <c r="A34" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>32</v>
@@ -20494,21 +20474,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A35" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>32</v>
@@ -20517,21 +20497,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A36" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>227</v>
-      </c>
       <c r="E36" s="18" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>8</v>
@@ -20540,21 +20520,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A37" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>17</v>
@@ -20563,21 +20543,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A38" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>8</v>
@@ -20586,21 +20566,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="39" spans="1:7" s="7" customFormat="1">
       <c r="A39" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D39" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>311</v>
-      </c>
       <c r="E39" s="18" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>8</v>
@@ -20609,21 +20589,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A40" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>8</v>
@@ -20632,21 +20612,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A41" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>32</v>
@@ -20655,21 +20635,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A42" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>8</v>
@@ -20678,21 +20658,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>32</v>
@@ -20701,21 +20681,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>32</v>
@@ -20724,21 +20704,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A45" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>308</v>
+        <v>647</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>32</v>
@@ -20747,21 +20727,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>32</v>
@@ -20770,21 +20750,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A47" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>248</v>
+        <v>644</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>62</v>
+        <v>646</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>287</v>
+        <v>645</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>32</v>
@@ -20793,21 +20773,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A48" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D48" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>251</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>253</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>32</v>
@@ -20816,21 +20796,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A49" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>32</v>
@@ -20839,21 +20819,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="30">
       <c r="A50" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>32</v>
@@ -20862,21 +20842,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A51" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>8</v>
@@ -20885,9 +20865,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A52" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>36</v>
@@ -20896,10 +20876,10 @@
         <v>35</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>8</v>
@@ -20908,9 +20888,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A53" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>40</v>
@@ -20919,10 +20899,10 @@
         <v>39</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>8</v>
@@ -20931,9 +20911,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A54" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>43</v>
@@ -20942,10 +20922,10 @@
         <v>42</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>8</v>
@@ -20954,9 +20934,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A55" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>48</v>
@@ -20965,10 +20945,10 @@
         <v>47</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>8</v>
@@ -20977,21 +20957,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A56" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>32</v>
@@ -21000,21 +20980,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="153">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="165">
       <c r="A57" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>32</v>
@@ -21023,21 +21003,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A58" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="C58" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>32</v>
@@ -21048,19 +21028,19 @@
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="141" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>32</v>
@@ -21069,21 +21049,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A60" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>32</v>
@@ -21092,9 +21072,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A61" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>55</v>
@@ -21103,10 +21083,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F61" s="18" t="s">
         <v>32</v>
@@ -21115,21 +21095,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="102">
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="120">
       <c r="A62" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>32</v>
@@ -21138,21 +21118,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A63" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>32</v>
@@ -21161,21 +21141,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A64" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F64" s="18" t="s">
         <v>32</v>
@@ -21184,21 +21164,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A65" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>32</v>
@@ -21207,21 +21187,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A66" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F66" s="18" t="s">
         <v>32</v>
@@ -21230,21 +21210,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A67" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>32</v>
@@ -21253,21 +21233,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" ht="140.25">
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="165">
       <c r="A68" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>32</v>
@@ -21276,21 +21256,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A69" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>32</v>
@@ -21299,21 +21279,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" ht="102">
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="120">
       <c r="A70" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>32</v>
@@ -21322,21 +21302,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A71" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F71" s="18" t="s">
         <v>32</v>
@@ -21345,21 +21325,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A72" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>32</v>
@@ -21368,21 +21348,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" ht="114.75">
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="135">
       <c r="A73" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>32</v>
@@ -21391,182 +21371,182 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="127.5">
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="135">
       <c r="A74" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G74" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="30">
+      <c r="A75" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="25.5">
-      <c r="A75" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>94</v>
-      </c>
       <c r="C75" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A76" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="127.5">
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="150">
       <c r="A77" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F77" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A78" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F78" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="153">
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="180">
       <c r="A79" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F79" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A80" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="7" customFormat="1" ht="63.75">
+    <row r="81" spans="1:1022" s="7" customFormat="1" ht="75">
       <c r="A81" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>32</v>
@@ -21575,21 +21555,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="7" customFormat="1" ht="25.5">
+    <row r="82" spans="1:1022" s="7" customFormat="1" ht="30">
       <c r="A82" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>32</v>
@@ -21598,21 +21578,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="7" customFormat="1" ht="51">
+    <row r="83" spans="1:1022" s="7" customFormat="1" ht="60">
       <c r="A83" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>32</v>
@@ -21621,21 +21601,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="7" customFormat="1" ht="25.5">
+    <row r="84" spans="1:1022" s="7" customFormat="1" ht="30">
       <c r="A84" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>207</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>208</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>32</v>
@@ -21644,21 +21624,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="7" customFormat="1" ht="25.5">
+    <row r="85" spans="1:1022" s="7" customFormat="1" ht="30">
       <c r="A85" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>173</v>
-      </c>
       <c r="E85" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>32</v>
@@ -21667,21 +21647,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="7" customFormat="1" ht="51">
+    <row r="86" spans="1:1022" s="7" customFormat="1" ht="60">
       <c r="A86" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>175</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>32</v>
@@ -21690,21 +21670,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="7" customFormat="1" ht="38.25">
+    <row r="87" spans="1:1022" s="7" customFormat="1" ht="45">
       <c r="A87" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="D87" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D87" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="E87" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F87" s="18" t="s">
         <v>32</v>
@@ -21719,32 +21699,32 @@
       <c r="C88" s="16"/>
       <c r="D88" s="17"/>
       <c r="E88" s="31" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:1022" s="8" customFormat="1" ht="51">
+    <row r="89" spans="1:1022" s="8" customFormat="1" ht="60">
       <c r="A89" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -22762,27 +22742,27 @@
       <c r="AMG89" s="5"/>
       <c r="AMH89" s="5"/>
     </row>
-    <row r="90" spans="1:1022" s="8" customFormat="1" ht="51">
+    <row r="90" spans="1:1022" s="8" customFormat="1" ht="45">
       <c r="A90" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D90" s="32" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -23800,21 +23780,21 @@
       <c r="AMG90" s="5"/>
       <c r="AMH90" s="5"/>
     </row>
-    <row r="91" spans="1:1022" s="8" customFormat="1" ht="63.75">
+    <row r="91" spans="1:1022" s="8" customFormat="1" ht="75">
       <c r="A91" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>14</v>
@@ -23823,21 +23803,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="7" customFormat="1" ht="63.75">
+    <row r="92" spans="1:1022" s="7" customFormat="1" ht="75">
       <c r="A92" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>14</v>
@@ -23846,21 +23826,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="8" customFormat="1" ht="89.25">
+    <row r="93" spans="1:1022" s="8" customFormat="1" ht="105">
       <c r="A93" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>14</v>
@@ -23869,21 +23849,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="8" customFormat="1" ht="76.5">
+    <row r="94" spans="1:1022" s="8" customFormat="1" ht="90">
       <c r="A94" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F94" s="12" t="s">
         <v>14</v>
@@ -23892,21 +23872,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="8" customFormat="1" ht="63.75">
+    <row r="95" spans="1:1022" s="8" customFormat="1" ht="75">
       <c r="A95" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>14</v>
@@ -23915,32 +23895,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.35" customHeight="1">
+    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.25" customHeight="1">
       <c r="A96" s="15"/>
       <c r="B96" s="30"/>
       <c r="C96" s="16"/>
       <c r="D96" s="17"/>
       <c r="E96" s="31" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="51">
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="60">
       <c r="A97" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F97" s="12" t="s">
         <v>32</v>
@@ -23949,21 +23929,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" ht="38.25">
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="45">
       <c r="A98" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>32</v>
@@ -23972,9 +23952,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" ht="51">
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="60">
       <c r="A99" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>24</v>
@@ -23983,10 +23963,10 @@
         <v>23</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F99" s="12" t="s">
         <v>14</v>
@@ -23995,1140 +23975,1140 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.35" customHeight="1">
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.25" customHeight="1">
       <c r="A100" s="41"/>
       <c r="B100" s="42"/>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="45" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="1:7" ht="102">
+    <row r="101" spans="1:7" ht="120">
       <c r="A101" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F101" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="102">
+    <row r="102" spans="1:7" ht="120">
       <c r="A102" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="18" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="102">
+    <row r="103" spans="1:7" ht="120">
       <c r="A103" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="102">
+    <row r="104" spans="1:7" ht="120">
       <c r="A104" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="102">
+    <row r="105" spans="1:7" ht="120">
       <c r="A105" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="102">
+    <row r="106" spans="1:7" ht="105">
       <c r="A106" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="102">
+    <row r="107" spans="1:7" ht="120">
       <c r="A107" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="102">
+    <row r="108" spans="1:7" ht="120">
       <c r="A108" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="102">
+    <row r="109" spans="1:7" ht="120">
       <c r="A109" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="382.5">
+    <row r="110" spans="1:7" ht="409.6">
       <c r="A110" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B110" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="E110" s="18" t="s">
         <v>417</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>422</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="127.5">
+    <row r="111" spans="1:7" ht="135">
       <c r="A111" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="114.75">
+    <row r="112" spans="1:7" ht="120">
       <c r="A112" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="102">
+    <row r="113" spans="1:7" ht="120">
       <c r="A113" s="18"/>
       <c r="B113" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="E113" s="40" t="s">
         <v>585</v>
-      </c>
-      <c r="C113" s="39" t="s">
-        <v>581</v>
-      </c>
-      <c r="E113" s="40" t="s">
-        <v>591</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G113" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="395.25">
+    <row r="114" spans="1:7" ht="409.6">
       <c r="A114" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="127.5">
+    <row r="115" spans="1:7" ht="150">
       <c r="A115" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="127.5">
+    <row r="116" spans="1:7" ht="135">
       <c r="A116" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="51.75">
+    <row r="117" spans="1:7" ht="75">
       <c r="A117" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="51.75">
+    <row r="118" spans="1:7" ht="75">
       <c r="A118" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="51.75">
+    <row r="119" spans="1:7" ht="75">
       <c r="A119" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="51.75">
+    <row r="120" spans="1:7" ht="75">
       <c r="A120" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="51.75">
+    <row r="121" spans="1:7" ht="75">
       <c r="A121" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="90">
+    <row r="122" spans="1:7" ht="105">
       <c r="A122" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="115.5">
+    <row r="123" spans="1:7" ht="135">
       <c r="A123" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="90">
+    <row r="124" spans="1:7" ht="105">
       <c r="A124" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="51.75">
+    <row r="125" spans="1:7" ht="75">
       <c r="A125" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="64.5">
+    <row r="126" spans="1:7" ht="75">
       <c r="A126" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="90">
+    <row r="127" spans="1:7" ht="105">
       <c r="A127" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="383.25">
+    <row r="128" spans="1:7" ht="409.6">
       <c r="A128" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="115.5">
+    <row r="129" spans="1:7" ht="135">
       <c r="A129" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="102.75">
+    <row r="130" spans="1:7" ht="120">
       <c r="A130" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="64.5">
+    <row r="131" spans="1:7" ht="75">
       <c r="A131" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="166.5">
+    <row r="132" spans="1:7" ht="180">
       <c r="A132" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="64.5">
+    <row r="133" spans="1:7" ht="75">
       <c r="A133" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="51">
+    <row r="134" spans="1:7" ht="75">
       <c r="A134" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="64.5">
+    <row r="135" spans="1:7" ht="75">
       <c r="A135" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="51">
+    <row r="136" spans="1:7" ht="75">
       <c r="A136" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="51.75">
+    <row r="137" spans="1:7" ht="75">
       <c r="A137" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="51">
+    <row r="138" spans="1:7" ht="75">
       <c r="A138" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="51">
+    <row r="139" spans="1:7" ht="75">
       <c r="A139" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="51">
+    <row r="140" spans="1:7" ht="75">
       <c r="A140" s="18" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="409.6">
       <c r="A141" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="153.75">
+    <row r="142" spans="1:7" ht="180">
       <c r="A142" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="409.6">
       <c r="A143" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="77.25">
+    <row r="144" spans="1:7" ht="90">
       <c r="A144" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:1027" ht="383.25">
+    <row r="145" spans="1:1027" ht="409.6">
       <c r="A145" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="146" spans="1:1027" ht="204.75">
+    <row r="146" spans="1:1027" ht="240">
       <c r="A146" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:1027" ht="115.5">
+    <row r="147" spans="1:1027" ht="135">
       <c r="A147" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="148" spans="1:1027" ht="166.5">
+    <row r="148" spans="1:1027" ht="195">
       <c r="A148" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:1027" ht="76.5">
+    <row r="149" spans="1:1027" ht="105">
       <c r="A149" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G149" s="19" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="150" spans="1:1027" ht="38.25">
+    <row r="150" spans="1:1027" ht="45">
       <c r="A150" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="151" spans="1:1027" ht="166.5">
+    <row r="151" spans="1:1027" ht="180">
       <c r="A151" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="152" spans="1:1027" ht="51">
+    <row r="152" spans="1:1027" ht="75">
       <c r="A152" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G152" s="19" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1027" ht="75">
+      <c r="A153" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="153" spans="1:1027" ht="51">
-      <c r="A153" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="C153" s="38" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="154" spans="1:1027" ht="51">
+    <row r="154" spans="1:1027" ht="75">
       <c r="A154" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="155" spans="1:1027" ht="51">
+    <row r="155" spans="1:1027" ht="75">
       <c r="A155" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156" spans="1:1027" s="52" customFormat="1">
@@ -25136,7 +25116,7 @@
       <c r="B156" s="47"/>
       <c r="C156" s="46"/>
       <c r="D156" s="48" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E156" s="47"/>
       <c r="F156" s="46"/>
@@ -26162,444 +26142,444 @@
       <c r="AML156" s="46"/>
       <c r="AMM156" s="46"/>
     </row>
-    <row r="157" spans="1:1027" ht="51.75">
+    <row r="157" spans="1:1027" ht="75">
       <c r="A157" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="158" spans="1:1027" ht="51.75">
+    <row r="158" spans="1:1027" ht="75">
       <c r="A158" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="159" spans="1:1027" ht="26.25">
+    <row r="159" spans="1:1027" ht="30">
       <c r="A159" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="160" spans="1:1027" ht="26.25">
+    <row r="160" spans="1:1027" ht="30">
       <c r="A160" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="26.25">
+    <row r="161" spans="1:7" ht="30">
       <c r="A161" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="51">
+    <row r="162" spans="1:7" ht="75">
       <c r="A162" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G162" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="102.75">
+    <row r="163" spans="1:7" ht="120">
       <c r="A163" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="64.5">
+    <row r="164" spans="1:7" ht="75">
       <c r="A164" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G164" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="102.75">
+    <row r="165" spans="1:7" ht="120">
       <c r="A165" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G165" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="64.5">
+    <row r="166" spans="1:7" ht="75">
       <c r="A166" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E166" s="37" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G166" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="77.25">
+    <row r="167" spans="1:7" ht="90">
       <c r="A167" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G167" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="102.75">
+    <row r="168" spans="1:7" ht="120">
       <c r="A168" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G168" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="64.5">
+    <row r="169" spans="1:7" ht="75">
       <c r="A169" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="64.5">
+    <row r="170" spans="1:7" ht="75">
       <c r="A170" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E170" s="37" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G170" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="51.75">
+    <row r="171" spans="1:7" ht="60">
       <c r="A171" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="64.5">
+    <row r="172" spans="1:7" ht="75">
       <c r="A172" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="64.5">
+    <row r="173" spans="1:7" ht="75">
       <c r="A173" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="51.75">
+    <row r="174" spans="1:7" ht="60">
       <c r="A174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="51.75">
+    <row r="175" spans="1:7" ht="60">
       <c r="A175" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E175" s="37" t="s">
         <v>605</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="E175" s="37" t="s">
-        <v>611</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="64.5">
+    <row r="176" spans="1:7" ht="75">
       <c r="A176" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E176" s="37" t="s">
         <v>606</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="E176" s="37" t="s">
-        <v>612</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="90">
+    <row r="177" spans="1:7" ht="105">
       <c r="A177" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E177" s="37" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="64.5">
+    <row r="178" spans="1:7" ht="75">
       <c r="A178" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E178" s="37" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Documents/PhD/Publications/2023_Shakir_LeFoll/MFTE_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F867EBD-376C-D441-9C19-1065B624040E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A0C16-E850-4799-838B-F8B7780FFA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -17033,39 +17033,9 @@
     </r>
   </si>
   <si>
-    <t>Any word tagged as MDCA, MDCO, MDMM</t>
-  </si>
-  <si>
-    <t>Any word tagged as MDWS, MDWO, GTO</t>
-  </si>
-  <si>
-    <t>Any word tagged as PASS, PGET</t>
-  </si>
-  <si>
-    <t>Any word tagged as RATT, RNONFACT, RFACT, RLIKELY</t>
-  </si>
-  <si>
     <t>All that complement clauses preceded by stance adjectives, nouns, and verbs</t>
   </si>
   <si>
-    <t>Any word tagged as ThJATT, ThJFCT, ThJLIK, ThJEVL</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK, ThJATT, ThJFCT, ThJLIK, ThJEVL, ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK</t>
-  </si>
-  <si>
-    <t>Any word tagged as ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL</t>
-  </si>
-  <si>
-    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL, ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL, ToNSTNC</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">All </t>
     </r>
@@ -17092,12 +17062,6 @@
     </r>
   </si>
   <si>
-    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL</t>
-  </si>
-  <si>
-    <t>Any word tagged as WhVATT, WhVFCT, WhVLIK, WhVCOM</t>
-  </si>
-  <si>
     <t>Biber 1988, adapted by Shakir</t>
   </si>
   <si>
@@ -17471,6 +17435,1026 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clauses not preceded by a stance noun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses not preceded by a stance adjective or verb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clauses not preceded by a stance verb</t>
+    </r>
+  </si>
+  <si>
+    <t>Shakir</t>
+  </si>
+  <si>
+    <t>Composite tags</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doubtful, likely, possible, probable, unlikely</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apparent, certain, clear, confident, convinced, correct, evident, false, impossible, inevitable, obvious, positive, right, sure, true, well-known.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_TAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realizes, realize, realizing, recognizes, recognize, recognized, recognizing, realised, realises, realise, realising, recognises, recognise, recognised, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subordinate clauses (other than relatives) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preceded by likelihood verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subordinate clauses (other than relatives)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preceded by factive verbs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">that </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">subordinate clauses (other than relatives) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preceded by attitutidinal verbs</t>
+    </r>
+  </si>
+  <si>
+    <t>All modals of possibility</t>
+  </si>
+  <si>
+    <t>Proper nouns</t>
+  </si>
+  <si>
+    <t>NNP</t>
+  </si>
+  <si>
+    <t>Nouns tagged as NNP and NNPS by Stanford Tagger.</t>
+  </si>
+  <si>
+    <t>Le Foll and Shakir</t>
+  </si>
+  <si>
+    <t>Extended features added in the MFTE python version 1.0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>That</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>PP1S</t>
+  </si>
+  <si>
+    <t>PP1P</t>
+  </si>
+  <si>
+    <t>PP2</t>
+  </si>
+  <si>
+    <t>PP3S</t>
+  </si>
+  <si>
+    <t>PP3P</t>
+  </si>
+  <si>
+    <t>PP1</t>
+  </si>
+  <si>
+    <t>PP3</t>
+  </si>
+  <si>
+    <t>All 1st person referents</t>
+  </si>
+  <si>
+    <t>All 3rd person referents</t>
+  </si>
+  <si>
+    <t>Any personal pronoun not included in the other categories</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This tag consists of the remaining personal pronouns not yet tagged as either first (PR1), second (PR2) or third (PR3) person pronouns. In practice, this should only leave </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">one </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and any misspelt, historical or dialectal forms not captured by the other categories.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ppother</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Following Biber (1988), all occurrences of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you, your, yourself, yourselves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Following Nini (2014: 18), also includes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">thy, thee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thyself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In addition, the forms</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> u, ur, ye, y'all, ya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the nominal possessive pronoun </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> were also added.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assigned to all occurrences of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as long as,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unless,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lest, in that case, otherwise, even when </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whether.</t>
+    </r>
+  </si>
+  <si>
+    <t>Any word tagged with PP1P, PP1S. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged with PP3P, PP3S. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as MDCA, MDCO, MDMM. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as MDWS, MDWO, GTO. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as PASS, PGET. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as RATT, RNONFACT, RFACT, RLIKELY. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThJATT, ThJFCT, ThJLIK, ThJEVL. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThNNFCT, ThNATT, ThNFCT, ThNLIK. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK, ThJATT, ThJFCT, ThJLIK, ThJEVL, ThNNFCT, ThNATT, ThNFCT, ThNLIK. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL, ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL, ToNSTNC. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <t>Any word tagged as WhVATT, WhVFCT, WhVLIK, WhVCOM. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Any word tagged as </t>
     </r>
     <r>
@@ -17482,6 +18466,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>_NN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with semantic classes of nouns. If semantic classes of nouns are included, this feature should be used instead of the original NN.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>_IN</t>
     </r>
     <r>
@@ -17492,7 +18502,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with stance related prepositions. If stance prepositions are included, this feature should be used instead of the original IN.</t>
     </r>
   </si>
   <si>
@@ -17518,7 +18528,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with semantic classes of adjectives. If semantic classes of adjectives (stance related adjectives) are included, this feature should be used instead of the original JJAT.</t>
     </r>
   </si>
   <si>
@@ -17544,7 +18554,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with semantic classes of adjectives. If semantic classes of adjectives (stance related adjectives) are included, this feature should be used instead of the original JJAT.</t>
     </r>
   </si>
   <si>
@@ -17560,17 +18570,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_NN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with WHSC followed by semantic classes of verbs. If those features are included, this feature should be used instead of the original WHSC.</t>
     </r>
   </si>
   <si>
@@ -17586,6 +18596,58 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>_THRC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with THRC followed by semantic classes of nouns et cetera. If those features are included, this feature should be used instead of the original THRC.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with THSC followed by semantic classes of verbs and adjectives et cetera. If those features are included, this feature should be used instead of the original THSC.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>_RB</t>
     </r>
     <r>
@@ -17596,1069 +18658,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THRC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clauses not preceded by a stance noun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>that</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses not preceded by a stance adjective or verb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clauses not preceded by a stance verb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
-    </r>
-  </si>
-  <si>
-    <t>Shakir</t>
-  </si>
-  <si>
-    <t>Composite tags</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doubtful, likely, possible, probable, unlikely</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>apparent, certain, clear, confident, convinced, correct, evident, false, impossible, inevitable, obvious, positive, right, sure, true, well-known.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>grounds, ground, hope, hopes, reason, reasons, view, views, thought, thoughts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assertion, assertions, conclusion, conclusions, conviction, convictions, discovery, discoveries, doubt, doubts, fact, facts, knowledge, knowledges, observation, observations, principle, principles, realization, realizations, result, results, statement, statements</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>assumption, assumptions, belief, beliefs, claim, claims, contention, contentions, feeling, feelings, hypothesis, hypotheses, idea, ideas, implication, implications, impression, impressions, notion, notions, opinion, opinions, possibility, possibilities, presumption, presumptions, suggestion, suggestions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> relative clause (THRC) tag preceded by any of the following words tagged as noun: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comment, comments, news, news, proposal, proposals, proposition, propositions, remark, remarks, report, reports, requirement, requirements.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as verb: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>agreeing, agreed, agree, agrees, anticipates, anticipated, anticipate, anticipating, complain, complained, complaining, complains, conceded, concede, concedes, conceding, ensure, expecting, expect, expects, expected, fears, feared, fear, fearing, feel, feels, feeling, felt, forgetting, forgets, forgotten, forgot, forget, hoped, hope, hopes, hoping, minding, minded, minds, mind, preferred, prefer, preferring, prefers, pretending, pretend, pretended, pretends, requiring, required, requires, require, wishes, wished, wish, wishing, worry, worrying, worries, worried</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word in the following list tagged as verb and (1) not followed by a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tag or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2) not having an additional tag apart from the usual underscore separated tag </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_TAG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>concluding, conclude, concluded, concludes, demonstrates, demonstrating, demonstrated, demonstrate, determining, determines, determine, determined, discovered, discovers, discover, discovering, finds, finding, found, find, knows, known, knowing, know, knew, learn, learns, learning, learnt, means, meaning, meant, mean, notifies, notices, notice, noticed, notify, notifying, noticing, notified, observed, observes, observing, observe, proven, prove, proving, proved, proves, realized, realizes, realize, realizing, recognizes, recognize, recognized, recognizing, realised, realises, realise, realising, recognises, recognise, recognised, recognising, remembered, remember, remembers, remembering, sees, seen, saw, seeing, see, showing, shows, shown, showed, show, understand, understands, understanding, understood</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subordinate clauses (other than relatives) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>preceded by likelihood verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subordinate clauses (other than relatives)  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>preceded by factive verbs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">that </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">subordinate clauses (other than relatives) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>preceded by attitutidinal verbs</t>
-    </r>
-  </si>
-  <si>
-    <t>All modals of possibility</t>
-  </si>
-  <si>
-    <t>Proper nouns</t>
-  </si>
-  <si>
-    <t>NNP</t>
-  </si>
-  <si>
-    <t>Nouns tagged as NNP and NNPS by Stanford Tagger.</t>
-  </si>
-  <si>
-    <t>Le Foll and Shakir</t>
-  </si>
-  <si>
-    <t>Extended features added in the MFTE python version 1.0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>That</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> complement clause (THSC) tag preceded by any of the following words tagged as adjective: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>afraid, amazed, (un)aware, concerned, disappointed, encouraged, glad, happy, hopeful, pleased, shocked, surprised, worried</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>PP1S</t>
-  </si>
-  <si>
-    <t>PP1P</t>
-  </si>
-  <si>
-    <t>PP2</t>
-  </si>
-  <si>
-    <t>PP3S</t>
-  </si>
-  <si>
-    <t>PP3P</t>
-  </si>
-  <si>
-    <t>PP1</t>
-  </si>
-  <si>
-    <t>Any word tagged with PP1P, PP1S</t>
-  </si>
-  <si>
-    <t>PP3</t>
-  </si>
-  <si>
-    <t>Any word tagged with PP3P, PP3S</t>
-  </si>
-  <si>
-    <t>All 1st person referents</t>
-  </si>
-  <si>
-    <t>All 3rd person referents</t>
-  </si>
-  <si>
-    <t>Any personal pronoun not included in the other categories</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This tag consists of the remaining personal pronouns not yet tagged as either first (PR1), second (PR2) or third (PR3) person pronouns. In practice, this should only leave </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">one </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and any misspelt, historical or dialectal forms not captured by the other categories.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ppother</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Following Biber (1988), all occurrences of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>you, your, yourself, yourselves</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Following Nini (2014: 18), also includes </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">thy, thee </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>thyself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. In addition, the forms</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> u, ur, ye, y'all, ya</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>thine</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and the nominal possessive pronoun </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yours</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> were also added.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Assigned to all occurrences of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>if,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>as long as,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>unless,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">lest, in that case, otherwise, even when </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>whether.</t>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with semantic classes of adverbs. If semantic classes of adverbs (stance related adverbs) are included, this feature should be used instead of the original RB.</t>
     </r>
   </si>
 </sst>
@@ -19693,30 +19693,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B175" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="70.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.6640625" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.1640625" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.6640625" style="7"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.625" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.125" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.625" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1" ht="30">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="25.5">
       <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
@@ -19750,7 +19750,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A3" s="12" t="s">
         <v>284</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="45">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="38.25">
       <c r="A4" s="12" t="s">
         <v>284</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
         <v>284</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="45">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="51">
       <c r="A6" s="12" t="s">
         <v>284</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="120">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="102">
       <c r="A7" s="12" t="s">
         <v>284</v>
       </c>
@@ -19876,7 +19876,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A9" s="18" t="s">
         <v>223</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A10" s="18" t="s">
         <v>223</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A11" s="18" t="s">
         <v>221</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A12" s="22" t="s">
         <v>221</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A13" s="22" t="s">
         <v>221</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A14" s="22" t="s">
         <v>221</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A15" s="18" t="s">
         <v>220</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A16" s="18" t="s">
         <v>220</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.25" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.349999999999994" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>220</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A19" s="21" t="s">
         <v>220</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A20" s="18" t="s">
         <v>224</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A21" s="18" t="s">
         <v>224</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A22" s="18" t="s">
         <v>224</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A23" s="18" t="s">
         <v>224</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A24" s="18" t="s">
         <v>224</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>239</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>32</v>
@@ -20244,7 +20244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A25" s="18" t="s">
         <v>224</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A26" s="18" t="s">
         <v>224</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A27" s="18" t="s">
         <v>224</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A28" s="18" t="s">
         <v>224</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A29" s="18" t="s">
         <v>224</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A30" s="18" t="s">
         <v>224</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A31" s="18" t="s">
         <v>224</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A32" s="18" t="s">
         <v>224</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A33" s="18" t="s">
         <v>224</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A34" s="18" t="s">
         <v>224</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A35" s="18" t="s">
         <v>224</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A36" s="18" t="s">
         <v>34</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A37" s="18" t="s">
         <v>34</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A38" s="18" t="s">
         <v>34</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A39" s="18" t="s">
         <v>34</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A40" s="18" t="s">
         <v>34</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A41" s="18" t="s">
         <v>71</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A42" s="18" t="s">
         <v>117</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>244</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>242</v>
@@ -20681,7 +20681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>245</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>243</v>
@@ -20704,7 +20704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A45" s="18" t="s">
         <v>60</v>
       </c>
@@ -20712,13 +20712,13 @@
         <v>246</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>32</v>
@@ -20727,7 +20727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
@@ -20750,21 +20750,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A47" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>32</v>
@@ -20773,7 +20773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A48" s="18" t="s">
         <v>60</v>
       </c>
@@ -20781,7 +20781,7 @@
         <v>248</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>249</v>
@@ -20796,7 +20796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A49" s="18" t="s">
         <v>60</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>247</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>250</v>
@@ -20819,7 +20819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A50" s="18" t="s">
         <v>60</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A51" s="18" t="s">
         <v>227</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A52" s="18" t="s">
         <v>227</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A53" s="18" t="s">
         <v>227</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A54" s="18" t="s">
         <v>227</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A55" s="18" t="s">
         <v>227</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A56" s="18" t="s">
         <v>222</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A57" s="18" t="s">
         <v>222</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A58" s="18" t="s">
         <v>65</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A60" s="18" t="s">
         <v>228</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A61" s="18" t="s">
         <v>228</v>
       </c>
@@ -21095,7 +21095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="120">
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A62" s="18" t="s">
         <v>228</v>
       </c>
@@ -21118,7 +21118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A63" s="18" t="s">
         <v>228</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A64" s="18" t="s">
         <v>228</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A65" s="18" t="s">
         <v>228</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A66" s="18" t="s">
         <v>228</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A67" s="18" t="s">
         <v>228</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A68" s="18" t="s">
         <v>228</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A69" s="18" t="s">
         <v>228</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" ht="120">
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A70" s="18" t="s">
         <v>228</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A71" s="18" t="s">
         <v>228</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A72" s="18" t="s">
         <v>228</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A73" s="18" t="s">
         <v>91</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A74" s="18" t="s">
         <v>91</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A75" s="18" t="s">
         <v>91</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A76" s="18" t="s">
         <v>91</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="150">
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A77" s="18" t="s">
         <v>91</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A78" s="18" t="s">
         <v>91</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="180">
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A79" s="18" t="s">
         <v>91</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A80" s="18" t="s">
         <v>91</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="7" customFormat="1" ht="75">
+    <row r="81" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A81" s="18" t="s">
         <v>91</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="82" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A82" s="18" t="s">
         <v>91</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="7" customFormat="1" ht="60">
+    <row r="83" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A83" s="18" t="s">
         <v>91</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="84" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A84" s="18" t="s">
         <v>91</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="85" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A85" s="18" t="s">
         <v>91</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="7" customFormat="1" ht="60">
+    <row r="86" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A86" s="18" t="s">
         <v>91</v>
       </c>
@@ -21670,7 +21670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="7" customFormat="1" ht="45">
+    <row r="87" spans="1:1022" s="7" customFormat="1" ht="38.25">
       <c r="A87" s="18" t="s">
         <v>91</v>
       </c>
@@ -21704,7 +21704,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:1022" s="8" customFormat="1" ht="60">
+    <row r="89" spans="1:1022" s="8" customFormat="1" ht="51">
       <c r="A89" s="12" t="s">
         <v>34</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="AMG89" s="5"/>
       <c r="AMH89" s="5"/>
     </row>
-    <row r="90" spans="1:1022" s="8" customFormat="1" ht="45">
+    <row r="90" spans="1:1022" s="8" customFormat="1" ht="51">
       <c r="A90" s="12" t="s">
         <v>34</v>
       </c>
@@ -23780,7 +23780,7 @@
       <c r="AMG90" s="5"/>
       <c r="AMH90" s="5"/>
     </row>
-    <row r="91" spans="1:1022" s="8" customFormat="1" ht="75">
+    <row r="91" spans="1:1022" s="8" customFormat="1" ht="63.75">
       <c r="A91" s="12" t="s">
         <v>228</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="7" customFormat="1" ht="75">
+    <row r="92" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A92" s="12" t="s">
         <v>228</v>
       </c>
@@ -23826,7 +23826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="8" customFormat="1" ht="105">
+    <row r="93" spans="1:1022" s="8" customFormat="1" ht="89.25">
       <c r="A93" s="12" t="s">
         <v>91</v>
       </c>
@@ -23849,7 +23849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="8" customFormat="1" ht="90">
+    <row r="94" spans="1:1022" s="8" customFormat="1" ht="76.5">
       <c r="A94" s="12" t="s">
         <v>91</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="8" customFormat="1" ht="75">
+    <row r="95" spans="1:1022" s="8" customFormat="1" ht="63.75">
       <c r="A95" s="12" t="s">
         <v>91</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.25" customHeight="1">
+    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.35" customHeight="1">
       <c r="A96" s="15"/>
       <c r="B96" s="30"/>
       <c r="C96" s="16"/>
@@ -23906,7 +23906,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A97" s="12" t="s">
         <v>91</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" ht="45">
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="38.25">
       <c r="A98" s="12" t="s">
         <v>228</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A99" s="12" t="s">
         <v>224</v>
       </c>
@@ -23975,18 +23975,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.25" customHeight="1">
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.35" customHeight="1">
       <c r="A100" s="41"/>
       <c r="B100" s="42"/>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="45" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="1:7" ht="120">
+    <row r="101" spans="1:7" ht="102">
       <c r="A101" s="18" t="s">
         <v>65</v>
       </c>
@@ -23998,7 +23998,7 @@
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="F101" s="18" t="s">
         <v>32</v>
@@ -24007,7 +24007,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="120">
+    <row r="102" spans="1:7" ht="102">
       <c r="A102" s="18" t="s">
         <v>65</v>
       </c>
@@ -24019,7 +24019,7 @@
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="18" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>32</v>
@@ -24028,7 +24028,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="120">
+    <row r="103" spans="1:7" ht="102">
       <c r="A103" s="18" t="s">
         <v>65</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>395</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>32</v>
@@ -24048,7 +24048,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="120">
+    <row r="104" spans="1:7" ht="102">
       <c r="A104" s="18" t="s">
         <v>65</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>396</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>32</v>
@@ -24068,7 +24068,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="120">
+    <row r="105" spans="1:7" ht="102">
       <c r="A105" s="18" t="s">
         <v>65</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>400</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>17</v>
@@ -24088,7 +24088,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="105">
+    <row r="106" spans="1:7" ht="102">
       <c r="A106" s="18" t="s">
         <v>65</v>
       </c>
@@ -24099,7 +24099,7 @@
         <v>401</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>17</v>
@@ -24108,7 +24108,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="120">
+    <row r="107" spans="1:7" ht="102">
       <c r="A107" s="18" t="s">
         <v>65</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>402</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>17</v>
@@ -24128,7 +24128,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="120">
+    <row r="108" spans="1:7" ht="102">
       <c r="A108" s="18" t="s">
         <v>65</v>
       </c>
@@ -24139,7 +24139,7 @@
         <v>403</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>17</v>
@@ -24148,18 +24148,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="120">
+    <row r="109" spans="1:7" ht="102">
       <c r="A109" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>413</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>32</v>
@@ -24168,7 +24168,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="409.6">
+    <row r="110" spans="1:7" ht="382.5">
       <c r="A110" s="18" t="s">
         <v>65</v>
       </c>
@@ -24188,12 +24188,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="135">
+    <row r="111" spans="1:7" ht="127.5">
       <c r="A111" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>415</v>
@@ -24208,12 +24208,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="120">
+    <row r="112" spans="1:7" ht="114.75">
       <c r="A112" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>416</v>
@@ -24228,16 +24228,16 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="120">
+    <row r="113" spans="1:7" ht="102">
       <c r="A113" s="18"/>
       <c r="B113" s="40" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
@@ -24246,18 +24246,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="409.6">
+    <row r="114" spans="1:7" ht="395.25">
       <c r="A114" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
@@ -24266,18 +24266,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="150">
+    <row r="115" spans="1:7" ht="127.5">
       <c r="A115" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
@@ -24286,18 +24286,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="135">
+    <row r="116" spans="1:7" ht="127.5">
       <c r="A116" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
@@ -24306,7 +24306,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="75">
+    <row r="117" spans="1:7" ht="51.75">
       <c r="A117" s="18" t="s">
         <v>65</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="75">
+    <row r="118" spans="1:7" ht="51.75">
       <c r="A118" s="18" t="s">
         <v>65</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="75">
+    <row r="119" spans="1:7" ht="51.75">
       <c r="A119" s="18" t="s">
         <v>65</v>
       </c>
@@ -24369,7 +24369,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="75">
+    <row r="120" spans="1:7" ht="51.75">
       <c r="A120" s="18" t="s">
         <v>65</v>
       </c>
@@ -24390,7 +24390,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="75">
+    <row r="121" spans="1:7" ht="51.75">
       <c r="A121" s="18" t="s">
         <v>65</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="105">
+    <row r="122" spans="1:7" ht="90">
       <c r="A122" s="18" t="s">
         <v>65</v>
       </c>
@@ -24432,7 +24432,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="135">
+    <row r="123" spans="1:7" ht="115.5">
       <c r="A123" s="18" t="s">
         <v>65</v>
       </c>
@@ -24453,7 +24453,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="105">
+    <row r="124" spans="1:7" ht="90">
       <c r="A124" s="18" t="s">
         <v>65</v>
       </c>
@@ -24474,7 +24474,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="75">
+    <row r="125" spans="1:7" ht="51.75">
       <c r="A125" s="18" t="s">
         <v>65</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="75">
+    <row r="126" spans="1:7" ht="64.5">
       <c r="A126" s="18" t="s">
         <v>65</v>
       </c>
@@ -24516,7 +24516,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="105">
+    <row r="127" spans="1:7" ht="90">
       <c r="A127" s="18" t="s">
         <v>65</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="409.6">
+    <row r="128" spans="1:7" ht="383.25">
       <c r="A128" s="18" t="s">
         <v>65</v>
       </c>
@@ -24558,7 +24558,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="135">
+    <row r="129" spans="1:7" ht="115.5">
       <c r="A129" s="18" t="s">
         <v>65</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="120">
+    <row r="130" spans="1:7" ht="102.75">
       <c r="A130" s="18" t="s">
         <v>65</v>
       </c>
@@ -24600,7 +24600,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="75">
+    <row r="131" spans="1:7" ht="64.5">
       <c r="A131" s="18" t="s">
         <v>65</v>
       </c>
@@ -24620,7 +24620,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="180">
+    <row r="132" spans="1:7" ht="166.5">
       <c r="A132" s="18" t="s">
         <v>65</v>
       </c>
@@ -24640,7 +24640,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="75">
+    <row r="133" spans="1:7" ht="64.5">
       <c r="A133" s="18" t="s">
         <v>548</v>
       </c>
@@ -24660,7 +24660,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="75">
+    <row r="134" spans="1:7" ht="51">
       <c r="A134" s="18" t="s">
         <v>548</v>
       </c>
@@ -24680,7 +24680,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="75">
+    <row r="135" spans="1:7" ht="64.5">
       <c r="A135" s="18" t="s">
         <v>548</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="75">
+    <row r="136" spans="1:7" ht="51">
       <c r="A136" s="18" t="s">
         <v>548</v>
       </c>
@@ -24720,7 +24720,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="75">
+    <row r="137" spans="1:7" ht="51.75">
       <c r="A137" s="18" t="s">
         <v>548</v>
       </c>
@@ -24740,7 +24740,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="75">
+    <row r="138" spans="1:7" ht="51">
       <c r="A138" s="18" t="s">
         <v>548</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="75">
+    <row r="139" spans="1:7" ht="51">
       <c r="A139" s="18" t="s">
         <v>548</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="75">
+    <row r="140" spans="1:7" ht="51">
       <c r="A140" s="18" t="s">
         <v>548</v>
       </c>
@@ -24821,7 +24821,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="180">
+    <row r="142" spans="1:7" ht="153.75">
       <c r="A142" s="1" t="s">
         <v>549</v>
       </c>
@@ -24863,7 +24863,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="90">
+    <row r="144" spans="1:7" ht="77.25">
       <c r="A144" s="1" t="s">
         <v>549</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:1027" ht="409.6">
+    <row r="145" spans="1:1027" ht="383.25">
       <c r="A145" s="1" t="s">
         <v>549</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="146" spans="1:1027" ht="240">
+    <row r="146" spans="1:1027" ht="204.75">
       <c r="A146" s="1" t="s">
         <v>549</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:1027" ht="135">
+    <row r="147" spans="1:1027" ht="115.5">
       <c r="A147" s="1" t="s">
         <v>549</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="148" spans="1:1027" ht="195">
+    <row r="148" spans="1:1027" ht="166.5">
       <c r="A148" s="1" t="s">
         <v>549</v>
       </c>
@@ -24968,7 +24968,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:1027" ht="105">
+    <row r="149" spans="1:1027" ht="76.5">
       <c r="A149" s="1" t="s">
         <v>549</v>
       </c>
@@ -24989,28 +24989,28 @@
         <v>520</v>
       </c>
     </row>
-    <row r="150" spans="1:1027" ht="45">
+    <row r="150" spans="1:1027" ht="38.25">
       <c r="A150" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="151" spans="1:1027" ht="180">
+    <row r="151" spans="1:1027" ht="166.5">
       <c r="A151" s="1" t="s">
         <v>549</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="152" spans="1:1027" ht="75">
+    <row r="152" spans="1:1027" ht="51">
       <c r="A152" s="1" t="s">
         <v>550</v>
       </c>
@@ -25051,7 +25051,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="153" spans="1:1027" ht="75">
+    <row r="153" spans="1:1027" ht="51">
       <c r="A153" s="1" t="s">
         <v>550</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="1:1027" ht="75">
+    <row r="154" spans="1:1027" ht="51">
       <c r="A154" s="1" t="s">
         <v>550</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="155" spans="1:1027" ht="75">
+    <row r="155" spans="1:1027" ht="51">
       <c r="A155" s="1" t="s">
         <v>550</v>
       </c>
@@ -25116,7 +25116,7 @@
       <c r="B156" s="47"/>
       <c r="C156" s="46"/>
       <c r="D156" s="48" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="E156" s="47"/>
       <c r="F156" s="46"/>
@@ -26142,67 +26142,67 @@
       <c r="AML156" s="46"/>
       <c r="AMM156" s="46"/>
     </row>
-    <row r="157" spans="1:1027" ht="75">
+    <row r="157" spans="1:1027" ht="51.75">
       <c r="A157" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="E157" s="37" t="s">
-        <v>639</v>
+        <v>618</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="158" spans="1:1027" ht="75">
+    <row r="158" spans="1:1027" ht="51.75">
       <c r="A158" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="E158" s="37" t="s">
-        <v>641</v>
+        <v>619</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="159" spans="1:1027" ht="30">
+    <row r="159" spans="1:1027" ht="51.75">
       <c r="A159" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E159" s="37" t="s">
-        <v>560</v>
+      <c r="E159" s="1" t="s">
+        <v>629</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="160" spans="1:1027" ht="30">
+    <row r="160" spans="1:1027" ht="51.75">
       <c r="A160" s="1" t="s">
         <v>91</v>
       </c>
@@ -26213,16 +26213,16 @@
         <v>537</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="30">
+    <row r="161" spans="1:7" ht="39">
       <c r="A161" s="18" t="s">
         <v>228</v>
       </c>
@@ -26233,16 +26233,16 @@
         <v>538</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="75">
+    <row r="162" spans="1:7" ht="51.75">
       <c r="A162" s="1" t="s">
         <v>550</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>539</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>8</v>
@@ -26262,18 +26262,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="120">
+    <row r="163" spans="1:7" ht="102.75">
       <c r="A163" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>540</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>32</v>
@@ -26282,7 +26282,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="75">
+    <row r="164" spans="1:7" ht="64.5">
       <c r="A164" s="1" t="s">
         <v>65</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>541</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>32</v>
@@ -26302,7 +26302,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="120">
+    <row r="165" spans="1:7" ht="102.75">
       <c r="A165" s="1" t="s">
         <v>65</v>
       </c>
@@ -26313,7 +26313,7 @@
         <v>542</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
@@ -26322,7 +26322,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="75">
+    <row r="166" spans="1:7" ht="64.5">
       <c r="A166" s="1" t="s">
         <v>65</v>
       </c>
@@ -26332,8 +26332,8 @@
       <c r="C166" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="E166" s="37" t="s">
-        <v>568</v>
+      <c r="E166" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>32</v>
@@ -26342,7 +26342,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="90">
+    <row r="167" spans="1:7" ht="77.25">
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
@@ -26352,8 +26352,8 @@
       <c r="C167" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="E167" s="37" t="s">
-        <v>569</v>
+      <c r="E167" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
@@ -26362,18 +26362,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="120">
+    <row r="168" spans="1:7" ht="102.75">
       <c r="A168" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>545</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>8</v>
@@ -26382,7 +26382,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="75">
+    <row r="169" spans="1:7" ht="64.5">
       <c r="A169" s="1" t="s">
         <v>65</v>
       </c>
@@ -26392,8 +26392,8 @@
       <c r="C169" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="E169" s="37" t="s">
-        <v>572</v>
+      <c r="E169" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>32</v>
@@ -26402,7 +26402,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="75">
+    <row r="170" spans="1:7" ht="64.5">
       <c r="A170" s="1" t="s">
         <v>65</v>
       </c>
@@ -26412,8 +26412,8 @@
       <c r="C170" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="E170" s="37" t="s">
-        <v>573</v>
+      <c r="E170" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>32</v>
@@ -26422,164 +26422,164 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="60">
+    <row r="171" spans="1:7" ht="51.75">
       <c r="A171" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="E171" s="37" t="s">
-        <v>601</v>
+        <v>574</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="75">
+    <row r="172" spans="1:7" ht="64.5">
       <c r="A172" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="E172" s="37" t="s">
-        <v>602</v>
+        <v>575</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="75">
+    <row r="173" spans="1:7" ht="64.5">
       <c r="A173" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="E173" s="37" t="s">
-        <v>603</v>
+        <v>576</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>644</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="60">
+    <row r="174" spans="1:7" ht="51.75">
       <c r="A174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="E174" s="37" t="s">
-        <v>604</v>
+        <v>577</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>641</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="60">
+    <row r="175" spans="1:7" ht="51.75">
       <c r="A175" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="E175" s="37" t="s">
-        <v>605</v>
+        <v>578</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="75">
+    <row r="176" spans="1:7" ht="64.5">
       <c r="A176" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="E176" s="37" t="s">
-        <v>606</v>
+        <v>579</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>646</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="105">
+    <row r="177" spans="1:7" ht="90">
       <c r="A177" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="E177" s="37" t="s">
-        <v>610</v>
+        <v>580</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="75">
+    <row r="178" spans="1:7" ht="64.5">
       <c r="A178" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E178" s="37" t="s">
-        <v>611</v>
+        <v>581</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Documents/PhD/Publications/2023_Shakir_LeFoll/MFTE_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94A0C16-E850-4799-838B-F8B7780FFA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D570F4B-190B-EC4C-8E26-CD2C1471299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -17033,9 +17033,39 @@
     </r>
   </si>
   <si>
+    <t>Any word tagged as MDCA, MDCO, MDMM</t>
+  </si>
+  <si>
+    <t>Any word tagged as MDWS, MDWO, GTO</t>
+  </si>
+  <si>
+    <t>Any word tagged as PASS, PGET</t>
+  </si>
+  <si>
+    <t>Any word tagged as RATT, RNONFACT, RFACT, RLIKELY</t>
+  </si>
+  <si>
     <t>All that complement clauses preceded by stance adjectives, nouns, and verbs</t>
   </si>
   <si>
+    <t>Any word tagged as ThJATT, ThJFCT, ThJLIK, ThJEVL</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK, ThJATT, ThJFCT, ThJLIK, ThJEVL, ThNNFCT, ThNATT, ThNFCT, ThNLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL</t>
+  </si>
+  <si>
+    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL, ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL, ToNSTNC</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">All </t>
     </r>
@@ -17062,6 +17092,12 @@
     </r>
   </si>
   <si>
+    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL</t>
+  </si>
+  <si>
+    <t>Any word tagged as WhVATT, WhVFCT, WhVLIK, WhVCOM</t>
+  </si>
+  <si>
     <t>Biber 1988, adapted by Shakir</t>
   </si>
   <si>
@@ -17435,6 +17471,162 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_JJAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_JJPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_NN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_RB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THRC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <i/>
         <sz val="10"/>
@@ -17503,6 +17695,58 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_THSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Any word tagged as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_WHSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and having no additional semantic tag separated by a space.</t>
+    </r>
+  </si>
+  <si>
     <t>Shakir</t>
   </si>
   <si>
@@ -18140,9 +18384,15 @@
     <t>PP1</t>
   </si>
   <si>
+    <t>Any word tagged with PP1P, PP1S</t>
+  </si>
+  <si>
     <t>PP3</t>
   </si>
   <si>
+    <t>Any word tagged with PP3P, PP3S</t>
+  </si>
+  <si>
     <t>All 1st person referents</t>
   </si>
   <si>
@@ -18409,256 +18659,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>whether.</t>
-    </r>
-  </si>
-  <si>
-    <t>Any word tagged with PP1P, PP1S. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged with PP3P, PP3S. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as MDCA, MDCO, MDMM. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as MDWS, MDWO, GTO. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as PASS, PGET. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as RATT, RNONFACT, RFACT, RLIKELY. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThJATT, ThJFCT, ThJLIK, ThJEVL. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThNNFCT, ThNATT, ThNFCT, ThNLIK. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK, ThJATT, ThJFCT, ThJLIK, ThJEVL, ThNNFCT, ThNATT, ThNFCT, ThNLIK. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as ThVCOMM, ThVATT, ThVFCT, ThVLIK. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL, ToJCRTN, ToJABL, ToJEFCT, ToJEASE, ToJEVAL, ToNSTNC. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as ToVDSR, ToVEFRT, ToVPROB, ToVSPCH, ToVMNTL. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <t>Any word tagged as WhVATT, WhVFCT, WhVLIK, WhVCOM. This is an aggregate of the mentioned individual features. If this feature is included in the data table, the corresponding individual features should be excluded to avoid double counting and false correlation between the individual features and the general feature.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_NN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with semantic classes of nouns. If semantic classes of nouns are included, this feature should be used instead of the original NN.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_IN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with stance related prepositions. If stance prepositions are included, this feature should be used instead of the original IN.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_JJAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with semantic classes of adjectives. If semantic classes of adjectives (stance related adjectives) are included, this feature should be used instead of the original JJAT.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_JJPR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with semantic classes of adjectives. If semantic classes of adjectives (stance related adjectives) are included, this feature should be used instead of the original JJAT.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_WHSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with WHSC followed by semantic classes of verbs. If those features are included, this feature should be used instead of the original WHSC.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THRC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with THRC followed by semantic classes of nouns et cetera. If those features are included, this feature should be used instead of the original THRC.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_THSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with THSC followed by semantic classes of verbs and adjectives et cetera. If those features are included, this feature should be used instead of the original THSC.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Any word tagged as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_RB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and having no additional semantic tag separated by a space. This is an additional feature to circumvent double counting problem with semantic classes of adverbs. If semantic classes of adverbs (stance related adverbs) are included, this feature should be used instead of the original RB.</t>
     </r>
   </si>
 </sst>
@@ -19693,30 +19693,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="70.625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.625" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.125" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.625" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.625" style="7"/>
+    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1" ht="25.5">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="30">
       <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
@@ -19750,7 +19750,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="51">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="60">
       <c r="A3" s="12" t="s">
         <v>284</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="38.25">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="45">
       <c r="A4" s="12" t="s">
         <v>284</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="51">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="60">
       <c r="A5" s="12" t="s">
         <v>284</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="51">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="45">
       <c r="A6" s="12" t="s">
         <v>284</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="102">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="120">
       <c r="A7" s="12" t="s">
         <v>284</v>
       </c>
@@ -19876,7 +19876,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A9" s="18" t="s">
         <v>223</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A10" s="18" t="s">
         <v>223</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A11" s="18" t="s">
         <v>221</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A12" s="22" t="s">
         <v>221</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A13" s="22" t="s">
         <v>221</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A14" s="22" t="s">
         <v>221</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A15" s="18" t="s">
         <v>220</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A16" s="18" t="s">
         <v>220</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.349999999999994" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.25" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>220</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A19" s="21" t="s">
         <v>220</v>
       </c>
@@ -20129,7 +20129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A20" s="18" t="s">
         <v>224</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="114.75">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="135">
       <c r="A21" s="18" t="s">
         <v>224</v>
       </c>
@@ -20175,7 +20175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A22" s="18" t="s">
         <v>224</v>
       </c>
@@ -20198,7 +20198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A23" s="18" t="s">
         <v>224</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="30">
       <c r="A24" s="18" t="s">
         <v>224</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>239</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>32</v>
@@ -20244,7 +20244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="140.25">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="165">
       <c r="A25" s="18" t="s">
         <v>224</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A26" s="18" t="s">
         <v>224</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A27" s="18" t="s">
         <v>224</v>
       </c>
@@ -20313,7 +20313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A28" s="18" t="s">
         <v>224</v>
       </c>
@@ -20336,7 +20336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A29" s="18" t="s">
         <v>224</v>
       </c>
@@ -20359,7 +20359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A30" s="18" t="s">
         <v>224</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A31" s="18" t="s">
         <v>224</v>
       </c>
@@ -20405,7 +20405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A32" s="18" t="s">
         <v>224</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A33" s="18" t="s">
         <v>224</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="114.75">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="135">
       <c r="A34" s="18" t="s">
         <v>224</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A35" s="18" t="s">
         <v>224</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A36" s="18" t="s">
         <v>34</v>
       </c>
@@ -20520,7 +20520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A37" s="18" t="s">
         <v>34</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A38" s="18" t="s">
         <v>34</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="39" spans="1:7" s="7" customFormat="1">
       <c r="A39" s="18" t="s">
         <v>34</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A40" s="18" t="s">
         <v>34</v>
       </c>
@@ -20612,7 +20612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A41" s="18" t="s">
         <v>71</v>
       </c>
@@ -20635,7 +20635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A42" s="18" t="s">
         <v>117</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>244</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>242</v>
@@ -20681,7 +20681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -20689,7 +20689,7 @@
         <v>245</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>243</v>
@@ -20704,7 +20704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A45" s="18" t="s">
         <v>60</v>
       </c>
@@ -20712,13 +20712,13 @@
         <v>246</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>32</v>
@@ -20727,7 +20727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
@@ -20750,21 +20750,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A47" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>32</v>
@@ -20773,7 +20773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A48" s="18" t="s">
         <v>60</v>
       </c>
@@ -20781,7 +20781,7 @@
         <v>248</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>249</v>
@@ -20796,7 +20796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A49" s="18" t="s">
         <v>60</v>
       </c>
@@ -20804,7 +20804,7 @@
         <v>247</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>250</v>
@@ -20819,7 +20819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="30">
       <c r="A50" s="18" t="s">
         <v>60</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A51" s="18" t="s">
         <v>227</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A52" s="18" t="s">
         <v>227</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A53" s="18" t="s">
         <v>227</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A54" s="18" t="s">
         <v>227</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="89.25">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A55" s="18" t="s">
         <v>227</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A56" s="18" t="s">
         <v>222</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="153">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="165">
       <c r="A57" s="18" t="s">
         <v>222</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A58" s="18" t="s">
         <v>65</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A60" s="18" t="s">
         <v>228</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A61" s="18" t="s">
         <v>228</v>
       </c>
@@ -21095,7 +21095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="102">
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="120">
       <c r="A62" s="18" t="s">
         <v>228</v>
       </c>
@@ -21118,7 +21118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A63" s="18" t="s">
         <v>228</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A64" s="18" t="s">
         <v>228</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A65" s="18" t="s">
         <v>228</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A66" s="18" t="s">
         <v>228</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A67" s="18" t="s">
         <v>228</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" ht="140.25">
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="165">
       <c r="A68" s="18" t="s">
         <v>228</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A69" s="18" t="s">
         <v>228</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" ht="102">
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="120">
       <c r="A70" s="18" t="s">
         <v>228</v>
       </c>
@@ -21302,7 +21302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A71" s="18" t="s">
         <v>228</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" ht="63.75">
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="75">
       <c r="A72" s="18" t="s">
         <v>228</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" ht="114.75">
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="135">
       <c r="A73" s="18" t="s">
         <v>91</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="127.5">
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="135">
       <c r="A74" s="18" t="s">
         <v>91</v>
       </c>
@@ -21394,7 +21394,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="30">
       <c r="A75" s="18" t="s">
         <v>91</v>
       </c>
@@ -21417,7 +21417,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="51">
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="60">
       <c r="A76" s="18" t="s">
         <v>91</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="127.5">
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="150">
       <c r="A77" s="18" t="s">
         <v>91</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="76.5">
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="90">
       <c r="A78" s="18" t="s">
         <v>91</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="153">
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="180">
       <c r="A79" s="18" t="s">
         <v>91</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="38.25">
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="45">
       <c r="A80" s="18" t="s">
         <v>91</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="7" customFormat="1" ht="63.75">
+    <row r="81" spans="1:1022" s="7" customFormat="1" ht="75">
       <c r="A81" s="18" t="s">
         <v>91</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="7" customFormat="1" ht="25.5">
+    <row r="82" spans="1:1022" s="7" customFormat="1" ht="30">
       <c r="A82" s="18" t="s">
         <v>91</v>
       </c>
@@ -21578,7 +21578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="7" customFormat="1" ht="51">
+    <row r="83" spans="1:1022" s="7" customFormat="1" ht="60">
       <c r="A83" s="18" t="s">
         <v>91</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="7" customFormat="1" ht="25.5">
+    <row r="84" spans="1:1022" s="7" customFormat="1" ht="30">
       <c r="A84" s="18" t="s">
         <v>91</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="7" customFormat="1" ht="25.5">
+    <row r="85" spans="1:1022" s="7" customFormat="1" ht="30">
       <c r="A85" s="18" t="s">
         <v>91</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="7" customFormat="1" ht="51">
+    <row r="86" spans="1:1022" s="7" customFormat="1" ht="60">
       <c r="A86" s="18" t="s">
         <v>91</v>
       </c>
@@ -21670,7 +21670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="7" customFormat="1" ht="38.25">
+    <row r="87" spans="1:1022" s="7" customFormat="1" ht="45">
       <c r="A87" s="18" t="s">
         <v>91</v>
       </c>
@@ -21704,7 +21704,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:1022" s="8" customFormat="1" ht="51">
+    <row r="89" spans="1:1022" s="8" customFormat="1" ht="60">
       <c r="A89" s="12" t="s">
         <v>34</v>
       </c>
@@ -22742,7 +22742,7 @@
       <c r="AMG89" s="5"/>
       <c r="AMH89" s="5"/>
     </row>
-    <row r="90" spans="1:1022" s="8" customFormat="1" ht="51">
+    <row r="90" spans="1:1022" s="8" customFormat="1" ht="45">
       <c r="A90" s="12" t="s">
         <v>34</v>
       </c>
@@ -23780,7 +23780,7 @@
       <c r="AMG90" s="5"/>
       <c r="AMH90" s="5"/>
     </row>
-    <row r="91" spans="1:1022" s="8" customFormat="1" ht="63.75">
+    <row r="91" spans="1:1022" s="8" customFormat="1" ht="75">
       <c r="A91" s="12" t="s">
         <v>228</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="7" customFormat="1" ht="63.75">
+    <row r="92" spans="1:1022" s="7" customFormat="1" ht="75">
       <c r="A92" s="12" t="s">
         <v>228</v>
       </c>
@@ -23826,7 +23826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="8" customFormat="1" ht="89.25">
+    <row r="93" spans="1:1022" s="8" customFormat="1" ht="105">
       <c r="A93" s="12" t="s">
         <v>91</v>
       </c>
@@ -23849,7 +23849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="8" customFormat="1" ht="76.5">
+    <row r="94" spans="1:1022" s="8" customFormat="1" ht="90">
       <c r="A94" s="12" t="s">
         <v>91</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="8" customFormat="1" ht="63.75">
+    <row r="95" spans="1:1022" s="8" customFormat="1" ht="75">
       <c r="A95" s="12" t="s">
         <v>91</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.35" customHeight="1">
+    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.25" customHeight="1">
       <c r="A96" s="15"/>
       <c r="B96" s="30"/>
       <c r="C96" s="16"/>
@@ -23906,7 +23906,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="51">
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="60">
       <c r="A97" s="12" t="s">
         <v>91</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" ht="38.25">
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="45">
       <c r="A98" s="12" t="s">
         <v>228</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" ht="51">
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="60">
       <c r="A99" s="12" t="s">
         <v>224</v>
       </c>
@@ -23975,18 +23975,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.35" customHeight="1">
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.25" customHeight="1">
       <c r="A100" s="41"/>
       <c r="B100" s="42"/>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="45" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="1:7" ht="102">
+    <row r="101" spans="1:7" ht="120">
       <c r="A101" s="18" t="s">
         <v>65</v>
       </c>
@@ -23998,7 +23998,7 @@
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="F101" s="18" t="s">
         <v>32</v>
@@ -24007,7 +24007,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="102">
+    <row r="102" spans="1:7" ht="120">
       <c r="A102" s="18" t="s">
         <v>65</v>
       </c>
@@ -24019,7 +24019,7 @@
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="18" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>32</v>
@@ -24028,7 +24028,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="102">
+    <row r="103" spans="1:7" ht="120">
       <c r="A103" s="18" t="s">
         <v>65</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>395</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>32</v>
@@ -24048,7 +24048,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="102">
+    <row r="104" spans="1:7" ht="120">
       <c r="A104" s="18" t="s">
         <v>65</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>396</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>32</v>
@@ -24068,7 +24068,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="102">
+    <row r="105" spans="1:7" ht="120">
       <c r="A105" s="18" t="s">
         <v>65</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>400</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>17</v>
@@ -24088,7 +24088,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="102">
+    <row r="106" spans="1:7" ht="105">
       <c r="A106" s="18" t="s">
         <v>65</v>
       </c>
@@ -24099,7 +24099,7 @@
         <v>401</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>17</v>
@@ -24108,7 +24108,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="102">
+    <row r="107" spans="1:7" ht="120">
       <c r="A107" s="18" t="s">
         <v>65</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>402</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>17</v>
@@ -24128,7 +24128,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="102">
+    <row r="108" spans="1:7" ht="120">
       <c r="A108" s="18" t="s">
         <v>65</v>
       </c>
@@ -24139,7 +24139,7 @@
         <v>403</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>17</v>
@@ -24148,18 +24148,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="102">
+    <row r="109" spans="1:7" ht="120">
       <c r="A109" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>413</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>32</v>
@@ -24168,7 +24168,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="382.5">
+    <row r="110" spans="1:7" ht="409.6">
       <c r="A110" s="18" t="s">
         <v>65</v>
       </c>
@@ -24188,12 +24188,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="127.5">
+    <row r="111" spans="1:7" ht="135">
       <c r="A111" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>415</v>
@@ -24208,12 +24208,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="114.75">
+    <row r="112" spans="1:7" ht="120">
       <c r="A112" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>416</v>
@@ -24228,16 +24228,16 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="102">
+    <row r="113" spans="1:7" ht="120">
       <c r="A113" s="18"/>
       <c r="B113" s="40" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
@@ -24246,18 +24246,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="395.25">
+    <row r="114" spans="1:7" ht="409.6">
       <c r="A114" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
@@ -24266,18 +24266,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="127.5">
+    <row r="115" spans="1:7" ht="150">
       <c r="A115" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
@@ -24286,18 +24286,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="127.5">
+    <row r="116" spans="1:7" ht="135">
       <c r="A116" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
@@ -24306,7 +24306,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="51.75">
+    <row r="117" spans="1:7" ht="75">
       <c r="A117" s="18" t="s">
         <v>65</v>
       </c>
@@ -24327,7 +24327,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="51.75">
+    <row r="118" spans="1:7" ht="75">
       <c r="A118" s="18" t="s">
         <v>65</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="51.75">
+    <row r="119" spans="1:7" ht="75">
       <c r="A119" s="18" t="s">
         <v>65</v>
       </c>
@@ -24369,7 +24369,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="51.75">
+    <row r="120" spans="1:7" ht="75">
       <c r="A120" s="18" t="s">
         <v>65</v>
       </c>
@@ -24390,7 +24390,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="51.75">
+    <row r="121" spans="1:7" ht="75">
       <c r="A121" s="18" t="s">
         <v>65</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="90">
+    <row r="122" spans="1:7" ht="105">
       <c r="A122" s="18" t="s">
         <v>65</v>
       </c>
@@ -24432,7 +24432,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="115.5">
+    <row r="123" spans="1:7" ht="135">
       <c r="A123" s="18" t="s">
         <v>65</v>
       </c>
@@ -24453,7 +24453,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="90">
+    <row r="124" spans="1:7" ht="105">
       <c r="A124" s="18" t="s">
         <v>65</v>
       </c>
@@ -24474,7 +24474,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="51.75">
+    <row r="125" spans="1:7" ht="75">
       <c r="A125" s="18" t="s">
         <v>65</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="64.5">
+    <row r="126" spans="1:7" ht="75">
       <c r="A126" s="18" t="s">
         <v>65</v>
       </c>
@@ -24516,7 +24516,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="90">
+    <row r="127" spans="1:7" ht="105">
       <c r="A127" s="18" t="s">
         <v>65</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="383.25">
+    <row r="128" spans="1:7" ht="409.6">
       <c r="A128" s="18" t="s">
         <v>65</v>
       </c>
@@ -24558,7 +24558,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="115.5">
+    <row r="129" spans="1:7" ht="135">
       <c r="A129" s="18" t="s">
         <v>65</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="102.75">
+    <row r="130" spans="1:7" ht="120">
       <c r="A130" s="18" t="s">
         <v>65</v>
       </c>
@@ -24600,7 +24600,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="64.5">
+    <row r="131" spans="1:7" ht="75">
       <c r="A131" s="18" t="s">
         <v>65</v>
       </c>
@@ -24620,7 +24620,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="166.5">
+    <row r="132" spans="1:7" ht="180">
       <c r="A132" s="18" t="s">
         <v>65</v>
       </c>
@@ -24640,7 +24640,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="64.5">
+    <row r="133" spans="1:7" ht="75">
       <c r="A133" s="18" t="s">
         <v>548</v>
       </c>
@@ -24660,7 +24660,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="51">
+    <row r="134" spans="1:7" ht="75">
       <c r="A134" s="18" t="s">
         <v>548</v>
       </c>
@@ -24680,7 +24680,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="64.5">
+    <row r="135" spans="1:7" ht="75">
       <c r="A135" s="18" t="s">
         <v>548</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="51">
+    <row r="136" spans="1:7" ht="75">
       <c r="A136" s="18" t="s">
         <v>548</v>
       </c>
@@ -24720,7 +24720,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="51.75">
+    <row r="137" spans="1:7" ht="75">
       <c r="A137" s="18" t="s">
         <v>548</v>
       </c>
@@ -24740,7 +24740,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="51">
+    <row r="138" spans="1:7" ht="75">
       <c r="A138" s="18" t="s">
         <v>548</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="51">
+    <row r="139" spans="1:7" ht="75">
       <c r="A139" s="18" t="s">
         <v>548</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="51">
+    <row r="140" spans="1:7" ht="75">
       <c r="A140" s="18" t="s">
         <v>548</v>
       </c>
@@ -24821,7 +24821,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="153.75">
+    <row r="142" spans="1:7" ht="180">
       <c r="A142" s="1" t="s">
         <v>549</v>
       </c>
@@ -24863,7 +24863,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="77.25">
+    <row r="144" spans="1:7" ht="90">
       <c r="A144" s="1" t="s">
         <v>549</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:1027" ht="383.25">
+    <row r="145" spans="1:1027" ht="409.6">
       <c r="A145" s="1" t="s">
         <v>549</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="146" spans="1:1027" ht="204.75">
+    <row r="146" spans="1:1027" ht="240">
       <c r="A146" s="1" t="s">
         <v>549</v>
       </c>
@@ -24926,7 +24926,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:1027" ht="115.5">
+    <row r="147" spans="1:1027" ht="135">
       <c r="A147" s="1" t="s">
         <v>549</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="148" spans="1:1027" ht="166.5">
+    <row r="148" spans="1:1027" ht="195">
       <c r="A148" s="1" t="s">
         <v>549</v>
       </c>
@@ -24968,7 +24968,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:1027" ht="76.5">
+    <row r="149" spans="1:1027" ht="105">
       <c r="A149" s="1" t="s">
         <v>549</v>
       </c>
@@ -24989,28 +24989,28 @@
         <v>520</v>
       </c>
     </row>
-    <row r="150" spans="1:1027" ht="38.25">
+    <row r="150" spans="1:1027" ht="45">
       <c r="A150" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="151" spans="1:1027" ht="166.5">
+    <row r="151" spans="1:1027" ht="180">
       <c r="A151" s="1" t="s">
         <v>549</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="152" spans="1:1027" ht="51">
+    <row r="152" spans="1:1027" ht="75">
       <c r="A152" s="1" t="s">
         <v>550</v>
       </c>
@@ -25051,7 +25051,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="153" spans="1:1027" ht="51">
+    <row r="153" spans="1:1027" ht="75">
       <c r="A153" s="1" t="s">
         <v>550</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="1:1027" ht="51">
+    <row r="154" spans="1:1027" ht="75">
       <c r="A154" s="1" t="s">
         <v>550</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="155" spans="1:1027" ht="51">
+    <row r="155" spans="1:1027" ht="75">
       <c r="A155" s="1" t="s">
         <v>550</v>
       </c>
@@ -25116,7 +25116,7 @@
       <c r="B156" s="47"/>
       <c r="C156" s="46"/>
       <c r="D156" s="48" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="E156" s="47"/>
       <c r="F156" s="46"/>
@@ -26142,67 +26142,67 @@
       <c r="AML156" s="46"/>
       <c r="AMM156" s="46"/>
     </row>
-    <row r="157" spans="1:1027" ht="51.75">
+    <row r="157" spans="1:1027" ht="75">
       <c r="A157" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
+      </c>
+      <c r="E157" s="37" t="s">
+        <v>639</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="158" spans="1:1027" ht="51.75">
+    <row r="158" spans="1:1027" ht="75">
       <c r="A158" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
+      </c>
+      <c r="E158" s="37" t="s">
+        <v>641</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="159" spans="1:1027" ht="51.75">
+    <row r="159" spans="1:1027" ht="30">
       <c r="A159" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>629</v>
+      <c r="E159" s="37" t="s">
+        <v>560</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="160" spans="1:1027" ht="51.75">
+    <row r="160" spans="1:1027" ht="30">
       <c r="A160" s="1" t="s">
         <v>91</v>
       </c>
@@ -26213,16 +26213,16 @@
         <v>537</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>630</v>
+        <v>561</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="39">
+    <row r="161" spans="1:7" ht="30">
       <c r="A161" s="18" t="s">
         <v>228</v>
       </c>
@@ -26233,16 +26233,16 @@
         <v>538</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>631</v>
+        <v>562</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="51.75">
+    <row r="162" spans="1:7" ht="75">
       <c r="A162" s="1" t="s">
         <v>550</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>539</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>632</v>
+        <v>563</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>8</v>
@@ -26262,18 +26262,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="102.75">
+    <row r="163" spans="1:7" ht="120">
       <c r="A163" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>540</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>633</v>
+        <v>565</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>32</v>
@@ -26282,7 +26282,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="64.5">
+    <row r="164" spans="1:7" ht="75">
       <c r="A164" s="1" t="s">
         <v>65</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>541</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>634</v>
+        <v>566</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>32</v>
@@ -26302,7 +26302,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="102.75">
+    <row r="165" spans="1:7" ht="120">
       <c r="A165" s="1" t="s">
         <v>65</v>
       </c>
@@ -26313,7 +26313,7 @@
         <v>542</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>635</v>
+        <v>567</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
@@ -26322,7 +26322,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="64.5">
+    <row r="166" spans="1:7" ht="75">
       <c r="A166" s="1" t="s">
         <v>65</v>
       </c>
@@ -26332,8 +26332,8 @@
       <c r="C166" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>636</v>
+      <c r="E166" s="37" t="s">
+        <v>568</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>32</v>
@@ -26342,7 +26342,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="77.25">
+    <row r="167" spans="1:7" ht="90">
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
@@ -26352,8 +26352,8 @@
       <c r="C167" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>637</v>
+      <c r="E167" s="37" t="s">
+        <v>569</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
@@ -26362,18 +26362,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="102.75">
+    <row r="168" spans="1:7" ht="120">
       <c r="A168" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>545</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>638</v>
+        <v>570</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>8</v>
@@ -26382,7 +26382,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="64.5">
+    <row r="169" spans="1:7" ht="75">
       <c r="A169" s="1" t="s">
         <v>65</v>
       </c>
@@ -26392,8 +26392,8 @@
       <c r="C169" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>639</v>
+      <c r="E169" s="37" t="s">
+        <v>572</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>32</v>
@@ -26402,7 +26402,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="64.5">
+    <row r="170" spans="1:7" ht="75">
       <c r="A170" s="1" t="s">
         <v>65</v>
       </c>
@@ -26412,8 +26412,8 @@
       <c r="C170" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="E170" s="1" t="s">
-        <v>640</v>
+      <c r="E170" s="37" t="s">
+        <v>573</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>32</v>
@@ -26422,164 +26422,164 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="51.75">
+    <row r="171" spans="1:7" ht="60">
       <c r="A171" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>642</v>
+        <v>586</v>
+      </c>
+      <c r="E171" s="37" t="s">
+        <v>601</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="64.5">
+    <row r="172" spans="1:7" ht="75">
       <c r="A172" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>643</v>
+        <v>587</v>
+      </c>
+      <c r="E172" s="37" t="s">
+        <v>602</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="64.5">
+    <row r="173" spans="1:7" ht="75">
       <c r="A173" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>644</v>
+        <v>588</v>
+      </c>
+      <c r="E173" s="37" t="s">
+        <v>603</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="51.75">
+    <row r="174" spans="1:7" ht="60">
       <c r="A174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>641</v>
+        <v>589</v>
+      </c>
+      <c r="E174" s="37" t="s">
+        <v>604</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="51.75">
+    <row r="175" spans="1:7" ht="60">
       <c r="A175" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>648</v>
+        <v>590</v>
+      </c>
+      <c r="E175" s="37" t="s">
+        <v>605</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="64.5">
+    <row r="176" spans="1:7" ht="75">
       <c r="A176" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>646</v>
+        <v>591</v>
+      </c>
+      <c r="E176" s="37" t="s">
+        <v>606</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="105">
+      <c r="A177" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="90">
-      <c r="A177" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>647</v>
+      <c r="E177" s="37" t="s">
+        <v>610</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="64.5">
+    <row r="178" spans="1:7" ht="75">
       <c r="A178" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>645</v>
+        <v>593</v>
+      </c>
+      <c r="E178" s="37" t="s">
+        <v>611</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Documents/PhD/Publications/2023_Shakir_LeFoll/MFTE_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D570F4B-190B-EC4C-8E26-CD2C1471299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27393D6-4C32-4731-872B-B0F270C9DC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="650">
   <si>
     <t>Feature</t>
   </si>
@@ -16779,42 +16779,6 @@
     </r>
   </si>
   <si>
-    <t>MDPOSSCAll</t>
-  </si>
-  <si>
-    <t>MDPREDAll</t>
-  </si>
-  <si>
-    <t>PASSAll</t>
-  </si>
-  <si>
-    <t>RSTNCAll</t>
-  </si>
-  <si>
-    <t>ThJSTNCAll</t>
-  </si>
-  <si>
-    <t>ThNSTNCAll</t>
-  </si>
-  <si>
-    <t>ThSTNCAll</t>
-  </si>
-  <si>
-    <t>ThVSTNCAll</t>
-  </si>
-  <si>
-    <t>ToJSTNCAll</t>
-  </si>
-  <si>
-    <t>ToSTNCAll</t>
-  </si>
-  <si>
-    <t>ToVSTNCAll</t>
-  </si>
-  <si>
-    <t>WhVSTNCAll</t>
-  </si>
-  <si>
     <t>Adjective semantics</t>
   </si>
   <si>
@@ -18660,6 +18624,45 @@
       </rPr>
       <t>whether.</t>
     </r>
+  </si>
+  <si>
+    <t>PASSall</t>
+  </si>
+  <si>
+    <t>RSTNCall</t>
+  </si>
+  <si>
+    <t>ThJSTNCall</t>
+  </si>
+  <si>
+    <t>ThNSTNCall</t>
+  </si>
+  <si>
+    <t>ThSTNCall</t>
+  </si>
+  <si>
+    <t>ThVSTNCall</t>
+  </si>
+  <si>
+    <t>ToJSTNCall</t>
+  </si>
+  <si>
+    <t>ToSTNCall</t>
+  </si>
+  <si>
+    <t>ToVSTNCall</t>
+  </si>
+  <si>
+    <t>WhVSTNCall</t>
+  </si>
+  <si>
+    <t>MDPOSSCall</t>
+  </si>
+  <si>
+    <t>MDPREDall</t>
+  </si>
+  <si>
+    <t>The tags consist of aggregates of individual tags. To avoid false correlation, skew etc. in the data, they should not be used in combination with the tags they are made of.</t>
   </si>
 </sst>
 </file>
@@ -19693,30 +19696,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="70.6640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.6640625" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.1640625" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.6640625" style="7"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="70.625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.625" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.125" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.625" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1" ht="30">
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="25.5">
       <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
@@ -19750,7 +19753,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A3" s="12" t="s">
         <v>284</v>
       </c>
@@ -19773,7 +19776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="45">
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="38.25">
       <c r="A4" s="12" t="s">
         <v>284</v>
       </c>
@@ -19796,7 +19799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A5" s="12" t="s">
         <v>284</v>
       </c>
@@ -19819,7 +19822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="45">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="51">
       <c r="A6" s="12" t="s">
         <v>284</v>
       </c>
@@ -19842,7 +19845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="120">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="102">
       <c r="A7" s="12" t="s">
         <v>284</v>
       </c>
@@ -19876,7 +19879,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A9" s="18" t="s">
         <v>223</v>
       </c>
@@ -19899,7 +19902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A10" s="18" t="s">
         <v>223</v>
       </c>
@@ -19922,7 +19925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A11" s="18" t="s">
         <v>221</v>
       </c>
@@ -19945,7 +19948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A12" s="22" t="s">
         <v>221</v>
       </c>
@@ -19968,7 +19971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A13" s="22" t="s">
         <v>221</v>
       </c>
@@ -19991,7 +19994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A14" s="22" t="s">
         <v>221</v>
       </c>
@@ -20014,7 +20017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A15" s="18" t="s">
         <v>220</v>
       </c>
@@ -20037,7 +20040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A16" s="18" t="s">
         <v>220</v>
       </c>
@@ -20083,7 +20086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.25" customHeight="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="70.349999999999994" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>220</v>
       </c>
@@ -20106,7 +20109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A19" s="21" t="s">
         <v>220</v>
       </c>
@@ -20129,7 +20132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A20" s="18" t="s">
         <v>224</v>
       </c>
@@ -20152,7 +20155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A21" s="18" t="s">
         <v>224</v>
       </c>
@@ -20175,7 +20178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A22" s="18" t="s">
         <v>224</v>
       </c>
@@ -20198,7 +20201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A23" s="18" t="s">
         <v>224</v>
       </c>
@@ -20221,7 +20224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A24" s="18" t="s">
         <v>224</v>
       </c>
@@ -20235,7 +20238,7 @@
         <v>239</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>32</v>
@@ -20244,7 +20247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A25" s="18" t="s">
         <v>224</v>
       </c>
@@ -20267,7 +20270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A26" s="18" t="s">
         <v>224</v>
       </c>
@@ -20290,7 +20293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A27" s="18" t="s">
         <v>224</v>
       </c>
@@ -20313,7 +20316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A28" s="18" t="s">
         <v>224</v>
       </c>
@@ -20336,7 +20339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A29" s="18" t="s">
         <v>224</v>
       </c>
@@ -20359,7 +20362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A30" s="18" t="s">
         <v>224</v>
       </c>
@@ -20382,7 +20385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A31" s="18" t="s">
         <v>224</v>
       </c>
@@ -20405,7 +20408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A32" s="18" t="s">
         <v>224</v>
       </c>
@@ -20428,7 +20431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A33" s="18" t="s">
         <v>224</v>
       </c>
@@ -20451,7 +20454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A34" s="18" t="s">
         <v>224</v>
       </c>
@@ -20474,7 +20477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A35" s="18" t="s">
         <v>224</v>
       </c>
@@ -20497,7 +20500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A36" s="18" t="s">
         <v>34</v>
       </c>
@@ -20520,7 +20523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A37" s="18" t="s">
         <v>34</v>
       </c>
@@ -20543,7 +20546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A38" s="18" t="s">
         <v>34</v>
       </c>
@@ -20566,7 +20569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A39" s="18" t="s">
         <v>34</v>
       </c>
@@ -20589,7 +20592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A40" s="18" t="s">
         <v>34</v>
       </c>
@@ -20612,7 +20615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A41" s="18" t="s">
         <v>71</v>
       </c>
@@ -20635,7 +20638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A42" s="18" t="s">
         <v>117</v>
       </c>
@@ -20658,7 +20661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A43" s="18" t="s">
         <v>60</v>
       </c>
@@ -20666,7 +20669,7 @@
         <v>244</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>242</v>
@@ -20681,7 +20684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A44" s="18" t="s">
         <v>60</v>
       </c>
@@ -20689,7 +20692,7 @@
         <v>245</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>243</v>
@@ -20704,7 +20707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A45" s="18" t="s">
         <v>60</v>
       </c>
@@ -20712,13 +20715,13 @@
         <v>246</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>135</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>32</v>
@@ -20727,7 +20730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
@@ -20750,21 +20753,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A47" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>32</v>
@@ -20773,7 +20776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A48" s="18" t="s">
         <v>60</v>
       </c>
@@ -20781,7 +20784,7 @@
         <v>248</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>249</v>
@@ -20796,7 +20799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A49" s="18" t="s">
         <v>60</v>
       </c>
@@ -20804,7 +20807,7 @@
         <v>247</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>250</v>
@@ -20819,7 +20822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A50" s="18" t="s">
         <v>60</v>
       </c>
@@ -20842,7 +20845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A51" s="18" t="s">
         <v>227</v>
       </c>
@@ -20865,7 +20868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A52" s="18" t="s">
         <v>227</v>
       </c>
@@ -20888,7 +20891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A53" s="18" t="s">
         <v>227</v>
       </c>
@@ -20911,7 +20914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A54" s="18" t="s">
         <v>227</v>
       </c>
@@ -20934,7 +20937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="105">
+    <row r="55" spans="1:7" s="7" customFormat="1" ht="89.25">
       <c r="A55" s="18" t="s">
         <v>227</v>
       </c>
@@ -20957,7 +20960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="56" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A56" s="18" t="s">
         <v>222</v>
       </c>
@@ -20980,7 +20983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A57" s="18" t="s">
         <v>222</v>
       </c>
@@ -21003,7 +21006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A58" s="18" t="s">
         <v>65</v>
       </c>
@@ -21049,7 +21052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A60" s="18" t="s">
         <v>228</v>
       </c>
@@ -21072,7 +21075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A61" s="18" t="s">
         <v>228</v>
       </c>
@@ -21095,7 +21098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="7" customFormat="1" ht="120">
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A62" s="18" t="s">
         <v>228</v>
       </c>
@@ -21118,7 +21121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A63" s="18" t="s">
         <v>228</v>
       </c>
@@ -21141,7 +21144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A64" s="18" t="s">
         <v>228</v>
       </c>
@@ -21164,7 +21167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A65" s="18" t="s">
         <v>228</v>
       </c>
@@ -21187,7 +21190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A66" s="18" t="s">
         <v>228</v>
       </c>
@@ -21210,7 +21213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A67" s="18" t="s">
         <v>228</v>
       </c>
@@ -21233,7 +21236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="7" customFormat="1" ht="165">
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="140.25">
       <c r="A68" s="18" t="s">
         <v>228</v>
       </c>
@@ -21256,7 +21259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A69" s="18" t="s">
         <v>228</v>
       </c>
@@ -21279,7 +21282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="7" customFormat="1" ht="120">
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="102">
       <c r="A70" s="18" t="s">
         <v>228</v>
       </c>
@@ -21302,7 +21305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A71" s="18" t="s">
         <v>228</v>
       </c>
@@ -21325,7 +21328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="7" customFormat="1" ht="75">
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="63.75">
       <c r="A72" s="18" t="s">
         <v>228</v>
       </c>
@@ -21348,7 +21351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="73" spans="1:7" s="7" customFormat="1" ht="114.75">
       <c r="A73" s="18" t="s">
         <v>91</v>
       </c>
@@ -21371,7 +21374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="7" customFormat="1" ht="135">
+    <row r="74" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A74" s="18" t="s">
         <v>91</v>
       </c>
@@ -21394,7 +21397,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="7" customFormat="1" ht="30">
+    <row r="75" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A75" s="18" t="s">
         <v>91</v>
       </c>
@@ -21417,7 +21420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="7" customFormat="1" ht="60">
+    <row r="76" spans="1:7" s="7" customFormat="1" ht="51">
       <c r="A76" s="18" t="s">
         <v>91</v>
       </c>
@@ -21440,7 +21443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="7" customFormat="1" ht="150">
+    <row r="77" spans="1:7" s="7" customFormat="1" ht="127.5">
       <c r="A77" s="18" t="s">
         <v>91</v>
       </c>
@@ -21463,7 +21466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="7" customFormat="1" ht="90">
+    <row r="78" spans="1:7" s="7" customFormat="1" ht="76.5">
       <c r="A78" s="18" t="s">
         <v>91</v>
       </c>
@@ -21486,7 +21489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="7" customFormat="1" ht="180">
+    <row r="79" spans="1:7" s="7" customFormat="1" ht="153">
       <c r="A79" s="18" t="s">
         <v>91</v>
       </c>
@@ -21509,7 +21512,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="7" customFormat="1" ht="45">
+    <row r="80" spans="1:7" s="7" customFormat="1" ht="38.25">
       <c r="A80" s="18" t="s">
         <v>91</v>
       </c>
@@ -21532,7 +21535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="7" customFormat="1" ht="75">
+    <row r="81" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A81" s="18" t="s">
         <v>91</v>
       </c>
@@ -21555,7 +21558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="82" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A82" s="18" t="s">
         <v>91</v>
       </c>
@@ -21578,7 +21581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="7" customFormat="1" ht="60">
+    <row r="83" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A83" s="18" t="s">
         <v>91</v>
       </c>
@@ -21601,7 +21604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="84" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A84" s="18" t="s">
         <v>91</v>
       </c>
@@ -21624,7 +21627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="7" customFormat="1" ht="30">
+    <row r="85" spans="1:1022" s="7" customFormat="1" ht="25.5">
       <c r="A85" s="18" t="s">
         <v>91</v>
       </c>
@@ -21647,7 +21650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="7" customFormat="1" ht="60">
+    <row r="86" spans="1:1022" s="7" customFormat="1" ht="51">
       <c r="A86" s="18" t="s">
         <v>91</v>
       </c>
@@ -21670,7 +21673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="7" customFormat="1" ht="45">
+    <row r="87" spans="1:1022" s="7" customFormat="1" ht="38.25">
       <c r="A87" s="18" t="s">
         <v>91</v>
       </c>
@@ -21704,7 +21707,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:1022" s="8" customFormat="1" ht="60">
+    <row r="89" spans="1:1022" s="8" customFormat="1" ht="51">
       <c r="A89" s="12" t="s">
         <v>34</v>
       </c>
@@ -22742,7 +22745,7 @@
       <c r="AMG89" s="5"/>
       <c r="AMH89" s="5"/>
     </row>
-    <row r="90" spans="1:1022" s="8" customFormat="1" ht="45">
+    <row r="90" spans="1:1022" s="8" customFormat="1" ht="51">
       <c r="A90" s="12" t="s">
         <v>34</v>
       </c>
@@ -23780,7 +23783,7 @@
       <c r="AMG90" s="5"/>
       <c r="AMH90" s="5"/>
     </row>
-    <row r="91" spans="1:1022" s="8" customFormat="1" ht="75">
+    <row r="91" spans="1:1022" s="8" customFormat="1" ht="63.75">
       <c r="A91" s="12" t="s">
         <v>228</v>
       </c>
@@ -23803,7 +23806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="7" customFormat="1" ht="75">
+    <row r="92" spans="1:1022" s="7" customFormat="1" ht="63.75">
       <c r="A92" s="12" t="s">
         <v>228</v>
       </c>
@@ -23826,7 +23829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="8" customFormat="1" ht="105">
+    <row r="93" spans="1:1022" s="8" customFormat="1" ht="89.25">
       <c r="A93" s="12" t="s">
         <v>91</v>
       </c>
@@ -23849,7 +23852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="8" customFormat="1" ht="90">
+    <row r="94" spans="1:1022" s="8" customFormat="1" ht="76.5">
       <c r="A94" s="12" t="s">
         <v>91</v>
       </c>
@@ -23872,7 +23875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="8" customFormat="1" ht="75">
+    <row r="95" spans="1:1022" s="8" customFormat="1" ht="63.75">
       <c r="A95" s="12" t="s">
         <v>91</v>
       </c>
@@ -23895,7 +23898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.25" customHeight="1">
+    <row r="96" spans="1:1022" s="8" customFormat="1" ht="37.35" customHeight="1">
       <c r="A96" s="15"/>
       <c r="B96" s="30"/>
       <c r="C96" s="16"/>
@@ -23906,7 +23909,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A97" s="12" t="s">
         <v>91</v>
       </c>
@@ -23929,7 +23932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" ht="45">
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="38.25">
       <c r="A98" s="12" t="s">
         <v>228</v>
       </c>
@@ -23952,7 +23955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" ht="60">
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="51">
       <c r="A99" s="12" t="s">
         <v>224</v>
       </c>
@@ -23975,18 +23978,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.25" customHeight="1">
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="37.35" customHeight="1">
       <c r="A100" s="41"/>
       <c r="B100" s="42"/>
       <c r="C100" s="43"/>
       <c r="D100" s="44"/>
       <c r="E100" s="45" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="1:7" ht="120">
+    <row r="101" spans="1:7" ht="102">
       <c r="A101" s="18" t="s">
         <v>65</v>
       </c>
@@ -23998,7 +24001,7 @@
       </c>
       <c r="D101" s="19"/>
       <c r="E101" s="19" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="F101" s="18" t="s">
         <v>32</v>
@@ -24007,7 +24010,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="120">
+    <row r="102" spans="1:7" ht="102">
       <c r="A102" s="18" t="s">
         <v>65</v>
       </c>
@@ -24019,7 +24022,7 @@
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="18" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>32</v>
@@ -24028,7 +24031,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="120">
+    <row r="103" spans="1:7" ht="102">
       <c r="A103" s="18" t="s">
         <v>65</v>
       </c>
@@ -24039,7 +24042,7 @@
         <v>395</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>32</v>
@@ -24048,7 +24051,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="120">
+    <row r="104" spans="1:7" ht="102">
       <c r="A104" s="18" t="s">
         <v>65</v>
       </c>
@@ -24059,7 +24062,7 @@
         <v>396</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>32</v>
@@ -24068,7 +24071,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="120">
+    <row r="105" spans="1:7" ht="102">
       <c r="A105" s="18" t="s">
         <v>65</v>
       </c>
@@ -24079,7 +24082,7 @@
         <v>400</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>17</v>
@@ -24088,7 +24091,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="105">
+    <row r="106" spans="1:7" ht="102">
       <c r="A106" s="18" t="s">
         <v>65</v>
       </c>
@@ -24099,7 +24102,7 @@
         <v>401</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>17</v>
@@ -24108,7 +24111,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="120">
+    <row r="107" spans="1:7" ht="102">
       <c r="A107" s="18" t="s">
         <v>65</v>
       </c>
@@ -24119,7 +24122,7 @@
         <v>402</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>17</v>
@@ -24128,7 +24131,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="120">
+    <row r="108" spans="1:7" ht="102">
       <c r="A108" s="18" t="s">
         <v>65</v>
       </c>
@@ -24139,7 +24142,7 @@
         <v>403</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>17</v>
@@ -24148,18 +24151,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="120">
+    <row r="109" spans="1:7" ht="102">
       <c r="A109" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>413</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>32</v>
@@ -24168,7 +24171,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="409.6">
+    <row r="110" spans="1:7" ht="382.5">
       <c r="A110" s="18" t="s">
         <v>65</v>
       </c>
@@ -24188,12 +24191,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="135">
+    <row r="111" spans="1:7" ht="127.5">
       <c r="A111" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>415</v>
@@ -24208,12 +24211,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="120">
+    <row r="112" spans="1:7" ht="114.75">
       <c r="A112" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>416</v>
@@ -24228,16 +24231,16 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="120">
+    <row r="113" spans="1:7" ht="102">
       <c r="A113" s="18"/>
       <c r="B113" s="40" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
@@ -24246,18 +24249,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="409.6">
+    <row r="114" spans="1:7" ht="395.25">
       <c r="A114" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C114" s="39" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="E114" s="40" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
@@ -24266,18 +24269,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="150">
+    <row r="115" spans="1:7" ht="127.5">
       <c r="A115" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
@@ -24286,18 +24289,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="135">
+    <row r="116" spans="1:7" ht="127.5">
       <c r="A116" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
@@ -24306,7 +24309,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="75">
+    <row r="117" spans="1:7" ht="51.75">
       <c r="A117" s="18" t="s">
         <v>65</v>
       </c>
@@ -24327,7 +24330,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="75">
+    <row r="118" spans="1:7" ht="51.75">
       <c r="A118" s="18" t="s">
         <v>65</v>
       </c>
@@ -24348,7 +24351,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="75">
+    <row r="119" spans="1:7" ht="51.75">
       <c r="A119" s="18" t="s">
         <v>65</v>
       </c>
@@ -24369,7 +24372,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="75">
+    <row r="120" spans="1:7" ht="51.75">
       <c r="A120" s="18" t="s">
         <v>65</v>
       </c>
@@ -24390,7 +24393,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="75">
+    <row r="121" spans="1:7" ht="51.75">
       <c r="A121" s="18" t="s">
         <v>65</v>
       </c>
@@ -24411,7 +24414,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="105">
+    <row r="122" spans="1:7" ht="90">
       <c r="A122" s="18" t="s">
         <v>65</v>
       </c>
@@ -24432,7 +24435,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="135">
+    <row r="123" spans="1:7" ht="115.5">
       <c r="A123" s="18" t="s">
         <v>65</v>
       </c>
@@ -24453,7 +24456,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="105">
+    <row r="124" spans="1:7" ht="90">
       <c r="A124" s="18" t="s">
         <v>65</v>
       </c>
@@ -24474,7 +24477,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="75">
+    <row r="125" spans="1:7" ht="51.75">
       <c r="A125" s="18" t="s">
         <v>65</v>
       </c>
@@ -24495,7 +24498,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="75">
+    <row r="126" spans="1:7" ht="64.5">
       <c r="A126" s="18" t="s">
         <v>65</v>
       </c>
@@ -24516,7 +24519,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="105">
+    <row r="127" spans="1:7" ht="90">
       <c r="A127" s="18" t="s">
         <v>65</v>
       </c>
@@ -24537,7 +24540,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="409.6">
+    <row r="128" spans="1:7" ht="383.25">
       <c r="A128" s="18" t="s">
         <v>65</v>
       </c>
@@ -24558,7 +24561,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="135">
+    <row r="129" spans="1:7" ht="115.5">
       <c r="A129" s="18" t="s">
         <v>65</v>
       </c>
@@ -24579,7 +24582,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="120">
+    <row r="130" spans="1:7" ht="102.75">
       <c r="A130" s="18" t="s">
         <v>65</v>
       </c>
@@ -24600,7 +24603,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="75">
+    <row r="131" spans="1:7" ht="64.5">
       <c r="A131" s="18" t="s">
         <v>65</v>
       </c>
@@ -24620,7 +24623,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="180">
+    <row r="132" spans="1:7" ht="166.5">
       <c r="A132" s="18" t="s">
         <v>65</v>
       </c>
@@ -24640,9 +24643,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="75">
+    <row r="133" spans="1:7" ht="64.5">
       <c r="A133" s="18" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>478</v>
@@ -24660,9 +24663,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="75">
+    <row r="134" spans="1:7" ht="51">
       <c r="A134" s="18" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>469</v>
@@ -24680,9 +24683,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="75">
+    <row r="135" spans="1:7" ht="64.5">
       <c r="A135" s="18" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>477</v>
@@ -24700,9 +24703,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="75">
+    <row r="136" spans="1:7" ht="51">
       <c r="A136" s="18" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>479</v>
@@ -24720,9 +24723,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="75">
+    <row r="137" spans="1:7" ht="51.75">
       <c r="A137" s="18" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>480</v>
@@ -24740,9 +24743,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="75">
+    <row r="138" spans="1:7" ht="51">
       <c r="A138" s="18" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>481</v>
@@ -24760,9 +24763,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="75">
+    <row r="139" spans="1:7" ht="51">
       <c r="A139" s="18" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>482</v>
@@ -24780,9 +24783,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="75">
+    <row r="140" spans="1:7" ht="51">
       <c r="A140" s="18" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>483</v>
@@ -24802,7 +24805,7 @@
     </row>
     <row r="141" spans="1:7" ht="409.6">
       <c r="A141" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>508</v>
@@ -24821,9 +24824,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="180">
+    <row r="142" spans="1:7" ht="153.75">
       <c r="A142" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>493</v>
@@ -24844,7 +24847,7 @@
     </row>
     <row r="143" spans="1:7" ht="409.6">
       <c r="A143" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>495</v>
@@ -24863,9 +24866,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="90">
+    <row r="144" spans="1:7" ht="77.25">
       <c r="A144" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>497</v>
@@ -24884,9 +24887,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:1027" ht="409.6">
+    <row r="145" spans="1:1027" ht="383.25">
       <c r="A145" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>499</v>
@@ -24905,9 +24908,9 @@
         <v>523</v>
       </c>
     </row>
-    <row r="146" spans="1:1027" ht="240">
+    <row r="146" spans="1:1027" ht="204.75">
       <c r="A146" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>501</v>
@@ -24926,9 +24929,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:1027" ht="135">
+    <row r="147" spans="1:1027" ht="115.5">
       <c r="A147" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>503</v>
@@ -24947,9 +24950,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="148" spans="1:1027" ht="195">
+    <row r="148" spans="1:1027" ht="166.5">
       <c r="A148" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>510</v>
@@ -24968,9 +24971,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:1027" ht="105">
+    <row r="149" spans="1:1027" ht="76.5">
       <c r="A149" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>509</v>
@@ -24989,30 +24992,30 @@
         <v>520</v>
       </c>
     </row>
-    <row r="150" spans="1:1027" ht="45">
+    <row r="150" spans="1:1027" ht="38.25">
       <c r="A150" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="151" spans="1:1027" ht="180">
+    <row r="151" spans="1:1027" ht="166.5">
       <c r="A151" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>507</v>
@@ -25031,9 +25034,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="152" spans="1:1027" ht="75">
+    <row r="152" spans="1:1027" ht="51">
       <c r="A152" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>525</v>
@@ -25051,9 +25054,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="153" spans="1:1027" ht="75">
+    <row r="153" spans="1:1027" ht="51">
       <c r="A153" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>527</v>
@@ -25071,9 +25074,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="1:1027" ht="75">
+    <row r="154" spans="1:1027" ht="51">
       <c r="A154" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>529</v>
@@ -25091,9 +25094,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="155" spans="1:1027" ht="75">
+    <row r="155" spans="1:1027" ht="51">
       <c r="A155" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>531</v>
@@ -25111,14 +25114,16 @@
         <v>522</v>
       </c>
     </row>
-    <row r="156" spans="1:1027" s="52" customFormat="1">
+    <row r="156" spans="1:1027" s="52" customFormat="1" ht="26.25">
       <c r="A156" s="46"/>
       <c r="B156" s="47"/>
       <c r="C156" s="46"/>
       <c r="D156" s="48" t="s">
-        <v>613</v>
-      </c>
-      <c r="E156" s="47"/>
+        <v>601</v>
+      </c>
+      <c r="E156" s="46" t="s">
+        <v>649</v>
+      </c>
       <c r="F156" s="46"/>
       <c r="G156" s="49"/>
       <c r="H156" s="46"/>
@@ -26142,118 +26147,118 @@
       <c r="AML156" s="46"/>
       <c r="AMM156" s="46"/>
     </row>
-    <row r="157" spans="1:1027" ht="75">
+    <row r="157" spans="1:1027" ht="51.75">
       <c r="A157" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="158" spans="1:1027" ht="75">
+    <row r="158" spans="1:1027" ht="51.75">
       <c r="A158" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="159" spans="1:1027" ht="30">
+    <row r="159" spans="1:1027" ht="26.25">
       <c r="A159" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>536</v>
+        <v>647</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="160" spans="1:1027" ht="30">
+    <row r="160" spans="1:1027" ht="26.25">
       <c r="A160" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>537</v>
+        <v>648</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="30">
+    <row r="161" spans="1:7" ht="26.25">
       <c r="A161" s="18" t="s">
         <v>228</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="75">
+    <row r="162" spans="1:7" ht="51">
       <c r="A162" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>539</v>
+        <v>638</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>8</v>
@@ -26262,18 +26267,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="120">
+    <row r="163" spans="1:7" ht="102.75">
       <c r="A163" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>540</v>
+        <v>639</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>32</v>
@@ -26282,18 +26287,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="75">
+    <row r="164" spans="1:7" ht="64.5">
       <c r="A164" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>32</v>
@@ -26302,18 +26307,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="120">
+    <row r="165" spans="1:7" ht="102.75">
       <c r="A165" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>8</v>
@@ -26322,18 +26327,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="75">
+    <row r="166" spans="1:7" ht="64.5">
       <c r="A166" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E166" s="37" t="s">
         <v>556</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E166" s="37" t="s">
-        <v>568</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>32</v>
@@ -26342,18 +26347,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="90">
+    <row r="167" spans="1:7" ht="77.25">
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="E167" s="37" t="s">
         <v>557</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="E167" s="37" t="s">
-        <v>569</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
@@ -26362,18 +26367,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="120">
+    <row r="168" spans="1:7" ht="102.75">
       <c r="A168" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>545</v>
+        <v>644</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>8</v>
@@ -26382,18 +26387,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="75">
+    <row r="169" spans="1:7" ht="64.5">
       <c r="A169" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>546</v>
+        <v>645</v>
       </c>
       <c r="E169" s="37" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>32</v>
@@ -26402,18 +26407,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="75">
+    <row r="170" spans="1:7" ht="64.5">
       <c r="A170" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
       <c r="E170" s="37" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>32</v>
@@ -26422,164 +26427,164 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="60">
+    <row r="171" spans="1:7" ht="51.75">
       <c r="A171" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="E171" s="37" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="75">
+    <row r="172" spans="1:7" ht="64.5">
       <c r="A172" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="E172" s="37" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="75">
+    <row r="173" spans="1:7" ht="64.5">
       <c r="A173" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="60">
+    <row r="174" spans="1:7" ht="51.75">
       <c r="A174" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="E174" s="37" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="60">
+    <row r="175" spans="1:7" ht="51.75">
       <c r="A175" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="E175" s="37" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="75">
+    <row r="176" spans="1:7" ht="64.5">
       <c r="A176" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="105">
+    <row r="177" spans="1:7" ht="90">
       <c r="A177" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="E177" s="37" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="75">
+    <row r="178" spans="1:7" ht="64.5">
       <c r="A178" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E178" s="37" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27393D6-4C32-4731-872B-B0F270C9DC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC6CFE-B4BD-4660-AC9A-09DDD38903EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18392,9 +18392,6 @@
     </r>
   </si>
   <si>
-    <t>Ppother</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Following Biber (1988), all occurrences of </t>
     </r>
@@ -18663,6 +18660,9 @@
   </si>
   <si>
     <t>The tags consist of aggregates of individual tags. To avoid false correlation, skew etc. in the data, they should not be used in combination with the tags they are made of.</t>
+  </si>
+  <si>
+    <t>PPother</t>
   </si>
 </sst>
 </file>
@@ -19696,8 +19696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
@@ -19845,7 +19845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="102">
+    <row r="7" spans="1:7" s="8" customFormat="1" ht="114.75">
       <c r="A7" s="12" t="s">
         <v>284</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>239</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>32</v>
@@ -20721,7 +20721,7 @@
         <v>135</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>32</v>
@@ -20761,7 +20761,7 @@
         <v>632</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>133</v>
@@ -25122,7 +25122,7 @@
         <v>601</v>
       </c>
       <c r="E156" s="46" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F156" s="46"/>
       <c r="G156" s="49"/>
@@ -26195,7 +26195,7 @@
         <v>614</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E159" s="37" t="s">
         <v>548</v>
@@ -26215,7 +26215,7 @@
         <v>539</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>549</v>
@@ -26235,7 +26235,7 @@
         <v>541</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>550</v>
@@ -26255,7 +26255,7 @@
         <v>540</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>551</v>
@@ -26275,7 +26275,7 @@
         <v>552</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>553</v>
@@ -26295,7 +26295,7 @@
         <v>542</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>554</v>
@@ -26315,7 +26315,7 @@
         <v>543</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>555</v>
@@ -26335,7 +26335,7 @@
         <v>544</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E166" s="37" t="s">
         <v>556</v>
@@ -26355,7 +26355,7 @@
         <v>545</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E167" s="37" t="s">
         <v>557</v>
@@ -26375,7 +26375,7 @@
         <v>559</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>558</v>
@@ -26395,7 +26395,7 @@
         <v>546</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E169" s="37" t="s">
         <v>560</v>
@@ -26415,7 +26415,7 @@
         <v>547</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E170" s="37" t="s">
         <v>561</v>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Downloads/MFTE-master 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526D5C4-9CA6-45B6-BB50-B00CF0F966C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4283B6B-87F7-6D44-8850-81DFDB8F6B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4900" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="658">
   <si>
     <t>Feature</t>
   </si>
@@ -18685,6 +18685,319 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> at the end and PP1, PP2 consist of aggregates of individual tags. To avoid false correlation, skew etc. in the data, they should not be used in combination with the respective individual tags.</t>
+    </r>
+  </si>
+  <si>
+    <t>Superlatives</t>
+  </si>
+  <si>
+    <t>Comparatives</t>
+  </si>
+  <si>
+    <t>SUPER</t>
+  </si>
+  <si>
+    <t>COMPAR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>larger</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> producer. This approach might be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">harder </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to pull off now.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">latest </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">will the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">boldest </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All adjectives and adverbs ending in "er" except </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">after, never, rather, other, ever, together, proper, super, clever, eager, queer, hyper, inner, utter, bitter, premier, sinister, sober, order </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">over, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">as well as  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">worse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">better </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>followed by a hypthen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>All adjectives and adverbs ending in "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> except </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">honest, test, west, pest, lest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, as well as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">worst </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">best </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>followed by a hypthen.</t>
     </r>
   </si>
 </sst>
@@ -18989,7 +19302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -19132,6 +19445,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -19370,8 +19696,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:G100" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G100" xr:uid="{378F0AE2-B002-C14A-96AA-F530B7835EC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:G102" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G102" xr:uid="{378F0AE2-B002-C14A-96AA-F530B7835EC5}"/>
   <tableColumns count="7">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Category" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Feature" dataDxfId="5"/>
@@ -19682,32 +20008,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM178"/>
+  <dimension ref="A1:AMM180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="27" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.625" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.125" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.625" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.625" style="6"/>
+    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="24" customFormat="1" ht="25.5">
+    <row r="1" spans="1:7" s="24" customFormat="1" ht="30">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -19741,7 +20067,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A3" s="9" t="s">
         <v>284</v>
       </c>
@@ -19764,7 +20090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A4" s="9" t="s">
         <v>284</v>
       </c>
@@ -19787,7 +20113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A5" s="9" t="s">
         <v>284</v>
       </c>
@@ -19810,7 +20136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="51">
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="45">
       <c r="A6" s="9" t="s">
         <v>284</v>
       </c>
@@ -19833,7 +20159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="102">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="120">
       <c r="A7" s="9" t="s">
         <v>284</v>
       </c>
@@ -19867,7 +20193,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A9" s="14" t="s">
         <v>223</v>
       </c>
@@ -19890,7 +20216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A10" s="14" t="s">
         <v>223</v>
       </c>
@@ -19913,7 +20239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A11" s="14" t="s">
         <v>221</v>
       </c>
@@ -19936,7 +20262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A12" s="14" t="s">
         <v>221</v>
       </c>
@@ -19959,7 +20285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A13" s="14" t="s">
         <v>221</v>
       </c>
@@ -19982,7 +20308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A14" s="14" t="s">
         <v>221</v>
       </c>
@@ -20005,7 +20331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A15" s="14" t="s">
         <v>220</v>
       </c>
@@ -20028,7 +20354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" ht="76.5">
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="90">
       <c r="A16" s="14" t="s">
         <v>220</v>
       </c>
@@ -20074,7 +20400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="70.349999999999994" customHeight="1">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="70.25" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>220</v>
       </c>
@@ -20097,7 +20423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A19" s="14" t="s">
         <v>220</v>
       </c>
@@ -20120,7 +20446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A20" s="14" t="s">
         <v>224</v>
       </c>
@@ -20143,7 +20469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="114.75">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="135">
       <c r="A21" s="14" t="s">
         <v>224</v>
       </c>
@@ -20166,7 +20492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A22" s="14" t="s">
         <v>224</v>
       </c>
@@ -20189,7 +20515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A23" s="14" t="s">
         <v>224</v>
       </c>
@@ -20212,7 +20538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" ht="25.5">
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="30">
       <c r="A24" s="14" t="s">
         <v>224</v>
       </c>
@@ -20235,7 +20561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" ht="140.25">
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="165">
       <c r="A25" s="14" t="s">
         <v>224</v>
       </c>
@@ -20258,7 +20584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A26" s="14" t="s">
         <v>224</v>
       </c>
@@ -20281,7 +20607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A27" s="14" t="s">
         <v>224</v>
       </c>
@@ -20304,7 +20630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A28" s="14" t="s">
         <v>224</v>
       </c>
@@ -20327,7 +20653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A29" s="14" t="s">
         <v>224</v>
       </c>
@@ -20350,7 +20676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A30" s="14" t="s">
         <v>224</v>
       </c>
@@ -20373,7 +20699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A31" s="14" t="s">
         <v>224</v>
       </c>
@@ -20396,7 +20722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A32" s="14" t="s">
         <v>224</v>
       </c>
@@ -20419,7 +20745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" ht="76.5">
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="90">
       <c r="A33" s="14" t="s">
         <v>224</v>
       </c>
@@ -20442,7 +20768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="6" customFormat="1" ht="114.75">
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="135">
       <c r="A34" s="14" t="s">
         <v>224</v>
       </c>
@@ -20465,7 +20791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A35" s="14" t="s">
         <v>224</v>
       </c>
@@ -20488,7 +20814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
@@ -20511,7 +20837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
@@ -20534,7 +20860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -20557,7 +20883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" ht="25.5">
+    <row r="39" spans="1:7" s="6" customFormat="1">
       <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
@@ -20580,7 +20906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="40" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
@@ -20603,7 +20929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="41" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A41" s="14" t="s">
         <v>71</v>
       </c>
@@ -20626,7 +20952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="42" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A42" s="14" t="s">
         <v>117</v>
       </c>
@@ -20649,7 +20975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="43" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A43" s="14" t="s">
         <v>60</v>
       </c>
@@ -20672,7 +20998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="44" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -20695,7 +21021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="45" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A45" s="14" t="s">
         <v>60</v>
       </c>
@@ -20718,7 +21044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A46" s="14" t="s">
         <v>60</v>
       </c>
@@ -20741,7 +21067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="6" customFormat="1" ht="76.5">
+    <row r="47" spans="1:7" s="6" customFormat="1" ht="90">
       <c r="A47" s="14" t="s">
         <v>60</v>
       </c>
@@ -20764,7 +21090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="48" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A48" s="14" t="s">
         <v>60</v>
       </c>
@@ -20787,7 +21113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="49" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A49" s="14" t="s">
         <v>60</v>
       </c>
@@ -20810,7 +21136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="6" customFormat="1" ht="25.5">
+    <row r="50" spans="1:7" s="6" customFormat="1" ht="30">
       <c r="A50" s="14" t="s">
         <v>60</v>
       </c>
@@ -20833,7 +21159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="51" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A51" s="14" t="s">
         <v>227</v>
       </c>
@@ -20856,7 +21182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="52" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A52" s="14" t="s">
         <v>227</v>
       </c>
@@ -20879,7 +21205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="53" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A53" s="14" t="s">
         <v>227</v>
       </c>
@@ -20902,7 +21228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="6" customFormat="1" ht="76.5">
+    <row r="54" spans="1:7" s="6" customFormat="1" ht="90">
       <c r="A54" s="14" t="s">
         <v>227</v>
       </c>
@@ -20925,7 +21251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="6" customFormat="1" ht="89.25">
+    <row r="55" spans="1:7" s="6" customFormat="1" ht="105">
       <c r="A55" s="14" t="s">
         <v>227</v>
       </c>
@@ -20948,7 +21274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="56" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A56" s="14" t="s">
         <v>222</v>
       </c>
@@ -20971,7 +21297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="6" customFormat="1" ht="153">
+    <row r="57" spans="1:7" s="6" customFormat="1" ht="165">
       <c r="A57" s="14" t="s">
         <v>222</v>
       </c>
@@ -20994,7 +21320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="6" customFormat="1" ht="76.5">
+    <row r="58" spans="1:7" s="6" customFormat="1" ht="90">
       <c r="A58" s="14" t="s">
         <v>65</v>
       </c>
@@ -21040,7 +21366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="60" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A60" s="14" t="s">
         <v>228</v>
       </c>
@@ -21063,7 +21389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="61" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A61" s="14" t="s">
         <v>228</v>
       </c>
@@ -21086,7 +21412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="6" customFormat="1" ht="102">
+    <row r="62" spans="1:7" s="6" customFormat="1" ht="120">
       <c r="A62" s="14" t="s">
         <v>228</v>
       </c>
@@ -21109,7 +21435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="63" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A63" s="14" t="s">
         <v>228</v>
       </c>
@@ -21132,7 +21458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="64" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A64" s="14" t="s">
         <v>228</v>
       </c>
@@ -21155,7 +21481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="65" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A65" s="14" t="s">
         <v>228</v>
       </c>
@@ -21178,7 +21504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="66" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A66" s="14" t="s">
         <v>228</v>
       </c>
@@ -21201,7 +21527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" ht="76.5">
+    <row r="67" spans="1:7" s="6" customFormat="1" ht="90">
       <c r="A67" s="14" t="s">
         <v>228</v>
       </c>
@@ -21224,7 +21550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="6" customFormat="1" ht="140.25">
+    <row r="68" spans="1:7" s="6" customFormat="1" ht="165">
       <c r="A68" s="14" t="s">
         <v>228</v>
       </c>
@@ -21247,7 +21573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="69" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A69" s="14" t="s">
         <v>228</v>
       </c>
@@ -21270,7 +21596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="6" customFormat="1" ht="102">
+    <row r="70" spans="1:7" s="6" customFormat="1" ht="120">
       <c r="A70" s="14" t="s">
         <v>228</v>
       </c>
@@ -21293,7 +21619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="6" customFormat="1" ht="76.5">
+    <row r="71" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A71" s="14" t="s">
         <v>228</v>
       </c>
@@ -21316,7 +21642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1" ht="63.75">
+    <row r="72" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A72" s="14" t="s">
         <v>228</v>
       </c>
@@ -21339,7 +21665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="6" customFormat="1" ht="114.75">
+    <row r="73" spans="1:7" s="6" customFormat="1" ht="135">
       <c r="A73" s="14" t="s">
         <v>91</v>
       </c>
@@ -21362,7 +21688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="6" customFormat="1" ht="127.5">
+    <row r="74" spans="1:7" s="6" customFormat="1" ht="135">
       <c r="A74" s="14" t="s">
         <v>91</v>
       </c>
@@ -21385,7 +21711,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="6" customFormat="1" ht="25.5">
+    <row r="75" spans="1:7" s="6" customFormat="1" ht="30">
       <c r="A75" s="14" t="s">
         <v>91</v>
       </c>
@@ -21408,7 +21734,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="76" spans="1:7" s="6" customFormat="1" ht="60">
       <c r="A76" s="14" t="s">
         <v>91</v>
       </c>
@@ -21431,7 +21757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="6" customFormat="1" ht="127.5">
+    <row r="77" spans="1:7" s="6" customFormat="1" ht="150">
       <c r="A77" s="14" t="s">
         <v>91</v>
       </c>
@@ -21454,7 +21780,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="6" customFormat="1" ht="76.5">
+    <row r="78" spans="1:7" s="6" customFormat="1" ht="90">
       <c r="A78" s="14" t="s">
         <v>91</v>
       </c>
@@ -21477,7 +21803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="6" customFormat="1" ht="153">
+    <row r="79" spans="1:7" s="6" customFormat="1" ht="180">
       <c r="A79" s="14" t="s">
         <v>91</v>
       </c>
@@ -21500,7 +21826,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="80" spans="1:7" s="6" customFormat="1" ht="45">
       <c r="A80" s="14" t="s">
         <v>91</v>
       </c>
@@ -21523,7 +21849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="6" customFormat="1" ht="63.75">
+    <row r="81" spans="1:1022" s="6" customFormat="1" ht="75">
       <c r="A81" s="14" t="s">
         <v>91</v>
       </c>
@@ -21546,7 +21872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="6" customFormat="1" ht="25.5">
+    <row r="82" spans="1:1022" s="6" customFormat="1" ht="30">
       <c r="A82" s="14" t="s">
         <v>91</v>
       </c>
@@ -21569,7 +21895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="6" customFormat="1" ht="51">
+    <row r="83" spans="1:1022" s="6" customFormat="1" ht="60">
       <c r="A83" s="14" t="s">
         <v>91</v>
       </c>
@@ -21592,7 +21918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="6" customFormat="1" ht="25.5">
+    <row r="84" spans="1:1022" s="6" customFormat="1" ht="30">
       <c r="A84" s="14" t="s">
         <v>91</v>
       </c>
@@ -21615,7 +21941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="6" customFormat="1" ht="25.5">
+    <row r="85" spans="1:1022" s="6" customFormat="1" ht="30">
       <c r="A85" s="14" t="s">
         <v>91</v>
       </c>
@@ -21638,7 +21964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="6" customFormat="1" ht="51">
+    <row r="86" spans="1:1022" s="6" customFormat="1" ht="60">
       <c r="A86" s="14" t="s">
         <v>91</v>
       </c>
@@ -21661,7 +21987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="6" customFormat="1" ht="38.25">
+    <row r="87" spans="1:1022" s="6" customFormat="1" ht="45">
       <c r="A87" s="14" t="s">
         <v>91</v>
       </c>
@@ -21695,7 +22021,7 @@
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:1022" s="6" customFormat="1" ht="51">
+    <row r="89" spans="1:1022" s="6" customFormat="1" ht="60">
       <c r="A89" s="9" t="s">
         <v>34</v>
       </c>
@@ -22733,7 +23059,7 @@
       <c r="AMG89" s="1"/>
       <c r="AMH89" s="1"/>
     </row>
-    <row r="90" spans="1:1022" s="6" customFormat="1" ht="51">
+    <row r="90" spans="1:1022" s="6" customFormat="1" ht="45">
       <c r="A90" s="9" t="s">
         <v>34</v>
       </c>
@@ -23771,7 +24097,7 @@
       <c r="AMG90" s="1"/>
       <c r="AMH90" s="1"/>
     </row>
-    <row r="91" spans="1:1022" s="6" customFormat="1" ht="63.75">
+    <row r="91" spans="1:1022" s="6" customFormat="1" ht="75">
       <c r="A91" s="9" t="s">
         <v>228</v>
       </c>
@@ -23794,7 +24120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="6" customFormat="1" ht="63.75">
+    <row r="92" spans="1:1022" s="6" customFormat="1" ht="75">
       <c r="A92" s="9" t="s">
         <v>228</v>
       </c>
@@ -23817,7 +24143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="6" customFormat="1" ht="89.25">
+    <row r="93" spans="1:1022" s="6" customFormat="1" ht="105">
       <c r="A93" s="9" t="s">
         <v>91</v>
       </c>
@@ -23840,7 +24166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="6" customFormat="1" ht="76.5">
+    <row r="94" spans="1:1022" s="6" customFormat="1" ht="90">
       <c r="A94" s="9" t="s">
         <v>91</v>
       </c>
@@ -23863,7 +24189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="6" customFormat="1" ht="63.75">
+    <row r="95" spans="1:1022" s="6" customFormat="1" ht="75">
       <c r="A95" s="9" t="s">
         <v>91</v>
       </c>
@@ -23886,7 +24212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="6" customFormat="1" ht="37.35" customHeight="1">
+    <row r="96" spans="1:1022" s="6" customFormat="1" ht="37.25" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="20"/>
       <c r="C96" s="7"/>
@@ -23897,7 +24223,7 @@
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="97" spans="1:1027" ht="60">
       <c r="A97" s="9" t="s">
         <v>91</v>
       </c>
@@ -23919,8 +24245,1028 @@
       <c r="G97" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
+      <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
+      <c r="AF97" s="6"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="6"/>
+      <c r="AI97" s="6"/>
+      <c r="AJ97" s="6"/>
+      <c r="AK97" s="6"/>
+      <c r="AL97" s="6"/>
+      <c r="AM97" s="6"/>
+      <c r="AN97" s="6"/>
+      <c r="AO97" s="6"/>
+      <c r="AP97" s="6"/>
+      <c r="AQ97" s="6"/>
+      <c r="AR97" s="6"/>
+      <c r="AS97" s="6"/>
+      <c r="AT97" s="6"/>
+      <c r="AU97" s="6"/>
+      <c r="AV97" s="6"/>
+      <c r="AW97" s="6"/>
+      <c r="AX97" s="6"/>
+      <c r="AY97" s="6"/>
+      <c r="AZ97" s="6"/>
+      <c r="BA97" s="6"/>
+      <c r="BB97" s="6"/>
+      <c r="BC97" s="6"/>
+      <c r="BD97" s="6"/>
+      <c r="BE97" s="6"/>
+      <c r="BF97" s="6"/>
+      <c r="BG97" s="6"/>
+      <c r="BH97" s="6"/>
+      <c r="BI97" s="6"/>
+      <c r="BJ97" s="6"/>
+      <c r="BK97" s="6"/>
+      <c r="BL97" s="6"/>
+      <c r="BM97" s="6"/>
+      <c r="BN97" s="6"/>
+      <c r="BO97" s="6"/>
+      <c r="BP97" s="6"/>
+      <c r="BQ97" s="6"/>
+      <c r="BR97" s="6"/>
+      <c r="BS97" s="6"/>
+      <c r="BT97" s="6"/>
+      <c r="BU97" s="6"/>
+      <c r="BV97" s="6"/>
+      <c r="BW97" s="6"/>
+      <c r="BX97" s="6"/>
+      <c r="BY97" s="6"/>
+      <c r="BZ97" s="6"/>
+      <c r="CA97" s="6"/>
+      <c r="CB97" s="6"/>
+      <c r="CC97" s="6"/>
+      <c r="CD97" s="6"/>
+      <c r="CE97" s="6"/>
+      <c r="CF97" s="6"/>
+      <c r="CG97" s="6"/>
+      <c r="CH97" s="6"/>
+      <c r="CI97" s="6"/>
+      <c r="CJ97" s="6"/>
+      <c r="CK97" s="6"/>
+      <c r="CL97" s="6"/>
+      <c r="CM97" s="6"/>
+      <c r="CN97" s="6"/>
+      <c r="CO97" s="6"/>
+      <c r="CP97" s="6"/>
+      <c r="CQ97" s="6"/>
+      <c r="CR97" s="6"/>
+      <c r="CS97" s="6"/>
+      <c r="CT97" s="6"/>
+      <c r="CU97" s="6"/>
+      <c r="CV97" s="6"/>
+      <c r="CW97" s="6"/>
+      <c r="CX97" s="6"/>
+      <c r="CY97" s="6"/>
+      <c r="CZ97" s="6"/>
+      <c r="DA97" s="6"/>
+      <c r="DB97" s="6"/>
+      <c r="DC97" s="6"/>
+      <c r="DD97" s="6"/>
+      <c r="DE97" s="6"/>
+      <c r="DF97" s="6"/>
+      <c r="DG97" s="6"/>
+      <c r="DH97" s="6"/>
+      <c r="DI97" s="6"/>
+      <c r="DJ97" s="6"/>
+      <c r="DK97" s="6"/>
+      <c r="DL97" s="6"/>
+      <c r="DM97" s="6"/>
+      <c r="DN97" s="6"/>
+      <c r="DO97" s="6"/>
+      <c r="DP97" s="6"/>
+      <c r="DQ97" s="6"/>
+      <c r="DR97" s="6"/>
+      <c r="DS97" s="6"/>
+      <c r="DT97" s="6"/>
+      <c r="DU97" s="6"/>
+      <c r="DV97" s="6"/>
+      <c r="DW97" s="6"/>
+      <c r="DX97" s="6"/>
+      <c r="DY97" s="6"/>
+      <c r="DZ97" s="6"/>
+      <c r="EA97" s="6"/>
+      <c r="EB97" s="6"/>
+      <c r="EC97" s="6"/>
+      <c r="ED97" s="6"/>
+      <c r="EE97" s="6"/>
+      <c r="EF97" s="6"/>
+      <c r="EG97" s="6"/>
+      <c r="EH97" s="6"/>
+      <c r="EI97" s="6"/>
+      <c r="EJ97" s="6"/>
+      <c r="EK97" s="6"/>
+      <c r="EL97" s="6"/>
+      <c r="EM97" s="6"/>
+      <c r="EN97" s="6"/>
+      <c r="EO97" s="6"/>
+      <c r="EP97" s="6"/>
+      <c r="EQ97" s="6"/>
+      <c r="ER97" s="6"/>
+      <c r="ES97" s="6"/>
+      <c r="ET97" s="6"/>
+      <c r="EU97" s="6"/>
+      <c r="EV97" s="6"/>
+      <c r="EW97" s="6"/>
+      <c r="EX97" s="6"/>
+      <c r="EY97" s="6"/>
+      <c r="EZ97" s="6"/>
+      <c r="FA97" s="6"/>
+      <c r="FB97" s="6"/>
+      <c r="FC97" s="6"/>
+      <c r="FD97" s="6"/>
+      <c r="FE97" s="6"/>
+      <c r="FF97" s="6"/>
+      <c r="FG97" s="6"/>
+      <c r="FH97" s="6"/>
+      <c r="FI97" s="6"/>
+      <c r="FJ97" s="6"/>
+      <c r="FK97" s="6"/>
+      <c r="FL97" s="6"/>
+      <c r="FM97" s="6"/>
+      <c r="FN97" s="6"/>
+      <c r="FO97" s="6"/>
+      <c r="FP97" s="6"/>
+      <c r="FQ97" s="6"/>
+      <c r="FR97" s="6"/>
+      <c r="FS97" s="6"/>
+      <c r="FT97" s="6"/>
+      <c r="FU97" s="6"/>
+      <c r="FV97" s="6"/>
+      <c r="FW97" s="6"/>
+      <c r="FX97" s="6"/>
+      <c r="FY97" s="6"/>
+      <c r="FZ97" s="6"/>
+      <c r="GA97" s="6"/>
+      <c r="GB97" s="6"/>
+      <c r="GC97" s="6"/>
+      <c r="GD97" s="6"/>
+      <c r="GE97" s="6"/>
+      <c r="GF97" s="6"/>
+      <c r="GG97" s="6"/>
+      <c r="GH97" s="6"/>
+      <c r="GI97" s="6"/>
+      <c r="GJ97" s="6"/>
+      <c r="GK97" s="6"/>
+      <c r="GL97" s="6"/>
+      <c r="GM97" s="6"/>
+      <c r="GN97" s="6"/>
+      <c r="GO97" s="6"/>
+      <c r="GP97" s="6"/>
+      <c r="GQ97" s="6"/>
+      <c r="GR97" s="6"/>
+      <c r="GS97" s="6"/>
+      <c r="GT97" s="6"/>
+      <c r="GU97" s="6"/>
+      <c r="GV97" s="6"/>
+      <c r="GW97" s="6"/>
+      <c r="GX97" s="6"/>
+      <c r="GY97" s="6"/>
+      <c r="GZ97" s="6"/>
+      <c r="HA97" s="6"/>
+      <c r="HB97" s="6"/>
+      <c r="HC97" s="6"/>
+      <c r="HD97" s="6"/>
+      <c r="HE97" s="6"/>
+      <c r="HF97" s="6"/>
+      <c r="HG97" s="6"/>
+      <c r="HH97" s="6"/>
+      <c r="HI97" s="6"/>
+      <c r="HJ97" s="6"/>
+      <c r="HK97" s="6"/>
+      <c r="HL97" s="6"/>
+      <c r="HM97" s="6"/>
+      <c r="HN97" s="6"/>
+      <c r="HO97" s="6"/>
+      <c r="HP97" s="6"/>
+      <c r="HQ97" s="6"/>
+      <c r="HR97" s="6"/>
+      <c r="HS97" s="6"/>
+      <c r="HT97" s="6"/>
+      <c r="HU97" s="6"/>
+      <c r="HV97" s="6"/>
+      <c r="HW97" s="6"/>
+      <c r="HX97" s="6"/>
+      <c r="HY97" s="6"/>
+      <c r="HZ97" s="6"/>
+      <c r="IA97" s="6"/>
+      <c r="IB97" s="6"/>
+      <c r="IC97" s="6"/>
+      <c r="ID97" s="6"/>
+      <c r="IE97" s="6"/>
+      <c r="IF97" s="6"/>
+      <c r="IG97" s="6"/>
+      <c r="IH97" s="6"/>
+      <c r="II97" s="6"/>
+      <c r="IJ97" s="6"/>
+      <c r="IK97" s="6"/>
+      <c r="IL97" s="6"/>
+      <c r="IM97" s="6"/>
+      <c r="IN97" s="6"/>
+      <c r="IO97" s="6"/>
+      <c r="IP97" s="6"/>
+      <c r="IQ97" s="6"/>
+      <c r="IR97" s="6"/>
+      <c r="IS97" s="6"/>
+      <c r="IT97" s="6"/>
+      <c r="IU97" s="6"/>
+      <c r="IV97" s="6"/>
+      <c r="IW97" s="6"/>
+      <c r="IX97" s="6"/>
+      <c r="IY97" s="6"/>
+      <c r="IZ97" s="6"/>
+      <c r="JA97" s="6"/>
+      <c r="JB97" s="6"/>
+      <c r="JC97" s="6"/>
+      <c r="JD97" s="6"/>
+      <c r="JE97" s="6"/>
+      <c r="JF97" s="6"/>
+      <c r="JG97" s="6"/>
+      <c r="JH97" s="6"/>
+      <c r="JI97" s="6"/>
+      <c r="JJ97" s="6"/>
+      <c r="JK97" s="6"/>
+      <c r="JL97" s="6"/>
+      <c r="JM97" s="6"/>
+      <c r="JN97" s="6"/>
+      <c r="JO97" s="6"/>
+      <c r="JP97" s="6"/>
+      <c r="JQ97" s="6"/>
+      <c r="JR97" s="6"/>
+      <c r="JS97" s="6"/>
+      <c r="JT97" s="6"/>
+      <c r="JU97" s="6"/>
+      <c r="JV97" s="6"/>
+      <c r="JW97" s="6"/>
+      <c r="JX97" s="6"/>
+      <c r="JY97" s="6"/>
+      <c r="JZ97" s="6"/>
+      <c r="KA97" s="6"/>
+      <c r="KB97" s="6"/>
+      <c r="KC97" s="6"/>
+      <c r="KD97" s="6"/>
+      <c r="KE97" s="6"/>
+      <c r="KF97" s="6"/>
+      <c r="KG97" s="6"/>
+      <c r="KH97" s="6"/>
+      <c r="KI97" s="6"/>
+      <c r="KJ97" s="6"/>
+      <c r="KK97" s="6"/>
+      <c r="KL97" s="6"/>
+      <c r="KM97" s="6"/>
+      <c r="KN97" s="6"/>
+      <c r="KO97" s="6"/>
+      <c r="KP97" s="6"/>
+      <c r="KQ97" s="6"/>
+      <c r="KR97" s="6"/>
+      <c r="KS97" s="6"/>
+      <c r="KT97" s="6"/>
+      <c r="KU97" s="6"/>
+      <c r="KV97" s="6"/>
+      <c r="KW97" s="6"/>
+      <c r="KX97" s="6"/>
+      <c r="KY97" s="6"/>
+      <c r="KZ97" s="6"/>
+      <c r="LA97" s="6"/>
+      <c r="LB97" s="6"/>
+      <c r="LC97" s="6"/>
+      <c r="LD97" s="6"/>
+      <c r="LE97" s="6"/>
+      <c r="LF97" s="6"/>
+      <c r="LG97" s="6"/>
+      <c r="LH97" s="6"/>
+      <c r="LI97" s="6"/>
+      <c r="LJ97" s="6"/>
+      <c r="LK97" s="6"/>
+      <c r="LL97" s="6"/>
+      <c r="LM97" s="6"/>
+      <c r="LN97" s="6"/>
+      <c r="LO97" s="6"/>
+      <c r="LP97" s="6"/>
+      <c r="LQ97" s="6"/>
+      <c r="LR97" s="6"/>
+      <c r="LS97" s="6"/>
+      <c r="LT97" s="6"/>
+      <c r="LU97" s="6"/>
+      <c r="LV97" s="6"/>
+      <c r="LW97" s="6"/>
+      <c r="LX97" s="6"/>
+      <c r="LY97" s="6"/>
+      <c r="LZ97" s="6"/>
+      <c r="MA97" s="6"/>
+      <c r="MB97" s="6"/>
+      <c r="MC97" s="6"/>
+      <c r="MD97" s="6"/>
+      <c r="ME97" s="6"/>
+      <c r="MF97" s="6"/>
+      <c r="MG97" s="6"/>
+      <c r="MH97" s="6"/>
+      <c r="MI97" s="6"/>
+      <c r="MJ97" s="6"/>
+      <c r="MK97" s="6"/>
+      <c r="ML97" s="6"/>
+      <c r="MM97" s="6"/>
+      <c r="MN97" s="6"/>
+      <c r="MO97" s="6"/>
+      <c r="MP97" s="6"/>
+      <c r="MQ97" s="6"/>
+      <c r="MR97" s="6"/>
+      <c r="MS97" s="6"/>
+      <c r="MT97" s="6"/>
+      <c r="MU97" s="6"/>
+      <c r="MV97" s="6"/>
+      <c r="MW97" s="6"/>
+      <c r="MX97" s="6"/>
+      <c r="MY97" s="6"/>
+      <c r="MZ97" s="6"/>
+      <c r="NA97" s="6"/>
+      <c r="NB97" s="6"/>
+      <c r="NC97" s="6"/>
+      <c r="ND97" s="6"/>
+      <c r="NE97" s="6"/>
+      <c r="NF97" s="6"/>
+      <c r="NG97" s="6"/>
+      <c r="NH97" s="6"/>
+      <c r="NI97" s="6"/>
+      <c r="NJ97" s="6"/>
+      <c r="NK97" s="6"/>
+      <c r="NL97" s="6"/>
+      <c r="NM97" s="6"/>
+      <c r="NN97" s="6"/>
+      <c r="NO97" s="6"/>
+      <c r="NP97" s="6"/>
+      <c r="NQ97" s="6"/>
+      <c r="NR97" s="6"/>
+      <c r="NS97" s="6"/>
+      <c r="NT97" s="6"/>
+      <c r="NU97" s="6"/>
+      <c r="NV97" s="6"/>
+      <c r="NW97" s="6"/>
+      <c r="NX97" s="6"/>
+      <c r="NY97" s="6"/>
+      <c r="NZ97" s="6"/>
+      <c r="OA97" s="6"/>
+      <c r="OB97" s="6"/>
+      <c r="OC97" s="6"/>
+      <c r="OD97" s="6"/>
+      <c r="OE97" s="6"/>
+      <c r="OF97" s="6"/>
+      <c r="OG97" s="6"/>
+      <c r="OH97" s="6"/>
+      <c r="OI97" s="6"/>
+      <c r="OJ97" s="6"/>
+      <c r="OK97" s="6"/>
+      <c r="OL97" s="6"/>
+      <c r="OM97" s="6"/>
+      <c r="ON97" s="6"/>
+      <c r="OO97" s="6"/>
+      <c r="OP97" s="6"/>
+      <c r="OQ97" s="6"/>
+      <c r="OR97" s="6"/>
+      <c r="OS97" s="6"/>
+      <c r="OT97" s="6"/>
+      <c r="OU97" s="6"/>
+      <c r="OV97" s="6"/>
+      <c r="OW97" s="6"/>
+      <c r="OX97" s="6"/>
+      <c r="OY97" s="6"/>
+      <c r="OZ97" s="6"/>
+      <c r="PA97" s="6"/>
+      <c r="PB97" s="6"/>
+      <c r="PC97" s="6"/>
+      <c r="PD97" s="6"/>
+      <c r="PE97" s="6"/>
+      <c r="PF97" s="6"/>
+      <c r="PG97" s="6"/>
+      <c r="PH97" s="6"/>
+      <c r="PI97" s="6"/>
+      <c r="PJ97" s="6"/>
+      <c r="PK97" s="6"/>
+      <c r="PL97" s="6"/>
+      <c r="PM97" s="6"/>
+      <c r="PN97" s="6"/>
+      <c r="PO97" s="6"/>
+      <c r="PP97" s="6"/>
+      <c r="PQ97" s="6"/>
+      <c r="PR97" s="6"/>
+      <c r="PS97" s="6"/>
+      <c r="PT97" s="6"/>
+      <c r="PU97" s="6"/>
+      <c r="PV97" s="6"/>
+      <c r="PW97" s="6"/>
+      <c r="PX97" s="6"/>
+      <c r="PY97" s="6"/>
+      <c r="PZ97" s="6"/>
+      <c r="QA97" s="6"/>
+      <c r="QB97" s="6"/>
+      <c r="QC97" s="6"/>
+      <c r="QD97" s="6"/>
+      <c r="QE97" s="6"/>
+      <c r="QF97" s="6"/>
+      <c r="QG97" s="6"/>
+      <c r="QH97" s="6"/>
+      <c r="QI97" s="6"/>
+      <c r="QJ97" s="6"/>
+      <c r="QK97" s="6"/>
+      <c r="QL97" s="6"/>
+      <c r="QM97" s="6"/>
+      <c r="QN97" s="6"/>
+      <c r="QO97" s="6"/>
+      <c r="QP97" s="6"/>
+      <c r="QQ97" s="6"/>
+      <c r="QR97" s="6"/>
+      <c r="QS97" s="6"/>
+      <c r="QT97" s="6"/>
+      <c r="QU97" s="6"/>
+      <c r="QV97" s="6"/>
+      <c r="QW97" s="6"/>
+      <c r="QX97" s="6"/>
+      <c r="QY97" s="6"/>
+      <c r="QZ97" s="6"/>
+      <c r="RA97" s="6"/>
+      <c r="RB97" s="6"/>
+      <c r="RC97" s="6"/>
+      <c r="RD97" s="6"/>
+      <c r="RE97" s="6"/>
+      <c r="RF97" s="6"/>
+      <c r="RG97" s="6"/>
+      <c r="RH97" s="6"/>
+      <c r="RI97" s="6"/>
+      <c r="RJ97" s="6"/>
+      <c r="RK97" s="6"/>
+      <c r="RL97" s="6"/>
+      <c r="RM97" s="6"/>
+      <c r="RN97" s="6"/>
+      <c r="RO97" s="6"/>
+      <c r="RP97" s="6"/>
+      <c r="RQ97" s="6"/>
+      <c r="RR97" s="6"/>
+      <c r="RS97" s="6"/>
+      <c r="RT97" s="6"/>
+      <c r="RU97" s="6"/>
+      <c r="RV97" s="6"/>
+      <c r="RW97" s="6"/>
+      <c r="RX97" s="6"/>
+      <c r="RY97" s="6"/>
+      <c r="RZ97" s="6"/>
+      <c r="SA97" s="6"/>
+      <c r="SB97" s="6"/>
+      <c r="SC97" s="6"/>
+      <c r="SD97" s="6"/>
+      <c r="SE97" s="6"/>
+      <c r="SF97" s="6"/>
+      <c r="SG97" s="6"/>
+      <c r="SH97" s="6"/>
+      <c r="SI97" s="6"/>
+      <c r="SJ97" s="6"/>
+      <c r="SK97" s="6"/>
+      <c r="SL97" s="6"/>
+      <c r="SM97" s="6"/>
+      <c r="SN97" s="6"/>
+      <c r="SO97" s="6"/>
+      <c r="SP97" s="6"/>
+      <c r="SQ97" s="6"/>
+      <c r="SR97" s="6"/>
+      <c r="SS97" s="6"/>
+      <c r="ST97" s="6"/>
+      <c r="SU97" s="6"/>
+      <c r="SV97" s="6"/>
+      <c r="SW97" s="6"/>
+      <c r="SX97" s="6"/>
+      <c r="SY97" s="6"/>
+      <c r="SZ97" s="6"/>
+      <c r="TA97" s="6"/>
+      <c r="TB97" s="6"/>
+      <c r="TC97" s="6"/>
+      <c r="TD97" s="6"/>
+      <c r="TE97" s="6"/>
+      <c r="TF97" s="6"/>
+      <c r="TG97" s="6"/>
+      <c r="TH97" s="6"/>
+      <c r="TI97" s="6"/>
+      <c r="TJ97" s="6"/>
+      <c r="TK97" s="6"/>
+      <c r="TL97" s="6"/>
+      <c r="TM97" s="6"/>
+      <c r="TN97" s="6"/>
+      <c r="TO97" s="6"/>
+      <c r="TP97" s="6"/>
+      <c r="TQ97" s="6"/>
+      <c r="TR97" s="6"/>
+      <c r="TS97" s="6"/>
+      <c r="TT97" s="6"/>
+      <c r="TU97" s="6"/>
+      <c r="TV97" s="6"/>
+      <c r="TW97" s="6"/>
+      <c r="TX97" s="6"/>
+      <c r="TY97" s="6"/>
+      <c r="TZ97" s="6"/>
+      <c r="UA97" s="6"/>
+      <c r="UB97" s="6"/>
+      <c r="UC97" s="6"/>
+      <c r="UD97" s="6"/>
+      <c r="UE97" s="6"/>
+      <c r="UF97" s="6"/>
+      <c r="UG97" s="6"/>
+      <c r="UH97" s="6"/>
+      <c r="UI97" s="6"/>
+      <c r="UJ97" s="6"/>
+      <c r="UK97" s="6"/>
+      <c r="UL97" s="6"/>
+      <c r="UM97" s="6"/>
+      <c r="UN97" s="6"/>
+      <c r="UO97" s="6"/>
+      <c r="UP97" s="6"/>
+      <c r="UQ97" s="6"/>
+      <c r="UR97" s="6"/>
+      <c r="US97" s="6"/>
+      <c r="UT97" s="6"/>
+      <c r="UU97" s="6"/>
+      <c r="UV97" s="6"/>
+      <c r="UW97" s="6"/>
+      <c r="UX97" s="6"/>
+      <c r="UY97" s="6"/>
+      <c r="UZ97" s="6"/>
+      <c r="VA97" s="6"/>
+      <c r="VB97" s="6"/>
+      <c r="VC97" s="6"/>
+      <c r="VD97" s="6"/>
+      <c r="VE97" s="6"/>
+      <c r="VF97" s="6"/>
+      <c r="VG97" s="6"/>
+      <c r="VH97" s="6"/>
+      <c r="VI97" s="6"/>
+      <c r="VJ97" s="6"/>
+      <c r="VK97" s="6"/>
+      <c r="VL97" s="6"/>
+      <c r="VM97" s="6"/>
+      <c r="VN97" s="6"/>
+      <c r="VO97" s="6"/>
+      <c r="VP97" s="6"/>
+      <c r="VQ97" s="6"/>
+      <c r="VR97" s="6"/>
+      <c r="VS97" s="6"/>
+      <c r="VT97" s="6"/>
+      <c r="VU97" s="6"/>
+      <c r="VV97" s="6"/>
+      <c r="VW97" s="6"/>
+      <c r="VX97" s="6"/>
+      <c r="VY97" s="6"/>
+      <c r="VZ97" s="6"/>
+      <c r="WA97" s="6"/>
+      <c r="WB97" s="6"/>
+      <c r="WC97" s="6"/>
+      <c r="WD97" s="6"/>
+      <c r="WE97" s="6"/>
+      <c r="WF97" s="6"/>
+      <c r="WG97" s="6"/>
+      <c r="WH97" s="6"/>
+      <c r="WI97" s="6"/>
+      <c r="WJ97" s="6"/>
+      <c r="WK97" s="6"/>
+      <c r="WL97" s="6"/>
+      <c r="WM97" s="6"/>
+      <c r="WN97" s="6"/>
+      <c r="WO97" s="6"/>
+      <c r="WP97" s="6"/>
+      <c r="WQ97" s="6"/>
+      <c r="WR97" s="6"/>
+      <c r="WS97" s="6"/>
+      <c r="WT97" s="6"/>
+      <c r="WU97" s="6"/>
+      <c r="WV97" s="6"/>
+      <c r="WW97" s="6"/>
+      <c r="WX97" s="6"/>
+      <c r="WY97" s="6"/>
+      <c r="WZ97" s="6"/>
+      <c r="XA97" s="6"/>
+      <c r="XB97" s="6"/>
+      <c r="XC97" s="6"/>
+      <c r="XD97" s="6"/>
+      <c r="XE97" s="6"/>
+      <c r="XF97" s="6"/>
+      <c r="XG97" s="6"/>
+      <c r="XH97" s="6"/>
+      <c r="XI97" s="6"/>
+      <c r="XJ97" s="6"/>
+      <c r="XK97" s="6"/>
+      <c r="XL97" s="6"/>
+      <c r="XM97" s="6"/>
+      <c r="XN97" s="6"/>
+      <c r="XO97" s="6"/>
+      <c r="XP97" s="6"/>
+      <c r="XQ97" s="6"/>
+      <c r="XR97" s="6"/>
+      <c r="XS97" s="6"/>
+      <c r="XT97" s="6"/>
+      <c r="XU97" s="6"/>
+      <c r="XV97" s="6"/>
+      <c r="XW97" s="6"/>
+      <c r="XX97" s="6"/>
+      <c r="XY97" s="6"/>
+      <c r="XZ97" s="6"/>
+      <c r="YA97" s="6"/>
+      <c r="YB97" s="6"/>
+      <c r="YC97" s="6"/>
+      <c r="YD97" s="6"/>
+      <c r="YE97" s="6"/>
+      <c r="YF97" s="6"/>
+      <c r="YG97" s="6"/>
+      <c r="YH97" s="6"/>
+      <c r="YI97" s="6"/>
+      <c r="YJ97" s="6"/>
+      <c r="YK97" s="6"/>
+      <c r="YL97" s="6"/>
+      <c r="YM97" s="6"/>
+      <c r="YN97" s="6"/>
+      <c r="YO97" s="6"/>
+      <c r="YP97" s="6"/>
+      <c r="YQ97" s="6"/>
+      <c r="YR97" s="6"/>
+      <c r="YS97" s="6"/>
+      <c r="YT97" s="6"/>
+      <c r="YU97" s="6"/>
+      <c r="YV97" s="6"/>
+      <c r="YW97" s="6"/>
+      <c r="YX97" s="6"/>
+      <c r="YY97" s="6"/>
+      <c r="YZ97" s="6"/>
+      <c r="ZA97" s="6"/>
+      <c r="ZB97" s="6"/>
+      <c r="ZC97" s="6"/>
+      <c r="ZD97" s="6"/>
+      <c r="ZE97" s="6"/>
+      <c r="ZF97" s="6"/>
+      <c r="ZG97" s="6"/>
+      <c r="ZH97" s="6"/>
+      <c r="ZI97" s="6"/>
+      <c r="ZJ97" s="6"/>
+      <c r="ZK97" s="6"/>
+      <c r="ZL97" s="6"/>
+      <c r="ZM97" s="6"/>
+      <c r="ZN97" s="6"/>
+      <c r="ZO97" s="6"/>
+      <c r="ZP97" s="6"/>
+      <c r="ZQ97" s="6"/>
+      <c r="ZR97" s="6"/>
+      <c r="ZS97" s="6"/>
+      <c r="ZT97" s="6"/>
+      <c r="ZU97" s="6"/>
+      <c r="ZV97" s="6"/>
+      <c r="ZW97" s="6"/>
+      <c r="ZX97" s="6"/>
+      <c r="ZY97" s="6"/>
+      <c r="ZZ97" s="6"/>
+      <c r="AAA97" s="6"/>
+      <c r="AAB97" s="6"/>
+      <c r="AAC97" s="6"/>
+      <c r="AAD97" s="6"/>
+      <c r="AAE97" s="6"/>
+      <c r="AAF97" s="6"/>
+      <c r="AAG97" s="6"/>
+      <c r="AAH97" s="6"/>
+      <c r="AAI97" s="6"/>
+      <c r="AAJ97" s="6"/>
+      <c r="AAK97" s="6"/>
+      <c r="AAL97" s="6"/>
+      <c r="AAM97" s="6"/>
+      <c r="AAN97" s="6"/>
+      <c r="AAO97" s="6"/>
+      <c r="AAP97" s="6"/>
+      <c r="AAQ97" s="6"/>
+      <c r="AAR97" s="6"/>
+      <c r="AAS97" s="6"/>
+      <c r="AAT97" s="6"/>
+      <c r="AAU97" s="6"/>
+      <c r="AAV97" s="6"/>
+      <c r="AAW97" s="6"/>
+      <c r="AAX97" s="6"/>
+      <c r="AAY97" s="6"/>
+      <c r="AAZ97" s="6"/>
+      <c r="ABA97" s="6"/>
+      <c r="ABB97" s="6"/>
+      <c r="ABC97" s="6"/>
+      <c r="ABD97" s="6"/>
+      <c r="ABE97" s="6"/>
+      <c r="ABF97" s="6"/>
+      <c r="ABG97" s="6"/>
+      <c r="ABH97" s="6"/>
+      <c r="ABI97" s="6"/>
+      <c r="ABJ97" s="6"/>
+      <c r="ABK97" s="6"/>
+      <c r="ABL97" s="6"/>
+      <c r="ABM97" s="6"/>
+      <c r="ABN97" s="6"/>
+      <c r="ABO97" s="6"/>
+      <c r="ABP97" s="6"/>
+      <c r="ABQ97" s="6"/>
+      <c r="ABR97" s="6"/>
+      <c r="ABS97" s="6"/>
+      <c r="ABT97" s="6"/>
+      <c r="ABU97" s="6"/>
+      <c r="ABV97" s="6"/>
+      <c r="ABW97" s="6"/>
+      <c r="ABX97" s="6"/>
+      <c r="ABY97" s="6"/>
+      <c r="ABZ97" s="6"/>
+      <c r="ACA97" s="6"/>
+      <c r="ACB97" s="6"/>
+      <c r="ACC97" s="6"/>
+      <c r="ACD97" s="6"/>
+      <c r="ACE97" s="6"/>
+      <c r="ACF97" s="6"/>
+      <c r="ACG97" s="6"/>
+      <c r="ACH97" s="6"/>
+      <c r="ACI97" s="6"/>
+      <c r="ACJ97" s="6"/>
+      <c r="ACK97" s="6"/>
+      <c r="ACL97" s="6"/>
+      <c r="ACM97" s="6"/>
+      <c r="ACN97" s="6"/>
+      <c r="ACO97" s="6"/>
+      <c r="ACP97" s="6"/>
+      <c r="ACQ97" s="6"/>
+      <c r="ACR97" s="6"/>
+      <c r="ACS97" s="6"/>
+      <c r="ACT97" s="6"/>
+      <c r="ACU97" s="6"/>
+      <c r="ACV97" s="6"/>
+      <c r="ACW97" s="6"/>
+      <c r="ACX97" s="6"/>
+      <c r="ACY97" s="6"/>
+      <c r="ACZ97" s="6"/>
+      <c r="ADA97" s="6"/>
+      <c r="ADB97" s="6"/>
+      <c r="ADC97" s="6"/>
+      <c r="ADD97" s="6"/>
+      <c r="ADE97" s="6"/>
+      <c r="ADF97" s="6"/>
+      <c r="ADG97" s="6"/>
+      <c r="ADH97" s="6"/>
+      <c r="ADI97" s="6"/>
+      <c r="ADJ97" s="6"/>
+      <c r="ADK97" s="6"/>
+      <c r="ADL97" s="6"/>
+      <c r="ADM97" s="6"/>
+      <c r="ADN97" s="6"/>
+      <c r="ADO97" s="6"/>
+      <c r="ADP97" s="6"/>
+      <c r="ADQ97" s="6"/>
+      <c r="ADR97" s="6"/>
+      <c r="ADS97" s="6"/>
+      <c r="ADT97" s="6"/>
+      <c r="ADU97" s="6"/>
+      <c r="ADV97" s="6"/>
+      <c r="ADW97" s="6"/>
+      <c r="ADX97" s="6"/>
+      <c r="ADY97" s="6"/>
+      <c r="ADZ97" s="6"/>
+      <c r="AEA97" s="6"/>
+      <c r="AEB97" s="6"/>
+      <c r="AEC97" s="6"/>
+      <c r="AED97" s="6"/>
+      <c r="AEE97" s="6"/>
+      <c r="AEF97" s="6"/>
+      <c r="AEG97" s="6"/>
+      <c r="AEH97" s="6"/>
+      <c r="AEI97" s="6"/>
+      <c r="AEJ97" s="6"/>
+      <c r="AEK97" s="6"/>
+      <c r="AEL97" s="6"/>
+      <c r="AEM97" s="6"/>
+      <c r="AEN97" s="6"/>
+      <c r="AEO97" s="6"/>
+      <c r="AEP97" s="6"/>
+      <c r="AEQ97" s="6"/>
+      <c r="AER97" s="6"/>
+      <c r="AES97" s="6"/>
+      <c r="AET97" s="6"/>
+      <c r="AEU97" s="6"/>
+      <c r="AEV97" s="6"/>
+      <c r="AEW97" s="6"/>
+      <c r="AEX97" s="6"/>
+      <c r="AEY97" s="6"/>
+      <c r="AEZ97" s="6"/>
+      <c r="AFA97" s="6"/>
+      <c r="AFB97" s="6"/>
+      <c r="AFC97" s="6"/>
+      <c r="AFD97" s="6"/>
+      <c r="AFE97" s="6"/>
+      <c r="AFF97" s="6"/>
+      <c r="AFG97" s="6"/>
+      <c r="AFH97" s="6"/>
+      <c r="AFI97" s="6"/>
+      <c r="AFJ97" s="6"/>
+      <c r="AFK97" s="6"/>
+      <c r="AFL97" s="6"/>
+      <c r="AFM97" s="6"/>
+      <c r="AFN97" s="6"/>
+      <c r="AFO97" s="6"/>
+      <c r="AFP97" s="6"/>
+      <c r="AFQ97" s="6"/>
+      <c r="AFR97" s="6"/>
+      <c r="AFS97" s="6"/>
+      <c r="AFT97" s="6"/>
+      <c r="AFU97" s="6"/>
+      <c r="AFV97" s="6"/>
+      <c r="AFW97" s="6"/>
+      <c r="AFX97" s="6"/>
+      <c r="AFY97" s="6"/>
+      <c r="AFZ97" s="6"/>
+      <c r="AGA97" s="6"/>
+      <c r="AGB97" s="6"/>
+      <c r="AGC97" s="6"/>
+      <c r="AGD97" s="6"/>
+      <c r="AGE97" s="6"/>
+      <c r="AGF97" s="6"/>
+      <c r="AGG97" s="6"/>
+      <c r="AGH97" s="6"/>
+      <c r="AGI97" s="6"/>
+      <c r="AGJ97" s="6"/>
+      <c r="AGK97" s="6"/>
+      <c r="AGL97" s="6"/>
+      <c r="AGM97" s="6"/>
+      <c r="AGN97" s="6"/>
+      <c r="AGO97" s="6"/>
+      <c r="AGP97" s="6"/>
+      <c r="AGQ97" s="6"/>
+      <c r="AGR97" s="6"/>
+      <c r="AGS97" s="6"/>
+      <c r="AGT97" s="6"/>
+      <c r="AGU97" s="6"/>
+      <c r="AGV97" s="6"/>
+      <c r="AGW97" s="6"/>
+      <c r="AGX97" s="6"/>
+      <c r="AGY97" s="6"/>
+      <c r="AGZ97" s="6"/>
+      <c r="AHA97" s="6"/>
+      <c r="AHB97" s="6"/>
+      <c r="AHC97" s="6"/>
+      <c r="AHD97" s="6"/>
+      <c r="AHE97" s="6"/>
+      <c r="AHF97" s="6"/>
+      <c r="AHG97" s="6"/>
+      <c r="AHH97" s="6"/>
+      <c r="AHI97" s="6"/>
+      <c r="AHJ97" s="6"/>
+      <c r="AHK97" s="6"/>
+      <c r="AHL97" s="6"/>
+      <c r="AHM97" s="6"/>
+      <c r="AHN97" s="6"/>
+      <c r="AHO97" s="6"/>
+      <c r="AHP97" s="6"/>
+      <c r="AHQ97" s="6"/>
+      <c r="AHR97" s="6"/>
+      <c r="AHS97" s="6"/>
+      <c r="AHT97" s="6"/>
+      <c r="AHU97" s="6"/>
+      <c r="AHV97" s="6"/>
+      <c r="AHW97" s="6"/>
+      <c r="AHX97" s="6"/>
+      <c r="AHY97" s="6"/>
+      <c r="AHZ97" s="6"/>
+      <c r="AIA97" s="6"/>
+      <c r="AIB97" s="6"/>
+      <c r="AIC97" s="6"/>
+      <c r="AID97" s="6"/>
+      <c r="AIE97" s="6"/>
+      <c r="AIF97" s="6"/>
+      <c r="AIG97" s="6"/>
+      <c r="AIH97" s="6"/>
+      <c r="AII97" s="6"/>
+      <c r="AIJ97" s="6"/>
+      <c r="AIK97" s="6"/>
+      <c r="AIL97" s="6"/>
+      <c r="AIM97" s="6"/>
+      <c r="AIN97" s="6"/>
+      <c r="AIO97" s="6"/>
+      <c r="AIP97" s="6"/>
+      <c r="AIQ97" s="6"/>
+      <c r="AIR97" s="6"/>
+      <c r="AIS97" s="6"/>
+      <c r="AIT97" s="6"/>
+      <c r="AIU97" s="6"/>
+      <c r="AIV97" s="6"/>
+      <c r="AIW97" s="6"/>
+      <c r="AIX97" s="6"/>
+      <c r="AIY97" s="6"/>
+      <c r="AIZ97" s="6"/>
+      <c r="AJA97" s="6"/>
+      <c r="AJB97" s="6"/>
+      <c r="AJC97" s="6"/>
+      <c r="AJD97" s="6"/>
+      <c r="AJE97" s="6"/>
+      <c r="AJF97" s="6"/>
+      <c r="AJG97" s="6"/>
+      <c r="AJH97" s="6"/>
+      <c r="AJI97" s="6"/>
+      <c r="AJJ97" s="6"/>
+      <c r="AJK97" s="6"/>
+      <c r="AJL97" s="6"/>
+      <c r="AJM97" s="6"/>
+      <c r="AJN97" s="6"/>
+      <c r="AJO97" s="6"/>
+      <c r="AJP97" s="6"/>
+      <c r="AJQ97" s="6"/>
+      <c r="AJR97" s="6"/>
+      <c r="AJS97" s="6"/>
+      <c r="AJT97" s="6"/>
+      <c r="AJU97" s="6"/>
+      <c r="AJV97" s="6"/>
+      <c r="AJW97" s="6"/>
+      <c r="AJX97" s="6"/>
+      <c r="AJY97" s="6"/>
+      <c r="AJZ97" s="6"/>
+      <c r="AKA97" s="6"/>
+      <c r="AKB97" s="6"/>
+      <c r="AKC97" s="6"/>
+      <c r="AKD97" s="6"/>
+      <c r="AKE97" s="6"/>
+      <c r="AKF97" s="6"/>
+      <c r="AKG97" s="6"/>
+      <c r="AKH97" s="6"/>
+      <c r="AKI97" s="6"/>
+      <c r="AKJ97" s="6"/>
+      <c r="AKK97" s="6"/>
+      <c r="AKL97" s="6"/>
+      <c r="AKM97" s="6"/>
+      <c r="AKN97" s="6"/>
+      <c r="AKO97" s="6"/>
+      <c r="AKP97" s="6"/>
+      <c r="AKQ97" s="6"/>
+      <c r="AKR97" s="6"/>
+      <c r="AKS97" s="6"/>
+      <c r="AKT97" s="6"/>
+      <c r="AKU97" s="6"/>
+      <c r="AKV97" s="6"/>
+      <c r="AKW97" s="6"/>
+      <c r="AKX97" s="6"/>
+      <c r="AKY97" s="6"/>
+      <c r="AKZ97" s="6"/>
+      <c r="ALA97" s="6"/>
+      <c r="ALB97" s="6"/>
+      <c r="ALC97" s="6"/>
+      <c r="ALD97" s="6"/>
+      <c r="ALE97" s="6"/>
+      <c r="ALF97" s="6"/>
+      <c r="ALG97" s="6"/>
+      <c r="ALH97" s="6"/>
+      <c r="ALI97" s="6"/>
+      <c r="ALJ97" s="6"/>
+      <c r="ALK97" s="6"/>
+      <c r="ALL97" s="6"/>
+      <c r="ALM97" s="6"/>
+      <c r="ALN97" s="6"/>
+      <c r="ALO97" s="6"/>
+      <c r="ALP97" s="6"/>
+      <c r="ALQ97" s="6"/>
+      <c r="ALR97" s="6"/>
+      <c r="ALS97" s="6"/>
+      <c r="ALT97" s="6"/>
+      <c r="ALU97" s="6"/>
+      <c r="ALV97" s="6"/>
+      <c r="ALW97" s="6"/>
+      <c r="ALX97" s="6"/>
+      <c r="ALY97" s="6"/>
+      <c r="ALZ97" s="6"/>
+      <c r="AMA97" s="6"/>
+      <c r="AMB97" s="6"/>
+      <c r="AMC97" s="6"/>
+      <c r="AMD97" s="6"/>
+      <c r="AME97" s="6"/>
+      <c r="AMF97" s="6"/>
+      <c r="AMG97" s="6"/>
+      <c r="AMH97" s="6"/>
+      <c r="AMI97" s="6"/>
+      <c r="AMJ97" s="6"/>
+      <c r="AMK97" s="6"/>
+      <c r="AML97" s="6"/>
+      <c r="AMM97" s="6"/>
     </row>
-    <row r="98" spans="1:7" s="6" customFormat="1" ht="38.25">
+    <row r="98" spans="1:1027" ht="45">
       <c r="A98" s="9" t="s">
         <v>228</v>
       </c>
@@ -23942,8 +25288,1028 @@
       <c r="G98" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="6"/>
+      <c r="AC98" s="6"/>
+      <c r="AD98" s="6"/>
+      <c r="AE98" s="6"/>
+      <c r="AF98" s="6"/>
+      <c r="AG98" s="6"/>
+      <c r="AH98" s="6"/>
+      <c r="AI98" s="6"/>
+      <c r="AJ98" s="6"/>
+      <c r="AK98" s="6"/>
+      <c r="AL98" s="6"/>
+      <c r="AM98" s="6"/>
+      <c r="AN98" s="6"/>
+      <c r="AO98" s="6"/>
+      <c r="AP98" s="6"/>
+      <c r="AQ98" s="6"/>
+      <c r="AR98" s="6"/>
+      <c r="AS98" s="6"/>
+      <c r="AT98" s="6"/>
+      <c r="AU98" s="6"/>
+      <c r="AV98" s="6"/>
+      <c r="AW98" s="6"/>
+      <c r="AX98" s="6"/>
+      <c r="AY98" s="6"/>
+      <c r="AZ98" s="6"/>
+      <c r="BA98" s="6"/>
+      <c r="BB98" s="6"/>
+      <c r="BC98" s="6"/>
+      <c r="BD98" s="6"/>
+      <c r="BE98" s="6"/>
+      <c r="BF98" s="6"/>
+      <c r="BG98" s="6"/>
+      <c r="BH98" s="6"/>
+      <c r="BI98" s="6"/>
+      <c r="BJ98" s="6"/>
+      <c r="BK98" s="6"/>
+      <c r="BL98" s="6"/>
+      <c r="BM98" s="6"/>
+      <c r="BN98" s="6"/>
+      <c r="BO98" s="6"/>
+      <c r="BP98" s="6"/>
+      <c r="BQ98" s="6"/>
+      <c r="BR98" s="6"/>
+      <c r="BS98" s="6"/>
+      <c r="BT98" s="6"/>
+      <c r="BU98" s="6"/>
+      <c r="BV98" s="6"/>
+      <c r="BW98" s="6"/>
+      <c r="BX98" s="6"/>
+      <c r="BY98" s="6"/>
+      <c r="BZ98" s="6"/>
+      <c r="CA98" s="6"/>
+      <c r="CB98" s="6"/>
+      <c r="CC98" s="6"/>
+      <c r="CD98" s="6"/>
+      <c r="CE98" s="6"/>
+      <c r="CF98" s="6"/>
+      <c r="CG98" s="6"/>
+      <c r="CH98" s="6"/>
+      <c r="CI98" s="6"/>
+      <c r="CJ98" s="6"/>
+      <c r="CK98" s="6"/>
+      <c r="CL98" s="6"/>
+      <c r="CM98" s="6"/>
+      <c r="CN98" s="6"/>
+      <c r="CO98" s="6"/>
+      <c r="CP98" s="6"/>
+      <c r="CQ98" s="6"/>
+      <c r="CR98" s="6"/>
+      <c r="CS98" s="6"/>
+      <c r="CT98" s="6"/>
+      <c r="CU98" s="6"/>
+      <c r="CV98" s="6"/>
+      <c r="CW98" s="6"/>
+      <c r="CX98" s="6"/>
+      <c r="CY98" s="6"/>
+      <c r="CZ98" s="6"/>
+      <c r="DA98" s="6"/>
+      <c r="DB98" s="6"/>
+      <c r="DC98" s="6"/>
+      <c r="DD98" s="6"/>
+      <c r="DE98" s="6"/>
+      <c r="DF98" s="6"/>
+      <c r="DG98" s="6"/>
+      <c r="DH98" s="6"/>
+      <c r="DI98" s="6"/>
+      <c r="DJ98" s="6"/>
+      <c r="DK98" s="6"/>
+      <c r="DL98" s="6"/>
+      <c r="DM98" s="6"/>
+      <c r="DN98" s="6"/>
+      <c r="DO98" s="6"/>
+      <c r="DP98" s="6"/>
+      <c r="DQ98" s="6"/>
+      <c r="DR98" s="6"/>
+      <c r="DS98" s="6"/>
+      <c r="DT98" s="6"/>
+      <c r="DU98" s="6"/>
+      <c r="DV98" s="6"/>
+      <c r="DW98" s="6"/>
+      <c r="DX98" s="6"/>
+      <c r="DY98" s="6"/>
+      <c r="DZ98" s="6"/>
+      <c r="EA98" s="6"/>
+      <c r="EB98" s="6"/>
+      <c r="EC98" s="6"/>
+      <c r="ED98" s="6"/>
+      <c r="EE98" s="6"/>
+      <c r="EF98" s="6"/>
+      <c r="EG98" s="6"/>
+      <c r="EH98" s="6"/>
+      <c r="EI98" s="6"/>
+      <c r="EJ98" s="6"/>
+      <c r="EK98" s="6"/>
+      <c r="EL98" s="6"/>
+      <c r="EM98" s="6"/>
+      <c r="EN98" s="6"/>
+      <c r="EO98" s="6"/>
+      <c r="EP98" s="6"/>
+      <c r="EQ98" s="6"/>
+      <c r="ER98" s="6"/>
+      <c r="ES98" s="6"/>
+      <c r="ET98" s="6"/>
+      <c r="EU98" s="6"/>
+      <c r="EV98" s="6"/>
+      <c r="EW98" s="6"/>
+      <c r="EX98" s="6"/>
+      <c r="EY98" s="6"/>
+      <c r="EZ98" s="6"/>
+      <c r="FA98" s="6"/>
+      <c r="FB98" s="6"/>
+      <c r="FC98" s="6"/>
+      <c r="FD98" s="6"/>
+      <c r="FE98" s="6"/>
+      <c r="FF98" s="6"/>
+      <c r="FG98" s="6"/>
+      <c r="FH98" s="6"/>
+      <c r="FI98" s="6"/>
+      <c r="FJ98" s="6"/>
+      <c r="FK98" s="6"/>
+      <c r="FL98" s="6"/>
+      <c r="FM98" s="6"/>
+      <c r="FN98" s="6"/>
+      <c r="FO98" s="6"/>
+      <c r="FP98" s="6"/>
+      <c r="FQ98" s="6"/>
+      <c r="FR98" s="6"/>
+      <c r="FS98" s="6"/>
+      <c r="FT98" s="6"/>
+      <c r="FU98" s="6"/>
+      <c r="FV98" s="6"/>
+      <c r="FW98" s="6"/>
+      <c r="FX98" s="6"/>
+      <c r="FY98" s="6"/>
+      <c r="FZ98" s="6"/>
+      <c r="GA98" s="6"/>
+      <c r="GB98" s="6"/>
+      <c r="GC98" s="6"/>
+      <c r="GD98" s="6"/>
+      <c r="GE98" s="6"/>
+      <c r="GF98" s="6"/>
+      <c r="GG98" s="6"/>
+      <c r="GH98" s="6"/>
+      <c r="GI98" s="6"/>
+      <c r="GJ98" s="6"/>
+      <c r="GK98" s="6"/>
+      <c r="GL98" s="6"/>
+      <c r="GM98" s="6"/>
+      <c r="GN98" s="6"/>
+      <c r="GO98" s="6"/>
+      <c r="GP98" s="6"/>
+      <c r="GQ98" s="6"/>
+      <c r="GR98" s="6"/>
+      <c r="GS98" s="6"/>
+      <c r="GT98" s="6"/>
+      <c r="GU98" s="6"/>
+      <c r="GV98" s="6"/>
+      <c r="GW98" s="6"/>
+      <c r="GX98" s="6"/>
+      <c r="GY98" s="6"/>
+      <c r="GZ98" s="6"/>
+      <c r="HA98" s="6"/>
+      <c r="HB98" s="6"/>
+      <c r="HC98" s="6"/>
+      <c r="HD98" s="6"/>
+      <c r="HE98" s="6"/>
+      <c r="HF98" s="6"/>
+      <c r="HG98" s="6"/>
+      <c r="HH98" s="6"/>
+      <c r="HI98" s="6"/>
+      <c r="HJ98" s="6"/>
+      <c r="HK98" s="6"/>
+      <c r="HL98" s="6"/>
+      <c r="HM98" s="6"/>
+      <c r="HN98" s="6"/>
+      <c r="HO98" s="6"/>
+      <c r="HP98" s="6"/>
+      <c r="HQ98" s="6"/>
+      <c r="HR98" s="6"/>
+      <c r="HS98" s="6"/>
+      <c r="HT98" s="6"/>
+      <c r="HU98" s="6"/>
+      <c r="HV98" s="6"/>
+      <c r="HW98" s="6"/>
+      <c r="HX98" s="6"/>
+      <c r="HY98" s="6"/>
+      <c r="HZ98" s="6"/>
+      <c r="IA98" s="6"/>
+      <c r="IB98" s="6"/>
+      <c r="IC98" s="6"/>
+      <c r="ID98" s="6"/>
+      <c r="IE98" s="6"/>
+      <c r="IF98" s="6"/>
+      <c r="IG98" s="6"/>
+      <c r="IH98" s="6"/>
+      <c r="II98" s="6"/>
+      <c r="IJ98" s="6"/>
+      <c r="IK98" s="6"/>
+      <c r="IL98" s="6"/>
+      <c r="IM98" s="6"/>
+      <c r="IN98" s="6"/>
+      <c r="IO98" s="6"/>
+      <c r="IP98" s="6"/>
+      <c r="IQ98" s="6"/>
+      <c r="IR98" s="6"/>
+      <c r="IS98" s="6"/>
+      <c r="IT98" s="6"/>
+      <c r="IU98" s="6"/>
+      <c r="IV98" s="6"/>
+      <c r="IW98" s="6"/>
+      <c r="IX98" s="6"/>
+      <c r="IY98" s="6"/>
+      <c r="IZ98" s="6"/>
+      <c r="JA98" s="6"/>
+      <c r="JB98" s="6"/>
+      <c r="JC98" s="6"/>
+      <c r="JD98" s="6"/>
+      <c r="JE98" s="6"/>
+      <c r="JF98" s="6"/>
+      <c r="JG98" s="6"/>
+      <c r="JH98" s="6"/>
+      <c r="JI98" s="6"/>
+      <c r="JJ98" s="6"/>
+      <c r="JK98" s="6"/>
+      <c r="JL98" s="6"/>
+      <c r="JM98" s="6"/>
+      <c r="JN98" s="6"/>
+      <c r="JO98" s="6"/>
+      <c r="JP98" s="6"/>
+      <c r="JQ98" s="6"/>
+      <c r="JR98" s="6"/>
+      <c r="JS98" s="6"/>
+      <c r="JT98" s="6"/>
+      <c r="JU98" s="6"/>
+      <c r="JV98" s="6"/>
+      <c r="JW98" s="6"/>
+      <c r="JX98" s="6"/>
+      <c r="JY98" s="6"/>
+      <c r="JZ98" s="6"/>
+      <c r="KA98" s="6"/>
+      <c r="KB98" s="6"/>
+      <c r="KC98" s="6"/>
+      <c r="KD98" s="6"/>
+      <c r="KE98" s="6"/>
+      <c r="KF98" s="6"/>
+      <c r="KG98" s="6"/>
+      <c r="KH98" s="6"/>
+      <c r="KI98" s="6"/>
+      <c r="KJ98" s="6"/>
+      <c r="KK98" s="6"/>
+      <c r="KL98" s="6"/>
+      <c r="KM98" s="6"/>
+      <c r="KN98" s="6"/>
+      <c r="KO98" s="6"/>
+      <c r="KP98" s="6"/>
+      <c r="KQ98" s="6"/>
+      <c r="KR98" s="6"/>
+      <c r="KS98" s="6"/>
+      <c r="KT98" s="6"/>
+      <c r="KU98" s="6"/>
+      <c r="KV98" s="6"/>
+      <c r="KW98" s="6"/>
+      <c r="KX98" s="6"/>
+      <c r="KY98" s="6"/>
+      <c r="KZ98" s="6"/>
+      <c r="LA98" s="6"/>
+      <c r="LB98" s="6"/>
+      <c r="LC98" s="6"/>
+      <c r="LD98" s="6"/>
+      <c r="LE98" s="6"/>
+      <c r="LF98" s="6"/>
+      <c r="LG98" s="6"/>
+      <c r="LH98" s="6"/>
+      <c r="LI98" s="6"/>
+      <c r="LJ98" s="6"/>
+      <c r="LK98" s="6"/>
+      <c r="LL98" s="6"/>
+      <c r="LM98" s="6"/>
+      <c r="LN98" s="6"/>
+      <c r="LO98" s="6"/>
+      <c r="LP98" s="6"/>
+      <c r="LQ98" s="6"/>
+      <c r="LR98" s="6"/>
+      <c r="LS98" s="6"/>
+      <c r="LT98" s="6"/>
+      <c r="LU98" s="6"/>
+      <c r="LV98" s="6"/>
+      <c r="LW98" s="6"/>
+      <c r="LX98" s="6"/>
+      <c r="LY98" s="6"/>
+      <c r="LZ98" s="6"/>
+      <c r="MA98" s="6"/>
+      <c r="MB98" s="6"/>
+      <c r="MC98" s="6"/>
+      <c r="MD98" s="6"/>
+      <c r="ME98" s="6"/>
+      <c r="MF98" s="6"/>
+      <c r="MG98" s="6"/>
+      <c r="MH98" s="6"/>
+      <c r="MI98" s="6"/>
+      <c r="MJ98" s="6"/>
+      <c r="MK98" s="6"/>
+      <c r="ML98" s="6"/>
+      <c r="MM98" s="6"/>
+      <c r="MN98" s="6"/>
+      <c r="MO98" s="6"/>
+      <c r="MP98" s="6"/>
+      <c r="MQ98" s="6"/>
+      <c r="MR98" s="6"/>
+      <c r="MS98" s="6"/>
+      <c r="MT98" s="6"/>
+      <c r="MU98" s="6"/>
+      <c r="MV98" s="6"/>
+      <c r="MW98" s="6"/>
+      <c r="MX98" s="6"/>
+      <c r="MY98" s="6"/>
+      <c r="MZ98" s="6"/>
+      <c r="NA98" s="6"/>
+      <c r="NB98" s="6"/>
+      <c r="NC98" s="6"/>
+      <c r="ND98" s="6"/>
+      <c r="NE98" s="6"/>
+      <c r="NF98" s="6"/>
+      <c r="NG98" s="6"/>
+      <c r="NH98" s="6"/>
+      <c r="NI98" s="6"/>
+      <c r="NJ98" s="6"/>
+      <c r="NK98" s="6"/>
+      <c r="NL98" s="6"/>
+      <c r="NM98" s="6"/>
+      <c r="NN98" s="6"/>
+      <c r="NO98" s="6"/>
+      <c r="NP98" s="6"/>
+      <c r="NQ98" s="6"/>
+      <c r="NR98" s="6"/>
+      <c r="NS98" s="6"/>
+      <c r="NT98" s="6"/>
+      <c r="NU98" s="6"/>
+      <c r="NV98" s="6"/>
+      <c r="NW98" s="6"/>
+      <c r="NX98" s="6"/>
+      <c r="NY98" s="6"/>
+      <c r="NZ98" s="6"/>
+      <c r="OA98" s="6"/>
+      <c r="OB98" s="6"/>
+      <c r="OC98" s="6"/>
+      <c r="OD98" s="6"/>
+      <c r="OE98" s="6"/>
+      <c r="OF98" s="6"/>
+      <c r="OG98" s="6"/>
+      <c r="OH98" s="6"/>
+      <c r="OI98" s="6"/>
+      <c r="OJ98" s="6"/>
+      <c r="OK98" s="6"/>
+      <c r="OL98" s="6"/>
+      <c r="OM98" s="6"/>
+      <c r="ON98" s="6"/>
+      <c r="OO98" s="6"/>
+      <c r="OP98" s="6"/>
+      <c r="OQ98" s="6"/>
+      <c r="OR98" s="6"/>
+      <c r="OS98" s="6"/>
+      <c r="OT98" s="6"/>
+      <c r="OU98" s="6"/>
+      <c r="OV98" s="6"/>
+      <c r="OW98" s="6"/>
+      <c r="OX98" s="6"/>
+      <c r="OY98" s="6"/>
+      <c r="OZ98" s="6"/>
+      <c r="PA98" s="6"/>
+      <c r="PB98" s="6"/>
+      <c r="PC98" s="6"/>
+      <c r="PD98" s="6"/>
+      <c r="PE98" s="6"/>
+      <c r="PF98" s="6"/>
+      <c r="PG98" s="6"/>
+      <c r="PH98" s="6"/>
+      <c r="PI98" s="6"/>
+      <c r="PJ98" s="6"/>
+      <c r="PK98" s="6"/>
+      <c r="PL98" s="6"/>
+      <c r="PM98" s="6"/>
+      <c r="PN98" s="6"/>
+      <c r="PO98" s="6"/>
+      <c r="PP98" s="6"/>
+      <c r="PQ98" s="6"/>
+      <c r="PR98" s="6"/>
+      <c r="PS98" s="6"/>
+      <c r="PT98" s="6"/>
+      <c r="PU98" s="6"/>
+      <c r="PV98" s="6"/>
+      <c r="PW98" s="6"/>
+      <c r="PX98" s="6"/>
+      <c r="PY98" s="6"/>
+      <c r="PZ98" s="6"/>
+      <c r="QA98" s="6"/>
+      <c r="QB98" s="6"/>
+      <c r="QC98" s="6"/>
+      <c r="QD98" s="6"/>
+      <c r="QE98" s="6"/>
+      <c r="QF98" s="6"/>
+      <c r="QG98" s="6"/>
+      <c r="QH98" s="6"/>
+      <c r="QI98" s="6"/>
+      <c r="QJ98" s="6"/>
+      <c r="QK98" s="6"/>
+      <c r="QL98" s="6"/>
+      <c r="QM98" s="6"/>
+      <c r="QN98" s="6"/>
+      <c r="QO98" s="6"/>
+      <c r="QP98" s="6"/>
+      <c r="QQ98" s="6"/>
+      <c r="QR98" s="6"/>
+      <c r="QS98" s="6"/>
+      <c r="QT98" s="6"/>
+      <c r="QU98" s="6"/>
+      <c r="QV98" s="6"/>
+      <c r="QW98" s="6"/>
+      <c r="QX98" s="6"/>
+      <c r="QY98" s="6"/>
+      <c r="QZ98" s="6"/>
+      <c r="RA98" s="6"/>
+      <c r="RB98" s="6"/>
+      <c r="RC98" s="6"/>
+      <c r="RD98" s="6"/>
+      <c r="RE98" s="6"/>
+      <c r="RF98" s="6"/>
+      <c r="RG98" s="6"/>
+      <c r="RH98" s="6"/>
+      <c r="RI98" s="6"/>
+      <c r="RJ98" s="6"/>
+      <c r="RK98" s="6"/>
+      <c r="RL98" s="6"/>
+      <c r="RM98" s="6"/>
+      <c r="RN98" s="6"/>
+      <c r="RO98" s="6"/>
+      <c r="RP98" s="6"/>
+      <c r="RQ98" s="6"/>
+      <c r="RR98" s="6"/>
+      <c r="RS98" s="6"/>
+      <c r="RT98" s="6"/>
+      <c r="RU98" s="6"/>
+      <c r="RV98" s="6"/>
+      <c r="RW98" s="6"/>
+      <c r="RX98" s="6"/>
+      <c r="RY98" s="6"/>
+      <c r="RZ98" s="6"/>
+      <c r="SA98" s="6"/>
+      <c r="SB98" s="6"/>
+      <c r="SC98" s="6"/>
+      <c r="SD98" s="6"/>
+      <c r="SE98" s="6"/>
+      <c r="SF98" s="6"/>
+      <c r="SG98" s="6"/>
+      <c r="SH98" s="6"/>
+      <c r="SI98" s="6"/>
+      <c r="SJ98" s="6"/>
+      <c r="SK98" s="6"/>
+      <c r="SL98" s="6"/>
+      <c r="SM98" s="6"/>
+      <c r="SN98" s="6"/>
+      <c r="SO98" s="6"/>
+      <c r="SP98" s="6"/>
+      <c r="SQ98" s="6"/>
+      <c r="SR98" s="6"/>
+      <c r="SS98" s="6"/>
+      <c r="ST98" s="6"/>
+      <c r="SU98" s="6"/>
+      <c r="SV98" s="6"/>
+      <c r="SW98" s="6"/>
+      <c r="SX98" s="6"/>
+      <c r="SY98" s="6"/>
+      <c r="SZ98" s="6"/>
+      <c r="TA98" s="6"/>
+      <c r="TB98" s="6"/>
+      <c r="TC98" s="6"/>
+      <c r="TD98" s="6"/>
+      <c r="TE98" s="6"/>
+      <c r="TF98" s="6"/>
+      <c r="TG98" s="6"/>
+      <c r="TH98" s="6"/>
+      <c r="TI98" s="6"/>
+      <c r="TJ98" s="6"/>
+      <c r="TK98" s="6"/>
+      <c r="TL98" s="6"/>
+      <c r="TM98" s="6"/>
+      <c r="TN98" s="6"/>
+      <c r="TO98" s="6"/>
+      <c r="TP98" s="6"/>
+      <c r="TQ98" s="6"/>
+      <c r="TR98" s="6"/>
+      <c r="TS98" s="6"/>
+      <c r="TT98" s="6"/>
+      <c r="TU98" s="6"/>
+      <c r="TV98" s="6"/>
+      <c r="TW98" s="6"/>
+      <c r="TX98" s="6"/>
+      <c r="TY98" s="6"/>
+      <c r="TZ98" s="6"/>
+      <c r="UA98" s="6"/>
+      <c r="UB98" s="6"/>
+      <c r="UC98" s="6"/>
+      <c r="UD98" s="6"/>
+      <c r="UE98" s="6"/>
+      <c r="UF98" s="6"/>
+      <c r="UG98" s="6"/>
+      <c r="UH98" s="6"/>
+      <c r="UI98" s="6"/>
+      <c r="UJ98" s="6"/>
+      <c r="UK98" s="6"/>
+      <c r="UL98" s="6"/>
+      <c r="UM98" s="6"/>
+      <c r="UN98" s="6"/>
+      <c r="UO98" s="6"/>
+      <c r="UP98" s="6"/>
+      <c r="UQ98" s="6"/>
+      <c r="UR98" s="6"/>
+      <c r="US98" s="6"/>
+      <c r="UT98" s="6"/>
+      <c r="UU98" s="6"/>
+      <c r="UV98" s="6"/>
+      <c r="UW98" s="6"/>
+      <c r="UX98" s="6"/>
+      <c r="UY98" s="6"/>
+      <c r="UZ98" s="6"/>
+      <c r="VA98" s="6"/>
+      <c r="VB98" s="6"/>
+      <c r="VC98" s="6"/>
+      <c r="VD98" s="6"/>
+      <c r="VE98" s="6"/>
+      <c r="VF98" s="6"/>
+      <c r="VG98" s="6"/>
+      <c r="VH98" s="6"/>
+      <c r="VI98" s="6"/>
+      <c r="VJ98" s="6"/>
+      <c r="VK98" s="6"/>
+      <c r="VL98" s="6"/>
+      <c r="VM98" s="6"/>
+      <c r="VN98" s="6"/>
+      <c r="VO98" s="6"/>
+      <c r="VP98" s="6"/>
+      <c r="VQ98" s="6"/>
+      <c r="VR98" s="6"/>
+      <c r="VS98" s="6"/>
+      <c r="VT98" s="6"/>
+      <c r="VU98" s="6"/>
+      <c r="VV98" s="6"/>
+      <c r="VW98" s="6"/>
+      <c r="VX98" s="6"/>
+      <c r="VY98" s="6"/>
+      <c r="VZ98" s="6"/>
+      <c r="WA98" s="6"/>
+      <c r="WB98" s="6"/>
+      <c r="WC98" s="6"/>
+      <c r="WD98" s="6"/>
+      <c r="WE98" s="6"/>
+      <c r="WF98" s="6"/>
+      <c r="WG98" s="6"/>
+      <c r="WH98" s="6"/>
+      <c r="WI98" s="6"/>
+      <c r="WJ98" s="6"/>
+      <c r="WK98" s="6"/>
+      <c r="WL98" s="6"/>
+      <c r="WM98" s="6"/>
+      <c r="WN98" s="6"/>
+      <c r="WO98" s="6"/>
+      <c r="WP98" s="6"/>
+      <c r="WQ98" s="6"/>
+      <c r="WR98" s="6"/>
+      <c r="WS98" s="6"/>
+      <c r="WT98" s="6"/>
+      <c r="WU98" s="6"/>
+      <c r="WV98" s="6"/>
+      <c r="WW98" s="6"/>
+      <c r="WX98" s="6"/>
+      <c r="WY98" s="6"/>
+      <c r="WZ98" s="6"/>
+      <c r="XA98" s="6"/>
+      <c r="XB98" s="6"/>
+      <c r="XC98" s="6"/>
+      <c r="XD98" s="6"/>
+      <c r="XE98" s="6"/>
+      <c r="XF98" s="6"/>
+      <c r="XG98" s="6"/>
+      <c r="XH98" s="6"/>
+      <c r="XI98" s="6"/>
+      <c r="XJ98" s="6"/>
+      <c r="XK98" s="6"/>
+      <c r="XL98" s="6"/>
+      <c r="XM98" s="6"/>
+      <c r="XN98" s="6"/>
+      <c r="XO98" s="6"/>
+      <c r="XP98" s="6"/>
+      <c r="XQ98" s="6"/>
+      <c r="XR98" s="6"/>
+      <c r="XS98" s="6"/>
+      <c r="XT98" s="6"/>
+      <c r="XU98" s="6"/>
+      <c r="XV98" s="6"/>
+      <c r="XW98" s="6"/>
+      <c r="XX98" s="6"/>
+      <c r="XY98" s="6"/>
+      <c r="XZ98" s="6"/>
+      <c r="YA98" s="6"/>
+      <c r="YB98" s="6"/>
+      <c r="YC98" s="6"/>
+      <c r="YD98" s="6"/>
+      <c r="YE98" s="6"/>
+      <c r="YF98" s="6"/>
+      <c r="YG98" s="6"/>
+      <c r="YH98" s="6"/>
+      <c r="YI98" s="6"/>
+      <c r="YJ98" s="6"/>
+      <c r="YK98" s="6"/>
+      <c r="YL98" s="6"/>
+      <c r="YM98" s="6"/>
+      <c r="YN98" s="6"/>
+      <c r="YO98" s="6"/>
+      <c r="YP98" s="6"/>
+      <c r="YQ98" s="6"/>
+      <c r="YR98" s="6"/>
+      <c r="YS98" s="6"/>
+      <c r="YT98" s="6"/>
+      <c r="YU98" s="6"/>
+      <c r="YV98" s="6"/>
+      <c r="YW98" s="6"/>
+      <c r="YX98" s="6"/>
+      <c r="YY98" s="6"/>
+      <c r="YZ98" s="6"/>
+      <c r="ZA98" s="6"/>
+      <c r="ZB98" s="6"/>
+      <c r="ZC98" s="6"/>
+      <c r="ZD98" s="6"/>
+      <c r="ZE98" s="6"/>
+      <c r="ZF98" s="6"/>
+      <c r="ZG98" s="6"/>
+      <c r="ZH98" s="6"/>
+      <c r="ZI98" s="6"/>
+      <c r="ZJ98" s="6"/>
+      <c r="ZK98" s="6"/>
+      <c r="ZL98" s="6"/>
+      <c r="ZM98" s="6"/>
+      <c r="ZN98" s="6"/>
+      <c r="ZO98" s="6"/>
+      <c r="ZP98" s="6"/>
+      <c r="ZQ98" s="6"/>
+      <c r="ZR98" s="6"/>
+      <c r="ZS98" s="6"/>
+      <c r="ZT98" s="6"/>
+      <c r="ZU98" s="6"/>
+      <c r="ZV98" s="6"/>
+      <c r="ZW98" s="6"/>
+      <c r="ZX98" s="6"/>
+      <c r="ZY98" s="6"/>
+      <c r="ZZ98" s="6"/>
+      <c r="AAA98" s="6"/>
+      <c r="AAB98" s="6"/>
+      <c r="AAC98" s="6"/>
+      <c r="AAD98" s="6"/>
+      <c r="AAE98" s="6"/>
+      <c r="AAF98" s="6"/>
+      <c r="AAG98" s="6"/>
+      <c r="AAH98" s="6"/>
+      <c r="AAI98" s="6"/>
+      <c r="AAJ98" s="6"/>
+      <c r="AAK98" s="6"/>
+      <c r="AAL98" s="6"/>
+      <c r="AAM98" s="6"/>
+      <c r="AAN98" s="6"/>
+      <c r="AAO98" s="6"/>
+      <c r="AAP98" s="6"/>
+      <c r="AAQ98" s="6"/>
+      <c r="AAR98" s="6"/>
+      <c r="AAS98" s="6"/>
+      <c r="AAT98" s="6"/>
+      <c r="AAU98" s="6"/>
+      <c r="AAV98" s="6"/>
+      <c r="AAW98" s="6"/>
+      <c r="AAX98" s="6"/>
+      <c r="AAY98" s="6"/>
+      <c r="AAZ98" s="6"/>
+      <c r="ABA98" s="6"/>
+      <c r="ABB98" s="6"/>
+      <c r="ABC98" s="6"/>
+      <c r="ABD98" s="6"/>
+      <c r="ABE98" s="6"/>
+      <c r="ABF98" s="6"/>
+      <c r="ABG98" s="6"/>
+      <c r="ABH98" s="6"/>
+      <c r="ABI98" s="6"/>
+      <c r="ABJ98" s="6"/>
+      <c r="ABK98" s="6"/>
+      <c r="ABL98" s="6"/>
+      <c r="ABM98" s="6"/>
+      <c r="ABN98" s="6"/>
+      <c r="ABO98" s="6"/>
+      <c r="ABP98" s="6"/>
+      <c r="ABQ98" s="6"/>
+      <c r="ABR98" s="6"/>
+      <c r="ABS98" s="6"/>
+      <c r="ABT98" s="6"/>
+      <c r="ABU98" s="6"/>
+      <c r="ABV98" s="6"/>
+      <c r="ABW98" s="6"/>
+      <c r="ABX98" s="6"/>
+      <c r="ABY98" s="6"/>
+      <c r="ABZ98" s="6"/>
+      <c r="ACA98" s="6"/>
+      <c r="ACB98" s="6"/>
+      <c r="ACC98" s="6"/>
+      <c r="ACD98" s="6"/>
+      <c r="ACE98" s="6"/>
+      <c r="ACF98" s="6"/>
+      <c r="ACG98" s="6"/>
+      <c r="ACH98" s="6"/>
+      <c r="ACI98" s="6"/>
+      <c r="ACJ98" s="6"/>
+      <c r="ACK98" s="6"/>
+      <c r="ACL98" s="6"/>
+      <c r="ACM98" s="6"/>
+      <c r="ACN98" s="6"/>
+      <c r="ACO98" s="6"/>
+      <c r="ACP98" s="6"/>
+      <c r="ACQ98" s="6"/>
+      <c r="ACR98" s="6"/>
+      <c r="ACS98" s="6"/>
+      <c r="ACT98" s="6"/>
+      <c r="ACU98" s="6"/>
+      <c r="ACV98" s="6"/>
+      <c r="ACW98" s="6"/>
+      <c r="ACX98" s="6"/>
+      <c r="ACY98" s="6"/>
+      <c r="ACZ98" s="6"/>
+      <c r="ADA98" s="6"/>
+      <c r="ADB98" s="6"/>
+      <c r="ADC98" s="6"/>
+      <c r="ADD98" s="6"/>
+      <c r="ADE98" s="6"/>
+      <c r="ADF98" s="6"/>
+      <c r="ADG98" s="6"/>
+      <c r="ADH98" s="6"/>
+      <c r="ADI98" s="6"/>
+      <c r="ADJ98" s="6"/>
+      <c r="ADK98" s="6"/>
+      <c r="ADL98" s="6"/>
+      <c r="ADM98" s="6"/>
+      <c r="ADN98" s="6"/>
+      <c r="ADO98" s="6"/>
+      <c r="ADP98" s="6"/>
+      <c r="ADQ98" s="6"/>
+      <c r="ADR98" s="6"/>
+      <c r="ADS98" s="6"/>
+      <c r="ADT98" s="6"/>
+      <c r="ADU98" s="6"/>
+      <c r="ADV98" s="6"/>
+      <c r="ADW98" s="6"/>
+      <c r="ADX98" s="6"/>
+      <c r="ADY98" s="6"/>
+      <c r="ADZ98" s="6"/>
+      <c r="AEA98" s="6"/>
+      <c r="AEB98" s="6"/>
+      <c r="AEC98" s="6"/>
+      <c r="AED98" s="6"/>
+      <c r="AEE98" s="6"/>
+      <c r="AEF98" s="6"/>
+      <c r="AEG98" s="6"/>
+      <c r="AEH98" s="6"/>
+      <c r="AEI98" s="6"/>
+      <c r="AEJ98" s="6"/>
+      <c r="AEK98" s="6"/>
+      <c r="AEL98" s="6"/>
+      <c r="AEM98" s="6"/>
+      <c r="AEN98" s="6"/>
+      <c r="AEO98" s="6"/>
+      <c r="AEP98" s="6"/>
+      <c r="AEQ98" s="6"/>
+      <c r="AER98" s="6"/>
+      <c r="AES98" s="6"/>
+      <c r="AET98" s="6"/>
+      <c r="AEU98" s="6"/>
+      <c r="AEV98" s="6"/>
+      <c r="AEW98" s="6"/>
+      <c r="AEX98" s="6"/>
+      <c r="AEY98" s="6"/>
+      <c r="AEZ98" s="6"/>
+      <c r="AFA98" s="6"/>
+      <c r="AFB98" s="6"/>
+      <c r="AFC98" s="6"/>
+      <c r="AFD98" s="6"/>
+      <c r="AFE98" s="6"/>
+      <c r="AFF98" s="6"/>
+      <c r="AFG98" s="6"/>
+      <c r="AFH98" s="6"/>
+      <c r="AFI98" s="6"/>
+      <c r="AFJ98" s="6"/>
+      <c r="AFK98" s="6"/>
+      <c r="AFL98" s="6"/>
+      <c r="AFM98" s="6"/>
+      <c r="AFN98" s="6"/>
+      <c r="AFO98" s="6"/>
+      <c r="AFP98" s="6"/>
+      <c r="AFQ98" s="6"/>
+      <c r="AFR98" s="6"/>
+      <c r="AFS98" s="6"/>
+      <c r="AFT98" s="6"/>
+      <c r="AFU98" s="6"/>
+      <c r="AFV98" s="6"/>
+      <c r="AFW98" s="6"/>
+      <c r="AFX98" s="6"/>
+      <c r="AFY98" s="6"/>
+      <c r="AFZ98" s="6"/>
+      <c r="AGA98" s="6"/>
+      <c r="AGB98" s="6"/>
+      <c r="AGC98" s="6"/>
+      <c r="AGD98" s="6"/>
+      <c r="AGE98" s="6"/>
+      <c r="AGF98" s="6"/>
+      <c r="AGG98" s="6"/>
+      <c r="AGH98" s="6"/>
+      <c r="AGI98" s="6"/>
+      <c r="AGJ98" s="6"/>
+      <c r="AGK98" s="6"/>
+      <c r="AGL98" s="6"/>
+      <c r="AGM98" s="6"/>
+      <c r="AGN98" s="6"/>
+      <c r="AGO98" s="6"/>
+      <c r="AGP98" s="6"/>
+      <c r="AGQ98" s="6"/>
+      <c r="AGR98" s="6"/>
+      <c r="AGS98" s="6"/>
+      <c r="AGT98" s="6"/>
+      <c r="AGU98" s="6"/>
+      <c r="AGV98" s="6"/>
+      <c r="AGW98" s="6"/>
+      <c r="AGX98" s="6"/>
+      <c r="AGY98" s="6"/>
+      <c r="AGZ98" s="6"/>
+      <c r="AHA98" s="6"/>
+      <c r="AHB98" s="6"/>
+      <c r="AHC98" s="6"/>
+      <c r="AHD98" s="6"/>
+      <c r="AHE98" s="6"/>
+      <c r="AHF98" s="6"/>
+      <c r="AHG98" s="6"/>
+      <c r="AHH98" s="6"/>
+      <c r="AHI98" s="6"/>
+      <c r="AHJ98" s="6"/>
+      <c r="AHK98" s="6"/>
+      <c r="AHL98" s="6"/>
+      <c r="AHM98" s="6"/>
+      <c r="AHN98" s="6"/>
+      <c r="AHO98" s="6"/>
+      <c r="AHP98" s="6"/>
+      <c r="AHQ98" s="6"/>
+      <c r="AHR98" s="6"/>
+      <c r="AHS98" s="6"/>
+      <c r="AHT98" s="6"/>
+      <c r="AHU98" s="6"/>
+      <c r="AHV98" s="6"/>
+      <c r="AHW98" s="6"/>
+      <c r="AHX98" s="6"/>
+      <c r="AHY98" s="6"/>
+      <c r="AHZ98" s="6"/>
+      <c r="AIA98" s="6"/>
+      <c r="AIB98" s="6"/>
+      <c r="AIC98" s="6"/>
+      <c r="AID98" s="6"/>
+      <c r="AIE98" s="6"/>
+      <c r="AIF98" s="6"/>
+      <c r="AIG98" s="6"/>
+      <c r="AIH98" s="6"/>
+      <c r="AII98" s="6"/>
+      <c r="AIJ98" s="6"/>
+      <c r="AIK98" s="6"/>
+      <c r="AIL98" s="6"/>
+      <c r="AIM98" s="6"/>
+      <c r="AIN98" s="6"/>
+      <c r="AIO98" s="6"/>
+      <c r="AIP98" s="6"/>
+      <c r="AIQ98" s="6"/>
+      <c r="AIR98" s="6"/>
+      <c r="AIS98" s="6"/>
+      <c r="AIT98" s="6"/>
+      <c r="AIU98" s="6"/>
+      <c r="AIV98" s="6"/>
+      <c r="AIW98" s="6"/>
+      <c r="AIX98" s="6"/>
+      <c r="AIY98" s="6"/>
+      <c r="AIZ98" s="6"/>
+      <c r="AJA98" s="6"/>
+      <c r="AJB98" s="6"/>
+      <c r="AJC98" s="6"/>
+      <c r="AJD98" s="6"/>
+      <c r="AJE98" s="6"/>
+      <c r="AJF98" s="6"/>
+      <c r="AJG98" s="6"/>
+      <c r="AJH98" s="6"/>
+      <c r="AJI98" s="6"/>
+      <c r="AJJ98" s="6"/>
+      <c r="AJK98" s="6"/>
+      <c r="AJL98" s="6"/>
+      <c r="AJM98" s="6"/>
+      <c r="AJN98" s="6"/>
+      <c r="AJO98" s="6"/>
+      <c r="AJP98" s="6"/>
+      <c r="AJQ98" s="6"/>
+      <c r="AJR98" s="6"/>
+      <c r="AJS98" s="6"/>
+      <c r="AJT98" s="6"/>
+      <c r="AJU98" s="6"/>
+      <c r="AJV98" s="6"/>
+      <c r="AJW98" s="6"/>
+      <c r="AJX98" s="6"/>
+      <c r="AJY98" s="6"/>
+      <c r="AJZ98" s="6"/>
+      <c r="AKA98" s="6"/>
+      <c r="AKB98" s="6"/>
+      <c r="AKC98" s="6"/>
+      <c r="AKD98" s="6"/>
+      <c r="AKE98" s="6"/>
+      <c r="AKF98" s="6"/>
+      <c r="AKG98" s="6"/>
+      <c r="AKH98" s="6"/>
+      <c r="AKI98" s="6"/>
+      <c r="AKJ98" s="6"/>
+      <c r="AKK98" s="6"/>
+      <c r="AKL98" s="6"/>
+      <c r="AKM98" s="6"/>
+      <c r="AKN98" s="6"/>
+      <c r="AKO98" s="6"/>
+      <c r="AKP98" s="6"/>
+      <c r="AKQ98" s="6"/>
+      <c r="AKR98" s="6"/>
+      <c r="AKS98" s="6"/>
+      <c r="AKT98" s="6"/>
+      <c r="AKU98" s="6"/>
+      <c r="AKV98" s="6"/>
+      <c r="AKW98" s="6"/>
+      <c r="AKX98" s="6"/>
+      <c r="AKY98" s="6"/>
+      <c r="AKZ98" s="6"/>
+      <c r="ALA98" s="6"/>
+      <c r="ALB98" s="6"/>
+      <c r="ALC98" s="6"/>
+      <c r="ALD98" s="6"/>
+      <c r="ALE98" s="6"/>
+      <c r="ALF98" s="6"/>
+      <c r="ALG98" s="6"/>
+      <c r="ALH98" s="6"/>
+      <c r="ALI98" s="6"/>
+      <c r="ALJ98" s="6"/>
+      <c r="ALK98" s="6"/>
+      <c r="ALL98" s="6"/>
+      <c r="ALM98" s="6"/>
+      <c r="ALN98" s="6"/>
+      <c r="ALO98" s="6"/>
+      <c r="ALP98" s="6"/>
+      <c r="ALQ98" s="6"/>
+      <c r="ALR98" s="6"/>
+      <c r="ALS98" s="6"/>
+      <c r="ALT98" s="6"/>
+      <c r="ALU98" s="6"/>
+      <c r="ALV98" s="6"/>
+      <c r="ALW98" s="6"/>
+      <c r="ALX98" s="6"/>
+      <c r="ALY98" s="6"/>
+      <c r="ALZ98" s="6"/>
+      <c r="AMA98" s="6"/>
+      <c r="AMB98" s="6"/>
+      <c r="AMC98" s="6"/>
+      <c r="AMD98" s="6"/>
+      <c r="AME98" s="6"/>
+      <c r="AMF98" s="6"/>
+      <c r="AMG98" s="6"/>
+      <c r="AMH98" s="6"/>
+      <c r="AMI98" s="6"/>
+      <c r="AMJ98" s="6"/>
+      <c r="AMK98" s="6"/>
+      <c r="AML98" s="6"/>
+      <c r="AMM98" s="6"/>
     </row>
-    <row r="99" spans="1:7" s="6" customFormat="1" ht="51">
+    <row r="99" spans="1:1027" ht="60">
       <c r="A99" s="9" t="s">
         <v>224</v>
       </c>
@@ -23965,8 +26331,1028 @@
       <c r="G99" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
+      <c r="AD99" s="6"/>
+      <c r="AE99" s="6"/>
+      <c r="AF99" s="6"/>
+      <c r="AG99" s="6"/>
+      <c r="AH99" s="6"/>
+      <c r="AI99" s="6"/>
+      <c r="AJ99" s="6"/>
+      <c r="AK99" s="6"/>
+      <c r="AL99" s="6"/>
+      <c r="AM99" s="6"/>
+      <c r="AN99" s="6"/>
+      <c r="AO99" s="6"/>
+      <c r="AP99" s="6"/>
+      <c r="AQ99" s="6"/>
+      <c r="AR99" s="6"/>
+      <c r="AS99" s="6"/>
+      <c r="AT99" s="6"/>
+      <c r="AU99" s="6"/>
+      <c r="AV99" s="6"/>
+      <c r="AW99" s="6"/>
+      <c r="AX99" s="6"/>
+      <c r="AY99" s="6"/>
+      <c r="AZ99" s="6"/>
+      <c r="BA99" s="6"/>
+      <c r="BB99" s="6"/>
+      <c r="BC99" s="6"/>
+      <c r="BD99" s="6"/>
+      <c r="BE99" s="6"/>
+      <c r="BF99" s="6"/>
+      <c r="BG99" s="6"/>
+      <c r="BH99" s="6"/>
+      <c r="BI99" s="6"/>
+      <c r="BJ99" s="6"/>
+      <c r="BK99" s="6"/>
+      <c r="BL99" s="6"/>
+      <c r="BM99" s="6"/>
+      <c r="BN99" s="6"/>
+      <c r="BO99" s="6"/>
+      <c r="BP99" s="6"/>
+      <c r="BQ99" s="6"/>
+      <c r="BR99" s="6"/>
+      <c r="BS99" s="6"/>
+      <c r="BT99" s="6"/>
+      <c r="BU99" s="6"/>
+      <c r="BV99" s="6"/>
+      <c r="BW99" s="6"/>
+      <c r="BX99" s="6"/>
+      <c r="BY99" s="6"/>
+      <c r="BZ99" s="6"/>
+      <c r="CA99" s="6"/>
+      <c r="CB99" s="6"/>
+      <c r="CC99" s="6"/>
+      <c r="CD99" s="6"/>
+      <c r="CE99" s="6"/>
+      <c r="CF99" s="6"/>
+      <c r="CG99" s="6"/>
+      <c r="CH99" s="6"/>
+      <c r="CI99" s="6"/>
+      <c r="CJ99" s="6"/>
+      <c r="CK99" s="6"/>
+      <c r="CL99" s="6"/>
+      <c r="CM99" s="6"/>
+      <c r="CN99" s="6"/>
+      <c r="CO99" s="6"/>
+      <c r="CP99" s="6"/>
+      <c r="CQ99" s="6"/>
+      <c r="CR99" s="6"/>
+      <c r="CS99" s="6"/>
+      <c r="CT99" s="6"/>
+      <c r="CU99" s="6"/>
+      <c r="CV99" s="6"/>
+      <c r="CW99" s="6"/>
+      <c r="CX99" s="6"/>
+      <c r="CY99" s="6"/>
+      <c r="CZ99" s="6"/>
+      <c r="DA99" s="6"/>
+      <c r="DB99" s="6"/>
+      <c r="DC99" s="6"/>
+      <c r="DD99" s="6"/>
+      <c r="DE99" s="6"/>
+      <c r="DF99" s="6"/>
+      <c r="DG99" s="6"/>
+      <c r="DH99" s="6"/>
+      <c r="DI99" s="6"/>
+      <c r="DJ99" s="6"/>
+      <c r="DK99" s="6"/>
+      <c r="DL99" s="6"/>
+      <c r="DM99" s="6"/>
+      <c r="DN99" s="6"/>
+      <c r="DO99" s="6"/>
+      <c r="DP99" s="6"/>
+      <c r="DQ99" s="6"/>
+      <c r="DR99" s="6"/>
+      <c r="DS99" s="6"/>
+      <c r="DT99" s="6"/>
+      <c r="DU99" s="6"/>
+      <c r="DV99" s="6"/>
+      <c r="DW99" s="6"/>
+      <c r="DX99" s="6"/>
+      <c r="DY99" s="6"/>
+      <c r="DZ99" s="6"/>
+      <c r="EA99" s="6"/>
+      <c r="EB99" s="6"/>
+      <c r="EC99" s="6"/>
+      <c r="ED99" s="6"/>
+      <c r="EE99" s="6"/>
+      <c r="EF99" s="6"/>
+      <c r="EG99" s="6"/>
+      <c r="EH99" s="6"/>
+      <c r="EI99" s="6"/>
+      <c r="EJ99" s="6"/>
+      <c r="EK99" s="6"/>
+      <c r="EL99" s="6"/>
+      <c r="EM99" s="6"/>
+      <c r="EN99" s="6"/>
+      <c r="EO99" s="6"/>
+      <c r="EP99" s="6"/>
+      <c r="EQ99" s="6"/>
+      <c r="ER99" s="6"/>
+      <c r="ES99" s="6"/>
+      <c r="ET99" s="6"/>
+      <c r="EU99" s="6"/>
+      <c r="EV99" s="6"/>
+      <c r="EW99" s="6"/>
+      <c r="EX99" s="6"/>
+      <c r="EY99" s="6"/>
+      <c r="EZ99" s="6"/>
+      <c r="FA99" s="6"/>
+      <c r="FB99" s="6"/>
+      <c r="FC99" s="6"/>
+      <c r="FD99" s="6"/>
+      <c r="FE99" s="6"/>
+      <c r="FF99" s="6"/>
+      <c r="FG99" s="6"/>
+      <c r="FH99" s="6"/>
+      <c r="FI99" s="6"/>
+      <c r="FJ99" s="6"/>
+      <c r="FK99" s="6"/>
+      <c r="FL99" s="6"/>
+      <c r="FM99" s="6"/>
+      <c r="FN99" s="6"/>
+      <c r="FO99" s="6"/>
+      <c r="FP99" s="6"/>
+      <c r="FQ99" s="6"/>
+      <c r="FR99" s="6"/>
+      <c r="FS99" s="6"/>
+      <c r="FT99" s="6"/>
+      <c r="FU99" s="6"/>
+      <c r="FV99" s="6"/>
+      <c r="FW99" s="6"/>
+      <c r="FX99" s="6"/>
+      <c r="FY99" s="6"/>
+      <c r="FZ99" s="6"/>
+      <c r="GA99" s="6"/>
+      <c r="GB99" s="6"/>
+      <c r="GC99" s="6"/>
+      <c r="GD99" s="6"/>
+      <c r="GE99" s="6"/>
+      <c r="GF99" s="6"/>
+      <c r="GG99" s="6"/>
+      <c r="GH99" s="6"/>
+      <c r="GI99" s="6"/>
+      <c r="GJ99" s="6"/>
+      <c r="GK99" s="6"/>
+      <c r="GL99" s="6"/>
+      <c r="GM99" s="6"/>
+      <c r="GN99" s="6"/>
+      <c r="GO99" s="6"/>
+      <c r="GP99" s="6"/>
+      <c r="GQ99" s="6"/>
+      <c r="GR99" s="6"/>
+      <c r="GS99" s="6"/>
+      <c r="GT99" s="6"/>
+      <c r="GU99" s="6"/>
+      <c r="GV99" s="6"/>
+      <c r="GW99" s="6"/>
+      <c r="GX99" s="6"/>
+      <c r="GY99" s="6"/>
+      <c r="GZ99" s="6"/>
+      <c r="HA99" s="6"/>
+      <c r="HB99" s="6"/>
+      <c r="HC99" s="6"/>
+      <c r="HD99" s="6"/>
+      <c r="HE99" s="6"/>
+      <c r="HF99" s="6"/>
+      <c r="HG99" s="6"/>
+      <c r="HH99" s="6"/>
+      <c r="HI99" s="6"/>
+      <c r="HJ99" s="6"/>
+      <c r="HK99" s="6"/>
+      <c r="HL99" s="6"/>
+      <c r="HM99" s="6"/>
+      <c r="HN99" s="6"/>
+      <c r="HO99" s="6"/>
+      <c r="HP99" s="6"/>
+      <c r="HQ99" s="6"/>
+      <c r="HR99" s="6"/>
+      <c r="HS99" s="6"/>
+      <c r="HT99" s="6"/>
+      <c r="HU99" s="6"/>
+      <c r="HV99" s="6"/>
+      <c r="HW99" s="6"/>
+      <c r="HX99" s="6"/>
+      <c r="HY99" s="6"/>
+      <c r="HZ99" s="6"/>
+      <c r="IA99" s="6"/>
+      <c r="IB99" s="6"/>
+      <c r="IC99" s="6"/>
+      <c r="ID99" s="6"/>
+      <c r="IE99" s="6"/>
+      <c r="IF99" s="6"/>
+      <c r="IG99" s="6"/>
+      <c r="IH99" s="6"/>
+      <c r="II99" s="6"/>
+      <c r="IJ99" s="6"/>
+      <c r="IK99" s="6"/>
+      <c r="IL99" s="6"/>
+      <c r="IM99" s="6"/>
+      <c r="IN99" s="6"/>
+      <c r="IO99" s="6"/>
+      <c r="IP99" s="6"/>
+      <c r="IQ99" s="6"/>
+      <c r="IR99" s="6"/>
+      <c r="IS99" s="6"/>
+      <c r="IT99" s="6"/>
+      <c r="IU99" s="6"/>
+      <c r="IV99" s="6"/>
+      <c r="IW99" s="6"/>
+      <c r="IX99" s="6"/>
+      <c r="IY99" s="6"/>
+      <c r="IZ99" s="6"/>
+      <c r="JA99" s="6"/>
+      <c r="JB99" s="6"/>
+      <c r="JC99" s="6"/>
+      <c r="JD99" s="6"/>
+      <c r="JE99" s="6"/>
+      <c r="JF99" s="6"/>
+      <c r="JG99" s="6"/>
+      <c r="JH99" s="6"/>
+      <c r="JI99" s="6"/>
+      <c r="JJ99" s="6"/>
+      <c r="JK99" s="6"/>
+      <c r="JL99" s="6"/>
+      <c r="JM99" s="6"/>
+      <c r="JN99" s="6"/>
+      <c r="JO99" s="6"/>
+      <c r="JP99" s="6"/>
+      <c r="JQ99" s="6"/>
+      <c r="JR99" s="6"/>
+      <c r="JS99" s="6"/>
+      <c r="JT99" s="6"/>
+      <c r="JU99" s="6"/>
+      <c r="JV99" s="6"/>
+      <c r="JW99" s="6"/>
+      <c r="JX99" s="6"/>
+      <c r="JY99" s="6"/>
+      <c r="JZ99" s="6"/>
+      <c r="KA99" s="6"/>
+      <c r="KB99" s="6"/>
+      <c r="KC99" s="6"/>
+      <c r="KD99" s="6"/>
+      <c r="KE99" s="6"/>
+      <c r="KF99" s="6"/>
+      <c r="KG99" s="6"/>
+      <c r="KH99" s="6"/>
+      <c r="KI99" s="6"/>
+      <c r="KJ99" s="6"/>
+      <c r="KK99" s="6"/>
+      <c r="KL99" s="6"/>
+      <c r="KM99" s="6"/>
+      <c r="KN99" s="6"/>
+      <c r="KO99" s="6"/>
+      <c r="KP99" s="6"/>
+      <c r="KQ99" s="6"/>
+      <c r="KR99" s="6"/>
+      <c r="KS99" s="6"/>
+      <c r="KT99" s="6"/>
+      <c r="KU99" s="6"/>
+      <c r="KV99" s="6"/>
+      <c r="KW99" s="6"/>
+      <c r="KX99" s="6"/>
+      <c r="KY99" s="6"/>
+      <c r="KZ99" s="6"/>
+      <c r="LA99" s="6"/>
+      <c r="LB99" s="6"/>
+      <c r="LC99" s="6"/>
+      <c r="LD99" s="6"/>
+      <c r="LE99" s="6"/>
+      <c r="LF99" s="6"/>
+      <c r="LG99" s="6"/>
+      <c r="LH99" s="6"/>
+      <c r="LI99" s="6"/>
+      <c r="LJ99" s="6"/>
+      <c r="LK99" s="6"/>
+      <c r="LL99" s="6"/>
+      <c r="LM99" s="6"/>
+      <c r="LN99" s="6"/>
+      <c r="LO99" s="6"/>
+      <c r="LP99" s="6"/>
+      <c r="LQ99" s="6"/>
+      <c r="LR99" s="6"/>
+      <c r="LS99" s="6"/>
+      <c r="LT99" s="6"/>
+      <c r="LU99" s="6"/>
+      <c r="LV99" s="6"/>
+      <c r="LW99" s="6"/>
+      <c r="LX99" s="6"/>
+      <c r="LY99" s="6"/>
+      <c r="LZ99" s="6"/>
+      <c r="MA99" s="6"/>
+      <c r="MB99" s="6"/>
+      <c r="MC99" s="6"/>
+      <c r="MD99" s="6"/>
+      <c r="ME99" s="6"/>
+      <c r="MF99" s="6"/>
+      <c r="MG99" s="6"/>
+      <c r="MH99" s="6"/>
+      <c r="MI99" s="6"/>
+      <c r="MJ99" s="6"/>
+      <c r="MK99" s="6"/>
+      <c r="ML99" s="6"/>
+      <c r="MM99" s="6"/>
+      <c r="MN99" s="6"/>
+      <c r="MO99" s="6"/>
+      <c r="MP99" s="6"/>
+      <c r="MQ99" s="6"/>
+      <c r="MR99" s="6"/>
+      <c r="MS99" s="6"/>
+      <c r="MT99" s="6"/>
+      <c r="MU99" s="6"/>
+      <c r="MV99" s="6"/>
+      <c r="MW99" s="6"/>
+      <c r="MX99" s="6"/>
+      <c r="MY99" s="6"/>
+      <c r="MZ99" s="6"/>
+      <c r="NA99" s="6"/>
+      <c r="NB99" s="6"/>
+      <c r="NC99" s="6"/>
+      <c r="ND99" s="6"/>
+      <c r="NE99" s="6"/>
+      <c r="NF99" s="6"/>
+      <c r="NG99" s="6"/>
+      <c r="NH99" s="6"/>
+      <c r="NI99" s="6"/>
+      <c r="NJ99" s="6"/>
+      <c r="NK99" s="6"/>
+      <c r="NL99" s="6"/>
+      <c r="NM99" s="6"/>
+      <c r="NN99" s="6"/>
+      <c r="NO99" s="6"/>
+      <c r="NP99" s="6"/>
+      <c r="NQ99" s="6"/>
+      <c r="NR99" s="6"/>
+      <c r="NS99" s="6"/>
+      <c r="NT99" s="6"/>
+      <c r="NU99" s="6"/>
+      <c r="NV99" s="6"/>
+      <c r="NW99" s="6"/>
+      <c r="NX99" s="6"/>
+      <c r="NY99" s="6"/>
+      <c r="NZ99" s="6"/>
+      <c r="OA99" s="6"/>
+      <c r="OB99" s="6"/>
+      <c r="OC99" s="6"/>
+      <c r="OD99" s="6"/>
+      <c r="OE99" s="6"/>
+      <c r="OF99" s="6"/>
+      <c r="OG99" s="6"/>
+      <c r="OH99" s="6"/>
+      <c r="OI99" s="6"/>
+      <c r="OJ99" s="6"/>
+      <c r="OK99" s="6"/>
+      <c r="OL99" s="6"/>
+      <c r="OM99" s="6"/>
+      <c r="ON99" s="6"/>
+      <c r="OO99" s="6"/>
+      <c r="OP99" s="6"/>
+      <c r="OQ99" s="6"/>
+      <c r="OR99" s="6"/>
+      <c r="OS99" s="6"/>
+      <c r="OT99" s="6"/>
+      <c r="OU99" s="6"/>
+      <c r="OV99" s="6"/>
+      <c r="OW99" s="6"/>
+      <c r="OX99" s="6"/>
+      <c r="OY99" s="6"/>
+      <c r="OZ99" s="6"/>
+      <c r="PA99" s="6"/>
+      <c r="PB99" s="6"/>
+      <c r="PC99" s="6"/>
+      <c r="PD99" s="6"/>
+      <c r="PE99" s="6"/>
+      <c r="PF99" s="6"/>
+      <c r="PG99" s="6"/>
+      <c r="PH99" s="6"/>
+      <c r="PI99" s="6"/>
+      <c r="PJ99" s="6"/>
+      <c r="PK99" s="6"/>
+      <c r="PL99" s="6"/>
+      <c r="PM99" s="6"/>
+      <c r="PN99" s="6"/>
+      <c r="PO99" s="6"/>
+      <c r="PP99" s="6"/>
+      <c r="PQ99" s="6"/>
+      <c r="PR99" s="6"/>
+      <c r="PS99" s="6"/>
+      <c r="PT99" s="6"/>
+      <c r="PU99" s="6"/>
+      <c r="PV99" s="6"/>
+      <c r="PW99" s="6"/>
+      <c r="PX99" s="6"/>
+      <c r="PY99" s="6"/>
+      <c r="PZ99" s="6"/>
+      <c r="QA99" s="6"/>
+      <c r="QB99" s="6"/>
+      <c r="QC99" s="6"/>
+      <c r="QD99" s="6"/>
+      <c r="QE99" s="6"/>
+      <c r="QF99" s="6"/>
+      <c r="QG99" s="6"/>
+      <c r="QH99" s="6"/>
+      <c r="QI99" s="6"/>
+      <c r="QJ99" s="6"/>
+      <c r="QK99" s="6"/>
+      <c r="QL99" s="6"/>
+      <c r="QM99" s="6"/>
+      <c r="QN99" s="6"/>
+      <c r="QO99" s="6"/>
+      <c r="QP99" s="6"/>
+      <c r="QQ99" s="6"/>
+      <c r="QR99" s="6"/>
+      <c r="QS99" s="6"/>
+      <c r="QT99" s="6"/>
+      <c r="QU99" s="6"/>
+      <c r="QV99" s="6"/>
+      <c r="QW99" s="6"/>
+      <c r="QX99" s="6"/>
+      <c r="QY99" s="6"/>
+      <c r="QZ99" s="6"/>
+      <c r="RA99" s="6"/>
+      <c r="RB99" s="6"/>
+      <c r="RC99" s="6"/>
+      <c r="RD99" s="6"/>
+      <c r="RE99" s="6"/>
+      <c r="RF99" s="6"/>
+      <c r="RG99" s="6"/>
+      <c r="RH99" s="6"/>
+      <c r="RI99" s="6"/>
+      <c r="RJ99" s="6"/>
+      <c r="RK99" s="6"/>
+      <c r="RL99" s="6"/>
+      <c r="RM99" s="6"/>
+      <c r="RN99" s="6"/>
+      <c r="RO99" s="6"/>
+      <c r="RP99" s="6"/>
+      <c r="RQ99" s="6"/>
+      <c r="RR99" s="6"/>
+      <c r="RS99" s="6"/>
+      <c r="RT99" s="6"/>
+      <c r="RU99" s="6"/>
+      <c r="RV99" s="6"/>
+      <c r="RW99" s="6"/>
+      <c r="RX99" s="6"/>
+      <c r="RY99" s="6"/>
+      <c r="RZ99" s="6"/>
+      <c r="SA99" s="6"/>
+      <c r="SB99" s="6"/>
+      <c r="SC99" s="6"/>
+      <c r="SD99" s="6"/>
+      <c r="SE99" s="6"/>
+      <c r="SF99" s="6"/>
+      <c r="SG99" s="6"/>
+      <c r="SH99" s="6"/>
+      <c r="SI99" s="6"/>
+      <c r="SJ99" s="6"/>
+      <c r="SK99" s="6"/>
+      <c r="SL99" s="6"/>
+      <c r="SM99" s="6"/>
+      <c r="SN99" s="6"/>
+      <c r="SO99" s="6"/>
+      <c r="SP99" s="6"/>
+      <c r="SQ99" s="6"/>
+      <c r="SR99" s="6"/>
+      <c r="SS99" s="6"/>
+      <c r="ST99" s="6"/>
+      <c r="SU99" s="6"/>
+      <c r="SV99" s="6"/>
+      <c r="SW99" s="6"/>
+      <c r="SX99" s="6"/>
+      <c r="SY99" s="6"/>
+      <c r="SZ99" s="6"/>
+      <c r="TA99" s="6"/>
+      <c r="TB99" s="6"/>
+      <c r="TC99" s="6"/>
+      <c r="TD99" s="6"/>
+      <c r="TE99" s="6"/>
+      <c r="TF99" s="6"/>
+      <c r="TG99" s="6"/>
+      <c r="TH99" s="6"/>
+      <c r="TI99" s="6"/>
+      <c r="TJ99" s="6"/>
+      <c r="TK99" s="6"/>
+      <c r="TL99" s="6"/>
+      <c r="TM99" s="6"/>
+      <c r="TN99" s="6"/>
+      <c r="TO99" s="6"/>
+      <c r="TP99" s="6"/>
+      <c r="TQ99" s="6"/>
+      <c r="TR99" s="6"/>
+      <c r="TS99" s="6"/>
+      <c r="TT99" s="6"/>
+      <c r="TU99" s="6"/>
+      <c r="TV99" s="6"/>
+      <c r="TW99" s="6"/>
+      <c r="TX99" s="6"/>
+      <c r="TY99" s="6"/>
+      <c r="TZ99" s="6"/>
+      <c r="UA99" s="6"/>
+      <c r="UB99" s="6"/>
+      <c r="UC99" s="6"/>
+      <c r="UD99" s="6"/>
+      <c r="UE99" s="6"/>
+      <c r="UF99" s="6"/>
+      <c r="UG99" s="6"/>
+      <c r="UH99" s="6"/>
+      <c r="UI99" s="6"/>
+      <c r="UJ99" s="6"/>
+      <c r="UK99" s="6"/>
+      <c r="UL99" s="6"/>
+      <c r="UM99" s="6"/>
+      <c r="UN99" s="6"/>
+      <c r="UO99" s="6"/>
+      <c r="UP99" s="6"/>
+      <c r="UQ99" s="6"/>
+      <c r="UR99" s="6"/>
+      <c r="US99" s="6"/>
+      <c r="UT99" s="6"/>
+      <c r="UU99" s="6"/>
+      <c r="UV99" s="6"/>
+      <c r="UW99" s="6"/>
+      <c r="UX99" s="6"/>
+      <c r="UY99" s="6"/>
+      <c r="UZ99" s="6"/>
+      <c r="VA99" s="6"/>
+      <c r="VB99" s="6"/>
+      <c r="VC99" s="6"/>
+      <c r="VD99" s="6"/>
+      <c r="VE99" s="6"/>
+      <c r="VF99" s="6"/>
+      <c r="VG99" s="6"/>
+      <c r="VH99" s="6"/>
+      <c r="VI99" s="6"/>
+      <c r="VJ99" s="6"/>
+      <c r="VK99" s="6"/>
+      <c r="VL99" s="6"/>
+      <c r="VM99" s="6"/>
+      <c r="VN99" s="6"/>
+      <c r="VO99" s="6"/>
+      <c r="VP99" s="6"/>
+      <c r="VQ99" s="6"/>
+      <c r="VR99" s="6"/>
+      <c r="VS99" s="6"/>
+      <c r="VT99" s="6"/>
+      <c r="VU99" s="6"/>
+      <c r="VV99" s="6"/>
+      <c r="VW99" s="6"/>
+      <c r="VX99" s="6"/>
+      <c r="VY99" s="6"/>
+      <c r="VZ99" s="6"/>
+      <c r="WA99" s="6"/>
+      <c r="WB99" s="6"/>
+      <c r="WC99" s="6"/>
+      <c r="WD99" s="6"/>
+      <c r="WE99" s="6"/>
+      <c r="WF99" s="6"/>
+      <c r="WG99" s="6"/>
+      <c r="WH99" s="6"/>
+      <c r="WI99" s="6"/>
+      <c r="WJ99" s="6"/>
+      <c r="WK99" s="6"/>
+      <c r="WL99" s="6"/>
+      <c r="WM99" s="6"/>
+      <c r="WN99" s="6"/>
+      <c r="WO99" s="6"/>
+      <c r="WP99" s="6"/>
+      <c r="WQ99" s="6"/>
+      <c r="WR99" s="6"/>
+      <c r="WS99" s="6"/>
+      <c r="WT99" s="6"/>
+      <c r="WU99" s="6"/>
+      <c r="WV99" s="6"/>
+      <c r="WW99" s="6"/>
+      <c r="WX99" s="6"/>
+      <c r="WY99" s="6"/>
+      <c r="WZ99" s="6"/>
+      <c r="XA99" s="6"/>
+      <c r="XB99" s="6"/>
+      <c r="XC99" s="6"/>
+      <c r="XD99" s="6"/>
+      <c r="XE99" s="6"/>
+      <c r="XF99" s="6"/>
+      <c r="XG99" s="6"/>
+      <c r="XH99" s="6"/>
+      <c r="XI99" s="6"/>
+      <c r="XJ99" s="6"/>
+      <c r="XK99" s="6"/>
+      <c r="XL99" s="6"/>
+      <c r="XM99" s="6"/>
+      <c r="XN99" s="6"/>
+      <c r="XO99" s="6"/>
+      <c r="XP99" s="6"/>
+      <c r="XQ99" s="6"/>
+      <c r="XR99" s="6"/>
+      <c r="XS99" s="6"/>
+      <c r="XT99" s="6"/>
+      <c r="XU99" s="6"/>
+      <c r="XV99" s="6"/>
+      <c r="XW99" s="6"/>
+      <c r="XX99" s="6"/>
+      <c r="XY99" s="6"/>
+      <c r="XZ99" s="6"/>
+      <c r="YA99" s="6"/>
+      <c r="YB99" s="6"/>
+      <c r="YC99" s="6"/>
+      <c r="YD99" s="6"/>
+      <c r="YE99" s="6"/>
+      <c r="YF99" s="6"/>
+      <c r="YG99" s="6"/>
+      <c r="YH99" s="6"/>
+      <c r="YI99" s="6"/>
+      <c r="YJ99" s="6"/>
+      <c r="YK99" s="6"/>
+      <c r="YL99" s="6"/>
+      <c r="YM99" s="6"/>
+      <c r="YN99" s="6"/>
+      <c r="YO99" s="6"/>
+      <c r="YP99" s="6"/>
+      <c r="YQ99" s="6"/>
+      <c r="YR99" s="6"/>
+      <c r="YS99" s="6"/>
+      <c r="YT99" s="6"/>
+      <c r="YU99" s="6"/>
+      <c r="YV99" s="6"/>
+      <c r="YW99" s="6"/>
+      <c r="YX99" s="6"/>
+      <c r="YY99" s="6"/>
+      <c r="YZ99" s="6"/>
+      <c r="ZA99" s="6"/>
+      <c r="ZB99" s="6"/>
+      <c r="ZC99" s="6"/>
+      <c r="ZD99" s="6"/>
+      <c r="ZE99" s="6"/>
+      <c r="ZF99" s="6"/>
+      <c r="ZG99" s="6"/>
+      <c r="ZH99" s="6"/>
+      <c r="ZI99" s="6"/>
+      <c r="ZJ99" s="6"/>
+      <c r="ZK99" s="6"/>
+      <c r="ZL99" s="6"/>
+      <c r="ZM99" s="6"/>
+      <c r="ZN99" s="6"/>
+      <c r="ZO99" s="6"/>
+      <c r="ZP99" s="6"/>
+      <c r="ZQ99" s="6"/>
+      <c r="ZR99" s="6"/>
+      <c r="ZS99" s="6"/>
+      <c r="ZT99" s="6"/>
+      <c r="ZU99" s="6"/>
+      <c r="ZV99" s="6"/>
+      <c r="ZW99" s="6"/>
+      <c r="ZX99" s="6"/>
+      <c r="ZY99" s="6"/>
+      <c r="ZZ99" s="6"/>
+      <c r="AAA99" s="6"/>
+      <c r="AAB99" s="6"/>
+      <c r="AAC99" s="6"/>
+      <c r="AAD99" s="6"/>
+      <c r="AAE99" s="6"/>
+      <c r="AAF99" s="6"/>
+      <c r="AAG99" s="6"/>
+      <c r="AAH99" s="6"/>
+      <c r="AAI99" s="6"/>
+      <c r="AAJ99" s="6"/>
+      <c r="AAK99" s="6"/>
+      <c r="AAL99" s="6"/>
+      <c r="AAM99" s="6"/>
+      <c r="AAN99" s="6"/>
+      <c r="AAO99" s="6"/>
+      <c r="AAP99" s="6"/>
+      <c r="AAQ99" s="6"/>
+      <c r="AAR99" s="6"/>
+      <c r="AAS99" s="6"/>
+      <c r="AAT99" s="6"/>
+      <c r="AAU99" s="6"/>
+      <c r="AAV99" s="6"/>
+      <c r="AAW99" s="6"/>
+      <c r="AAX99" s="6"/>
+      <c r="AAY99" s="6"/>
+      <c r="AAZ99" s="6"/>
+      <c r="ABA99" s="6"/>
+      <c r="ABB99" s="6"/>
+      <c r="ABC99" s="6"/>
+      <c r="ABD99" s="6"/>
+      <c r="ABE99" s="6"/>
+      <c r="ABF99" s="6"/>
+      <c r="ABG99" s="6"/>
+      <c r="ABH99" s="6"/>
+      <c r="ABI99" s="6"/>
+      <c r="ABJ99" s="6"/>
+      <c r="ABK99" s="6"/>
+      <c r="ABL99" s="6"/>
+      <c r="ABM99" s="6"/>
+      <c r="ABN99" s="6"/>
+      <c r="ABO99" s="6"/>
+      <c r="ABP99" s="6"/>
+      <c r="ABQ99" s="6"/>
+      <c r="ABR99" s="6"/>
+      <c r="ABS99" s="6"/>
+      <c r="ABT99" s="6"/>
+      <c r="ABU99" s="6"/>
+      <c r="ABV99" s="6"/>
+      <c r="ABW99" s="6"/>
+      <c r="ABX99" s="6"/>
+      <c r="ABY99" s="6"/>
+      <c r="ABZ99" s="6"/>
+      <c r="ACA99" s="6"/>
+      <c r="ACB99" s="6"/>
+      <c r="ACC99" s="6"/>
+      <c r="ACD99" s="6"/>
+      <c r="ACE99" s="6"/>
+      <c r="ACF99" s="6"/>
+      <c r="ACG99" s="6"/>
+      <c r="ACH99" s="6"/>
+      <c r="ACI99" s="6"/>
+      <c r="ACJ99" s="6"/>
+      <c r="ACK99" s="6"/>
+      <c r="ACL99" s="6"/>
+      <c r="ACM99" s="6"/>
+      <c r="ACN99" s="6"/>
+      <c r="ACO99" s="6"/>
+      <c r="ACP99" s="6"/>
+      <c r="ACQ99" s="6"/>
+      <c r="ACR99" s="6"/>
+      <c r="ACS99" s="6"/>
+      <c r="ACT99" s="6"/>
+      <c r="ACU99" s="6"/>
+      <c r="ACV99" s="6"/>
+      <c r="ACW99" s="6"/>
+      <c r="ACX99" s="6"/>
+      <c r="ACY99" s="6"/>
+      <c r="ACZ99" s="6"/>
+      <c r="ADA99" s="6"/>
+      <c r="ADB99" s="6"/>
+      <c r="ADC99" s="6"/>
+      <c r="ADD99" s="6"/>
+      <c r="ADE99" s="6"/>
+      <c r="ADF99" s="6"/>
+      <c r="ADG99" s="6"/>
+      <c r="ADH99" s="6"/>
+      <c r="ADI99" s="6"/>
+      <c r="ADJ99" s="6"/>
+      <c r="ADK99" s="6"/>
+      <c r="ADL99" s="6"/>
+      <c r="ADM99" s="6"/>
+      <c r="ADN99" s="6"/>
+      <c r="ADO99" s="6"/>
+      <c r="ADP99" s="6"/>
+      <c r="ADQ99" s="6"/>
+      <c r="ADR99" s="6"/>
+      <c r="ADS99" s="6"/>
+      <c r="ADT99" s="6"/>
+      <c r="ADU99" s="6"/>
+      <c r="ADV99" s="6"/>
+      <c r="ADW99" s="6"/>
+      <c r="ADX99" s="6"/>
+      <c r="ADY99" s="6"/>
+      <c r="ADZ99" s="6"/>
+      <c r="AEA99" s="6"/>
+      <c r="AEB99" s="6"/>
+      <c r="AEC99" s="6"/>
+      <c r="AED99" s="6"/>
+      <c r="AEE99" s="6"/>
+      <c r="AEF99" s="6"/>
+      <c r="AEG99" s="6"/>
+      <c r="AEH99" s="6"/>
+      <c r="AEI99" s="6"/>
+      <c r="AEJ99" s="6"/>
+      <c r="AEK99" s="6"/>
+      <c r="AEL99" s="6"/>
+      <c r="AEM99" s="6"/>
+      <c r="AEN99" s="6"/>
+      <c r="AEO99" s="6"/>
+      <c r="AEP99" s="6"/>
+      <c r="AEQ99" s="6"/>
+      <c r="AER99" s="6"/>
+      <c r="AES99" s="6"/>
+      <c r="AET99" s="6"/>
+      <c r="AEU99" s="6"/>
+      <c r="AEV99" s="6"/>
+      <c r="AEW99" s="6"/>
+      <c r="AEX99" s="6"/>
+      <c r="AEY99" s="6"/>
+      <c r="AEZ99" s="6"/>
+      <c r="AFA99" s="6"/>
+      <c r="AFB99" s="6"/>
+      <c r="AFC99" s="6"/>
+      <c r="AFD99" s="6"/>
+      <c r="AFE99" s="6"/>
+      <c r="AFF99" s="6"/>
+      <c r="AFG99" s="6"/>
+      <c r="AFH99" s="6"/>
+      <c r="AFI99" s="6"/>
+      <c r="AFJ99" s="6"/>
+      <c r="AFK99" s="6"/>
+      <c r="AFL99" s="6"/>
+      <c r="AFM99" s="6"/>
+      <c r="AFN99" s="6"/>
+      <c r="AFO99" s="6"/>
+      <c r="AFP99" s="6"/>
+      <c r="AFQ99" s="6"/>
+      <c r="AFR99" s="6"/>
+      <c r="AFS99" s="6"/>
+      <c r="AFT99" s="6"/>
+      <c r="AFU99" s="6"/>
+      <c r="AFV99" s="6"/>
+      <c r="AFW99" s="6"/>
+      <c r="AFX99" s="6"/>
+      <c r="AFY99" s="6"/>
+      <c r="AFZ99" s="6"/>
+      <c r="AGA99" s="6"/>
+      <c r="AGB99" s="6"/>
+      <c r="AGC99" s="6"/>
+      <c r="AGD99" s="6"/>
+      <c r="AGE99" s="6"/>
+      <c r="AGF99" s="6"/>
+      <c r="AGG99" s="6"/>
+      <c r="AGH99" s="6"/>
+      <c r="AGI99" s="6"/>
+      <c r="AGJ99" s="6"/>
+      <c r="AGK99" s="6"/>
+      <c r="AGL99" s="6"/>
+      <c r="AGM99" s="6"/>
+      <c r="AGN99" s="6"/>
+      <c r="AGO99" s="6"/>
+      <c r="AGP99" s="6"/>
+      <c r="AGQ99" s="6"/>
+      <c r="AGR99" s="6"/>
+      <c r="AGS99" s="6"/>
+      <c r="AGT99" s="6"/>
+      <c r="AGU99" s="6"/>
+      <c r="AGV99" s="6"/>
+      <c r="AGW99" s="6"/>
+      <c r="AGX99" s="6"/>
+      <c r="AGY99" s="6"/>
+      <c r="AGZ99" s="6"/>
+      <c r="AHA99" s="6"/>
+      <c r="AHB99" s="6"/>
+      <c r="AHC99" s="6"/>
+      <c r="AHD99" s="6"/>
+      <c r="AHE99" s="6"/>
+      <c r="AHF99" s="6"/>
+      <c r="AHG99" s="6"/>
+      <c r="AHH99" s="6"/>
+      <c r="AHI99" s="6"/>
+      <c r="AHJ99" s="6"/>
+      <c r="AHK99" s="6"/>
+      <c r="AHL99" s="6"/>
+      <c r="AHM99" s="6"/>
+      <c r="AHN99" s="6"/>
+      <c r="AHO99" s="6"/>
+      <c r="AHP99" s="6"/>
+      <c r="AHQ99" s="6"/>
+      <c r="AHR99" s="6"/>
+      <c r="AHS99" s="6"/>
+      <c r="AHT99" s="6"/>
+      <c r="AHU99" s="6"/>
+      <c r="AHV99" s="6"/>
+      <c r="AHW99" s="6"/>
+      <c r="AHX99" s="6"/>
+      <c r="AHY99" s="6"/>
+      <c r="AHZ99" s="6"/>
+      <c r="AIA99" s="6"/>
+      <c r="AIB99" s="6"/>
+      <c r="AIC99" s="6"/>
+      <c r="AID99" s="6"/>
+      <c r="AIE99" s="6"/>
+      <c r="AIF99" s="6"/>
+      <c r="AIG99" s="6"/>
+      <c r="AIH99" s="6"/>
+      <c r="AII99" s="6"/>
+      <c r="AIJ99" s="6"/>
+      <c r="AIK99" s="6"/>
+      <c r="AIL99" s="6"/>
+      <c r="AIM99" s="6"/>
+      <c r="AIN99" s="6"/>
+      <c r="AIO99" s="6"/>
+      <c r="AIP99" s="6"/>
+      <c r="AIQ99" s="6"/>
+      <c r="AIR99" s="6"/>
+      <c r="AIS99" s="6"/>
+      <c r="AIT99" s="6"/>
+      <c r="AIU99" s="6"/>
+      <c r="AIV99" s="6"/>
+      <c r="AIW99" s="6"/>
+      <c r="AIX99" s="6"/>
+      <c r="AIY99" s="6"/>
+      <c r="AIZ99" s="6"/>
+      <c r="AJA99" s="6"/>
+      <c r="AJB99" s="6"/>
+      <c r="AJC99" s="6"/>
+      <c r="AJD99" s="6"/>
+      <c r="AJE99" s="6"/>
+      <c r="AJF99" s="6"/>
+      <c r="AJG99" s="6"/>
+      <c r="AJH99" s="6"/>
+      <c r="AJI99" s="6"/>
+      <c r="AJJ99" s="6"/>
+      <c r="AJK99" s="6"/>
+      <c r="AJL99" s="6"/>
+      <c r="AJM99" s="6"/>
+      <c r="AJN99" s="6"/>
+      <c r="AJO99" s="6"/>
+      <c r="AJP99" s="6"/>
+      <c r="AJQ99" s="6"/>
+      <c r="AJR99" s="6"/>
+      <c r="AJS99" s="6"/>
+      <c r="AJT99" s="6"/>
+      <c r="AJU99" s="6"/>
+      <c r="AJV99" s="6"/>
+      <c r="AJW99" s="6"/>
+      <c r="AJX99" s="6"/>
+      <c r="AJY99" s="6"/>
+      <c r="AJZ99" s="6"/>
+      <c r="AKA99" s="6"/>
+      <c r="AKB99" s="6"/>
+      <c r="AKC99" s="6"/>
+      <c r="AKD99" s="6"/>
+      <c r="AKE99" s="6"/>
+      <c r="AKF99" s="6"/>
+      <c r="AKG99" s="6"/>
+      <c r="AKH99" s="6"/>
+      <c r="AKI99" s="6"/>
+      <c r="AKJ99" s="6"/>
+      <c r="AKK99" s="6"/>
+      <c r="AKL99" s="6"/>
+      <c r="AKM99" s="6"/>
+      <c r="AKN99" s="6"/>
+      <c r="AKO99" s="6"/>
+      <c r="AKP99" s="6"/>
+      <c r="AKQ99" s="6"/>
+      <c r="AKR99" s="6"/>
+      <c r="AKS99" s="6"/>
+      <c r="AKT99" s="6"/>
+      <c r="AKU99" s="6"/>
+      <c r="AKV99" s="6"/>
+      <c r="AKW99" s="6"/>
+      <c r="AKX99" s="6"/>
+      <c r="AKY99" s="6"/>
+      <c r="AKZ99" s="6"/>
+      <c r="ALA99" s="6"/>
+      <c r="ALB99" s="6"/>
+      <c r="ALC99" s="6"/>
+      <c r="ALD99" s="6"/>
+      <c r="ALE99" s="6"/>
+      <c r="ALF99" s="6"/>
+      <c r="ALG99" s="6"/>
+      <c r="ALH99" s="6"/>
+      <c r="ALI99" s="6"/>
+      <c r="ALJ99" s="6"/>
+      <c r="ALK99" s="6"/>
+      <c r="ALL99" s="6"/>
+      <c r="ALM99" s="6"/>
+      <c r="ALN99" s="6"/>
+      <c r="ALO99" s="6"/>
+      <c r="ALP99" s="6"/>
+      <c r="ALQ99" s="6"/>
+      <c r="ALR99" s="6"/>
+      <c r="ALS99" s="6"/>
+      <c r="ALT99" s="6"/>
+      <c r="ALU99" s="6"/>
+      <c r="ALV99" s="6"/>
+      <c r="ALW99" s="6"/>
+      <c r="ALX99" s="6"/>
+      <c r="ALY99" s="6"/>
+      <c r="ALZ99" s="6"/>
+      <c r="AMA99" s="6"/>
+      <c r="AMB99" s="6"/>
+      <c r="AMC99" s="6"/>
+      <c r="AMD99" s="6"/>
+      <c r="AME99" s="6"/>
+      <c r="AMF99" s="6"/>
+      <c r="AMG99" s="6"/>
+      <c r="AMH99" s="6"/>
+      <c r="AMI99" s="6"/>
+      <c r="AMJ99" s="6"/>
+      <c r="AMK99" s="6"/>
+      <c r="AML99" s="6"/>
+      <c r="AMM99" s="6"/>
     </row>
-    <row r="100" spans="1:7" s="6" customFormat="1" ht="37.35" customHeight="1">
+    <row r="100" spans="1:1027" ht="37.25" customHeight="1">
       <c r="A100" s="31"/>
       <c r="B100" s="32"/>
       <c r="C100" s="33"/>
@@ -23976,61 +27362,1086 @@
       </c>
       <c r="F100" s="31"/>
       <c r="G100" s="31"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
+      <c r="AF100" s="6"/>
+      <c r="AG100" s="6"/>
+      <c r="AH100" s="6"/>
+      <c r="AI100" s="6"/>
+      <c r="AJ100" s="6"/>
+      <c r="AK100" s="6"/>
+      <c r="AL100" s="6"/>
+      <c r="AM100" s="6"/>
+      <c r="AN100" s="6"/>
+      <c r="AO100" s="6"/>
+      <c r="AP100" s="6"/>
+      <c r="AQ100" s="6"/>
+      <c r="AR100" s="6"/>
+      <c r="AS100" s="6"/>
+      <c r="AT100" s="6"/>
+      <c r="AU100" s="6"/>
+      <c r="AV100" s="6"/>
+      <c r="AW100" s="6"/>
+      <c r="AX100" s="6"/>
+      <c r="AY100" s="6"/>
+      <c r="AZ100" s="6"/>
+      <c r="BA100" s="6"/>
+      <c r="BB100" s="6"/>
+      <c r="BC100" s="6"/>
+      <c r="BD100" s="6"/>
+      <c r="BE100" s="6"/>
+      <c r="BF100" s="6"/>
+      <c r="BG100" s="6"/>
+      <c r="BH100" s="6"/>
+      <c r="BI100" s="6"/>
+      <c r="BJ100" s="6"/>
+      <c r="BK100" s="6"/>
+      <c r="BL100" s="6"/>
+      <c r="BM100" s="6"/>
+      <c r="BN100" s="6"/>
+      <c r="BO100" s="6"/>
+      <c r="BP100" s="6"/>
+      <c r="BQ100" s="6"/>
+      <c r="BR100" s="6"/>
+      <c r="BS100" s="6"/>
+      <c r="BT100" s="6"/>
+      <c r="BU100" s="6"/>
+      <c r="BV100" s="6"/>
+      <c r="BW100" s="6"/>
+      <c r="BX100" s="6"/>
+      <c r="BY100" s="6"/>
+      <c r="BZ100" s="6"/>
+      <c r="CA100" s="6"/>
+      <c r="CB100" s="6"/>
+      <c r="CC100" s="6"/>
+      <c r="CD100" s="6"/>
+      <c r="CE100" s="6"/>
+      <c r="CF100" s="6"/>
+      <c r="CG100" s="6"/>
+      <c r="CH100" s="6"/>
+      <c r="CI100" s="6"/>
+      <c r="CJ100" s="6"/>
+      <c r="CK100" s="6"/>
+      <c r="CL100" s="6"/>
+      <c r="CM100" s="6"/>
+      <c r="CN100" s="6"/>
+      <c r="CO100" s="6"/>
+      <c r="CP100" s="6"/>
+      <c r="CQ100" s="6"/>
+      <c r="CR100" s="6"/>
+      <c r="CS100" s="6"/>
+      <c r="CT100" s="6"/>
+      <c r="CU100" s="6"/>
+      <c r="CV100" s="6"/>
+      <c r="CW100" s="6"/>
+      <c r="CX100" s="6"/>
+      <c r="CY100" s="6"/>
+      <c r="CZ100" s="6"/>
+      <c r="DA100" s="6"/>
+      <c r="DB100" s="6"/>
+      <c r="DC100" s="6"/>
+      <c r="DD100" s="6"/>
+      <c r="DE100" s="6"/>
+      <c r="DF100" s="6"/>
+      <c r="DG100" s="6"/>
+      <c r="DH100" s="6"/>
+      <c r="DI100" s="6"/>
+      <c r="DJ100" s="6"/>
+      <c r="DK100" s="6"/>
+      <c r="DL100" s="6"/>
+      <c r="DM100" s="6"/>
+      <c r="DN100" s="6"/>
+      <c r="DO100" s="6"/>
+      <c r="DP100" s="6"/>
+      <c r="DQ100" s="6"/>
+      <c r="DR100" s="6"/>
+      <c r="DS100" s="6"/>
+      <c r="DT100" s="6"/>
+      <c r="DU100" s="6"/>
+      <c r="DV100" s="6"/>
+      <c r="DW100" s="6"/>
+      <c r="DX100" s="6"/>
+      <c r="DY100" s="6"/>
+      <c r="DZ100" s="6"/>
+      <c r="EA100" s="6"/>
+      <c r="EB100" s="6"/>
+      <c r="EC100" s="6"/>
+      <c r="ED100" s="6"/>
+      <c r="EE100" s="6"/>
+      <c r="EF100" s="6"/>
+      <c r="EG100" s="6"/>
+      <c r="EH100" s="6"/>
+      <c r="EI100" s="6"/>
+      <c r="EJ100" s="6"/>
+      <c r="EK100" s="6"/>
+      <c r="EL100" s="6"/>
+      <c r="EM100" s="6"/>
+      <c r="EN100" s="6"/>
+      <c r="EO100" s="6"/>
+      <c r="EP100" s="6"/>
+      <c r="EQ100" s="6"/>
+      <c r="ER100" s="6"/>
+      <c r="ES100" s="6"/>
+      <c r="ET100" s="6"/>
+      <c r="EU100" s="6"/>
+      <c r="EV100" s="6"/>
+      <c r="EW100" s="6"/>
+      <c r="EX100" s="6"/>
+      <c r="EY100" s="6"/>
+      <c r="EZ100" s="6"/>
+      <c r="FA100" s="6"/>
+      <c r="FB100" s="6"/>
+      <c r="FC100" s="6"/>
+      <c r="FD100" s="6"/>
+      <c r="FE100" s="6"/>
+      <c r="FF100" s="6"/>
+      <c r="FG100" s="6"/>
+      <c r="FH100" s="6"/>
+      <c r="FI100" s="6"/>
+      <c r="FJ100" s="6"/>
+      <c r="FK100" s="6"/>
+      <c r="FL100" s="6"/>
+      <c r="FM100" s="6"/>
+      <c r="FN100" s="6"/>
+      <c r="FO100" s="6"/>
+      <c r="FP100" s="6"/>
+      <c r="FQ100" s="6"/>
+      <c r="FR100" s="6"/>
+      <c r="FS100" s="6"/>
+      <c r="FT100" s="6"/>
+      <c r="FU100" s="6"/>
+      <c r="FV100" s="6"/>
+      <c r="FW100" s="6"/>
+      <c r="FX100" s="6"/>
+      <c r="FY100" s="6"/>
+      <c r="FZ100" s="6"/>
+      <c r="GA100" s="6"/>
+      <c r="GB100" s="6"/>
+      <c r="GC100" s="6"/>
+      <c r="GD100" s="6"/>
+      <c r="GE100" s="6"/>
+      <c r="GF100" s="6"/>
+      <c r="GG100" s="6"/>
+      <c r="GH100" s="6"/>
+      <c r="GI100" s="6"/>
+      <c r="GJ100" s="6"/>
+      <c r="GK100" s="6"/>
+      <c r="GL100" s="6"/>
+      <c r="GM100" s="6"/>
+      <c r="GN100" s="6"/>
+      <c r="GO100" s="6"/>
+      <c r="GP100" s="6"/>
+      <c r="GQ100" s="6"/>
+      <c r="GR100" s="6"/>
+      <c r="GS100" s="6"/>
+      <c r="GT100" s="6"/>
+      <c r="GU100" s="6"/>
+      <c r="GV100" s="6"/>
+      <c r="GW100" s="6"/>
+      <c r="GX100" s="6"/>
+      <c r="GY100" s="6"/>
+      <c r="GZ100" s="6"/>
+      <c r="HA100" s="6"/>
+      <c r="HB100" s="6"/>
+      <c r="HC100" s="6"/>
+      <c r="HD100" s="6"/>
+      <c r="HE100" s="6"/>
+      <c r="HF100" s="6"/>
+      <c r="HG100" s="6"/>
+      <c r="HH100" s="6"/>
+      <c r="HI100" s="6"/>
+      <c r="HJ100" s="6"/>
+      <c r="HK100" s="6"/>
+      <c r="HL100" s="6"/>
+      <c r="HM100" s="6"/>
+      <c r="HN100" s="6"/>
+      <c r="HO100" s="6"/>
+      <c r="HP100" s="6"/>
+      <c r="HQ100" s="6"/>
+      <c r="HR100" s="6"/>
+      <c r="HS100" s="6"/>
+      <c r="HT100" s="6"/>
+      <c r="HU100" s="6"/>
+      <c r="HV100" s="6"/>
+      <c r="HW100" s="6"/>
+      <c r="HX100" s="6"/>
+      <c r="HY100" s="6"/>
+      <c r="HZ100" s="6"/>
+      <c r="IA100" s="6"/>
+      <c r="IB100" s="6"/>
+      <c r="IC100" s="6"/>
+      <c r="ID100" s="6"/>
+      <c r="IE100" s="6"/>
+      <c r="IF100" s="6"/>
+      <c r="IG100" s="6"/>
+      <c r="IH100" s="6"/>
+      <c r="II100" s="6"/>
+      <c r="IJ100" s="6"/>
+      <c r="IK100" s="6"/>
+      <c r="IL100" s="6"/>
+      <c r="IM100" s="6"/>
+      <c r="IN100" s="6"/>
+      <c r="IO100" s="6"/>
+      <c r="IP100" s="6"/>
+      <c r="IQ100" s="6"/>
+      <c r="IR100" s="6"/>
+      <c r="IS100" s="6"/>
+      <c r="IT100" s="6"/>
+      <c r="IU100" s="6"/>
+      <c r="IV100" s="6"/>
+      <c r="IW100" s="6"/>
+      <c r="IX100" s="6"/>
+      <c r="IY100" s="6"/>
+      <c r="IZ100" s="6"/>
+      <c r="JA100" s="6"/>
+      <c r="JB100" s="6"/>
+      <c r="JC100" s="6"/>
+      <c r="JD100" s="6"/>
+      <c r="JE100" s="6"/>
+      <c r="JF100" s="6"/>
+      <c r="JG100" s="6"/>
+      <c r="JH100" s="6"/>
+      <c r="JI100" s="6"/>
+      <c r="JJ100" s="6"/>
+      <c r="JK100" s="6"/>
+      <c r="JL100" s="6"/>
+      <c r="JM100" s="6"/>
+      <c r="JN100" s="6"/>
+      <c r="JO100" s="6"/>
+      <c r="JP100" s="6"/>
+      <c r="JQ100" s="6"/>
+      <c r="JR100" s="6"/>
+      <c r="JS100" s="6"/>
+      <c r="JT100" s="6"/>
+      <c r="JU100" s="6"/>
+      <c r="JV100" s="6"/>
+      <c r="JW100" s="6"/>
+      <c r="JX100" s="6"/>
+      <c r="JY100" s="6"/>
+      <c r="JZ100" s="6"/>
+      <c r="KA100" s="6"/>
+      <c r="KB100" s="6"/>
+      <c r="KC100" s="6"/>
+      <c r="KD100" s="6"/>
+      <c r="KE100" s="6"/>
+      <c r="KF100" s="6"/>
+      <c r="KG100" s="6"/>
+      <c r="KH100" s="6"/>
+      <c r="KI100" s="6"/>
+      <c r="KJ100" s="6"/>
+      <c r="KK100" s="6"/>
+      <c r="KL100" s="6"/>
+      <c r="KM100" s="6"/>
+      <c r="KN100" s="6"/>
+      <c r="KO100" s="6"/>
+      <c r="KP100" s="6"/>
+      <c r="KQ100" s="6"/>
+      <c r="KR100" s="6"/>
+      <c r="KS100" s="6"/>
+      <c r="KT100" s="6"/>
+      <c r="KU100" s="6"/>
+      <c r="KV100" s="6"/>
+      <c r="KW100" s="6"/>
+      <c r="KX100" s="6"/>
+      <c r="KY100" s="6"/>
+      <c r="KZ100" s="6"/>
+      <c r="LA100" s="6"/>
+      <c r="LB100" s="6"/>
+      <c r="LC100" s="6"/>
+      <c r="LD100" s="6"/>
+      <c r="LE100" s="6"/>
+      <c r="LF100" s="6"/>
+      <c r="LG100" s="6"/>
+      <c r="LH100" s="6"/>
+      <c r="LI100" s="6"/>
+      <c r="LJ100" s="6"/>
+      <c r="LK100" s="6"/>
+      <c r="LL100" s="6"/>
+      <c r="LM100" s="6"/>
+      <c r="LN100" s="6"/>
+      <c r="LO100" s="6"/>
+      <c r="LP100" s="6"/>
+      <c r="LQ100" s="6"/>
+      <c r="LR100" s="6"/>
+      <c r="LS100" s="6"/>
+      <c r="LT100" s="6"/>
+      <c r="LU100" s="6"/>
+      <c r="LV100" s="6"/>
+      <c r="LW100" s="6"/>
+      <c r="LX100" s="6"/>
+      <c r="LY100" s="6"/>
+      <c r="LZ100" s="6"/>
+      <c r="MA100" s="6"/>
+      <c r="MB100" s="6"/>
+      <c r="MC100" s="6"/>
+      <c r="MD100" s="6"/>
+      <c r="ME100" s="6"/>
+      <c r="MF100" s="6"/>
+      <c r="MG100" s="6"/>
+      <c r="MH100" s="6"/>
+      <c r="MI100" s="6"/>
+      <c r="MJ100" s="6"/>
+      <c r="MK100" s="6"/>
+      <c r="ML100" s="6"/>
+      <c r="MM100" s="6"/>
+      <c r="MN100" s="6"/>
+      <c r="MO100" s="6"/>
+      <c r="MP100" s="6"/>
+      <c r="MQ100" s="6"/>
+      <c r="MR100" s="6"/>
+      <c r="MS100" s="6"/>
+      <c r="MT100" s="6"/>
+      <c r="MU100" s="6"/>
+      <c r="MV100" s="6"/>
+      <c r="MW100" s="6"/>
+      <c r="MX100" s="6"/>
+      <c r="MY100" s="6"/>
+      <c r="MZ100" s="6"/>
+      <c r="NA100" s="6"/>
+      <c r="NB100" s="6"/>
+      <c r="NC100" s="6"/>
+      <c r="ND100" s="6"/>
+      <c r="NE100" s="6"/>
+      <c r="NF100" s="6"/>
+      <c r="NG100" s="6"/>
+      <c r="NH100" s="6"/>
+      <c r="NI100" s="6"/>
+      <c r="NJ100" s="6"/>
+      <c r="NK100" s="6"/>
+      <c r="NL100" s="6"/>
+      <c r="NM100" s="6"/>
+      <c r="NN100" s="6"/>
+      <c r="NO100" s="6"/>
+      <c r="NP100" s="6"/>
+      <c r="NQ100" s="6"/>
+      <c r="NR100" s="6"/>
+      <c r="NS100" s="6"/>
+      <c r="NT100" s="6"/>
+      <c r="NU100" s="6"/>
+      <c r="NV100" s="6"/>
+      <c r="NW100" s="6"/>
+      <c r="NX100" s="6"/>
+      <c r="NY100" s="6"/>
+      <c r="NZ100" s="6"/>
+      <c r="OA100" s="6"/>
+      <c r="OB100" s="6"/>
+      <c r="OC100" s="6"/>
+      <c r="OD100" s="6"/>
+      <c r="OE100" s="6"/>
+      <c r="OF100" s="6"/>
+      <c r="OG100" s="6"/>
+      <c r="OH100" s="6"/>
+      <c r="OI100" s="6"/>
+      <c r="OJ100" s="6"/>
+      <c r="OK100" s="6"/>
+      <c r="OL100" s="6"/>
+      <c r="OM100" s="6"/>
+      <c r="ON100" s="6"/>
+      <c r="OO100" s="6"/>
+      <c r="OP100" s="6"/>
+      <c r="OQ100" s="6"/>
+      <c r="OR100" s="6"/>
+      <c r="OS100" s="6"/>
+      <c r="OT100" s="6"/>
+      <c r="OU100" s="6"/>
+      <c r="OV100" s="6"/>
+      <c r="OW100" s="6"/>
+      <c r="OX100" s="6"/>
+      <c r="OY100" s="6"/>
+      <c r="OZ100" s="6"/>
+      <c r="PA100" s="6"/>
+      <c r="PB100" s="6"/>
+      <c r="PC100" s="6"/>
+      <c r="PD100" s="6"/>
+      <c r="PE100" s="6"/>
+      <c r="PF100" s="6"/>
+      <c r="PG100" s="6"/>
+      <c r="PH100" s="6"/>
+      <c r="PI100" s="6"/>
+      <c r="PJ100" s="6"/>
+      <c r="PK100" s="6"/>
+      <c r="PL100" s="6"/>
+      <c r="PM100" s="6"/>
+      <c r="PN100" s="6"/>
+      <c r="PO100" s="6"/>
+      <c r="PP100" s="6"/>
+      <c r="PQ100" s="6"/>
+      <c r="PR100" s="6"/>
+      <c r="PS100" s="6"/>
+      <c r="PT100" s="6"/>
+      <c r="PU100" s="6"/>
+      <c r="PV100" s="6"/>
+      <c r="PW100" s="6"/>
+      <c r="PX100" s="6"/>
+      <c r="PY100" s="6"/>
+      <c r="PZ100" s="6"/>
+      <c r="QA100" s="6"/>
+      <c r="QB100" s="6"/>
+      <c r="QC100" s="6"/>
+      <c r="QD100" s="6"/>
+      <c r="QE100" s="6"/>
+      <c r="QF100" s="6"/>
+      <c r="QG100" s="6"/>
+      <c r="QH100" s="6"/>
+      <c r="QI100" s="6"/>
+      <c r="QJ100" s="6"/>
+      <c r="QK100" s="6"/>
+      <c r="QL100" s="6"/>
+      <c r="QM100" s="6"/>
+      <c r="QN100" s="6"/>
+      <c r="QO100" s="6"/>
+      <c r="QP100" s="6"/>
+      <c r="QQ100" s="6"/>
+      <c r="QR100" s="6"/>
+      <c r="QS100" s="6"/>
+      <c r="QT100" s="6"/>
+      <c r="QU100" s="6"/>
+      <c r="QV100" s="6"/>
+      <c r="QW100" s="6"/>
+      <c r="QX100" s="6"/>
+      <c r="QY100" s="6"/>
+      <c r="QZ100" s="6"/>
+      <c r="RA100" s="6"/>
+      <c r="RB100" s="6"/>
+      <c r="RC100" s="6"/>
+      <c r="RD100" s="6"/>
+      <c r="RE100" s="6"/>
+      <c r="RF100" s="6"/>
+      <c r="RG100" s="6"/>
+      <c r="RH100" s="6"/>
+      <c r="RI100" s="6"/>
+      <c r="RJ100" s="6"/>
+      <c r="RK100" s="6"/>
+      <c r="RL100" s="6"/>
+      <c r="RM100" s="6"/>
+      <c r="RN100" s="6"/>
+      <c r="RO100" s="6"/>
+      <c r="RP100" s="6"/>
+      <c r="RQ100" s="6"/>
+      <c r="RR100" s="6"/>
+      <c r="RS100" s="6"/>
+      <c r="RT100" s="6"/>
+      <c r="RU100" s="6"/>
+      <c r="RV100" s="6"/>
+      <c r="RW100" s="6"/>
+      <c r="RX100" s="6"/>
+      <c r="RY100" s="6"/>
+      <c r="RZ100" s="6"/>
+      <c r="SA100" s="6"/>
+      <c r="SB100" s="6"/>
+      <c r="SC100" s="6"/>
+      <c r="SD100" s="6"/>
+      <c r="SE100" s="6"/>
+      <c r="SF100" s="6"/>
+      <c r="SG100" s="6"/>
+      <c r="SH100" s="6"/>
+      <c r="SI100" s="6"/>
+      <c r="SJ100" s="6"/>
+      <c r="SK100" s="6"/>
+      <c r="SL100" s="6"/>
+      <c r="SM100" s="6"/>
+      <c r="SN100" s="6"/>
+      <c r="SO100" s="6"/>
+      <c r="SP100" s="6"/>
+      <c r="SQ100" s="6"/>
+      <c r="SR100" s="6"/>
+      <c r="SS100" s="6"/>
+      <c r="ST100" s="6"/>
+      <c r="SU100" s="6"/>
+      <c r="SV100" s="6"/>
+      <c r="SW100" s="6"/>
+      <c r="SX100" s="6"/>
+      <c r="SY100" s="6"/>
+      <c r="SZ100" s="6"/>
+      <c r="TA100" s="6"/>
+      <c r="TB100" s="6"/>
+      <c r="TC100" s="6"/>
+      <c r="TD100" s="6"/>
+      <c r="TE100" s="6"/>
+      <c r="TF100" s="6"/>
+      <c r="TG100" s="6"/>
+      <c r="TH100" s="6"/>
+      <c r="TI100" s="6"/>
+      <c r="TJ100" s="6"/>
+      <c r="TK100" s="6"/>
+      <c r="TL100" s="6"/>
+      <c r="TM100" s="6"/>
+      <c r="TN100" s="6"/>
+      <c r="TO100" s="6"/>
+      <c r="TP100" s="6"/>
+      <c r="TQ100" s="6"/>
+      <c r="TR100" s="6"/>
+      <c r="TS100" s="6"/>
+      <c r="TT100" s="6"/>
+      <c r="TU100" s="6"/>
+      <c r="TV100" s="6"/>
+      <c r="TW100" s="6"/>
+      <c r="TX100" s="6"/>
+      <c r="TY100" s="6"/>
+      <c r="TZ100" s="6"/>
+      <c r="UA100" s="6"/>
+      <c r="UB100" s="6"/>
+      <c r="UC100" s="6"/>
+      <c r="UD100" s="6"/>
+      <c r="UE100" s="6"/>
+      <c r="UF100" s="6"/>
+      <c r="UG100" s="6"/>
+      <c r="UH100" s="6"/>
+      <c r="UI100" s="6"/>
+      <c r="UJ100" s="6"/>
+      <c r="UK100" s="6"/>
+      <c r="UL100" s="6"/>
+      <c r="UM100" s="6"/>
+      <c r="UN100" s="6"/>
+      <c r="UO100" s="6"/>
+      <c r="UP100" s="6"/>
+      <c r="UQ100" s="6"/>
+      <c r="UR100" s="6"/>
+      <c r="US100" s="6"/>
+      <c r="UT100" s="6"/>
+      <c r="UU100" s="6"/>
+      <c r="UV100" s="6"/>
+      <c r="UW100" s="6"/>
+      <c r="UX100" s="6"/>
+      <c r="UY100" s="6"/>
+      <c r="UZ100" s="6"/>
+      <c r="VA100" s="6"/>
+      <c r="VB100" s="6"/>
+      <c r="VC100" s="6"/>
+      <c r="VD100" s="6"/>
+      <c r="VE100" s="6"/>
+      <c r="VF100" s="6"/>
+      <c r="VG100" s="6"/>
+      <c r="VH100" s="6"/>
+      <c r="VI100" s="6"/>
+      <c r="VJ100" s="6"/>
+      <c r="VK100" s="6"/>
+      <c r="VL100" s="6"/>
+      <c r="VM100" s="6"/>
+      <c r="VN100" s="6"/>
+      <c r="VO100" s="6"/>
+      <c r="VP100" s="6"/>
+      <c r="VQ100" s="6"/>
+      <c r="VR100" s="6"/>
+      <c r="VS100" s="6"/>
+      <c r="VT100" s="6"/>
+      <c r="VU100" s="6"/>
+      <c r="VV100" s="6"/>
+      <c r="VW100" s="6"/>
+      <c r="VX100" s="6"/>
+      <c r="VY100" s="6"/>
+      <c r="VZ100" s="6"/>
+      <c r="WA100" s="6"/>
+      <c r="WB100" s="6"/>
+      <c r="WC100" s="6"/>
+      <c r="WD100" s="6"/>
+      <c r="WE100" s="6"/>
+      <c r="WF100" s="6"/>
+      <c r="WG100" s="6"/>
+      <c r="WH100" s="6"/>
+      <c r="WI100" s="6"/>
+      <c r="WJ100" s="6"/>
+      <c r="WK100" s="6"/>
+      <c r="WL100" s="6"/>
+      <c r="WM100" s="6"/>
+      <c r="WN100" s="6"/>
+      <c r="WO100" s="6"/>
+      <c r="WP100" s="6"/>
+      <c r="WQ100" s="6"/>
+      <c r="WR100" s="6"/>
+      <c r="WS100" s="6"/>
+      <c r="WT100" s="6"/>
+      <c r="WU100" s="6"/>
+      <c r="WV100" s="6"/>
+      <c r="WW100" s="6"/>
+      <c r="WX100" s="6"/>
+      <c r="WY100" s="6"/>
+      <c r="WZ100" s="6"/>
+      <c r="XA100" s="6"/>
+      <c r="XB100" s="6"/>
+      <c r="XC100" s="6"/>
+      <c r="XD100" s="6"/>
+      <c r="XE100" s="6"/>
+      <c r="XF100" s="6"/>
+      <c r="XG100" s="6"/>
+      <c r="XH100" s="6"/>
+      <c r="XI100" s="6"/>
+      <c r="XJ100" s="6"/>
+      <c r="XK100" s="6"/>
+      <c r="XL100" s="6"/>
+      <c r="XM100" s="6"/>
+      <c r="XN100" s="6"/>
+      <c r="XO100" s="6"/>
+      <c r="XP100" s="6"/>
+      <c r="XQ100" s="6"/>
+      <c r="XR100" s="6"/>
+      <c r="XS100" s="6"/>
+      <c r="XT100" s="6"/>
+      <c r="XU100" s="6"/>
+      <c r="XV100" s="6"/>
+      <c r="XW100" s="6"/>
+      <c r="XX100" s="6"/>
+      <c r="XY100" s="6"/>
+      <c r="XZ100" s="6"/>
+      <c r="YA100" s="6"/>
+      <c r="YB100" s="6"/>
+      <c r="YC100" s="6"/>
+      <c r="YD100" s="6"/>
+      <c r="YE100" s="6"/>
+      <c r="YF100" s="6"/>
+      <c r="YG100" s="6"/>
+      <c r="YH100" s="6"/>
+      <c r="YI100" s="6"/>
+      <c r="YJ100" s="6"/>
+      <c r="YK100" s="6"/>
+      <c r="YL100" s="6"/>
+      <c r="YM100" s="6"/>
+      <c r="YN100" s="6"/>
+      <c r="YO100" s="6"/>
+      <c r="YP100" s="6"/>
+      <c r="YQ100" s="6"/>
+      <c r="YR100" s="6"/>
+      <c r="YS100" s="6"/>
+      <c r="YT100" s="6"/>
+      <c r="YU100" s="6"/>
+      <c r="YV100" s="6"/>
+      <c r="YW100" s="6"/>
+      <c r="YX100" s="6"/>
+      <c r="YY100" s="6"/>
+      <c r="YZ100" s="6"/>
+      <c r="ZA100" s="6"/>
+      <c r="ZB100" s="6"/>
+      <c r="ZC100" s="6"/>
+      <c r="ZD100" s="6"/>
+      <c r="ZE100" s="6"/>
+      <c r="ZF100" s="6"/>
+      <c r="ZG100" s="6"/>
+      <c r="ZH100" s="6"/>
+      <c r="ZI100" s="6"/>
+      <c r="ZJ100" s="6"/>
+      <c r="ZK100" s="6"/>
+      <c r="ZL100" s="6"/>
+      <c r="ZM100" s="6"/>
+      <c r="ZN100" s="6"/>
+      <c r="ZO100" s="6"/>
+      <c r="ZP100" s="6"/>
+      <c r="ZQ100" s="6"/>
+      <c r="ZR100" s="6"/>
+      <c r="ZS100" s="6"/>
+      <c r="ZT100" s="6"/>
+      <c r="ZU100" s="6"/>
+      <c r="ZV100" s="6"/>
+      <c r="ZW100" s="6"/>
+      <c r="ZX100" s="6"/>
+      <c r="ZY100" s="6"/>
+      <c r="ZZ100" s="6"/>
+      <c r="AAA100" s="6"/>
+      <c r="AAB100" s="6"/>
+      <c r="AAC100" s="6"/>
+      <c r="AAD100" s="6"/>
+      <c r="AAE100" s="6"/>
+      <c r="AAF100" s="6"/>
+      <c r="AAG100" s="6"/>
+      <c r="AAH100" s="6"/>
+      <c r="AAI100" s="6"/>
+      <c r="AAJ100" s="6"/>
+      <c r="AAK100" s="6"/>
+      <c r="AAL100" s="6"/>
+      <c r="AAM100" s="6"/>
+      <c r="AAN100" s="6"/>
+      <c r="AAO100" s="6"/>
+      <c r="AAP100" s="6"/>
+      <c r="AAQ100" s="6"/>
+      <c r="AAR100" s="6"/>
+      <c r="AAS100" s="6"/>
+      <c r="AAT100" s="6"/>
+      <c r="AAU100" s="6"/>
+      <c r="AAV100" s="6"/>
+      <c r="AAW100" s="6"/>
+      <c r="AAX100" s="6"/>
+      <c r="AAY100" s="6"/>
+      <c r="AAZ100" s="6"/>
+      <c r="ABA100" s="6"/>
+      <c r="ABB100" s="6"/>
+      <c r="ABC100" s="6"/>
+      <c r="ABD100" s="6"/>
+      <c r="ABE100" s="6"/>
+      <c r="ABF100" s="6"/>
+      <c r="ABG100" s="6"/>
+      <c r="ABH100" s="6"/>
+      <c r="ABI100" s="6"/>
+      <c r="ABJ100" s="6"/>
+      <c r="ABK100" s="6"/>
+      <c r="ABL100" s="6"/>
+      <c r="ABM100" s="6"/>
+      <c r="ABN100" s="6"/>
+      <c r="ABO100" s="6"/>
+      <c r="ABP100" s="6"/>
+      <c r="ABQ100" s="6"/>
+      <c r="ABR100" s="6"/>
+      <c r="ABS100" s="6"/>
+      <c r="ABT100" s="6"/>
+      <c r="ABU100" s="6"/>
+      <c r="ABV100" s="6"/>
+      <c r="ABW100" s="6"/>
+      <c r="ABX100" s="6"/>
+      <c r="ABY100" s="6"/>
+      <c r="ABZ100" s="6"/>
+      <c r="ACA100" s="6"/>
+      <c r="ACB100" s="6"/>
+      <c r="ACC100" s="6"/>
+      <c r="ACD100" s="6"/>
+      <c r="ACE100" s="6"/>
+      <c r="ACF100" s="6"/>
+      <c r="ACG100" s="6"/>
+      <c r="ACH100" s="6"/>
+      <c r="ACI100" s="6"/>
+      <c r="ACJ100" s="6"/>
+      <c r="ACK100" s="6"/>
+      <c r="ACL100" s="6"/>
+      <c r="ACM100" s="6"/>
+      <c r="ACN100" s="6"/>
+      <c r="ACO100" s="6"/>
+      <c r="ACP100" s="6"/>
+      <c r="ACQ100" s="6"/>
+      <c r="ACR100" s="6"/>
+      <c r="ACS100" s="6"/>
+      <c r="ACT100" s="6"/>
+      <c r="ACU100" s="6"/>
+      <c r="ACV100" s="6"/>
+      <c r="ACW100" s="6"/>
+      <c r="ACX100" s="6"/>
+      <c r="ACY100" s="6"/>
+      <c r="ACZ100" s="6"/>
+      <c r="ADA100" s="6"/>
+      <c r="ADB100" s="6"/>
+      <c r="ADC100" s="6"/>
+      <c r="ADD100" s="6"/>
+      <c r="ADE100" s="6"/>
+      <c r="ADF100" s="6"/>
+      <c r="ADG100" s="6"/>
+      <c r="ADH100" s="6"/>
+      <c r="ADI100" s="6"/>
+      <c r="ADJ100" s="6"/>
+      <c r="ADK100" s="6"/>
+      <c r="ADL100" s="6"/>
+      <c r="ADM100" s="6"/>
+      <c r="ADN100" s="6"/>
+      <c r="ADO100" s="6"/>
+      <c r="ADP100" s="6"/>
+      <c r="ADQ100" s="6"/>
+      <c r="ADR100" s="6"/>
+      <c r="ADS100" s="6"/>
+      <c r="ADT100" s="6"/>
+      <c r="ADU100" s="6"/>
+      <c r="ADV100" s="6"/>
+      <c r="ADW100" s="6"/>
+      <c r="ADX100" s="6"/>
+      <c r="ADY100" s="6"/>
+      <c r="ADZ100" s="6"/>
+      <c r="AEA100" s="6"/>
+      <c r="AEB100" s="6"/>
+      <c r="AEC100" s="6"/>
+      <c r="AED100" s="6"/>
+      <c r="AEE100" s="6"/>
+      <c r="AEF100" s="6"/>
+      <c r="AEG100" s="6"/>
+      <c r="AEH100" s="6"/>
+      <c r="AEI100" s="6"/>
+      <c r="AEJ100" s="6"/>
+      <c r="AEK100" s="6"/>
+      <c r="AEL100" s="6"/>
+      <c r="AEM100" s="6"/>
+      <c r="AEN100" s="6"/>
+      <c r="AEO100" s="6"/>
+      <c r="AEP100" s="6"/>
+      <c r="AEQ100" s="6"/>
+      <c r="AER100" s="6"/>
+      <c r="AES100" s="6"/>
+      <c r="AET100" s="6"/>
+      <c r="AEU100" s="6"/>
+      <c r="AEV100" s="6"/>
+      <c r="AEW100" s="6"/>
+      <c r="AEX100" s="6"/>
+      <c r="AEY100" s="6"/>
+      <c r="AEZ100" s="6"/>
+      <c r="AFA100" s="6"/>
+      <c r="AFB100" s="6"/>
+      <c r="AFC100" s="6"/>
+      <c r="AFD100" s="6"/>
+      <c r="AFE100" s="6"/>
+      <c r="AFF100" s="6"/>
+      <c r="AFG100" s="6"/>
+      <c r="AFH100" s="6"/>
+      <c r="AFI100" s="6"/>
+      <c r="AFJ100" s="6"/>
+      <c r="AFK100" s="6"/>
+      <c r="AFL100" s="6"/>
+      <c r="AFM100" s="6"/>
+      <c r="AFN100" s="6"/>
+      <c r="AFO100" s="6"/>
+      <c r="AFP100" s="6"/>
+      <c r="AFQ100" s="6"/>
+      <c r="AFR100" s="6"/>
+      <c r="AFS100" s="6"/>
+      <c r="AFT100" s="6"/>
+      <c r="AFU100" s="6"/>
+      <c r="AFV100" s="6"/>
+      <c r="AFW100" s="6"/>
+      <c r="AFX100" s="6"/>
+      <c r="AFY100" s="6"/>
+      <c r="AFZ100" s="6"/>
+      <c r="AGA100" s="6"/>
+      <c r="AGB100" s="6"/>
+      <c r="AGC100" s="6"/>
+      <c r="AGD100" s="6"/>
+      <c r="AGE100" s="6"/>
+      <c r="AGF100" s="6"/>
+      <c r="AGG100" s="6"/>
+      <c r="AGH100" s="6"/>
+      <c r="AGI100" s="6"/>
+      <c r="AGJ100" s="6"/>
+      <c r="AGK100" s="6"/>
+      <c r="AGL100" s="6"/>
+      <c r="AGM100" s="6"/>
+      <c r="AGN100" s="6"/>
+      <c r="AGO100" s="6"/>
+      <c r="AGP100" s="6"/>
+      <c r="AGQ100" s="6"/>
+      <c r="AGR100" s="6"/>
+      <c r="AGS100" s="6"/>
+      <c r="AGT100" s="6"/>
+      <c r="AGU100" s="6"/>
+      <c r="AGV100" s="6"/>
+      <c r="AGW100" s="6"/>
+      <c r="AGX100" s="6"/>
+      <c r="AGY100" s="6"/>
+      <c r="AGZ100" s="6"/>
+      <c r="AHA100" s="6"/>
+      <c r="AHB100" s="6"/>
+      <c r="AHC100" s="6"/>
+      <c r="AHD100" s="6"/>
+      <c r="AHE100" s="6"/>
+      <c r="AHF100" s="6"/>
+      <c r="AHG100" s="6"/>
+      <c r="AHH100" s="6"/>
+      <c r="AHI100" s="6"/>
+      <c r="AHJ100" s="6"/>
+      <c r="AHK100" s="6"/>
+      <c r="AHL100" s="6"/>
+      <c r="AHM100" s="6"/>
+      <c r="AHN100" s="6"/>
+      <c r="AHO100" s="6"/>
+      <c r="AHP100" s="6"/>
+      <c r="AHQ100" s="6"/>
+      <c r="AHR100" s="6"/>
+      <c r="AHS100" s="6"/>
+      <c r="AHT100" s="6"/>
+      <c r="AHU100" s="6"/>
+      <c r="AHV100" s="6"/>
+      <c r="AHW100" s="6"/>
+      <c r="AHX100" s="6"/>
+      <c r="AHY100" s="6"/>
+      <c r="AHZ100" s="6"/>
+      <c r="AIA100" s="6"/>
+      <c r="AIB100" s="6"/>
+      <c r="AIC100" s="6"/>
+      <c r="AID100" s="6"/>
+      <c r="AIE100" s="6"/>
+      <c r="AIF100" s="6"/>
+      <c r="AIG100" s="6"/>
+      <c r="AIH100" s="6"/>
+      <c r="AII100" s="6"/>
+      <c r="AIJ100" s="6"/>
+      <c r="AIK100" s="6"/>
+      <c r="AIL100" s="6"/>
+      <c r="AIM100" s="6"/>
+      <c r="AIN100" s="6"/>
+      <c r="AIO100" s="6"/>
+      <c r="AIP100" s="6"/>
+      <c r="AIQ100" s="6"/>
+      <c r="AIR100" s="6"/>
+      <c r="AIS100" s="6"/>
+      <c r="AIT100" s="6"/>
+      <c r="AIU100" s="6"/>
+      <c r="AIV100" s="6"/>
+      <c r="AIW100" s="6"/>
+      <c r="AIX100" s="6"/>
+      <c r="AIY100" s="6"/>
+      <c r="AIZ100" s="6"/>
+      <c r="AJA100" s="6"/>
+      <c r="AJB100" s="6"/>
+      <c r="AJC100" s="6"/>
+      <c r="AJD100" s="6"/>
+      <c r="AJE100" s="6"/>
+      <c r="AJF100" s="6"/>
+      <c r="AJG100" s="6"/>
+      <c r="AJH100" s="6"/>
+      <c r="AJI100" s="6"/>
+      <c r="AJJ100" s="6"/>
+      <c r="AJK100" s="6"/>
+      <c r="AJL100" s="6"/>
+      <c r="AJM100" s="6"/>
+      <c r="AJN100" s="6"/>
+      <c r="AJO100" s="6"/>
+      <c r="AJP100" s="6"/>
+      <c r="AJQ100" s="6"/>
+      <c r="AJR100" s="6"/>
+      <c r="AJS100" s="6"/>
+      <c r="AJT100" s="6"/>
+      <c r="AJU100" s="6"/>
+      <c r="AJV100" s="6"/>
+      <c r="AJW100" s="6"/>
+      <c r="AJX100" s="6"/>
+      <c r="AJY100" s="6"/>
+      <c r="AJZ100" s="6"/>
+      <c r="AKA100" s="6"/>
+      <c r="AKB100" s="6"/>
+      <c r="AKC100" s="6"/>
+      <c r="AKD100" s="6"/>
+      <c r="AKE100" s="6"/>
+      <c r="AKF100" s="6"/>
+      <c r="AKG100" s="6"/>
+      <c r="AKH100" s="6"/>
+      <c r="AKI100" s="6"/>
+      <c r="AKJ100" s="6"/>
+      <c r="AKK100" s="6"/>
+      <c r="AKL100" s="6"/>
+      <c r="AKM100" s="6"/>
+      <c r="AKN100" s="6"/>
+      <c r="AKO100" s="6"/>
+      <c r="AKP100" s="6"/>
+      <c r="AKQ100" s="6"/>
+      <c r="AKR100" s="6"/>
+      <c r="AKS100" s="6"/>
+      <c r="AKT100" s="6"/>
+      <c r="AKU100" s="6"/>
+      <c r="AKV100" s="6"/>
+      <c r="AKW100" s="6"/>
+      <c r="AKX100" s="6"/>
+      <c r="AKY100" s="6"/>
+      <c r="AKZ100" s="6"/>
+      <c r="ALA100" s="6"/>
+      <c r="ALB100" s="6"/>
+      <c r="ALC100" s="6"/>
+      <c r="ALD100" s="6"/>
+      <c r="ALE100" s="6"/>
+      <c r="ALF100" s="6"/>
+      <c r="ALG100" s="6"/>
+      <c r="ALH100" s="6"/>
+      <c r="ALI100" s="6"/>
+      <c r="ALJ100" s="6"/>
+      <c r="ALK100" s="6"/>
+      <c r="ALL100" s="6"/>
+      <c r="ALM100" s="6"/>
+      <c r="ALN100" s="6"/>
+      <c r="ALO100" s="6"/>
+      <c r="ALP100" s="6"/>
+      <c r="ALQ100" s="6"/>
+      <c r="ALR100" s="6"/>
+      <c r="ALS100" s="6"/>
+      <c r="ALT100" s="6"/>
+      <c r="ALU100" s="6"/>
+      <c r="ALV100" s="6"/>
+      <c r="ALW100" s="6"/>
+      <c r="ALX100" s="6"/>
+      <c r="ALY100" s="6"/>
+      <c r="ALZ100" s="6"/>
+      <c r="AMA100" s="6"/>
+      <c r="AMB100" s="6"/>
+      <c r="AMC100" s="6"/>
+      <c r="AMD100" s="6"/>
+      <c r="AME100" s="6"/>
+      <c r="AMF100" s="6"/>
+      <c r="AMG100" s="6"/>
+      <c r="AMH100" s="6"/>
+      <c r="AMI100" s="6"/>
+      <c r="AMJ100" s="6"/>
+      <c r="AMK100" s="6"/>
+      <c r="AML100" s="6"/>
+      <c r="AMM100" s="6"/>
     </row>
-    <row r="101" spans="1:7" ht="102">
-      <c r="A101" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>522</v>
+    <row r="101" spans="1:1027" s="43" customFormat="1" ht="37.25" customHeight="1">
+      <c r="A101" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>650</v>
+      </c>
+      <c r="C101" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>655</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="102">
-      <c r="A102" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="D102" s="15"/>
+    <row r="102" spans="1:1027" s="43" customFormat="1" ht="37.25" customHeight="1">
+      <c r="A102" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>653</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>654</v>
+      </c>
       <c r="E102" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>522</v>
+        <v>656</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="102">
+    <row r="103" spans="1:1027" ht="120">
       <c r="A103" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>594</v>
+        <v>393</v>
+      </c>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15" t="s">
+        <v>612</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>32</v>
@@ -24039,18 +28450,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="102">
+    <row r="104" spans="1:1027" ht="120">
       <c r="A104" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>396</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="D104" s="15"/>
       <c r="E104" s="14" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>32</v>
@@ -24059,58 +28471,58 @@
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="102">
+    <row r="105" spans="1:1027" ht="120">
       <c r="A105" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>597</v>
+        <v>395</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>594</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G105" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="102">
+    <row r="106" spans="1:1027" ht="120">
       <c r="A106" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>598</v>
+        <v>396</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>595</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G106" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="102">
+    <row r="107" spans="1:1027" ht="120">
       <c r="A107" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>17</v>
@@ -24119,18 +28531,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="102">
+    <row r="108" spans="1:1027" ht="105">
       <c r="A108" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>17</v>
@@ -24139,58 +28551,58 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="102">
+    <row r="109" spans="1:1027" ht="120">
       <c r="A109" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>605</v>
+        <v>410</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>32</v>
+        <v>402</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="G109" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="382.5">
+    <row r="110" spans="1:1027" ht="120">
       <c r="A110" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>32</v>
+        <v>403</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="G110" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="127.5">
+    <row r="111" spans="1:1027" ht="120">
       <c r="A111" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>418</v>
+        <v>601</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>32</v>
@@ -24199,18 +28611,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="114.75">
+    <row r="112" spans="1:1027" ht="409.6">
       <c r="A112" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>603</v>
+        <v>412</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>32</v>
@@ -24219,16 +28631,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="102">
-      <c r="A113" s="14"/>
-      <c r="B113" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="C113" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>573</v>
+    <row r="113" spans="1:7" ht="135">
+      <c r="A113" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>418</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>32</v>
@@ -24237,18 +28651,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="395.25">
+    <row r="114" spans="1:7" ht="120">
       <c r="A114" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B114" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="E114" s="30" t="s">
-        <v>572</v>
+        <v>65</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>32</v>
@@ -24257,18 +28671,16 @@
         <v>522</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="127.5">
-      <c r="A115" s="14" t="s">
-        <v>91</v>
-      </c>
+    <row r="115" spans="1:7" ht="120">
+      <c r="A115" s="14"/>
       <c r="B115" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>32</v>
@@ -24277,18 +28689,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="127.5">
+    <row r="116" spans="1:7" ht="409.6">
       <c r="A116" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>564</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>32</v>
@@ -24297,61 +28709,59 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="51.75">
+    <row r="117" spans="1:7" ht="150">
       <c r="A117" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1" t="s">
-        <v>457</v>
+        <v>91</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>602</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G117" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="51.75">
+    <row r="118" spans="1:7" ht="135">
       <c r="A118" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>431</v>
+        <v>91</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>570</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1" t="s">
-        <v>458</v>
+        <v>566</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>571</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G118" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="51.75">
+    <row r="119" spans="1:7" ht="75">
       <c r="A119" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>8</v>
@@ -24360,19 +28770,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="51.75">
+    <row r="120" spans="1:7" ht="75">
       <c r="A120" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>8</v>
@@ -24381,19 +28791,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="51.75">
+    <row r="121" spans="1:7" ht="75">
       <c r="A121" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>8</v>
@@ -24402,61 +28812,61 @@
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="90">
+    <row r="122" spans="1:7" ht="75">
       <c r="A122" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G122" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="115.5">
+    <row r="123" spans="1:7" ht="75">
       <c r="A123" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="90">
+    <row r="124" spans="1:7" ht="105">
       <c r="A124" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>32</v>
@@ -24465,19 +28875,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="51.75">
+    <row r="125" spans="1:7" ht="135">
       <c r="A125" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>32</v>
@@ -24486,19 +28896,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="64.5">
+    <row r="126" spans="1:7" ht="105">
       <c r="A126" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>32</v>
@@ -24507,19 +28917,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="90">
+    <row r="127" spans="1:7" ht="75">
       <c r="A127" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>445</v>
+        <v>438</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>32</v>
@@ -24528,19 +28938,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="383.25">
+    <row r="128" spans="1:7" ht="75">
       <c r="A128" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>446</v>
+        <v>439</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>32</v>
@@ -24549,19 +28959,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="115.5">
+    <row r="129" spans="1:7" ht="105">
       <c r="A129" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>32</v>
@@ -24570,19 +28980,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="102.75">
+    <row r="130" spans="1:7" ht="409.6">
       <c r="A130" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>32</v>
@@ -24591,58 +29001,60 @@
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="64.5">
+    <row r="131" spans="1:7" ht="135">
       <c r="A131" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>425</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G131" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="166.5">
+    <row r="132" spans="1:7" ht="120">
       <c r="A132" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>464</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G132" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="64.5">
+    <row r="133" spans="1:7" ht="75">
       <c r="A133" s="14" t="s">
-        <v>536</v>
+        <v>65</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>17</v>
@@ -24651,18 +29063,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="51">
+    <row r="134" spans="1:7" ht="180">
       <c r="A134" s="14" t="s">
-        <v>536</v>
+        <v>65</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>17</v>
@@ -24671,18 +29083,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="64.5">
+    <row r="135" spans="1:7" ht="75">
       <c r="A135" s="14" t="s">
         <v>536</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>17</v>
@@ -24691,18 +29103,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="51">
+    <row r="136" spans="1:7" ht="75">
       <c r="A136" s="14" t="s">
         <v>536</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>17</v>
@@ -24711,18 +29123,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="51.75">
+    <row r="137" spans="1:7" ht="75">
       <c r="A137" s="14" t="s">
         <v>536</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>17</v>
@@ -24731,18 +29143,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="51">
+    <row r="138" spans="1:7" ht="75">
       <c r="A138" s="14" t="s">
         <v>536</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>17</v>
@@ -24751,18 +29163,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="51">
+    <row r="139" spans="1:7" ht="75">
       <c r="A139" s="14" t="s">
         <v>536</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>17</v>
@@ -24771,18 +29183,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="51">
+    <row r="140" spans="1:7" ht="75">
       <c r="A140" s="14" t="s">
         <v>536</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>17</v>
@@ -24791,19 +29203,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="409.6">
-      <c r="A141" s="1" t="s">
-        <v>537</v>
+    <row r="141" spans="1:7" ht="75">
+      <c r="A141" s="14" t="s">
+        <v>536</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D141" s="1"/>
+        <v>474</v>
+      </c>
       <c r="E141" s="1" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>17</v>
@@ -24812,19 +29223,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="153.75">
-      <c r="A142" s="1" t="s">
-        <v>537</v>
+    <row r="142" spans="1:7" ht="75">
+      <c r="A142" s="14" t="s">
+        <v>536</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D142" s="1"/>
+        <v>475</v>
+      </c>
       <c r="E142" s="1" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>17</v>
@@ -24838,14 +29248,14 @@
         <v>537</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>17</v>
@@ -24854,19 +29264,19 @@
         <v>522</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="77.25">
+    <row r="144" spans="1:7" ht="180">
       <c r="A144" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>17</v>
@@ -24875,40 +29285,40 @@
         <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:1027" ht="383.25">
+    <row r="145" spans="1:1027" ht="409.6">
       <c r="A145" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="146" spans="1:1027" ht="204.75">
+    <row r="146" spans="1:1027" ht="90">
       <c r="A146" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>17</v>
@@ -24917,40 +29327,40 @@
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:1027" ht="115.5">
+    <row r="147" spans="1:1027" ht="409.6">
       <c r="A147" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="148" spans="1:1027" ht="166.5">
+    <row r="148" spans="1:1027" ht="240">
       <c r="A148" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>17</v>
@@ -24959,121 +29369,123 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:1027" ht="76.5">
+    <row r="149" spans="1:1027" ht="135">
       <c r="A149" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="150" spans="1:1027" ht="38.25">
+    <row r="150" spans="1:1027" ht="195">
       <c r="A150" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>607</v>
+        <v>510</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>608</v>
+        <v>504</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>609</v>
+        <v>518</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="151" spans="1:1027" ht="166.5">
+    <row r="151" spans="1:1027" ht="105">
       <c r="A151" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="152" spans="1:1027" ht="51">
+    <row r="152" spans="1:1027" ht="45">
       <c r="A152" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C152" s="28" t="s">
-        <v>524</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G152" s="15" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="153" spans="1:1027" ht="51">
+    <row r="153" spans="1:1027" ht="180">
       <c r="A153" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C153" s="28" t="s">
-        <v>526</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G153" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="1:1027" ht="51">
+    <row r="154" spans="1:1027" ht="75">
       <c r="A154" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>8</v>
@@ -25082,18 +29494,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="155" spans="1:1027" ht="51">
+    <row r="155" spans="1:1027" ht="75">
       <c r="A155" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>526</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>8</v>
@@ -25102,1131 +29514,1131 @@
         <v>522</v>
       </c>
     </row>
-    <row r="156" spans="1:1027" s="42" customFormat="1" ht="39">
-      <c r="A156" s="36"/>
-      <c r="B156" s="37"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="38" t="s">
+    <row r="156" spans="1:1027" ht="75">
+      <c r="A156" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C156" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1027" ht="75">
+      <c r="A157" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1027" s="42" customFormat="1" ht="45">
+      <c r="A158" s="36"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="E156" s="36" t="s">
+      <c r="E158" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="F156" s="36"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="40"/>
-      <c r="L156" s="41"/>
-      <c r="M156" s="36"/>
-      <c r="N156" s="36"/>
-      <c r="O156" s="36"/>
-      <c r="P156" s="36"/>
-      <c r="Q156" s="36"/>
-      <c r="R156" s="36"/>
-      <c r="S156" s="36"/>
-      <c r="T156" s="36"/>
-      <c r="U156" s="36"/>
-      <c r="V156" s="36"/>
-      <c r="W156" s="36"/>
-      <c r="X156" s="36"/>
-      <c r="Y156" s="36"/>
-      <c r="Z156" s="36"/>
-      <c r="AA156" s="36"/>
-      <c r="AB156" s="36"/>
-      <c r="AC156" s="36"/>
-      <c r="AD156" s="36"/>
-      <c r="AE156" s="36"/>
-      <c r="AF156" s="36"/>
-      <c r="AG156" s="36"/>
-      <c r="AH156" s="36"/>
-      <c r="AI156" s="36"/>
-      <c r="AJ156" s="36"/>
-      <c r="AK156" s="36"/>
-      <c r="AL156" s="36"/>
-      <c r="AM156" s="36"/>
-      <c r="AN156" s="36"/>
-      <c r="AO156" s="36"/>
-      <c r="AP156" s="36"/>
-      <c r="AQ156" s="36"/>
-      <c r="AR156" s="36"/>
-      <c r="AS156" s="36"/>
-      <c r="AT156" s="36"/>
-      <c r="AU156" s="36"/>
-      <c r="AV156" s="36"/>
-      <c r="AW156" s="36"/>
-      <c r="AX156" s="36"/>
-      <c r="AY156" s="36"/>
-      <c r="AZ156" s="36"/>
-      <c r="BA156" s="36"/>
-      <c r="BB156" s="36"/>
-      <c r="BC156" s="36"/>
-      <c r="BD156" s="36"/>
-      <c r="BE156" s="36"/>
-      <c r="BF156" s="36"/>
-      <c r="BG156" s="36"/>
-      <c r="BH156" s="36"/>
-      <c r="BI156" s="36"/>
-      <c r="BJ156" s="36"/>
-      <c r="BK156" s="36"/>
-      <c r="BL156" s="36"/>
-      <c r="BM156" s="36"/>
-      <c r="BN156" s="36"/>
-      <c r="BO156" s="36"/>
-      <c r="BP156" s="36"/>
-      <c r="BQ156" s="36"/>
-      <c r="BR156" s="36"/>
-      <c r="BS156" s="36"/>
-      <c r="BT156" s="36"/>
-      <c r="BU156" s="36"/>
-      <c r="BV156" s="36"/>
-      <c r="BW156" s="36"/>
-      <c r="BX156" s="36"/>
-      <c r="BY156" s="36"/>
-      <c r="BZ156" s="36"/>
-      <c r="CA156" s="36"/>
-      <c r="CB156" s="36"/>
-      <c r="CC156" s="36"/>
-      <c r="CD156" s="36"/>
-      <c r="CE156" s="36"/>
-      <c r="CF156" s="36"/>
-      <c r="CG156" s="36"/>
-      <c r="CH156" s="36"/>
-      <c r="CI156" s="36"/>
-      <c r="CJ156" s="36"/>
-      <c r="CK156" s="36"/>
-      <c r="CL156" s="36"/>
-      <c r="CM156" s="36"/>
-      <c r="CN156" s="36"/>
-      <c r="CO156" s="36"/>
-      <c r="CP156" s="36"/>
-      <c r="CQ156" s="36"/>
-      <c r="CR156" s="36"/>
-      <c r="CS156" s="36"/>
-      <c r="CT156" s="36"/>
-      <c r="CU156" s="36"/>
-      <c r="CV156" s="36"/>
-      <c r="CW156" s="36"/>
-      <c r="CX156" s="36"/>
-      <c r="CY156" s="36"/>
-      <c r="CZ156" s="36"/>
-      <c r="DA156" s="36"/>
-      <c r="DB156" s="36"/>
-      <c r="DC156" s="36"/>
-      <c r="DD156" s="36"/>
-      <c r="DE156" s="36"/>
-      <c r="DF156" s="36"/>
-      <c r="DG156" s="36"/>
-      <c r="DH156" s="36"/>
-      <c r="DI156" s="36"/>
-      <c r="DJ156" s="36"/>
-      <c r="DK156" s="36"/>
-      <c r="DL156" s="36"/>
-      <c r="DM156" s="36"/>
-      <c r="DN156" s="36"/>
-      <c r="DO156" s="36"/>
-      <c r="DP156" s="36"/>
-      <c r="DQ156" s="36"/>
-      <c r="DR156" s="36"/>
-      <c r="DS156" s="36"/>
-      <c r="DT156" s="36"/>
-      <c r="DU156" s="36"/>
-      <c r="DV156" s="36"/>
-      <c r="DW156" s="36"/>
-      <c r="DX156" s="36"/>
-      <c r="DY156" s="36"/>
-      <c r="DZ156" s="36"/>
-      <c r="EA156" s="36"/>
-      <c r="EB156" s="36"/>
-      <c r="EC156" s="36"/>
-      <c r="ED156" s="36"/>
-      <c r="EE156" s="36"/>
-      <c r="EF156" s="36"/>
-      <c r="EG156" s="36"/>
-      <c r="EH156" s="36"/>
-      <c r="EI156" s="36"/>
-      <c r="EJ156" s="36"/>
-      <c r="EK156" s="36"/>
-      <c r="EL156" s="36"/>
-      <c r="EM156" s="36"/>
-      <c r="EN156" s="36"/>
-      <c r="EO156" s="36"/>
-      <c r="EP156" s="36"/>
-      <c r="EQ156" s="36"/>
-      <c r="ER156" s="36"/>
-      <c r="ES156" s="36"/>
-      <c r="ET156" s="36"/>
-      <c r="EU156" s="36"/>
-      <c r="EV156" s="36"/>
-      <c r="EW156" s="36"/>
-      <c r="EX156" s="36"/>
-      <c r="EY156" s="36"/>
-      <c r="EZ156" s="36"/>
-      <c r="FA156" s="36"/>
-      <c r="FB156" s="36"/>
-      <c r="FC156" s="36"/>
-      <c r="FD156" s="36"/>
-      <c r="FE156" s="36"/>
-      <c r="FF156" s="36"/>
-      <c r="FG156" s="36"/>
-      <c r="FH156" s="36"/>
-      <c r="FI156" s="36"/>
-      <c r="FJ156" s="36"/>
-      <c r="FK156" s="36"/>
-      <c r="FL156" s="36"/>
-      <c r="FM156" s="36"/>
-      <c r="FN156" s="36"/>
-      <c r="FO156" s="36"/>
-      <c r="FP156" s="36"/>
-      <c r="FQ156" s="36"/>
-      <c r="FR156" s="36"/>
-      <c r="FS156" s="36"/>
-      <c r="FT156" s="36"/>
-      <c r="FU156" s="36"/>
-      <c r="FV156" s="36"/>
-      <c r="FW156" s="36"/>
-      <c r="FX156" s="36"/>
-      <c r="FY156" s="36"/>
-      <c r="FZ156" s="36"/>
-      <c r="GA156" s="36"/>
-      <c r="GB156" s="36"/>
-      <c r="GC156" s="36"/>
-      <c r="GD156" s="36"/>
-      <c r="GE156" s="36"/>
-      <c r="GF156" s="36"/>
-      <c r="GG156" s="36"/>
-      <c r="GH156" s="36"/>
-      <c r="GI156" s="36"/>
-      <c r="GJ156" s="36"/>
-      <c r="GK156" s="36"/>
-      <c r="GL156" s="36"/>
-      <c r="GM156" s="36"/>
-      <c r="GN156" s="36"/>
-      <c r="GO156" s="36"/>
-      <c r="GP156" s="36"/>
-      <c r="GQ156" s="36"/>
-      <c r="GR156" s="36"/>
-      <c r="GS156" s="36"/>
-      <c r="GT156" s="36"/>
-      <c r="GU156" s="36"/>
-      <c r="GV156" s="36"/>
-      <c r="GW156" s="36"/>
-      <c r="GX156" s="36"/>
-      <c r="GY156" s="36"/>
-      <c r="GZ156" s="36"/>
-      <c r="HA156" s="36"/>
-      <c r="HB156" s="36"/>
-      <c r="HC156" s="36"/>
-      <c r="HD156" s="36"/>
-      <c r="HE156" s="36"/>
-      <c r="HF156" s="36"/>
-      <c r="HG156" s="36"/>
-      <c r="HH156" s="36"/>
-      <c r="HI156" s="36"/>
-      <c r="HJ156" s="36"/>
-      <c r="HK156" s="36"/>
-      <c r="HL156" s="36"/>
-      <c r="HM156" s="36"/>
-      <c r="HN156" s="36"/>
-      <c r="HO156" s="36"/>
-      <c r="HP156" s="36"/>
-      <c r="HQ156" s="36"/>
-      <c r="HR156" s="36"/>
-      <c r="HS156" s="36"/>
-      <c r="HT156" s="36"/>
-      <c r="HU156" s="36"/>
-      <c r="HV156" s="36"/>
-      <c r="HW156" s="36"/>
-      <c r="HX156" s="36"/>
-      <c r="HY156" s="36"/>
-      <c r="HZ156" s="36"/>
-      <c r="IA156" s="36"/>
-      <c r="IB156" s="36"/>
-      <c r="IC156" s="36"/>
-      <c r="ID156" s="36"/>
-      <c r="IE156" s="36"/>
-      <c r="IF156" s="36"/>
-      <c r="IG156" s="36"/>
-      <c r="IH156" s="36"/>
-      <c r="II156" s="36"/>
-      <c r="IJ156" s="36"/>
-      <c r="IK156" s="36"/>
-      <c r="IL156" s="36"/>
-      <c r="IM156" s="36"/>
-      <c r="IN156" s="36"/>
-      <c r="IO156" s="36"/>
-      <c r="IP156" s="36"/>
-      <c r="IQ156" s="36"/>
-      <c r="IR156" s="36"/>
-      <c r="IS156" s="36"/>
-      <c r="IT156" s="36"/>
-      <c r="IU156" s="36"/>
-      <c r="IV156" s="36"/>
-      <c r="IW156" s="36"/>
-      <c r="IX156" s="36"/>
-      <c r="IY156" s="36"/>
-      <c r="IZ156" s="36"/>
-      <c r="JA156" s="36"/>
-      <c r="JB156" s="36"/>
-      <c r="JC156" s="36"/>
-      <c r="JD156" s="36"/>
-      <c r="JE156" s="36"/>
-      <c r="JF156" s="36"/>
-      <c r="JG156" s="36"/>
-      <c r="JH156" s="36"/>
-      <c r="JI156" s="36"/>
-      <c r="JJ156" s="36"/>
-      <c r="JK156" s="36"/>
-      <c r="JL156" s="36"/>
-      <c r="JM156" s="36"/>
-      <c r="JN156" s="36"/>
-      <c r="JO156" s="36"/>
-      <c r="JP156" s="36"/>
-      <c r="JQ156" s="36"/>
-      <c r="JR156" s="36"/>
-      <c r="JS156" s="36"/>
-      <c r="JT156" s="36"/>
-      <c r="JU156" s="36"/>
-      <c r="JV156" s="36"/>
-      <c r="JW156" s="36"/>
-      <c r="JX156" s="36"/>
-      <c r="JY156" s="36"/>
-      <c r="JZ156" s="36"/>
-      <c r="KA156" s="36"/>
-      <c r="KB156" s="36"/>
-      <c r="KC156" s="36"/>
-      <c r="KD156" s="36"/>
-      <c r="KE156" s="36"/>
-      <c r="KF156" s="36"/>
-      <c r="KG156" s="36"/>
-      <c r="KH156" s="36"/>
-      <c r="KI156" s="36"/>
-      <c r="KJ156" s="36"/>
-      <c r="KK156" s="36"/>
-      <c r="KL156" s="36"/>
-      <c r="KM156" s="36"/>
-      <c r="KN156" s="36"/>
-      <c r="KO156" s="36"/>
-      <c r="KP156" s="36"/>
-      <c r="KQ156" s="36"/>
-      <c r="KR156" s="36"/>
-      <c r="KS156" s="36"/>
-      <c r="KT156" s="36"/>
-      <c r="KU156" s="36"/>
-      <c r="KV156" s="36"/>
-      <c r="KW156" s="36"/>
-      <c r="KX156" s="36"/>
-      <c r="KY156" s="36"/>
-      <c r="KZ156" s="36"/>
-      <c r="LA156" s="36"/>
-      <c r="LB156" s="36"/>
-      <c r="LC156" s="36"/>
-      <c r="LD156" s="36"/>
-      <c r="LE156" s="36"/>
-      <c r="LF156" s="36"/>
-      <c r="LG156" s="36"/>
-      <c r="LH156" s="36"/>
-      <c r="LI156" s="36"/>
-      <c r="LJ156" s="36"/>
-      <c r="LK156" s="36"/>
-      <c r="LL156" s="36"/>
-      <c r="LM156" s="36"/>
-      <c r="LN156" s="36"/>
-      <c r="LO156" s="36"/>
-      <c r="LP156" s="36"/>
-      <c r="LQ156" s="36"/>
-      <c r="LR156" s="36"/>
-      <c r="LS156" s="36"/>
-      <c r="LT156" s="36"/>
-      <c r="LU156" s="36"/>
-      <c r="LV156" s="36"/>
-      <c r="LW156" s="36"/>
-      <c r="LX156" s="36"/>
-      <c r="LY156" s="36"/>
-      <c r="LZ156" s="36"/>
-      <c r="MA156" s="36"/>
-      <c r="MB156" s="36"/>
-      <c r="MC156" s="36"/>
-      <c r="MD156" s="36"/>
-      <c r="ME156" s="36"/>
-      <c r="MF156" s="36"/>
-      <c r="MG156" s="36"/>
-      <c r="MH156" s="36"/>
-      <c r="MI156" s="36"/>
-      <c r="MJ156" s="36"/>
-      <c r="MK156" s="36"/>
-      <c r="ML156" s="36"/>
-      <c r="MM156" s="36"/>
-      <c r="MN156" s="36"/>
-      <c r="MO156" s="36"/>
-      <c r="MP156" s="36"/>
-      <c r="MQ156" s="36"/>
-      <c r="MR156" s="36"/>
-      <c r="MS156" s="36"/>
-      <c r="MT156" s="36"/>
-      <c r="MU156" s="36"/>
-      <c r="MV156" s="36"/>
-      <c r="MW156" s="36"/>
-      <c r="MX156" s="36"/>
-      <c r="MY156" s="36"/>
-      <c r="MZ156" s="36"/>
-      <c r="NA156" s="36"/>
-      <c r="NB156" s="36"/>
-      <c r="NC156" s="36"/>
-      <c r="ND156" s="36"/>
-      <c r="NE156" s="36"/>
-      <c r="NF156" s="36"/>
-      <c r="NG156" s="36"/>
-      <c r="NH156" s="36"/>
-      <c r="NI156" s="36"/>
-      <c r="NJ156" s="36"/>
-      <c r="NK156" s="36"/>
-      <c r="NL156" s="36"/>
-      <c r="NM156" s="36"/>
-      <c r="NN156" s="36"/>
-      <c r="NO156" s="36"/>
-      <c r="NP156" s="36"/>
-      <c r="NQ156" s="36"/>
-      <c r="NR156" s="36"/>
-      <c r="NS156" s="36"/>
-      <c r="NT156" s="36"/>
-      <c r="NU156" s="36"/>
-      <c r="NV156" s="36"/>
-      <c r="NW156" s="36"/>
-      <c r="NX156" s="36"/>
-      <c r="NY156" s="36"/>
-      <c r="NZ156" s="36"/>
-      <c r="OA156" s="36"/>
-      <c r="OB156" s="36"/>
-      <c r="OC156" s="36"/>
-      <c r="OD156" s="36"/>
-      <c r="OE156" s="36"/>
-      <c r="OF156" s="36"/>
-      <c r="OG156" s="36"/>
-      <c r="OH156" s="36"/>
-      <c r="OI156" s="36"/>
-      <c r="OJ156" s="36"/>
-      <c r="OK156" s="36"/>
-      <c r="OL156" s="36"/>
-      <c r="OM156" s="36"/>
-      <c r="ON156" s="36"/>
-      <c r="OO156" s="36"/>
-      <c r="OP156" s="36"/>
-      <c r="OQ156" s="36"/>
-      <c r="OR156" s="36"/>
-      <c r="OS156" s="36"/>
-      <c r="OT156" s="36"/>
-      <c r="OU156" s="36"/>
-      <c r="OV156" s="36"/>
-      <c r="OW156" s="36"/>
-      <c r="OX156" s="36"/>
-      <c r="OY156" s="36"/>
-      <c r="OZ156" s="36"/>
-      <c r="PA156" s="36"/>
-      <c r="PB156" s="36"/>
-      <c r="PC156" s="36"/>
-      <c r="PD156" s="36"/>
-      <c r="PE156" s="36"/>
-      <c r="PF156" s="36"/>
-      <c r="PG156" s="36"/>
-      <c r="PH156" s="36"/>
-      <c r="PI156" s="36"/>
-      <c r="PJ156" s="36"/>
-      <c r="PK156" s="36"/>
-      <c r="PL156" s="36"/>
-      <c r="PM156" s="36"/>
-      <c r="PN156" s="36"/>
-      <c r="PO156" s="36"/>
-      <c r="PP156" s="36"/>
-      <c r="PQ156" s="36"/>
-      <c r="PR156" s="36"/>
-      <c r="PS156" s="36"/>
-      <c r="PT156" s="36"/>
-      <c r="PU156" s="36"/>
-      <c r="PV156" s="36"/>
-      <c r="PW156" s="36"/>
-      <c r="PX156" s="36"/>
-      <c r="PY156" s="36"/>
-      <c r="PZ156" s="36"/>
-      <c r="QA156" s="36"/>
-      <c r="QB156" s="36"/>
-      <c r="QC156" s="36"/>
-      <c r="QD156" s="36"/>
-      <c r="QE156" s="36"/>
-      <c r="QF156" s="36"/>
-      <c r="QG156" s="36"/>
-      <c r="QH156" s="36"/>
-      <c r="QI156" s="36"/>
-      <c r="QJ156" s="36"/>
-      <c r="QK156" s="36"/>
-      <c r="QL156" s="36"/>
-      <c r="QM156" s="36"/>
-      <c r="QN156" s="36"/>
-      <c r="QO156" s="36"/>
-      <c r="QP156" s="36"/>
-      <c r="QQ156" s="36"/>
-      <c r="QR156" s="36"/>
-      <c r="QS156" s="36"/>
-      <c r="QT156" s="36"/>
-      <c r="QU156" s="36"/>
-      <c r="QV156" s="36"/>
-      <c r="QW156" s="36"/>
-      <c r="QX156" s="36"/>
-      <c r="QY156" s="36"/>
-      <c r="QZ156" s="36"/>
-      <c r="RA156" s="36"/>
-      <c r="RB156" s="36"/>
-      <c r="RC156" s="36"/>
-      <c r="RD156" s="36"/>
-      <c r="RE156" s="36"/>
-      <c r="RF156" s="36"/>
-      <c r="RG156" s="36"/>
-      <c r="RH156" s="36"/>
-      <c r="RI156" s="36"/>
-      <c r="RJ156" s="36"/>
-      <c r="RK156" s="36"/>
-      <c r="RL156" s="36"/>
-      <c r="RM156" s="36"/>
-      <c r="RN156" s="36"/>
-      <c r="RO156" s="36"/>
-      <c r="RP156" s="36"/>
-      <c r="RQ156" s="36"/>
-      <c r="RR156" s="36"/>
-      <c r="RS156" s="36"/>
-      <c r="RT156" s="36"/>
-      <c r="RU156" s="36"/>
-      <c r="RV156" s="36"/>
-      <c r="RW156" s="36"/>
-      <c r="RX156" s="36"/>
-      <c r="RY156" s="36"/>
-      <c r="RZ156" s="36"/>
-      <c r="SA156" s="36"/>
-      <c r="SB156" s="36"/>
-      <c r="SC156" s="36"/>
-      <c r="SD156" s="36"/>
-      <c r="SE156" s="36"/>
-      <c r="SF156" s="36"/>
-      <c r="SG156" s="36"/>
-      <c r="SH156" s="36"/>
-      <c r="SI156" s="36"/>
-      <c r="SJ156" s="36"/>
-      <c r="SK156" s="36"/>
-      <c r="SL156" s="36"/>
-      <c r="SM156" s="36"/>
-      <c r="SN156" s="36"/>
-      <c r="SO156" s="36"/>
-      <c r="SP156" s="36"/>
-      <c r="SQ156" s="36"/>
-      <c r="SR156" s="36"/>
-      <c r="SS156" s="36"/>
-      <c r="ST156" s="36"/>
-      <c r="SU156" s="36"/>
-      <c r="SV156" s="36"/>
-      <c r="SW156" s="36"/>
-      <c r="SX156" s="36"/>
-      <c r="SY156" s="36"/>
-      <c r="SZ156" s="36"/>
-      <c r="TA156" s="36"/>
-      <c r="TB156" s="36"/>
-      <c r="TC156" s="36"/>
-      <c r="TD156" s="36"/>
-      <c r="TE156" s="36"/>
-      <c r="TF156" s="36"/>
-      <c r="TG156" s="36"/>
-      <c r="TH156" s="36"/>
-      <c r="TI156" s="36"/>
-      <c r="TJ156" s="36"/>
-      <c r="TK156" s="36"/>
-      <c r="TL156" s="36"/>
-      <c r="TM156" s="36"/>
-      <c r="TN156" s="36"/>
-      <c r="TO156" s="36"/>
-      <c r="TP156" s="36"/>
-      <c r="TQ156" s="36"/>
-      <c r="TR156" s="36"/>
-      <c r="TS156" s="36"/>
-      <c r="TT156" s="36"/>
-      <c r="TU156" s="36"/>
-      <c r="TV156" s="36"/>
-      <c r="TW156" s="36"/>
-      <c r="TX156" s="36"/>
-      <c r="TY156" s="36"/>
-      <c r="TZ156" s="36"/>
-      <c r="UA156" s="36"/>
-      <c r="UB156" s="36"/>
-      <c r="UC156" s="36"/>
-      <c r="UD156" s="36"/>
-      <c r="UE156" s="36"/>
-      <c r="UF156" s="36"/>
-      <c r="UG156" s="36"/>
-      <c r="UH156" s="36"/>
-      <c r="UI156" s="36"/>
-      <c r="UJ156" s="36"/>
-      <c r="UK156" s="36"/>
-      <c r="UL156" s="36"/>
-      <c r="UM156" s="36"/>
-      <c r="UN156" s="36"/>
-      <c r="UO156" s="36"/>
-      <c r="UP156" s="36"/>
-      <c r="UQ156" s="36"/>
-      <c r="UR156" s="36"/>
-      <c r="US156" s="36"/>
-      <c r="UT156" s="36"/>
-      <c r="UU156" s="36"/>
-      <c r="UV156" s="36"/>
-      <c r="UW156" s="36"/>
-      <c r="UX156" s="36"/>
-      <c r="UY156" s="36"/>
-      <c r="UZ156" s="36"/>
-      <c r="VA156" s="36"/>
-      <c r="VB156" s="36"/>
-      <c r="VC156" s="36"/>
-      <c r="VD156" s="36"/>
-      <c r="VE156" s="36"/>
-      <c r="VF156" s="36"/>
-      <c r="VG156" s="36"/>
-      <c r="VH156" s="36"/>
-      <c r="VI156" s="36"/>
-      <c r="VJ156" s="36"/>
-      <c r="VK156" s="36"/>
-      <c r="VL156" s="36"/>
-      <c r="VM156" s="36"/>
-      <c r="VN156" s="36"/>
-      <c r="VO156" s="36"/>
-      <c r="VP156" s="36"/>
-      <c r="VQ156" s="36"/>
-      <c r="VR156" s="36"/>
-      <c r="VS156" s="36"/>
-      <c r="VT156" s="36"/>
-      <c r="VU156" s="36"/>
-      <c r="VV156" s="36"/>
-      <c r="VW156" s="36"/>
-      <c r="VX156" s="36"/>
-      <c r="VY156" s="36"/>
-      <c r="VZ156" s="36"/>
-      <c r="WA156" s="36"/>
-      <c r="WB156" s="36"/>
-      <c r="WC156" s="36"/>
-      <c r="WD156" s="36"/>
-      <c r="WE156" s="36"/>
-      <c r="WF156" s="36"/>
-      <c r="WG156" s="36"/>
-      <c r="WH156" s="36"/>
-      <c r="WI156" s="36"/>
-      <c r="WJ156" s="36"/>
-      <c r="WK156" s="36"/>
-      <c r="WL156" s="36"/>
-      <c r="WM156" s="36"/>
-      <c r="WN156" s="36"/>
-      <c r="WO156" s="36"/>
-      <c r="WP156" s="36"/>
-      <c r="WQ156" s="36"/>
-      <c r="WR156" s="36"/>
-      <c r="WS156" s="36"/>
-      <c r="WT156" s="36"/>
-      <c r="WU156" s="36"/>
-      <c r="WV156" s="36"/>
-      <c r="WW156" s="36"/>
-      <c r="WX156" s="36"/>
-      <c r="WY156" s="36"/>
-      <c r="WZ156" s="36"/>
-      <c r="XA156" s="36"/>
-      <c r="XB156" s="36"/>
-      <c r="XC156" s="36"/>
-      <c r="XD156" s="36"/>
-      <c r="XE156" s="36"/>
-      <c r="XF156" s="36"/>
-      <c r="XG156" s="36"/>
-      <c r="XH156" s="36"/>
-      <c r="XI156" s="36"/>
-      <c r="XJ156" s="36"/>
-      <c r="XK156" s="36"/>
-      <c r="XL156" s="36"/>
-      <c r="XM156" s="36"/>
-      <c r="XN156" s="36"/>
-      <c r="XO156" s="36"/>
-      <c r="XP156" s="36"/>
-      <c r="XQ156" s="36"/>
-      <c r="XR156" s="36"/>
-      <c r="XS156" s="36"/>
-      <c r="XT156" s="36"/>
-      <c r="XU156" s="36"/>
-      <c r="XV156" s="36"/>
-      <c r="XW156" s="36"/>
-      <c r="XX156" s="36"/>
-      <c r="XY156" s="36"/>
-      <c r="XZ156" s="36"/>
-      <c r="YA156" s="36"/>
-      <c r="YB156" s="36"/>
-      <c r="YC156" s="36"/>
-      <c r="YD156" s="36"/>
-      <c r="YE156" s="36"/>
-      <c r="YF156" s="36"/>
-      <c r="YG156" s="36"/>
-      <c r="YH156" s="36"/>
-      <c r="YI156" s="36"/>
-      <c r="YJ156" s="36"/>
-      <c r="YK156" s="36"/>
-      <c r="YL156" s="36"/>
-      <c r="YM156" s="36"/>
-      <c r="YN156" s="36"/>
-      <c r="YO156" s="36"/>
-      <c r="YP156" s="36"/>
-      <c r="YQ156" s="36"/>
-      <c r="YR156" s="36"/>
-      <c r="YS156" s="36"/>
-      <c r="YT156" s="36"/>
-      <c r="YU156" s="36"/>
-      <c r="YV156" s="36"/>
-      <c r="YW156" s="36"/>
-      <c r="YX156" s="36"/>
-      <c r="YY156" s="36"/>
-      <c r="YZ156" s="36"/>
-      <c r="ZA156" s="36"/>
-      <c r="ZB156" s="36"/>
-      <c r="ZC156" s="36"/>
-      <c r="ZD156" s="36"/>
-      <c r="ZE156" s="36"/>
-      <c r="ZF156" s="36"/>
-      <c r="ZG156" s="36"/>
-      <c r="ZH156" s="36"/>
-      <c r="ZI156" s="36"/>
-      <c r="ZJ156" s="36"/>
-      <c r="ZK156" s="36"/>
-      <c r="ZL156" s="36"/>
-      <c r="ZM156" s="36"/>
-      <c r="ZN156" s="36"/>
-      <c r="ZO156" s="36"/>
-      <c r="ZP156" s="36"/>
-      <c r="ZQ156" s="36"/>
-      <c r="ZR156" s="36"/>
-      <c r="ZS156" s="36"/>
-      <c r="ZT156" s="36"/>
-      <c r="ZU156" s="36"/>
-      <c r="ZV156" s="36"/>
-      <c r="ZW156" s="36"/>
-      <c r="ZX156" s="36"/>
-      <c r="ZY156" s="36"/>
-      <c r="ZZ156" s="36"/>
-      <c r="AAA156" s="36"/>
-      <c r="AAB156" s="36"/>
-      <c r="AAC156" s="36"/>
-      <c r="AAD156" s="36"/>
-      <c r="AAE156" s="36"/>
-      <c r="AAF156" s="36"/>
-      <c r="AAG156" s="36"/>
-      <c r="AAH156" s="36"/>
-      <c r="AAI156" s="36"/>
-      <c r="AAJ156" s="36"/>
-      <c r="AAK156" s="36"/>
-      <c r="AAL156" s="36"/>
-      <c r="AAM156" s="36"/>
-      <c r="AAN156" s="36"/>
-      <c r="AAO156" s="36"/>
-      <c r="AAP156" s="36"/>
-      <c r="AAQ156" s="36"/>
-      <c r="AAR156" s="36"/>
-      <c r="AAS156" s="36"/>
-      <c r="AAT156" s="36"/>
-      <c r="AAU156" s="36"/>
-      <c r="AAV156" s="36"/>
-      <c r="AAW156" s="36"/>
-      <c r="AAX156" s="36"/>
-      <c r="AAY156" s="36"/>
-      <c r="AAZ156" s="36"/>
-      <c r="ABA156" s="36"/>
-      <c r="ABB156" s="36"/>
-      <c r="ABC156" s="36"/>
-      <c r="ABD156" s="36"/>
-      <c r="ABE156" s="36"/>
-      <c r="ABF156" s="36"/>
-      <c r="ABG156" s="36"/>
-      <c r="ABH156" s="36"/>
-      <c r="ABI156" s="36"/>
-      <c r="ABJ156" s="36"/>
-      <c r="ABK156" s="36"/>
-      <c r="ABL156" s="36"/>
-      <c r="ABM156" s="36"/>
-      <c r="ABN156" s="36"/>
-      <c r="ABO156" s="36"/>
-      <c r="ABP156" s="36"/>
-      <c r="ABQ156" s="36"/>
-      <c r="ABR156" s="36"/>
-      <c r="ABS156" s="36"/>
-      <c r="ABT156" s="36"/>
-      <c r="ABU156" s="36"/>
-      <c r="ABV156" s="36"/>
-      <c r="ABW156" s="36"/>
-      <c r="ABX156" s="36"/>
-      <c r="ABY156" s="36"/>
-      <c r="ABZ156" s="36"/>
-      <c r="ACA156" s="36"/>
-      <c r="ACB156" s="36"/>
-      <c r="ACC156" s="36"/>
-      <c r="ACD156" s="36"/>
-      <c r="ACE156" s="36"/>
-      <c r="ACF156" s="36"/>
-      <c r="ACG156" s="36"/>
-      <c r="ACH156" s="36"/>
-      <c r="ACI156" s="36"/>
-      <c r="ACJ156" s="36"/>
-      <c r="ACK156" s="36"/>
-      <c r="ACL156" s="36"/>
-      <c r="ACM156" s="36"/>
-      <c r="ACN156" s="36"/>
-      <c r="ACO156" s="36"/>
-      <c r="ACP156" s="36"/>
-      <c r="ACQ156" s="36"/>
-      <c r="ACR156" s="36"/>
-      <c r="ACS156" s="36"/>
-      <c r="ACT156" s="36"/>
-      <c r="ACU156" s="36"/>
-      <c r="ACV156" s="36"/>
-      <c r="ACW156" s="36"/>
-      <c r="ACX156" s="36"/>
-      <c r="ACY156" s="36"/>
-      <c r="ACZ156" s="36"/>
-      <c r="ADA156" s="36"/>
-      <c r="ADB156" s="36"/>
-      <c r="ADC156" s="36"/>
-      <c r="ADD156" s="36"/>
-      <c r="ADE156" s="36"/>
-      <c r="ADF156" s="36"/>
-      <c r="ADG156" s="36"/>
-      <c r="ADH156" s="36"/>
-      <c r="ADI156" s="36"/>
-      <c r="ADJ156" s="36"/>
-      <c r="ADK156" s="36"/>
-      <c r="ADL156" s="36"/>
-      <c r="ADM156" s="36"/>
-      <c r="ADN156" s="36"/>
-      <c r="ADO156" s="36"/>
-      <c r="ADP156" s="36"/>
-      <c r="ADQ156" s="36"/>
-      <c r="ADR156" s="36"/>
-      <c r="ADS156" s="36"/>
-      <c r="ADT156" s="36"/>
-      <c r="ADU156" s="36"/>
-      <c r="ADV156" s="36"/>
-      <c r="ADW156" s="36"/>
-      <c r="ADX156" s="36"/>
-      <c r="ADY156" s="36"/>
-      <c r="ADZ156" s="36"/>
-      <c r="AEA156" s="36"/>
-      <c r="AEB156" s="36"/>
-      <c r="AEC156" s="36"/>
-      <c r="AED156" s="36"/>
-      <c r="AEE156" s="36"/>
-      <c r="AEF156" s="36"/>
-      <c r="AEG156" s="36"/>
-      <c r="AEH156" s="36"/>
-      <c r="AEI156" s="36"/>
-      <c r="AEJ156" s="36"/>
-      <c r="AEK156" s="36"/>
-      <c r="AEL156" s="36"/>
-      <c r="AEM156" s="36"/>
-      <c r="AEN156" s="36"/>
-      <c r="AEO156" s="36"/>
-      <c r="AEP156" s="36"/>
-      <c r="AEQ156" s="36"/>
-      <c r="AER156" s="36"/>
-      <c r="AES156" s="36"/>
-      <c r="AET156" s="36"/>
-      <c r="AEU156" s="36"/>
-      <c r="AEV156" s="36"/>
-      <c r="AEW156" s="36"/>
-      <c r="AEX156" s="36"/>
-      <c r="AEY156" s="36"/>
-      <c r="AEZ156" s="36"/>
-      <c r="AFA156" s="36"/>
-      <c r="AFB156" s="36"/>
-      <c r="AFC156" s="36"/>
-      <c r="AFD156" s="36"/>
-      <c r="AFE156" s="36"/>
-      <c r="AFF156" s="36"/>
-      <c r="AFG156" s="36"/>
-      <c r="AFH156" s="36"/>
-      <c r="AFI156" s="36"/>
-      <c r="AFJ156" s="36"/>
-      <c r="AFK156" s="36"/>
-      <c r="AFL156" s="36"/>
-      <c r="AFM156" s="36"/>
-      <c r="AFN156" s="36"/>
-      <c r="AFO156" s="36"/>
-      <c r="AFP156" s="36"/>
-      <c r="AFQ156" s="36"/>
-      <c r="AFR156" s="36"/>
-      <c r="AFS156" s="36"/>
-      <c r="AFT156" s="36"/>
-      <c r="AFU156" s="36"/>
-      <c r="AFV156" s="36"/>
-      <c r="AFW156" s="36"/>
-      <c r="AFX156" s="36"/>
-      <c r="AFY156" s="36"/>
-      <c r="AFZ156" s="36"/>
-      <c r="AGA156" s="36"/>
-      <c r="AGB156" s="36"/>
-      <c r="AGC156" s="36"/>
-      <c r="AGD156" s="36"/>
-      <c r="AGE156" s="36"/>
-      <c r="AGF156" s="36"/>
-      <c r="AGG156" s="36"/>
-      <c r="AGH156" s="36"/>
-      <c r="AGI156" s="36"/>
-      <c r="AGJ156" s="36"/>
-      <c r="AGK156" s="36"/>
-      <c r="AGL156" s="36"/>
-      <c r="AGM156" s="36"/>
-      <c r="AGN156" s="36"/>
-      <c r="AGO156" s="36"/>
-      <c r="AGP156" s="36"/>
-      <c r="AGQ156" s="36"/>
-      <c r="AGR156" s="36"/>
-      <c r="AGS156" s="36"/>
-      <c r="AGT156" s="36"/>
-      <c r="AGU156" s="36"/>
-      <c r="AGV156" s="36"/>
-      <c r="AGW156" s="36"/>
-      <c r="AGX156" s="36"/>
-      <c r="AGY156" s="36"/>
-      <c r="AGZ156" s="36"/>
-      <c r="AHA156" s="36"/>
-      <c r="AHB156" s="36"/>
-      <c r="AHC156" s="36"/>
-      <c r="AHD156" s="36"/>
-      <c r="AHE156" s="36"/>
-      <c r="AHF156" s="36"/>
-      <c r="AHG156" s="36"/>
-      <c r="AHH156" s="36"/>
-      <c r="AHI156" s="36"/>
-      <c r="AHJ156" s="36"/>
-      <c r="AHK156" s="36"/>
-      <c r="AHL156" s="36"/>
-      <c r="AHM156" s="36"/>
-      <c r="AHN156" s="36"/>
-      <c r="AHO156" s="36"/>
-      <c r="AHP156" s="36"/>
-      <c r="AHQ156" s="36"/>
-      <c r="AHR156" s="36"/>
-      <c r="AHS156" s="36"/>
-      <c r="AHT156" s="36"/>
-      <c r="AHU156" s="36"/>
-      <c r="AHV156" s="36"/>
-      <c r="AHW156" s="36"/>
-      <c r="AHX156" s="36"/>
-      <c r="AHY156" s="36"/>
-      <c r="AHZ156" s="36"/>
-      <c r="AIA156" s="36"/>
-      <c r="AIB156" s="36"/>
-      <c r="AIC156" s="36"/>
-      <c r="AID156" s="36"/>
-      <c r="AIE156" s="36"/>
-      <c r="AIF156" s="36"/>
-      <c r="AIG156" s="36"/>
-      <c r="AIH156" s="36"/>
-      <c r="AII156" s="36"/>
-      <c r="AIJ156" s="36"/>
-      <c r="AIK156" s="36"/>
-      <c r="AIL156" s="36"/>
-      <c r="AIM156" s="36"/>
-      <c r="AIN156" s="36"/>
-      <c r="AIO156" s="36"/>
-      <c r="AIP156" s="36"/>
-      <c r="AIQ156" s="36"/>
-      <c r="AIR156" s="36"/>
-      <c r="AIS156" s="36"/>
-      <c r="AIT156" s="36"/>
-      <c r="AIU156" s="36"/>
-      <c r="AIV156" s="36"/>
-      <c r="AIW156" s="36"/>
-      <c r="AIX156" s="36"/>
-      <c r="AIY156" s="36"/>
-      <c r="AIZ156" s="36"/>
-      <c r="AJA156" s="36"/>
-      <c r="AJB156" s="36"/>
-      <c r="AJC156" s="36"/>
-      <c r="AJD156" s="36"/>
-      <c r="AJE156" s="36"/>
-      <c r="AJF156" s="36"/>
-      <c r="AJG156" s="36"/>
-      <c r="AJH156" s="36"/>
-      <c r="AJI156" s="36"/>
-      <c r="AJJ156" s="36"/>
-      <c r="AJK156" s="36"/>
-      <c r="AJL156" s="36"/>
-      <c r="AJM156" s="36"/>
-      <c r="AJN156" s="36"/>
-      <c r="AJO156" s="36"/>
-      <c r="AJP156" s="36"/>
-      <c r="AJQ156" s="36"/>
-      <c r="AJR156" s="36"/>
-      <c r="AJS156" s="36"/>
-      <c r="AJT156" s="36"/>
-      <c r="AJU156" s="36"/>
-      <c r="AJV156" s="36"/>
-      <c r="AJW156" s="36"/>
-      <c r="AJX156" s="36"/>
-      <c r="AJY156" s="36"/>
-      <c r="AJZ156" s="36"/>
-      <c r="AKA156" s="36"/>
-      <c r="AKB156" s="36"/>
-      <c r="AKC156" s="36"/>
-      <c r="AKD156" s="36"/>
-      <c r="AKE156" s="36"/>
-      <c r="AKF156" s="36"/>
-      <c r="AKG156" s="36"/>
-      <c r="AKH156" s="36"/>
-      <c r="AKI156" s="36"/>
-      <c r="AKJ156" s="36"/>
-      <c r="AKK156" s="36"/>
-      <c r="AKL156" s="36"/>
-      <c r="AKM156" s="36"/>
-      <c r="AKN156" s="36"/>
-      <c r="AKO156" s="36"/>
-      <c r="AKP156" s="36"/>
-      <c r="AKQ156" s="36"/>
-      <c r="AKR156" s="36"/>
-      <c r="AKS156" s="36"/>
-      <c r="AKT156" s="36"/>
-      <c r="AKU156" s="36"/>
-      <c r="AKV156" s="36"/>
-      <c r="AKW156" s="36"/>
-      <c r="AKX156" s="36"/>
-      <c r="AKY156" s="36"/>
-      <c r="AKZ156" s="36"/>
-      <c r="ALA156" s="36"/>
-      <c r="ALB156" s="36"/>
-      <c r="ALC156" s="36"/>
-      <c r="ALD156" s="36"/>
-      <c r="ALE156" s="36"/>
-      <c r="ALF156" s="36"/>
-      <c r="ALG156" s="36"/>
-      <c r="ALH156" s="36"/>
-      <c r="ALI156" s="36"/>
-      <c r="ALJ156" s="36"/>
-      <c r="ALK156" s="36"/>
-      <c r="ALL156" s="36"/>
-      <c r="ALM156" s="36"/>
-      <c r="ALN156" s="36"/>
-      <c r="ALO156" s="36"/>
-      <c r="ALP156" s="36"/>
-      <c r="ALQ156" s="36"/>
-      <c r="ALR156" s="36"/>
-      <c r="ALS156" s="36"/>
-      <c r="ALT156" s="36"/>
-      <c r="ALU156" s="36"/>
-      <c r="ALV156" s="36"/>
-      <c r="ALW156" s="36"/>
-      <c r="ALX156" s="36"/>
-      <c r="ALY156" s="36"/>
-      <c r="ALZ156" s="36"/>
-      <c r="AMA156" s="36"/>
-      <c r="AMB156" s="36"/>
-      <c r="AMC156" s="36"/>
-      <c r="AMD156" s="36"/>
-      <c r="AME156" s="36"/>
-      <c r="AMF156" s="36"/>
-      <c r="AMG156" s="36"/>
-      <c r="AMH156" s="36"/>
-      <c r="AMI156" s="36"/>
-      <c r="AMJ156" s="36"/>
-      <c r="AMK156" s="36"/>
-      <c r="AML156" s="36"/>
-      <c r="AMM156" s="36"/>
+      <c r="F158" s="36"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36"/>
+      <c r="K158" s="40"/>
+      <c r="L158" s="41"/>
+      <c r="M158" s="36"/>
+      <c r="N158" s="36"/>
+      <c r="O158" s="36"/>
+      <c r="P158" s="36"/>
+      <c r="Q158" s="36"/>
+      <c r="R158" s="36"/>
+      <c r="S158" s="36"/>
+      <c r="T158" s="36"/>
+      <c r="U158" s="36"/>
+      <c r="V158" s="36"/>
+      <c r="W158" s="36"/>
+      <c r="X158" s="36"/>
+      <c r="Y158" s="36"/>
+      <c r="Z158" s="36"/>
+      <c r="AA158" s="36"/>
+      <c r="AB158" s="36"/>
+      <c r="AC158" s="36"/>
+      <c r="AD158" s="36"/>
+      <c r="AE158" s="36"/>
+      <c r="AF158" s="36"/>
+      <c r="AG158" s="36"/>
+      <c r="AH158" s="36"/>
+      <c r="AI158" s="36"/>
+      <c r="AJ158" s="36"/>
+      <c r="AK158" s="36"/>
+      <c r="AL158" s="36"/>
+      <c r="AM158" s="36"/>
+      <c r="AN158" s="36"/>
+      <c r="AO158" s="36"/>
+      <c r="AP158" s="36"/>
+      <c r="AQ158" s="36"/>
+      <c r="AR158" s="36"/>
+      <c r="AS158" s="36"/>
+      <c r="AT158" s="36"/>
+      <c r="AU158" s="36"/>
+      <c r="AV158" s="36"/>
+      <c r="AW158" s="36"/>
+      <c r="AX158" s="36"/>
+      <c r="AY158" s="36"/>
+      <c r="AZ158" s="36"/>
+      <c r="BA158" s="36"/>
+      <c r="BB158" s="36"/>
+      <c r="BC158" s="36"/>
+      <c r="BD158" s="36"/>
+      <c r="BE158" s="36"/>
+      <c r="BF158" s="36"/>
+      <c r="BG158" s="36"/>
+      <c r="BH158" s="36"/>
+      <c r="BI158" s="36"/>
+      <c r="BJ158" s="36"/>
+      <c r="BK158" s="36"/>
+      <c r="BL158" s="36"/>
+      <c r="BM158" s="36"/>
+      <c r="BN158" s="36"/>
+      <c r="BO158" s="36"/>
+      <c r="BP158" s="36"/>
+      <c r="BQ158" s="36"/>
+      <c r="BR158" s="36"/>
+      <c r="BS158" s="36"/>
+      <c r="BT158" s="36"/>
+      <c r="BU158" s="36"/>
+      <c r="BV158" s="36"/>
+      <c r="BW158" s="36"/>
+      <c r="BX158" s="36"/>
+      <c r="BY158" s="36"/>
+      <c r="BZ158" s="36"/>
+      <c r="CA158" s="36"/>
+      <c r="CB158" s="36"/>
+      <c r="CC158" s="36"/>
+      <c r="CD158" s="36"/>
+      <c r="CE158" s="36"/>
+      <c r="CF158" s="36"/>
+      <c r="CG158" s="36"/>
+      <c r="CH158" s="36"/>
+      <c r="CI158" s="36"/>
+      <c r="CJ158" s="36"/>
+      <c r="CK158" s="36"/>
+      <c r="CL158" s="36"/>
+      <c r="CM158" s="36"/>
+      <c r="CN158" s="36"/>
+      <c r="CO158" s="36"/>
+      <c r="CP158" s="36"/>
+      <c r="CQ158" s="36"/>
+      <c r="CR158" s="36"/>
+      <c r="CS158" s="36"/>
+      <c r="CT158" s="36"/>
+      <c r="CU158" s="36"/>
+      <c r="CV158" s="36"/>
+      <c r="CW158" s="36"/>
+      <c r="CX158" s="36"/>
+      <c r="CY158" s="36"/>
+      <c r="CZ158" s="36"/>
+      <c r="DA158" s="36"/>
+      <c r="DB158" s="36"/>
+      <c r="DC158" s="36"/>
+      <c r="DD158" s="36"/>
+      <c r="DE158" s="36"/>
+      <c r="DF158" s="36"/>
+      <c r="DG158" s="36"/>
+      <c r="DH158" s="36"/>
+      <c r="DI158" s="36"/>
+      <c r="DJ158" s="36"/>
+      <c r="DK158" s="36"/>
+      <c r="DL158" s="36"/>
+      <c r="DM158" s="36"/>
+      <c r="DN158" s="36"/>
+      <c r="DO158" s="36"/>
+      <c r="DP158" s="36"/>
+      <c r="DQ158" s="36"/>
+      <c r="DR158" s="36"/>
+      <c r="DS158" s="36"/>
+      <c r="DT158" s="36"/>
+      <c r="DU158" s="36"/>
+      <c r="DV158" s="36"/>
+      <c r="DW158" s="36"/>
+      <c r="DX158" s="36"/>
+      <c r="DY158" s="36"/>
+      <c r="DZ158" s="36"/>
+      <c r="EA158" s="36"/>
+      <c r="EB158" s="36"/>
+      <c r="EC158" s="36"/>
+      <c r="ED158" s="36"/>
+      <c r="EE158" s="36"/>
+      <c r="EF158" s="36"/>
+      <c r="EG158" s="36"/>
+      <c r="EH158" s="36"/>
+      <c r="EI158" s="36"/>
+      <c r="EJ158" s="36"/>
+      <c r="EK158" s="36"/>
+      <c r="EL158" s="36"/>
+      <c r="EM158" s="36"/>
+      <c r="EN158" s="36"/>
+      <c r="EO158" s="36"/>
+      <c r="EP158" s="36"/>
+      <c r="EQ158" s="36"/>
+      <c r="ER158" s="36"/>
+      <c r="ES158" s="36"/>
+      <c r="ET158" s="36"/>
+      <c r="EU158" s="36"/>
+      <c r="EV158" s="36"/>
+      <c r="EW158" s="36"/>
+      <c r="EX158" s="36"/>
+      <c r="EY158" s="36"/>
+      <c r="EZ158" s="36"/>
+      <c r="FA158" s="36"/>
+      <c r="FB158" s="36"/>
+      <c r="FC158" s="36"/>
+      <c r="FD158" s="36"/>
+      <c r="FE158" s="36"/>
+      <c r="FF158" s="36"/>
+      <c r="FG158" s="36"/>
+      <c r="FH158" s="36"/>
+      <c r="FI158" s="36"/>
+      <c r="FJ158" s="36"/>
+      <c r="FK158" s="36"/>
+      <c r="FL158" s="36"/>
+      <c r="FM158" s="36"/>
+      <c r="FN158" s="36"/>
+      <c r="FO158" s="36"/>
+      <c r="FP158" s="36"/>
+      <c r="FQ158" s="36"/>
+      <c r="FR158" s="36"/>
+      <c r="FS158" s="36"/>
+      <c r="FT158" s="36"/>
+      <c r="FU158" s="36"/>
+      <c r="FV158" s="36"/>
+      <c r="FW158" s="36"/>
+      <c r="FX158" s="36"/>
+      <c r="FY158" s="36"/>
+      <c r="FZ158" s="36"/>
+      <c r="GA158" s="36"/>
+      <c r="GB158" s="36"/>
+      <c r="GC158" s="36"/>
+      <c r="GD158" s="36"/>
+      <c r="GE158" s="36"/>
+      <c r="GF158" s="36"/>
+      <c r="GG158" s="36"/>
+      <c r="GH158" s="36"/>
+      <c r="GI158" s="36"/>
+      <c r="GJ158" s="36"/>
+      <c r="GK158" s="36"/>
+      <c r="GL158" s="36"/>
+      <c r="GM158" s="36"/>
+      <c r="GN158" s="36"/>
+      <c r="GO158" s="36"/>
+      <c r="GP158" s="36"/>
+      <c r="GQ158" s="36"/>
+      <c r="GR158" s="36"/>
+      <c r="GS158" s="36"/>
+      <c r="GT158" s="36"/>
+      <c r="GU158" s="36"/>
+      <c r="GV158" s="36"/>
+      <c r="GW158" s="36"/>
+      <c r="GX158" s="36"/>
+      <c r="GY158" s="36"/>
+      <c r="GZ158" s="36"/>
+      <c r="HA158" s="36"/>
+      <c r="HB158" s="36"/>
+      <c r="HC158" s="36"/>
+      <c r="HD158" s="36"/>
+      <c r="HE158" s="36"/>
+      <c r="HF158" s="36"/>
+      <c r="HG158" s="36"/>
+      <c r="HH158" s="36"/>
+      <c r="HI158" s="36"/>
+      <c r="HJ158" s="36"/>
+      <c r="HK158" s="36"/>
+      <c r="HL158" s="36"/>
+      <c r="HM158" s="36"/>
+      <c r="HN158" s="36"/>
+      <c r="HO158" s="36"/>
+      <c r="HP158" s="36"/>
+      <c r="HQ158" s="36"/>
+      <c r="HR158" s="36"/>
+      <c r="HS158" s="36"/>
+      <c r="HT158" s="36"/>
+      <c r="HU158" s="36"/>
+      <c r="HV158" s="36"/>
+      <c r="HW158" s="36"/>
+      <c r="HX158" s="36"/>
+      <c r="HY158" s="36"/>
+      <c r="HZ158" s="36"/>
+      <c r="IA158" s="36"/>
+      <c r="IB158" s="36"/>
+      <c r="IC158" s="36"/>
+      <c r="ID158" s="36"/>
+      <c r="IE158" s="36"/>
+      <c r="IF158" s="36"/>
+      <c r="IG158" s="36"/>
+      <c r="IH158" s="36"/>
+      <c r="II158" s="36"/>
+      <c r="IJ158" s="36"/>
+      <c r="IK158" s="36"/>
+      <c r="IL158" s="36"/>
+      <c r="IM158" s="36"/>
+      <c r="IN158" s="36"/>
+      <c r="IO158" s="36"/>
+      <c r="IP158" s="36"/>
+      <c r="IQ158" s="36"/>
+      <c r="IR158" s="36"/>
+      <c r="IS158" s="36"/>
+      <c r="IT158" s="36"/>
+      <c r="IU158" s="36"/>
+      <c r="IV158" s="36"/>
+      <c r="IW158" s="36"/>
+      <c r="IX158" s="36"/>
+      <c r="IY158" s="36"/>
+      <c r="IZ158" s="36"/>
+      <c r="JA158" s="36"/>
+      <c r="JB158" s="36"/>
+      <c r="JC158" s="36"/>
+      <c r="JD158" s="36"/>
+      <c r="JE158" s="36"/>
+      <c r="JF158" s="36"/>
+      <c r="JG158" s="36"/>
+      <c r="JH158" s="36"/>
+      <c r="JI158" s="36"/>
+      <c r="JJ158" s="36"/>
+      <c r="JK158" s="36"/>
+      <c r="JL158" s="36"/>
+      <c r="JM158" s="36"/>
+      <c r="JN158" s="36"/>
+      <c r="JO158" s="36"/>
+      <c r="JP158" s="36"/>
+      <c r="JQ158" s="36"/>
+      <c r="JR158" s="36"/>
+      <c r="JS158" s="36"/>
+      <c r="JT158" s="36"/>
+      <c r="JU158" s="36"/>
+      <c r="JV158" s="36"/>
+      <c r="JW158" s="36"/>
+      <c r="JX158" s="36"/>
+      <c r="JY158" s="36"/>
+      <c r="JZ158" s="36"/>
+      <c r="KA158" s="36"/>
+      <c r="KB158" s="36"/>
+      <c r="KC158" s="36"/>
+      <c r="KD158" s="36"/>
+      <c r="KE158" s="36"/>
+      <c r="KF158" s="36"/>
+      <c r="KG158" s="36"/>
+      <c r="KH158" s="36"/>
+      <c r="KI158" s="36"/>
+      <c r="KJ158" s="36"/>
+      <c r="KK158" s="36"/>
+      <c r="KL158" s="36"/>
+      <c r="KM158" s="36"/>
+      <c r="KN158" s="36"/>
+      <c r="KO158" s="36"/>
+      <c r="KP158" s="36"/>
+      <c r="KQ158" s="36"/>
+      <c r="KR158" s="36"/>
+      <c r="KS158" s="36"/>
+      <c r="KT158" s="36"/>
+      <c r="KU158" s="36"/>
+      <c r="KV158" s="36"/>
+      <c r="KW158" s="36"/>
+      <c r="KX158" s="36"/>
+      <c r="KY158" s="36"/>
+      <c r="KZ158" s="36"/>
+      <c r="LA158" s="36"/>
+      <c r="LB158" s="36"/>
+      <c r="LC158" s="36"/>
+      <c r="LD158" s="36"/>
+      <c r="LE158" s="36"/>
+      <c r="LF158" s="36"/>
+      <c r="LG158" s="36"/>
+      <c r="LH158" s="36"/>
+      <c r="LI158" s="36"/>
+      <c r="LJ158" s="36"/>
+      <c r="LK158" s="36"/>
+      <c r="LL158" s="36"/>
+      <c r="LM158" s="36"/>
+      <c r="LN158" s="36"/>
+      <c r="LO158" s="36"/>
+      <c r="LP158" s="36"/>
+      <c r="LQ158" s="36"/>
+      <c r="LR158" s="36"/>
+      <c r="LS158" s="36"/>
+      <c r="LT158" s="36"/>
+      <c r="LU158" s="36"/>
+      <c r="LV158" s="36"/>
+      <c r="LW158" s="36"/>
+      <c r="LX158" s="36"/>
+      <c r="LY158" s="36"/>
+      <c r="LZ158" s="36"/>
+      <c r="MA158" s="36"/>
+      <c r="MB158" s="36"/>
+      <c r="MC158" s="36"/>
+      <c r="MD158" s="36"/>
+      <c r="ME158" s="36"/>
+      <c r="MF158" s="36"/>
+      <c r="MG158" s="36"/>
+      <c r="MH158" s="36"/>
+      <c r="MI158" s="36"/>
+      <c r="MJ158" s="36"/>
+      <c r="MK158" s="36"/>
+      <c r="ML158" s="36"/>
+      <c r="MM158" s="36"/>
+      <c r="MN158" s="36"/>
+      <c r="MO158" s="36"/>
+      <c r="MP158" s="36"/>
+      <c r="MQ158" s="36"/>
+      <c r="MR158" s="36"/>
+      <c r="MS158" s="36"/>
+      <c r="MT158" s="36"/>
+      <c r="MU158" s="36"/>
+      <c r="MV158" s="36"/>
+      <c r="MW158" s="36"/>
+      <c r="MX158" s="36"/>
+      <c r="MY158" s="36"/>
+      <c r="MZ158" s="36"/>
+      <c r="NA158" s="36"/>
+      <c r="NB158" s="36"/>
+      <c r="NC158" s="36"/>
+      <c r="ND158" s="36"/>
+      <c r="NE158" s="36"/>
+      <c r="NF158" s="36"/>
+      <c r="NG158" s="36"/>
+      <c r="NH158" s="36"/>
+      <c r="NI158" s="36"/>
+      <c r="NJ158" s="36"/>
+      <c r="NK158" s="36"/>
+      <c r="NL158" s="36"/>
+      <c r="NM158" s="36"/>
+      <c r="NN158" s="36"/>
+      <c r="NO158" s="36"/>
+      <c r="NP158" s="36"/>
+      <c r="NQ158" s="36"/>
+      <c r="NR158" s="36"/>
+      <c r="NS158" s="36"/>
+      <c r="NT158" s="36"/>
+      <c r="NU158" s="36"/>
+      <c r="NV158" s="36"/>
+      <c r="NW158" s="36"/>
+      <c r="NX158" s="36"/>
+      <c r="NY158" s="36"/>
+      <c r="NZ158" s="36"/>
+      <c r="OA158" s="36"/>
+      <c r="OB158" s="36"/>
+      <c r="OC158" s="36"/>
+      <c r="OD158" s="36"/>
+      <c r="OE158" s="36"/>
+      <c r="OF158" s="36"/>
+      <c r="OG158" s="36"/>
+      <c r="OH158" s="36"/>
+      <c r="OI158" s="36"/>
+      <c r="OJ158" s="36"/>
+      <c r="OK158" s="36"/>
+      <c r="OL158" s="36"/>
+      <c r="OM158" s="36"/>
+      <c r="ON158" s="36"/>
+      <c r="OO158" s="36"/>
+      <c r="OP158" s="36"/>
+      <c r="OQ158" s="36"/>
+      <c r="OR158" s="36"/>
+      <c r="OS158" s="36"/>
+      <c r="OT158" s="36"/>
+      <c r="OU158" s="36"/>
+      <c r="OV158" s="36"/>
+      <c r="OW158" s="36"/>
+      <c r="OX158" s="36"/>
+      <c r="OY158" s="36"/>
+      <c r="OZ158" s="36"/>
+      <c r="PA158" s="36"/>
+      <c r="PB158" s="36"/>
+      <c r="PC158" s="36"/>
+      <c r="PD158" s="36"/>
+      <c r="PE158" s="36"/>
+      <c r="PF158" s="36"/>
+      <c r="PG158" s="36"/>
+      <c r="PH158" s="36"/>
+      <c r="PI158" s="36"/>
+      <c r="PJ158" s="36"/>
+      <c r="PK158" s="36"/>
+      <c r="PL158" s="36"/>
+      <c r="PM158" s="36"/>
+      <c r="PN158" s="36"/>
+      <c r="PO158" s="36"/>
+      <c r="PP158" s="36"/>
+      <c r="PQ158" s="36"/>
+      <c r="PR158" s="36"/>
+      <c r="PS158" s="36"/>
+      <c r="PT158" s="36"/>
+      <c r="PU158" s="36"/>
+      <c r="PV158" s="36"/>
+      <c r="PW158" s="36"/>
+      <c r="PX158" s="36"/>
+      <c r="PY158" s="36"/>
+      <c r="PZ158" s="36"/>
+      <c r="QA158" s="36"/>
+      <c r="QB158" s="36"/>
+      <c r="QC158" s="36"/>
+      <c r="QD158" s="36"/>
+      <c r="QE158" s="36"/>
+      <c r="QF158" s="36"/>
+      <c r="QG158" s="36"/>
+      <c r="QH158" s="36"/>
+      <c r="QI158" s="36"/>
+      <c r="QJ158" s="36"/>
+      <c r="QK158" s="36"/>
+      <c r="QL158" s="36"/>
+      <c r="QM158" s="36"/>
+      <c r="QN158" s="36"/>
+      <c r="QO158" s="36"/>
+      <c r="QP158" s="36"/>
+      <c r="QQ158" s="36"/>
+      <c r="QR158" s="36"/>
+      <c r="QS158" s="36"/>
+      <c r="QT158" s="36"/>
+      <c r="QU158" s="36"/>
+      <c r="QV158" s="36"/>
+      <c r="QW158" s="36"/>
+      <c r="QX158" s="36"/>
+      <c r="QY158" s="36"/>
+      <c r="QZ158" s="36"/>
+      <c r="RA158" s="36"/>
+      <c r="RB158" s="36"/>
+      <c r="RC158" s="36"/>
+      <c r="RD158" s="36"/>
+      <c r="RE158" s="36"/>
+      <c r="RF158" s="36"/>
+      <c r="RG158" s="36"/>
+      <c r="RH158" s="36"/>
+      <c r="RI158" s="36"/>
+      <c r="RJ158" s="36"/>
+      <c r="RK158" s="36"/>
+      <c r="RL158" s="36"/>
+      <c r="RM158" s="36"/>
+      <c r="RN158" s="36"/>
+      <c r="RO158" s="36"/>
+      <c r="RP158" s="36"/>
+      <c r="RQ158" s="36"/>
+      <c r="RR158" s="36"/>
+      <c r="RS158" s="36"/>
+      <c r="RT158" s="36"/>
+      <c r="RU158" s="36"/>
+      <c r="RV158" s="36"/>
+      <c r="RW158" s="36"/>
+      <c r="RX158" s="36"/>
+      <c r="RY158" s="36"/>
+      <c r="RZ158" s="36"/>
+      <c r="SA158" s="36"/>
+      <c r="SB158" s="36"/>
+      <c r="SC158" s="36"/>
+      <c r="SD158" s="36"/>
+      <c r="SE158" s="36"/>
+      <c r="SF158" s="36"/>
+      <c r="SG158" s="36"/>
+      <c r="SH158" s="36"/>
+      <c r="SI158" s="36"/>
+      <c r="SJ158" s="36"/>
+      <c r="SK158" s="36"/>
+      <c r="SL158" s="36"/>
+      <c r="SM158" s="36"/>
+      <c r="SN158" s="36"/>
+      <c r="SO158" s="36"/>
+      <c r="SP158" s="36"/>
+      <c r="SQ158" s="36"/>
+      <c r="SR158" s="36"/>
+      <c r="SS158" s="36"/>
+      <c r="ST158" s="36"/>
+      <c r="SU158" s="36"/>
+      <c r="SV158" s="36"/>
+      <c r="SW158" s="36"/>
+      <c r="SX158" s="36"/>
+      <c r="SY158" s="36"/>
+      <c r="SZ158" s="36"/>
+      <c r="TA158" s="36"/>
+      <c r="TB158" s="36"/>
+      <c r="TC158" s="36"/>
+      <c r="TD158" s="36"/>
+      <c r="TE158" s="36"/>
+      <c r="TF158" s="36"/>
+      <c r="TG158" s="36"/>
+      <c r="TH158" s="36"/>
+      <c r="TI158" s="36"/>
+      <c r="TJ158" s="36"/>
+      <c r="TK158" s="36"/>
+      <c r="TL158" s="36"/>
+      <c r="TM158" s="36"/>
+      <c r="TN158" s="36"/>
+      <c r="TO158" s="36"/>
+      <c r="TP158" s="36"/>
+      <c r="TQ158" s="36"/>
+      <c r="TR158" s="36"/>
+      <c r="TS158" s="36"/>
+      <c r="TT158" s="36"/>
+      <c r="TU158" s="36"/>
+      <c r="TV158" s="36"/>
+      <c r="TW158" s="36"/>
+      <c r="TX158" s="36"/>
+      <c r="TY158" s="36"/>
+      <c r="TZ158" s="36"/>
+      <c r="UA158" s="36"/>
+      <c r="UB158" s="36"/>
+      <c r="UC158" s="36"/>
+      <c r="UD158" s="36"/>
+      <c r="UE158" s="36"/>
+      <c r="UF158" s="36"/>
+      <c r="UG158" s="36"/>
+      <c r="UH158" s="36"/>
+      <c r="UI158" s="36"/>
+      <c r="UJ158" s="36"/>
+      <c r="UK158" s="36"/>
+      <c r="UL158" s="36"/>
+      <c r="UM158" s="36"/>
+      <c r="UN158" s="36"/>
+      <c r="UO158" s="36"/>
+      <c r="UP158" s="36"/>
+      <c r="UQ158" s="36"/>
+      <c r="UR158" s="36"/>
+      <c r="US158" s="36"/>
+      <c r="UT158" s="36"/>
+      <c r="UU158" s="36"/>
+      <c r="UV158" s="36"/>
+      <c r="UW158" s="36"/>
+      <c r="UX158" s="36"/>
+      <c r="UY158" s="36"/>
+      <c r="UZ158" s="36"/>
+      <c r="VA158" s="36"/>
+      <c r="VB158" s="36"/>
+      <c r="VC158" s="36"/>
+      <c r="VD158" s="36"/>
+      <c r="VE158" s="36"/>
+      <c r="VF158" s="36"/>
+      <c r="VG158" s="36"/>
+      <c r="VH158" s="36"/>
+      <c r="VI158" s="36"/>
+      <c r="VJ158" s="36"/>
+      <c r="VK158" s="36"/>
+      <c r="VL158" s="36"/>
+      <c r="VM158" s="36"/>
+      <c r="VN158" s="36"/>
+      <c r="VO158" s="36"/>
+      <c r="VP158" s="36"/>
+      <c r="VQ158" s="36"/>
+      <c r="VR158" s="36"/>
+      <c r="VS158" s="36"/>
+      <c r="VT158" s="36"/>
+      <c r="VU158" s="36"/>
+      <c r="VV158" s="36"/>
+      <c r="VW158" s="36"/>
+      <c r="VX158" s="36"/>
+      <c r="VY158" s="36"/>
+      <c r="VZ158" s="36"/>
+      <c r="WA158" s="36"/>
+      <c r="WB158" s="36"/>
+      <c r="WC158" s="36"/>
+      <c r="WD158" s="36"/>
+      <c r="WE158" s="36"/>
+      <c r="WF158" s="36"/>
+      <c r="WG158" s="36"/>
+      <c r="WH158" s="36"/>
+      <c r="WI158" s="36"/>
+      <c r="WJ158" s="36"/>
+      <c r="WK158" s="36"/>
+      <c r="WL158" s="36"/>
+      <c r="WM158" s="36"/>
+      <c r="WN158" s="36"/>
+      <c r="WO158" s="36"/>
+      <c r="WP158" s="36"/>
+      <c r="WQ158" s="36"/>
+      <c r="WR158" s="36"/>
+      <c r="WS158" s="36"/>
+      <c r="WT158" s="36"/>
+      <c r="WU158" s="36"/>
+      <c r="WV158" s="36"/>
+      <c r="WW158" s="36"/>
+      <c r="WX158" s="36"/>
+      <c r="WY158" s="36"/>
+      <c r="WZ158" s="36"/>
+      <c r="XA158" s="36"/>
+      <c r="XB158" s="36"/>
+      <c r="XC158" s="36"/>
+      <c r="XD158" s="36"/>
+      <c r="XE158" s="36"/>
+      <c r="XF158" s="36"/>
+      <c r="XG158" s="36"/>
+      <c r="XH158" s="36"/>
+      <c r="XI158" s="36"/>
+      <c r="XJ158" s="36"/>
+      <c r="XK158" s="36"/>
+      <c r="XL158" s="36"/>
+      <c r="XM158" s="36"/>
+      <c r="XN158" s="36"/>
+      <c r="XO158" s="36"/>
+      <c r="XP158" s="36"/>
+      <c r="XQ158" s="36"/>
+      <c r="XR158" s="36"/>
+      <c r="XS158" s="36"/>
+      <c r="XT158" s="36"/>
+      <c r="XU158" s="36"/>
+      <c r="XV158" s="36"/>
+      <c r="XW158" s="36"/>
+      <c r="XX158" s="36"/>
+      <c r="XY158" s="36"/>
+      <c r="XZ158" s="36"/>
+      <c r="YA158" s="36"/>
+      <c r="YB158" s="36"/>
+      <c r="YC158" s="36"/>
+      <c r="YD158" s="36"/>
+      <c r="YE158" s="36"/>
+      <c r="YF158" s="36"/>
+      <c r="YG158" s="36"/>
+      <c r="YH158" s="36"/>
+      <c r="YI158" s="36"/>
+      <c r="YJ158" s="36"/>
+      <c r="YK158" s="36"/>
+      <c r="YL158" s="36"/>
+      <c r="YM158" s="36"/>
+      <c r="YN158" s="36"/>
+      <c r="YO158" s="36"/>
+      <c r="YP158" s="36"/>
+      <c r="YQ158" s="36"/>
+      <c r="YR158" s="36"/>
+      <c r="YS158" s="36"/>
+      <c r="YT158" s="36"/>
+      <c r="YU158" s="36"/>
+      <c r="YV158" s="36"/>
+      <c r="YW158" s="36"/>
+      <c r="YX158" s="36"/>
+      <c r="YY158" s="36"/>
+      <c r="YZ158" s="36"/>
+      <c r="ZA158" s="36"/>
+      <c r="ZB158" s="36"/>
+      <c r="ZC158" s="36"/>
+      <c r="ZD158" s="36"/>
+      <c r="ZE158" s="36"/>
+      <c r="ZF158" s="36"/>
+      <c r="ZG158" s="36"/>
+      <c r="ZH158" s="36"/>
+      <c r="ZI158" s="36"/>
+      <c r="ZJ158" s="36"/>
+      <c r="ZK158" s="36"/>
+      <c r="ZL158" s="36"/>
+      <c r="ZM158" s="36"/>
+      <c r="ZN158" s="36"/>
+      <c r="ZO158" s="36"/>
+      <c r="ZP158" s="36"/>
+      <c r="ZQ158" s="36"/>
+      <c r="ZR158" s="36"/>
+      <c r="ZS158" s="36"/>
+      <c r="ZT158" s="36"/>
+      <c r="ZU158" s="36"/>
+      <c r="ZV158" s="36"/>
+      <c r="ZW158" s="36"/>
+      <c r="ZX158" s="36"/>
+      <c r="ZY158" s="36"/>
+      <c r="ZZ158" s="36"/>
+      <c r="AAA158" s="36"/>
+      <c r="AAB158" s="36"/>
+      <c r="AAC158" s="36"/>
+      <c r="AAD158" s="36"/>
+      <c r="AAE158" s="36"/>
+      <c r="AAF158" s="36"/>
+      <c r="AAG158" s="36"/>
+      <c r="AAH158" s="36"/>
+      <c r="AAI158" s="36"/>
+      <c r="AAJ158" s="36"/>
+      <c r="AAK158" s="36"/>
+      <c r="AAL158" s="36"/>
+      <c r="AAM158" s="36"/>
+      <c r="AAN158" s="36"/>
+      <c r="AAO158" s="36"/>
+      <c r="AAP158" s="36"/>
+      <c r="AAQ158" s="36"/>
+      <c r="AAR158" s="36"/>
+      <c r="AAS158" s="36"/>
+      <c r="AAT158" s="36"/>
+      <c r="AAU158" s="36"/>
+      <c r="AAV158" s="36"/>
+      <c r="AAW158" s="36"/>
+      <c r="AAX158" s="36"/>
+      <c r="AAY158" s="36"/>
+      <c r="AAZ158" s="36"/>
+      <c r="ABA158" s="36"/>
+      <c r="ABB158" s="36"/>
+      <c r="ABC158" s="36"/>
+      <c r="ABD158" s="36"/>
+      <c r="ABE158" s="36"/>
+      <c r="ABF158" s="36"/>
+      <c r="ABG158" s="36"/>
+      <c r="ABH158" s="36"/>
+      <c r="ABI158" s="36"/>
+      <c r="ABJ158" s="36"/>
+      <c r="ABK158" s="36"/>
+      <c r="ABL158" s="36"/>
+      <c r="ABM158" s="36"/>
+      <c r="ABN158" s="36"/>
+      <c r="ABO158" s="36"/>
+      <c r="ABP158" s="36"/>
+      <c r="ABQ158" s="36"/>
+      <c r="ABR158" s="36"/>
+      <c r="ABS158" s="36"/>
+      <c r="ABT158" s="36"/>
+      <c r="ABU158" s="36"/>
+      <c r="ABV158" s="36"/>
+      <c r="ABW158" s="36"/>
+      <c r="ABX158" s="36"/>
+      <c r="ABY158" s="36"/>
+      <c r="ABZ158" s="36"/>
+      <c r="ACA158" s="36"/>
+      <c r="ACB158" s="36"/>
+      <c r="ACC158" s="36"/>
+      <c r="ACD158" s="36"/>
+      <c r="ACE158" s="36"/>
+      <c r="ACF158" s="36"/>
+      <c r="ACG158" s="36"/>
+      <c r="ACH158" s="36"/>
+      <c r="ACI158" s="36"/>
+      <c r="ACJ158" s="36"/>
+      <c r="ACK158" s="36"/>
+      <c r="ACL158" s="36"/>
+      <c r="ACM158" s="36"/>
+      <c r="ACN158" s="36"/>
+      <c r="ACO158" s="36"/>
+      <c r="ACP158" s="36"/>
+      <c r="ACQ158" s="36"/>
+      <c r="ACR158" s="36"/>
+      <c r="ACS158" s="36"/>
+      <c r="ACT158" s="36"/>
+      <c r="ACU158" s="36"/>
+      <c r="ACV158" s="36"/>
+      <c r="ACW158" s="36"/>
+      <c r="ACX158" s="36"/>
+      <c r="ACY158" s="36"/>
+      <c r="ACZ158" s="36"/>
+      <c r="ADA158" s="36"/>
+      <c r="ADB158" s="36"/>
+      <c r="ADC158" s="36"/>
+      <c r="ADD158" s="36"/>
+      <c r="ADE158" s="36"/>
+      <c r="ADF158" s="36"/>
+      <c r="ADG158" s="36"/>
+      <c r="ADH158" s="36"/>
+      <c r="ADI158" s="36"/>
+      <c r="ADJ158" s="36"/>
+      <c r="ADK158" s="36"/>
+      <c r="ADL158" s="36"/>
+      <c r="ADM158" s="36"/>
+      <c r="ADN158" s="36"/>
+      <c r="ADO158" s="36"/>
+      <c r="ADP158" s="36"/>
+      <c r="ADQ158" s="36"/>
+      <c r="ADR158" s="36"/>
+      <c r="ADS158" s="36"/>
+      <c r="ADT158" s="36"/>
+      <c r="ADU158" s="36"/>
+      <c r="ADV158" s="36"/>
+      <c r="ADW158" s="36"/>
+      <c r="ADX158" s="36"/>
+      <c r="ADY158" s="36"/>
+      <c r="ADZ158" s="36"/>
+      <c r="AEA158" s="36"/>
+      <c r="AEB158" s="36"/>
+      <c r="AEC158" s="36"/>
+      <c r="AED158" s="36"/>
+      <c r="AEE158" s="36"/>
+      <c r="AEF158" s="36"/>
+      <c r="AEG158" s="36"/>
+      <c r="AEH158" s="36"/>
+      <c r="AEI158" s="36"/>
+      <c r="AEJ158" s="36"/>
+      <c r="AEK158" s="36"/>
+      <c r="AEL158" s="36"/>
+      <c r="AEM158" s="36"/>
+      <c r="AEN158" s="36"/>
+      <c r="AEO158" s="36"/>
+      <c r="AEP158" s="36"/>
+      <c r="AEQ158" s="36"/>
+      <c r="AER158" s="36"/>
+      <c r="AES158" s="36"/>
+      <c r="AET158" s="36"/>
+      <c r="AEU158" s="36"/>
+      <c r="AEV158" s="36"/>
+      <c r="AEW158" s="36"/>
+      <c r="AEX158" s="36"/>
+      <c r="AEY158" s="36"/>
+      <c r="AEZ158" s="36"/>
+      <c r="AFA158" s="36"/>
+      <c r="AFB158" s="36"/>
+      <c r="AFC158" s="36"/>
+      <c r="AFD158" s="36"/>
+      <c r="AFE158" s="36"/>
+      <c r="AFF158" s="36"/>
+      <c r="AFG158" s="36"/>
+      <c r="AFH158" s="36"/>
+      <c r="AFI158" s="36"/>
+      <c r="AFJ158" s="36"/>
+      <c r="AFK158" s="36"/>
+      <c r="AFL158" s="36"/>
+      <c r="AFM158" s="36"/>
+      <c r="AFN158" s="36"/>
+      <c r="AFO158" s="36"/>
+      <c r="AFP158" s="36"/>
+      <c r="AFQ158" s="36"/>
+      <c r="AFR158" s="36"/>
+      <c r="AFS158" s="36"/>
+      <c r="AFT158" s="36"/>
+      <c r="AFU158" s="36"/>
+      <c r="AFV158" s="36"/>
+      <c r="AFW158" s="36"/>
+      <c r="AFX158" s="36"/>
+      <c r="AFY158" s="36"/>
+      <c r="AFZ158" s="36"/>
+      <c r="AGA158" s="36"/>
+      <c r="AGB158" s="36"/>
+      <c r="AGC158" s="36"/>
+      <c r="AGD158" s="36"/>
+      <c r="AGE158" s="36"/>
+      <c r="AGF158" s="36"/>
+      <c r="AGG158" s="36"/>
+      <c r="AGH158" s="36"/>
+      <c r="AGI158" s="36"/>
+      <c r="AGJ158" s="36"/>
+      <c r="AGK158" s="36"/>
+      <c r="AGL158" s="36"/>
+      <c r="AGM158" s="36"/>
+      <c r="AGN158" s="36"/>
+      <c r="AGO158" s="36"/>
+      <c r="AGP158" s="36"/>
+      <c r="AGQ158" s="36"/>
+      <c r="AGR158" s="36"/>
+      <c r="AGS158" s="36"/>
+      <c r="AGT158" s="36"/>
+      <c r="AGU158" s="36"/>
+      <c r="AGV158" s="36"/>
+      <c r="AGW158" s="36"/>
+      <c r="AGX158" s="36"/>
+      <c r="AGY158" s="36"/>
+      <c r="AGZ158" s="36"/>
+      <c r="AHA158" s="36"/>
+      <c r="AHB158" s="36"/>
+      <c r="AHC158" s="36"/>
+      <c r="AHD158" s="36"/>
+      <c r="AHE158" s="36"/>
+      <c r="AHF158" s="36"/>
+      <c r="AHG158" s="36"/>
+      <c r="AHH158" s="36"/>
+      <c r="AHI158" s="36"/>
+      <c r="AHJ158" s="36"/>
+      <c r="AHK158" s="36"/>
+      <c r="AHL158" s="36"/>
+      <c r="AHM158" s="36"/>
+      <c r="AHN158" s="36"/>
+      <c r="AHO158" s="36"/>
+      <c r="AHP158" s="36"/>
+      <c r="AHQ158" s="36"/>
+      <c r="AHR158" s="36"/>
+      <c r="AHS158" s="36"/>
+      <c r="AHT158" s="36"/>
+      <c r="AHU158" s="36"/>
+      <c r="AHV158" s="36"/>
+      <c r="AHW158" s="36"/>
+      <c r="AHX158" s="36"/>
+      <c r="AHY158" s="36"/>
+      <c r="AHZ158" s="36"/>
+      <c r="AIA158" s="36"/>
+      <c r="AIB158" s="36"/>
+      <c r="AIC158" s="36"/>
+      <c r="AID158" s="36"/>
+      <c r="AIE158" s="36"/>
+      <c r="AIF158" s="36"/>
+      <c r="AIG158" s="36"/>
+      <c r="AIH158" s="36"/>
+      <c r="AII158" s="36"/>
+      <c r="AIJ158" s="36"/>
+      <c r="AIK158" s="36"/>
+      <c r="AIL158" s="36"/>
+      <c r="AIM158" s="36"/>
+      <c r="AIN158" s="36"/>
+      <c r="AIO158" s="36"/>
+      <c r="AIP158" s="36"/>
+      <c r="AIQ158" s="36"/>
+      <c r="AIR158" s="36"/>
+      <c r="AIS158" s="36"/>
+      <c r="AIT158" s="36"/>
+      <c r="AIU158" s="36"/>
+      <c r="AIV158" s="36"/>
+      <c r="AIW158" s="36"/>
+      <c r="AIX158" s="36"/>
+      <c r="AIY158" s="36"/>
+      <c r="AIZ158" s="36"/>
+      <c r="AJA158" s="36"/>
+      <c r="AJB158" s="36"/>
+      <c r="AJC158" s="36"/>
+      <c r="AJD158" s="36"/>
+      <c r="AJE158" s="36"/>
+      <c r="AJF158" s="36"/>
+      <c r="AJG158" s="36"/>
+      <c r="AJH158" s="36"/>
+      <c r="AJI158" s="36"/>
+      <c r="AJJ158" s="36"/>
+      <c r="AJK158" s="36"/>
+      <c r="AJL158" s="36"/>
+      <c r="AJM158" s="36"/>
+      <c r="AJN158" s="36"/>
+      <c r="AJO158" s="36"/>
+      <c r="AJP158" s="36"/>
+      <c r="AJQ158" s="36"/>
+      <c r="AJR158" s="36"/>
+      <c r="AJS158" s="36"/>
+      <c r="AJT158" s="36"/>
+      <c r="AJU158" s="36"/>
+      <c r="AJV158" s="36"/>
+      <c r="AJW158" s="36"/>
+      <c r="AJX158" s="36"/>
+      <c r="AJY158" s="36"/>
+      <c r="AJZ158" s="36"/>
+      <c r="AKA158" s="36"/>
+      <c r="AKB158" s="36"/>
+      <c r="AKC158" s="36"/>
+      <c r="AKD158" s="36"/>
+      <c r="AKE158" s="36"/>
+      <c r="AKF158" s="36"/>
+      <c r="AKG158" s="36"/>
+      <c r="AKH158" s="36"/>
+      <c r="AKI158" s="36"/>
+      <c r="AKJ158" s="36"/>
+      <c r="AKK158" s="36"/>
+      <c r="AKL158" s="36"/>
+      <c r="AKM158" s="36"/>
+      <c r="AKN158" s="36"/>
+      <c r="AKO158" s="36"/>
+      <c r="AKP158" s="36"/>
+      <c r="AKQ158" s="36"/>
+      <c r="AKR158" s="36"/>
+      <c r="AKS158" s="36"/>
+      <c r="AKT158" s="36"/>
+      <c r="AKU158" s="36"/>
+      <c r="AKV158" s="36"/>
+      <c r="AKW158" s="36"/>
+      <c r="AKX158" s="36"/>
+      <c r="AKY158" s="36"/>
+      <c r="AKZ158" s="36"/>
+      <c r="ALA158" s="36"/>
+      <c r="ALB158" s="36"/>
+      <c r="ALC158" s="36"/>
+      <c r="ALD158" s="36"/>
+      <c r="ALE158" s="36"/>
+      <c r="ALF158" s="36"/>
+      <c r="ALG158" s="36"/>
+      <c r="ALH158" s="36"/>
+      <c r="ALI158" s="36"/>
+      <c r="ALJ158" s="36"/>
+      <c r="ALK158" s="36"/>
+      <c r="ALL158" s="36"/>
+      <c r="ALM158" s="36"/>
+      <c r="ALN158" s="36"/>
+      <c r="ALO158" s="36"/>
+      <c r="ALP158" s="36"/>
+      <c r="ALQ158" s="36"/>
+      <c r="ALR158" s="36"/>
+      <c r="ALS158" s="36"/>
+      <c r="ALT158" s="36"/>
+      <c r="ALU158" s="36"/>
+      <c r="ALV158" s="36"/>
+      <c r="ALW158" s="36"/>
+      <c r="ALX158" s="36"/>
+      <c r="ALY158" s="36"/>
+      <c r="ALZ158" s="36"/>
+      <c r="AMA158" s="36"/>
+      <c r="AMB158" s="36"/>
+      <c r="AMC158" s="36"/>
+      <c r="AMD158" s="36"/>
+      <c r="AME158" s="36"/>
+      <c r="AMF158" s="36"/>
+      <c r="AMG158" s="36"/>
+      <c r="AMH158" s="36"/>
+      <c r="AMI158" s="36"/>
+      <c r="AMJ158" s="36"/>
+      <c r="AMK158" s="36"/>
+      <c r="AML158" s="36"/>
+      <c r="AMM158" s="36"/>
     </row>
-    <row r="157" spans="1:1027" ht="51.75">
-      <c r="A157" s="1" t="s">
+    <row r="159" spans="1:1027" ht="75">
+      <c r="A159" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="E157" s="27" t="s">
+      <c r="E159" s="27" t="s">
         <v>619</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1027" ht="51.75">
-      <c r="A158" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="E158" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1027" ht="26.25">
-      <c r="A159" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="E159" s="27" t="s">
-        <v>548</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="160" spans="1:1027" ht="26.25">
+    <row r="160" spans="1:1027" ht="75">
       <c r="A160" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>539</v>
+        <v>623</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>549</v>
+        <v>620</v>
+      </c>
+      <c r="E160" s="27" t="s">
+        <v>621</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="26.25">
-      <c r="A161" s="14" t="s">
-        <v>228</v>
+    <row r="161" spans="1:7" ht="30">
+      <c r="A161" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>550</v>
+        <v>638</v>
+      </c>
+      <c r="E161" s="27" t="s">
+        <v>548</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>32</v>
@@ -26235,98 +30647,98 @@
         <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="51">
+    <row r="162" spans="1:7" ht="30">
       <c r="A162" s="1" t="s">
-        <v>538</v>
+        <v>91</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G162" s="15" t="s">
-        <v>522</v>
+        <v>32</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="102.75">
-      <c r="A163" s="1" t="s">
-        <v>65</v>
+    <row r="163" spans="1:7" ht="30">
+      <c r="A163" s="14" t="s">
+        <v>228</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G163" s="15" t="s">
-        <v>522</v>
+      <c r="G163" s="5" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="64.5">
+    <row r="164" spans="1:7" ht="75">
       <c r="A164" s="1" t="s">
-        <v>65</v>
+        <v>538</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G164" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="102.75">
+    <row r="165" spans="1:7" ht="120">
       <c r="A165" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G165" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="64.5">
+    <row r="166" spans="1:7" ht="75">
       <c r="A166" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="E166" s="27" t="s">
-        <v>556</v>
+        <v>631</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>32</v>
@@ -26335,18 +30747,18 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="77.25">
+    <row r="167" spans="1:7" ht="120">
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="E167" s="27" t="s">
-        <v>557</v>
+        <v>632</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>8</v>
@@ -26355,218 +30767,218 @@
         <v>522</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="102.75">
+    <row r="168" spans="1:7" ht="75">
       <c r="A168" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>558</v>
+        <v>633</v>
+      </c>
+      <c r="E168" s="27" t="s">
+        <v>556</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G168" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="64.5">
+    <row r="169" spans="1:7" ht="90">
       <c r="A169" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G169" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="64.5">
+    <row r="170" spans="1:7" ht="120">
       <c r="A170" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="E170" s="27" t="s">
-        <v>561</v>
+        <v>635</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G170" s="15" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="51.75">
+    <row r="171" spans="1:7" ht="75">
       <c r="A171" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E171" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="75">
+      <c r="A172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E172" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="60">
+      <c r="A173" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C173" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="64.5">
-      <c r="A172" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="64.5">
-      <c r="A173" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="51.75">
+    <row r="174" spans="1:7" ht="75">
       <c r="A174" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="51.75">
+    <row r="175" spans="1:7" ht="75">
       <c r="A175" s="1" t="s">
-        <v>587</v>
+        <v>223</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="64.5">
+    <row r="176" spans="1:7" ht="60">
       <c r="A176" s="1" t="s">
-        <v>588</v>
+        <v>17</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="90">
+    <row r="177" spans="1:7" ht="60">
       <c r="A177" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="64.5">
+    <row r="178" spans="1:7" ht="75">
       <c r="A178" s="1" t="s">
         <v>588</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>32</v>
@@ -26575,9 +30987,49 @@
         <v>592</v>
       </c>
     </row>
+    <row r="179" spans="1:7" ht="105">
+      <c r="A179" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="75">
+      <c r="A180" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C133:D146">
-    <sortCondition ref="C133:C146"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C135:D148">
+    <sortCondition ref="C135:C148"/>
   </sortState>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.35" header="0" footer="0.3"/>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Downloads/MFTE-master 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Documents/PhD/Publications/2023_Shakir_LeFoll/MFTE_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4283B6B-87F7-6D44-8850-81DFDB8F6B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0984A10-4D21-E047-A705-48FB44FC5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4900" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18803,6 +18803,137 @@
   </si>
   <si>
     <r>
+      <t>All adjectives and adverbs ending in "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> except </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">honest, test, west, pest, lest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, as well as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">worst </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">best </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">followed by a hypthen. Also constructions of the type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the least/most </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ ADJ/ADV.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">All adjectives and adverbs ending in "er" except </t>
     </r>
     <r>
@@ -18887,117 +19018,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>followed by a hypthen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>All adjectives and adverbs ending in "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>est"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> except </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">honest, test, west, pest, lest </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> guest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, as well as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">worst </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">best </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>followed by a hypthen.</t>
+      <t xml:space="preserve">followed by a hypthen. Also constructions of the type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">more/less </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ ADJ/ADV.</t>
     </r>
   </si>
 </sst>
@@ -19302,7 +19344,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -19445,16 +19487,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -20011,7 +20052,7 @@
   <dimension ref="A1:AMM180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
@@ -28383,51 +28424,2091 @@
       <c r="AML100" s="6"/>
       <c r="AMM100" s="6"/>
     </row>
-    <row r="101" spans="1:1027" s="43" customFormat="1" ht="37.25" customHeight="1">
-      <c r="A101" s="44" t="s">
+    <row r="101" spans="1:1027" ht="37.25" customHeight="1">
+      <c r="A101" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="C101" s="45" t="s">
+      <c r="C101" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="D101" s="46" t="s">
+      <c r="D101" s="45" t="s">
         <v>655</v>
       </c>
       <c r="E101" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="F101" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
+      <c r="AD101" s="6"/>
+      <c r="AE101" s="6"/>
+      <c r="AF101" s="6"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="6"/>
+      <c r="AI101" s="6"/>
+      <c r="AJ101" s="6"/>
+      <c r="AK101" s="6"/>
+      <c r="AL101" s="6"/>
+      <c r="AM101" s="6"/>
+      <c r="AN101" s="6"/>
+      <c r="AO101" s="6"/>
+      <c r="AP101" s="6"/>
+      <c r="AQ101" s="6"/>
+      <c r="AR101" s="6"/>
+      <c r="AS101" s="6"/>
+      <c r="AT101" s="6"/>
+      <c r="AU101" s="6"/>
+      <c r="AV101" s="6"/>
+      <c r="AW101" s="6"/>
+      <c r="AX101" s="6"/>
+      <c r="AY101" s="6"/>
+      <c r="AZ101" s="6"/>
+      <c r="BA101" s="6"/>
+      <c r="BB101" s="6"/>
+      <c r="BC101" s="6"/>
+      <c r="BD101" s="6"/>
+      <c r="BE101" s="6"/>
+      <c r="BF101" s="6"/>
+      <c r="BG101" s="6"/>
+      <c r="BH101" s="6"/>
+      <c r="BI101" s="6"/>
+      <c r="BJ101" s="6"/>
+      <c r="BK101" s="6"/>
+      <c r="BL101" s="6"/>
+      <c r="BM101" s="6"/>
+      <c r="BN101" s="6"/>
+      <c r="BO101" s="6"/>
+      <c r="BP101" s="6"/>
+      <c r="BQ101" s="6"/>
+      <c r="BR101" s="6"/>
+      <c r="BS101" s="6"/>
+      <c r="BT101" s="6"/>
+      <c r="BU101" s="6"/>
+      <c r="BV101" s="6"/>
+      <c r="BW101" s="6"/>
+      <c r="BX101" s="6"/>
+      <c r="BY101" s="6"/>
+      <c r="BZ101" s="6"/>
+      <c r="CA101" s="6"/>
+      <c r="CB101" s="6"/>
+      <c r="CC101" s="6"/>
+      <c r="CD101" s="6"/>
+      <c r="CE101" s="6"/>
+      <c r="CF101" s="6"/>
+      <c r="CG101" s="6"/>
+      <c r="CH101" s="6"/>
+      <c r="CI101" s="6"/>
+      <c r="CJ101" s="6"/>
+      <c r="CK101" s="6"/>
+      <c r="CL101" s="6"/>
+      <c r="CM101" s="6"/>
+      <c r="CN101" s="6"/>
+      <c r="CO101" s="6"/>
+      <c r="CP101" s="6"/>
+      <c r="CQ101" s="6"/>
+      <c r="CR101" s="6"/>
+      <c r="CS101" s="6"/>
+      <c r="CT101" s="6"/>
+      <c r="CU101" s="6"/>
+      <c r="CV101" s="6"/>
+      <c r="CW101" s="6"/>
+      <c r="CX101" s="6"/>
+      <c r="CY101" s="6"/>
+      <c r="CZ101" s="6"/>
+      <c r="DA101" s="6"/>
+      <c r="DB101" s="6"/>
+      <c r="DC101" s="6"/>
+      <c r="DD101" s="6"/>
+      <c r="DE101" s="6"/>
+      <c r="DF101" s="6"/>
+      <c r="DG101" s="6"/>
+      <c r="DH101" s="6"/>
+      <c r="DI101" s="6"/>
+      <c r="DJ101" s="6"/>
+      <c r="DK101" s="6"/>
+      <c r="DL101" s="6"/>
+      <c r="DM101" s="6"/>
+      <c r="DN101" s="6"/>
+      <c r="DO101" s="6"/>
+      <c r="DP101" s="6"/>
+      <c r="DQ101" s="6"/>
+      <c r="DR101" s="6"/>
+      <c r="DS101" s="6"/>
+      <c r="DT101" s="6"/>
+      <c r="DU101" s="6"/>
+      <c r="DV101" s="6"/>
+      <c r="DW101" s="6"/>
+      <c r="DX101" s="6"/>
+      <c r="DY101" s="6"/>
+      <c r="DZ101" s="6"/>
+      <c r="EA101" s="6"/>
+      <c r="EB101" s="6"/>
+      <c r="EC101" s="6"/>
+      <c r="ED101" s="6"/>
+      <c r="EE101" s="6"/>
+      <c r="EF101" s="6"/>
+      <c r="EG101" s="6"/>
+      <c r="EH101" s="6"/>
+      <c r="EI101" s="6"/>
+      <c r="EJ101" s="6"/>
+      <c r="EK101" s="6"/>
+      <c r="EL101" s="6"/>
+      <c r="EM101" s="6"/>
+      <c r="EN101" s="6"/>
+      <c r="EO101" s="6"/>
+      <c r="EP101" s="6"/>
+      <c r="EQ101" s="6"/>
+      <c r="ER101" s="6"/>
+      <c r="ES101" s="6"/>
+      <c r="ET101" s="6"/>
+      <c r="EU101" s="6"/>
+      <c r="EV101" s="6"/>
+      <c r="EW101" s="6"/>
+      <c r="EX101" s="6"/>
+      <c r="EY101" s="6"/>
+      <c r="EZ101" s="6"/>
+      <c r="FA101" s="6"/>
+      <c r="FB101" s="6"/>
+      <c r="FC101" s="6"/>
+      <c r="FD101" s="6"/>
+      <c r="FE101" s="6"/>
+      <c r="FF101" s="6"/>
+      <c r="FG101" s="6"/>
+      <c r="FH101" s="6"/>
+      <c r="FI101" s="6"/>
+      <c r="FJ101" s="6"/>
+      <c r="FK101" s="6"/>
+      <c r="FL101" s="6"/>
+      <c r="FM101" s="6"/>
+      <c r="FN101" s="6"/>
+      <c r="FO101" s="6"/>
+      <c r="FP101" s="6"/>
+      <c r="FQ101" s="6"/>
+      <c r="FR101" s="6"/>
+      <c r="FS101" s="6"/>
+      <c r="FT101" s="6"/>
+      <c r="FU101" s="6"/>
+      <c r="FV101" s="6"/>
+      <c r="FW101" s="6"/>
+      <c r="FX101" s="6"/>
+      <c r="FY101" s="6"/>
+      <c r="FZ101" s="6"/>
+      <c r="GA101" s="6"/>
+      <c r="GB101" s="6"/>
+      <c r="GC101" s="6"/>
+      <c r="GD101" s="6"/>
+      <c r="GE101" s="6"/>
+      <c r="GF101" s="6"/>
+      <c r="GG101" s="6"/>
+      <c r="GH101" s="6"/>
+      <c r="GI101" s="6"/>
+      <c r="GJ101" s="6"/>
+      <c r="GK101" s="6"/>
+      <c r="GL101" s="6"/>
+      <c r="GM101" s="6"/>
+      <c r="GN101" s="6"/>
+      <c r="GO101" s="6"/>
+      <c r="GP101" s="6"/>
+      <c r="GQ101" s="6"/>
+      <c r="GR101" s="6"/>
+      <c r="GS101" s="6"/>
+      <c r="GT101" s="6"/>
+      <c r="GU101" s="6"/>
+      <c r="GV101" s="6"/>
+      <c r="GW101" s="6"/>
+      <c r="GX101" s="6"/>
+      <c r="GY101" s="6"/>
+      <c r="GZ101" s="6"/>
+      <c r="HA101" s="6"/>
+      <c r="HB101" s="6"/>
+      <c r="HC101" s="6"/>
+      <c r="HD101" s="6"/>
+      <c r="HE101" s="6"/>
+      <c r="HF101" s="6"/>
+      <c r="HG101" s="6"/>
+      <c r="HH101" s="6"/>
+      <c r="HI101" s="6"/>
+      <c r="HJ101" s="6"/>
+      <c r="HK101" s="6"/>
+      <c r="HL101" s="6"/>
+      <c r="HM101" s="6"/>
+      <c r="HN101" s="6"/>
+      <c r="HO101" s="6"/>
+      <c r="HP101" s="6"/>
+      <c r="HQ101" s="6"/>
+      <c r="HR101" s="6"/>
+      <c r="HS101" s="6"/>
+      <c r="HT101" s="6"/>
+      <c r="HU101" s="6"/>
+      <c r="HV101" s="6"/>
+      <c r="HW101" s="6"/>
+      <c r="HX101" s="6"/>
+      <c r="HY101" s="6"/>
+      <c r="HZ101" s="6"/>
+      <c r="IA101" s="6"/>
+      <c r="IB101" s="6"/>
+      <c r="IC101" s="6"/>
+      <c r="ID101" s="6"/>
+      <c r="IE101" s="6"/>
+      <c r="IF101" s="6"/>
+      <c r="IG101" s="6"/>
+      <c r="IH101" s="6"/>
+      <c r="II101" s="6"/>
+      <c r="IJ101" s="6"/>
+      <c r="IK101" s="6"/>
+      <c r="IL101" s="6"/>
+      <c r="IM101" s="6"/>
+      <c r="IN101" s="6"/>
+      <c r="IO101" s="6"/>
+      <c r="IP101" s="6"/>
+      <c r="IQ101" s="6"/>
+      <c r="IR101" s="6"/>
+      <c r="IS101" s="6"/>
+      <c r="IT101" s="6"/>
+      <c r="IU101" s="6"/>
+      <c r="IV101" s="6"/>
+      <c r="IW101" s="6"/>
+      <c r="IX101" s="6"/>
+      <c r="IY101" s="6"/>
+      <c r="IZ101" s="6"/>
+      <c r="JA101" s="6"/>
+      <c r="JB101" s="6"/>
+      <c r="JC101" s="6"/>
+      <c r="JD101" s="6"/>
+      <c r="JE101" s="6"/>
+      <c r="JF101" s="6"/>
+      <c r="JG101" s="6"/>
+      <c r="JH101" s="6"/>
+      <c r="JI101" s="6"/>
+      <c r="JJ101" s="6"/>
+      <c r="JK101" s="6"/>
+      <c r="JL101" s="6"/>
+      <c r="JM101" s="6"/>
+      <c r="JN101" s="6"/>
+      <c r="JO101" s="6"/>
+      <c r="JP101" s="6"/>
+      <c r="JQ101" s="6"/>
+      <c r="JR101" s="6"/>
+      <c r="JS101" s="6"/>
+      <c r="JT101" s="6"/>
+      <c r="JU101" s="6"/>
+      <c r="JV101" s="6"/>
+      <c r="JW101" s="6"/>
+      <c r="JX101" s="6"/>
+      <c r="JY101" s="6"/>
+      <c r="JZ101" s="6"/>
+      <c r="KA101" s="6"/>
+      <c r="KB101" s="6"/>
+      <c r="KC101" s="6"/>
+      <c r="KD101" s="6"/>
+      <c r="KE101" s="6"/>
+      <c r="KF101" s="6"/>
+      <c r="KG101" s="6"/>
+      <c r="KH101" s="6"/>
+      <c r="KI101" s="6"/>
+      <c r="KJ101" s="6"/>
+      <c r="KK101" s="6"/>
+      <c r="KL101" s="6"/>
+      <c r="KM101" s="6"/>
+      <c r="KN101" s="6"/>
+      <c r="KO101" s="6"/>
+      <c r="KP101" s="6"/>
+      <c r="KQ101" s="6"/>
+      <c r="KR101" s="6"/>
+      <c r="KS101" s="6"/>
+      <c r="KT101" s="6"/>
+      <c r="KU101" s="6"/>
+      <c r="KV101" s="6"/>
+      <c r="KW101" s="6"/>
+      <c r="KX101" s="6"/>
+      <c r="KY101" s="6"/>
+      <c r="KZ101" s="6"/>
+      <c r="LA101" s="6"/>
+      <c r="LB101" s="6"/>
+      <c r="LC101" s="6"/>
+      <c r="LD101" s="6"/>
+      <c r="LE101" s="6"/>
+      <c r="LF101" s="6"/>
+      <c r="LG101" s="6"/>
+      <c r="LH101" s="6"/>
+      <c r="LI101" s="6"/>
+      <c r="LJ101" s="6"/>
+      <c r="LK101" s="6"/>
+      <c r="LL101" s="6"/>
+      <c r="LM101" s="6"/>
+      <c r="LN101" s="6"/>
+      <c r="LO101" s="6"/>
+      <c r="LP101" s="6"/>
+      <c r="LQ101" s="6"/>
+      <c r="LR101" s="6"/>
+      <c r="LS101" s="6"/>
+      <c r="LT101" s="6"/>
+      <c r="LU101" s="6"/>
+      <c r="LV101" s="6"/>
+      <c r="LW101" s="6"/>
+      <c r="LX101" s="6"/>
+      <c r="LY101" s="6"/>
+      <c r="LZ101" s="6"/>
+      <c r="MA101" s="6"/>
+      <c r="MB101" s="6"/>
+      <c r="MC101" s="6"/>
+      <c r="MD101" s="6"/>
+      <c r="ME101" s="6"/>
+      <c r="MF101" s="6"/>
+      <c r="MG101" s="6"/>
+      <c r="MH101" s="6"/>
+      <c r="MI101" s="6"/>
+      <c r="MJ101" s="6"/>
+      <c r="MK101" s="6"/>
+      <c r="ML101" s="6"/>
+      <c r="MM101" s="6"/>
+      <c r="MN101" s="6"/>
+      <c r="MO101" s="6"/>
+      <c r="MP101" s="6"/>
+      <c r="MQ101" s="6"/>
+      <c r="MR101" s="6"/>
+      <c r="MS101" s="6"/>
+      <c r="MT101" s="6"/>
+      <c r="MU101" s="6"/>
+      <c r="MV101" s="6"/>
+      <c r="MW101" s="6"/>
+      <c r="MX101" s="6"/>
+      <c r="MY101" s="6"/>
+      <c r="MZ101" s="6"/>
+      <c r="NA101" s="6"/>
+      <c r="NB101" s="6"/>
+      <c r="NC101" s="6"/>
+      <c r="ND101" s="6"/>
+      <c r="NE101" s="6"/>
+      <c r="NF101" s="6"/>
+      <c r="NG101" s="6"/>
+      <c r="NH101" s="6"/>
+      <c r="NI101" s="6"/>
+      <c r="NJ101" s="6"/>
+      <c r="NK101" s="6"/>
+      <c r="NL101" s="6"/>
+      <c r="NM101" s="6"/>
+      <c r="NN101" s="6"/>
+      <c r="NO101" s="6"/>
+      <c r="NP101" s="6"/>
+      <c r="NQ101" s="6"/>
+      <c r="NR101" s="6"/>
+      <c r="NS101" s="6"/>
+      <c r="NT101" s="6"/>
+      <c r="NU101" s="6"/>
+      <c r="NV101" s="6"/>
+      <c r="NW101" s="6"/>
+      <c r="NX101" s="6"/>
+      <c r="NY101" s="6"/>
+      <c r="NZ101" s="6"/>
+      <c r="OA101" s="6"/>
+      <c r="OB101" s="6"/>
+      <c r="OC101" s="6"/>
+      <c r="OD101" s="6"/>
+      <c r="OE101" s="6"/>
+      <c r="OF101" s="6"/>
+      <c r="OG101" s="6"/>
+      <c r="OH101" s="6"/>
+      <c r="OI101" s="6"/>
+      <c r="OJ101" s="6"/>
+      <c r="OK101" s="6"/>
+      <c r="OL101" s="6"/>
+      <c r="OM101" s="6"/>
+      <c r="ON101" s="6"/>
+      <c r="OO101" s="6"/>
+      <c r="OP101" s="6"/>
+      <c r="OQ101" s="6"/>
+      <c r="OR101" s="6"/>
+      <c r="OS101" s="6"/>
+      <c r="OT101" s="6"/>
+      <c r="OU101" s="6"/>
+      <c r="OV101" s="6"/>
+      <c r="OW101" s="6"/>
+      <c r="OX101" s="6"/>
+      <c r="OY101" s="6"/>
+      <c r="OZ101" s="6"/>
+      <c r="PA101" s="6"/>
+      <c r="PB101" s="6"/>
+      <c r="PC101" s="6"/>
+      <c r="PD101" s="6"/>
+      <c r="PE101" s="6"/>
+      <c r="PF101" s="6"/>
+      <c r="PG101" s="6"/>
+      <c r="PH101" s="6"/>
+      <c r="PI101" s="6"/>
+      <c r="PJ101" s="6"/>
+      <c r="PK101" s="6"/>
+      <c r="PL101" s="6"/>
+      <c r="PM101" s="6"/>
+      <c r="PN101" s="6"/>
+      <c r="PO101" s="6"/>
+      <c r="PP101" s="6"/>
+      <c r="PQ101" s="6"/>
+      <c r="PR101" s="6"/>
+      <c r="PS101" s="6"/>
+      <c r="PT101" s="6"/>
+      <c r="PU101" s="6"/>
+      <c r="PV101" s="6"/>
+      <c r="PW101" s="6"/>
+      <c r="PX101" s="6"/>
+      <c r="PY101" s="6"/>
+      <c r="PZ101" s="6"/>
+      <c r="QA101" s="6"/>
+      <c r="QB101" s="6"/>
+      <c r="QC101" s="6"/>
+      <c r="QD101" s="6"/>
+      <c r="QE101" s="6"/>
+      <c r="QF101" s="6"/>
+      <c r="QG101" s="6"/>
+      <c r="QH101" s="6"/>
+      <c r="QI101" s="6"/>
+      <c r="QJ101" s="6"/>
+      <c r="QK101" s="6"/>
+      <c r="QL101" s="6"/>
+      <c r="QM101" s="6"/>
+      <c r="QN101" s="6"/>
+      <c r="QO101" s="6"/>
+      <c r="QP101" s="6"/>
+      <c r="QQ101" s="6"/>
+      <c r="QR101" s="6"/>
+      <c r="QS101" s="6"/>
+      <c r="QT101" s="6"/>
+      <c r="QU101" s="6"/>
+      <c r="QV101" s="6"/>
+      <c r="QW101" s="6"/>
+      <c r="QX101" s="6"/>
+      <c r="QY101" s="6"/>
+      <c r="QZ101" s="6"/>
+      <c r="RA101" s="6"/>
+      <c r="RB101" s="6"/>
+      <c r="RC101" s="6"/>
+      <c r="RD101" s="6"/>
+      <c r="RE101" s="6"/>
+      <c r="RF101" s="6"/>
+      <c r="RG101" s="6"/>
+      <c r="RH101" s="6"/>
+      <c r="RI101" s="6"/>
+      <c r="RJ101" s="6"/>
+      <c r="RK101" s="6"/>
+      <c r="RL101" s="6"/>
+      <c r="RM101" s="6"/>
+      <c r="RN101" s="6"/>
+      <c r="RO101" s="6"/>
+      <c r="RP101" s="6"/>
+      <c r="RQ101" s="6"/>
+      <c r="RR101" s="6"/>
+      <c r="RS101" s="6"/>
+      <c r="RT101" s="6"/>
+      <c r="RU101" s="6"/>
+      <c r="RV101" s="6"/>
+      <c r="RW101" s="6"/>
+      <c r="RX101" s="6"/>
+      <c r="RY101" s="6"/>
+      <c r="RZ101" s="6"/>
+      <c r="SA101" s="6"/>
+      <c r="SB101" s="6"/>
+      <c r="SC101" s="6"/>
+      <c r="SD101" s="6"/>
+      <c r="SE101" s="6"/>
+      <c r="SF101" s="6"/>
+      <c r="SG101" s="6"/>
+      <c r="SH101" s="6"/>
+      <c r="SI101" s="6"/>
+      <c r="SJ101" s="6"/>
+      <c r="SK101" s="6"/>
+      <c r="SL101" s="6"/>
+      <c r="SM101" s="6"/>
+      <c r="SN101" s="6"/>
+      <c r="SO101" s="6"/>
+      <c r="SP101" s="6"/>
+      <c r="SQ101" s="6"/>
+      <c r="SR101" s="6"/>
+      <c r="SS101" s="6"/>
+      <c r="ST101" s="6"/>
+      <c r="SU101" s="6"/>
+      <c r="SV101" s="6"/>
+      <c r="SW101" s="6"/>
+      <c r="SX101" s="6"/>
+      <c r="SY101" s="6"/>
+      <c r="SZ101" s="6"/>
+      <c r="TA101" s="6"/>
+      <c r="TB101" s="6"/>
+      <c r="TC101" s="6"/>
+      <c r="TD101" s="6"/>
+      <c r="TE101" s="6"/>
+      <c r="TF101" s="6"/>
+      <c r="TG101" s="6"/>
+      <c r="TH101" s="6"/>
+      <c r="TI101" s="6"/>
+      <c r="TJ101" s="6"/>
+      <c r="TK101" s="6"/>
+      <c r="TL101" s="6"/>
+      <c r="TM101" s="6"/>
+      <c r="TN101" s="6"/>
+      <c r="TO101" s="6"/>
+      <c r="TP101" s="6"/>
+      <c r="TQ101" s="6"/>
+      <c r="TR101" s="6"/>
+      <c r="TS101" s="6"/>
+      <c r="TT101" s="6"/>
+      <c r="TU101" s="6"/>
+      <c r="TV101" s="6"/>
+      <c r="TW101" s="6"/>
+      <c r="TX101" s="6"/>
+      <c r="TY101" s="6"/>
+      <c r="TZ101" s="6"/>
+      <c r="UA101" s="6"/>
+      <c r="UB101" s="6"/>
+      <c r="UC101" s="6"/>
+      <c r="UD101" s="6"/>
+      <c r="UE101" s="6"/>
+      <c r="UF101" s="6"/>
+      <c r="UG101" s="6"/>
+      <c r="UH101" s="6"/>
+      <c r="UI101" s="6"/>
+      <c r="UJ101" s="6"/>
+      <c r="UK101" s="6"/>
+      <c r="UL101" s="6"/>
+      <c r="UM101" s="6"/>
+      <c r="UN101" s="6"/>
+      <c r="UO101" s="6"/>
+      <c r="UP101" s="6"/>
+      <c r="UQ101" s="6"/>
+      <c r="UR101" s="6"/>
+      <c r="US101" s="6"/>
+      <c r="UT101" s="6"/>
+      <c r="UU101" s="6"/>
+      <c r="UV101" s="6"/>
+      <c r="UW101" s="6"/>
+      <c r="UX101" s="6"/>
+      <c r="UY101" s="6"/>
+      <c r="UZ101" s="6"/>
+      <c r="VA101" s="6"/>
+      <c r="VB101" s="6"/>
+      <c r="VC101" s="6"/>
+      <c r="VD101" s="6"/>
+      <c r="VE101" s="6"/>
+      <c r="VF101" s="6"/>
+      <c r="VG101" s="6"/>
+      <c r="VH101" s="6"/>
+      <c r="VI101" s="6"/>
+      <c r="VJ101" s="6"/>
+      <c r="VK101" s="6"/>
+      <c r="VL101" s="6"/>
+      <c r="VM101" s="6"/>
+      <c r="VN101" s="6"/>
+      <c r="VO101" s="6"/>
+      <c r="VP101" s="6"/>
+      <c r="VQ101" s="6"/>
+      <c r="VR101" s="6"/>
+      <c r="VS101" s="6"/>
+      <c r="VT101" s="6"/>
+      <c r="VU101" s="6"/>
+      <c r="VV101" s="6"/>
+      <c r="VW101" s="6"/>
+      <c r="VX101" s="6"/>
+      <c r="VY101" s="6"/>
+      <c r="VZ101" s="6"/>
+      <c r="WA101" s="6"/>
+      <c r="WB101" s="6"/>
+      <c r="WC101" s="6"/>
+      <c r="WD101" s="6"/>
+      <c r="WE101" s="6"/>
+      <c r="WF101" s="6"/>
+      <c r="WG101" s="6"/>
+      <c r="WH101" s="6"/>
+      <c r="WI101" s="6"/>
+      <c r="WJ101" s="6"/>
+      <c r="WK101" s="6"/>
+      <c r="WL101" s="6"/>
+      <c r="WM101" s="6"/>
+      <c r="WN101" s="6"/>
+      <c r="WO101" s="6"/>
+      <c r="WP101" s="6"/>
+      <c r="WQ101" s="6"/>
+      <c r="WR101" s="6"/>
+      <c r="WS101" s="6"/>
+      <c r="WT101" s="6"/>
+      <c r="WU101" s="6"/>
+      <c r="WV101" s="6"/>
+      <c r="WW101" s="6"/>
+      <c r="WX101" s="6"/>
+      <c r="WY101" s="6"/>
+      <c r="WZ101" s="6"/>
+      <c r="XA101" s="6"/>
+      <c r="XB101" s="6"/>
+      <c r="XC101" s="6"/>
+      <c r="XD101" s="6"/>
+      <c r="XE101" s="6"/>
+      <c r="XF101" s="6"/>
+      <c r="XG101" s="6"/>
+      <c r="XH101" s="6"/>
+      <c r="XI101" s="6"/>
+      <c r="XJ101" s="6"/>
+      <c r="XK101" s="6"/>
+      <c r="XL101" s="6"/>
+      <c r="XM101" s="6"/>
+      <c r="XN101" s="6"/>
+      <c r="XO101" s="6"/>
+      <c r="XP101" s="6"/>
+      <c r="XQ101" s="6"/>
+      <c r="XR101" s="6"/>
+      <c r="XS101" s="6"/>
+      <c r="XT101" s="6"/>
+      <c r="XU101" s="6"/>
+      <c r="XV101" s="6"/>
+      <c r="XW101" s="6"/>
+      <c r="XX101" s="6"/>
+      <c r="XY101" s="6"/>
+      <c r="XZ101" s="6"/>
+      <c r="YA101" s="6"/>
+      <c r="YB101" s="6"/>
+      <c r="YC101" s="6"/>
+      <c r="YD101" s="6"/>
+      <c r="YE101" s="6"/>
+      <c r="YF101" s="6"/>
+      <c r="YG101" s="6"/>
+      <c r="YH101" s="6"/>
+      <c r="YI101" s="6"/>
+      <c r="YJ101" s="6"/>
+      <c r="YK101" s="6"/>
+      <c r="YL101" s="6"/>
+      <c r="YM101" s="6"/>
+      <c r="YN101" s="6"/>
+      <c r="YO101" s="6"/>
+      <c r="YP101" s="6"/>
+      <c r="YQ101" s="6"/>
+      <c r="YR101" s="6"/>
+      <c r="YS101" s="6"/>
+      <c r="YT101" s="6"/>
+      <c r="YU101" s="6"/>
+      <c r="YV101" s="6"/>
+      <c r="YW101" s="6"/>
+      <c r="YX101" s="6"/>
+      <c r="YY101" s="6"/>
+      <c r="YZ101" s="6"/>
+      <c r="ZA101" s="6"/>
+      <c r="ZB101" s="6"/>
+      <c r="ZC101" s="6"/>
+      <c r="ZD101" s="6"/>
+      <c r="ZE101" s="6"/>
+      <c r="ZF101" s="6"/>
+      <c r="ZG101" s="6"/>
+      <c r="ZH101" s="6"/>
+      <c r="ZI101" s="6"/>
+      <c r="ZJ101" s="6"/>
+      <c r="ZK101" s="6"/>
+      <c r="ZL101" s="6"/>
+      <c r="ZM101" s="6"/>
+      <c r="ZN101" s="6"/>
+      <c r="ZO101" s="6"/>
+      <c r="ZP101" s="6"/>
+      <c r="ZQ101" s="6"/>
+      <c r="ZR101" s="6"/>
+      <c r="ZS101" s="6"/>
+      <c r="ZT101" s="6"/>
+      <c r="ZU101" s="6"/>
+      <c r="ZV101" s="6"/>
+      <c r="ZW101" s="6"/>
+      <c r="ZX101" s="6"/>
+      <c r="ZY101" s="6"/>
+      <c r="ZZ101" s="6"/>
+      <c r="AAA101" s="6"/>
+      <c r="AAB101" s="6"/>
+      <c r="AAC101" s="6"/>
+      <c r="AAD101" s="6"/>
+      <c r="AAE101" s="6"/>
+      <c r="AAF101" s="6"/>
+      <c r="AAG101" s="6"/>
+      <c r="AAH101" s="6"/>
+      <c r="AAI101" s="6"/>
+      <c r="AAJ101" s="6"/>
+      <c r="AAK101" s="6"/>
+      <c r="AAL101" s="6"/>
+      <c r="AAM101" s="6"/>
+      <c r="AAN101" s="6"/>
+      <c r="AAO101" s="6"/>
+      <c r="AAP101" s="6"/>
+      <c r="AAQ101" s="6"/>
+      <c r="AAR101" s="6"/>
+      <c r="AAS101" s="6"/>
+      <c r="AAT101" s="6"/>
+      <c r="AAU101" s="6"/>
+      <c r="AAV101" s="6"/>
+      <c r="AAW101" s="6"/>
+      <c r="AAX101" s="6"/>
+      <c r="AAY101" s="6"/>
+      <c r="AAZ101" s="6"/>
+      <c r="ABA101" s="6"/>
+      <c r="ABB101" s="6"/>
+      <c r="ABC101" s="6"/>
+      <c r="ABD101" s="6"/>
+      <c r="ABE101" s="6"/>
+      <c r="ABF101" s="6"/>
+      <c r="ABG101" s="6"/>
+      <c r="ABH101" s="6"/>
+      <c r="ABI101" s="6"/>
+      <c r="ABJ101" s="6"/>
+      <c r="ABK101" s="6"/>
+      <c r="ABL101" s="6"/>
+      <c r="ABM101" s="6"/>
+      <c r="ABN101" s="6"/>
+      <c r="ABO101" s="6"/>
+      <c r="ABP101" s="6"/>
+      <c r="ABQ101" s="6"/>
+      <c r="ABR101" s="6"/>
+      <c r="ABS101" s="6"/>
+      <c r="ABT101" s="6"/>
+      <c r="ABU101" s="6"/>
+      <c r="ABV101" s="6"/>
+      <c r="ABW101" s="6"/>
+      <c r="ABX101" s="6"/>
+      <c r="ABY101" s="6"/>
+      <c r="ABZ101" s="6"/>
+      <c r="ACA101" s="6"/>
+      <c r="ACB101" s="6"/>
+      <c r="ACC101" s="6"/>
+      <c r="ACD101" s="6"/>
+      <c r="ACE101" s="6"/>
+      <c r="ACF101" s="6"/>
+      <c r="ACG101" s="6"/>
+      <c r="ACH101" s="6"/>
+      <c r="ACI101" s="6"/>
+      <c r="ACJ101" s="6"/>
+      <c r="ACK101" s="6"/>
+      <c r="ACL101" s="6"/>
+      <c r="ACM101" s="6"/>
+      <c r="ACN101" s="6"/>
+      <c r="ACO101" s="6"/>
+      <c r="ACP101" s="6"/>
+      <c r="ACQ101" s="6"/>
+      <c r="ACR101" s="6"/>
+      <c r="ACS101" s="6"/>
+      <c r="ACT101" s="6"/>
+      <c r="ACU101" s="6"/>
+      <c r="ACV101" s="6"/>
+      <c r="ACW101" s="6"/>
+      <c r="ACX101" s="6"/>
+      <c r="ACY101" s="6"/>
+      <c r="ACZ101" s="6"/>
+      <c r="ADA101" s="6"/>
+      <c r="ADB101" s="6"/>
+      <c r="ADC101" s="6"/>
+      <c r="ADD101" s="6"/>
+      <c r="ADE101" s="6"/>
+      <c r="ADF101" s="6"/>
+      <c r="ADG101" s="6"/>
+      <c r="ADH101" s="6"/>
+      <c r="ADI101" s="6"/>
+      <c r="ADJ101" s="6"/>
+      <c r="ADK101" s="6"/>
+      <c r="ADL101" s="6"/>
+      <c r="ADM101" s="6"/>
+      <c r="ADN101" s="6"/>
+      <c r="ADO101" s="6"/>
+      <c r="ADP101" s="6"/>
+      <c r="ADQ101" s="6"/>
+      <c r="ADR101" s="6"/>
+      <c r="ADS101" s="6"/>
+      <c r="ADT101" s="6"/>
+      <c r="ADU101" s="6"/>
+      <c r="ADV101" s="6"/>
+      <c r="ADW101" s="6"/>
+      <c r="ADX101" s="6"/>
+      <c r="ADY101" s="6"/>
+      <c r="ADZ101" s="6"/>
+      <c r="AEA101" s="6"/>
+      <c r="AEB101" s="6"/>
+      <c r="AEC101" s="6"/>
+      <c r="AED101" s="6"/>
+      <c r="AEE101" s="6"/>
+      <c r="AEF101" s="6"/>
+      <c r="AEG101" s="6"/>
+      <c r="AEH101" s="6"/>
+      <c r="AEI101" s="6"/>
+      <c r="AEJ101" s="6"/>
+      <c r="AEK101" s="6"/>
+      <c r="AEL101" s="6"/>
+      <c r="AEM101" s="6"/>
+      <c r="AEN101" s="6"/>
+      <c r="AEO101" s="6"/>
+      <c r="AEP101" s="6"/>
+      <c r="AEQ101" s="6"/>
+      <c r="AER101" s="6"/>
+      <c r="AES101" s="6"/>
+      <c r="AET101" s="6"/>
+      <c r="AEU101" s="6"/>
+      <c r="AEV101" s="6"/>
+      <c r="AEW101" s="6"/>
+      <c r="AEX101" s="6"/>
+      <c r="AEY101" s="6"/>
+      <c r="AEZ101" s="6"/>
+      <c r="AFA101" s="6"/>
+      <c r="AFB101" s="6"/>
+      <c r="AFC101" s="6"/>
+      <c r="AFD101" s="6"/>
+      <c r="AFE101" s="6"/>
+      <c r="AFF101" s="6"/>
+      <c r="AFG101" s="6"/>
+      <c r="AFH101" s="6"/>
+      <c r="AFI101" s="6"/>
+      <c r="AFJ101" s="6"/>
+      <c r="AFK101" s="6"/>
+      <c r="AFL101" s="6"/>
+      <c r="AFM101" s="6"/>
+      <c r="AFN101" s="6"/>
+      <c r="AFO101" s="6"/>
+      <c r="AFP101" s="6"/>
+      <c r="AFQ101" s="6"/>
+      <c r="AFR101" s="6"/>
+      <c r="AFS101" s="6"/>
+      <c r="AFT101" s="6"/>
+      <c r="AFU101" s="6"/>
+      <c r="AFV101" s="6"/>
+      <c r="AFW101" s="6"/>
+      <c r="AFX101" s="6"/>
+      <c r="AFY101" s="6"/>
+      <c r="AFZ101" s="6"/>
+      <c r="AGA101" s="6"/>
+      <c r="AGB101" s="6"/>
+      <c r="AGC101" s="6"/>
+      <c r="AGD101" s="6"/>
+      <c r="AGE101" s="6"/>
+      <c r="AGF101" s="6"/>
+      <c r="AGG101" s="6"/>
+      <c r="AGH101" s="6"/>
+      <c r="AGI101" s="6"/>
+      <c r="AGJ101" s="6"/>
+      <c r="AGK101" s="6"/>
+      <c r="AGL101" s="6"/>
+      <c r="AGM101" s="6"/>
+      <c r="AGN101" s="6"/>
+      <c r="AGO101" s="6"/>
+      <c r="AGP101" s="6"/>
+      <c r="AGQ101" s="6"/>
+      <c r="AGR101" s="6"/>
+      <c r="AGS101" s="6"/>
+      <c r="AGT101" s="6"/>
+      <c r="AGU101" s="6"/>
+      <c r="AGV101" s="6"/>
+      <c r="AGW101" s="6"/>
+      <c r="AGX101" s="6"/>
+      <c r="AGY101" s="6"/>
+      <c r="AGZ101" s="6"/>
+      <c r="AHA101" s="6"/>
+      <c r="AHB101" s="6"/>
+      <c r="AHC101" s="6"/>
+      <c r="AHD101" s="6"/>
+      <c r="AHE101" s="6"/>
+      <c r="AHF101" s="6"/>
+      <c r="AHG101" s="6"/>
+      <c r="AHH101" s="6"/>
+      <c r="AHI101" s="6"/>
+      <c r="AHJ101" s="6"/>
+      <c r="AHK101" s="6"/>
+      <c r="AHL101" s="6"/>
+      <c r="AHM101" s="6"/>
+      <c r="AHN101" s="6"/>
+      <c r="AHO101" s="6"/>
+      <c r="AHP101" s="6"/>
+      <c r="AHQ101" s="6"/>
+      <c r="AHR101" s="6"/>
+      <c r="AHS101" s="6"/>
+      <c r="AHT101" s="6"/>
+      <c r="AHU101" s="6"/>
+      <c r="AHV101" s="6"/>
+      <c r="AHW101" s="6"/>
+      <c r="AHX101" s="6"/>
+      <c r="AHY101" s="6"/>
+      <c r="AHZ101" s="6"/>
+      <c r="AIA101" s="6"/>
+      <c r="AIB101" s="6"/>
+      <c r="AIC101" s="6"/>
+      <c r="AID101" s="6"/>
+      <c r="AIE101" s="6"/>
+      <c r="AIF101" s="6"/>
+      <c r="AIG101" s="6"/>
+      <c r="AIH101" s="6"/>
+      <c r="AII101" s="6"/>
+      <c r="AIJ101" s="6"/>
+      <c r="AIK101" s="6"/>
+      <c r="AIL101" s="6"/>
+      <c r="AIM101" s="6"/>
+      <c r="AIN101" s="6"/>
+      <c r="AIO101" s="6"/>
+      <c r="AIP101" s="6"/>
+      <c r="AIQ101" s="6"/>
+      <c r="AIR101" s="6"/>
+      <c r="AIS101" s="6"/>
+      <c r="AIT101" s="6"/>
+      <c r="AIU101" s="6"/>
+      <c r="AIV101" s="6"/>
+      <c r="AIW101" s="6"/>
+      <c r="AIX101" s="6"/>
+      <c r="AIY101" s="6"/>
+      <c r="AIZ101" s="6"/>
+      <c r="AJA101" s="6"/>
+      <c r="AJB101" s="6"/>
+      <c r="AJC101" s="6"/>
+      <c r="AJD101" s="6"/>
+      <c r="AJE101" s="6"/>
+      <c r="AJF101" s="6"/>
+      <c r="AJG101" s="6"/>
+      <c r="AJH101" s="6"/>
+      <c r="AJI101" s="6"/>
+      <c r="AJJ101" s="6"/>
+      <c r="AJK101" s="6"/>
+      <c r="AJL101" s="6"/>
+      <c r="AJM101" s="6"/>
+      <c r="AJN101" s="6"/>
+      <c r="AJO101" s="6"/>
+      <c r="AJP101" s="6"/>
+      <c r="AJQ101" s="6"/>
+      <c r="AJR101" s="6"/>
+      <c r="AJS101" s="6"/>
+      <c r="AJT101" s="6"/>
+      <c r="AJU101" s="6"/>
+      <c r="AJV101" s="6"/>
+      <c r="AJW101" s="6"/>
+      <c r="AJX101" s="6"/>
+      <c r="AJY101" s="6"/>
+      <c r="AJZ101" s="6"/>
+      <c r="AKA101" s="6"/>
+      <c r="AKB101" s="6"/>
+      <c r="AKC101" s="6"/>
+      <c r="AKD101" s="6"/>
+      <c r="AKE101" s="6"/>
+      <c r="AKF101" s="6"/>
+      <c r="AKG101" s="6"/>
+      <c r="AKH101" s="6"/>
+      <c r="AKI101" s="6"/>
+      <c r="AKJ101" s="6"/>
+      <c r="AKK101" s="6"/>
+      <c r="AKL101" s="6"/>
+      <c r="AKM101" s="6"/>
+      <c r="AKN101" s="6"/>
+      <c r="AKO101" s="6"/>
+      <c r="AKP101" s="6"/>
+      <c r="AKQ101" s="6"/>
+      <c r="AKR101" s="6"/>
+      <c r="AKS101" s="6"/>
+      <c r="AKT101" s="6"/>
+      <c r="AKU101" s="6"/>
+      <c r="AKV101" s="6"/>
+      <c r="AKW101" s="6"/>
+      <c r="AKX101" s="6"/>
+      <c r="AKY101" s="6"/>
+      <c r="AKZ101" s="6"/>
+      <c r="ALA101" s="6"/>
+      <c r="ALB101" s="6"/>
+      <c r="ALC101" s="6"/>
+      <c r="ALD101" s="6"/>
+      <c r="ALE101" s="6"/>
+      <c r="ALF101" s="6"/>
+      <c r="ALG101" s="6"/>
+      <c r="ALH101" s="6"/>
+      <c r="ALI101" s="6"/>
+      <c r="ALJ101" s="6"/>
+      <c r="ALK101" s="6"/>
+      <c r="ALL101" s="6"/>
+      <c r="ALM101" s="6"/>
+      <c r="ALN101" s="6"/>
+      <c r="ALO101" s="6"/>
+      <c r="ALP101" s="6"/>
+      <c r="ALQ101" s="6"/>
+      <c r="ALR101" s="6"/>
+      <c r="ALS101" s="6"/>
+      <c r="ALT101" s="6"/>
+      <c r="ALU101" s="6"/>
+      <c r="ALV101" s="6"/>
+      <c r="ALW101" s="6"/>
+      <c r="ALX101" s="6"/>
+      <c r="ALY101" s="6"/>
+      <c r="ALZ101" s="6"/>
+      <c r="AMA101" s="6"/>
+      <c r="AMB101" s="6"/>
+      <c r="AMC101" s="6"/>
+      <c r="AMD101" s="6"/>
+      <c r="AME101" s="6"/>
+      <c r="AMF101" s="6"/>
+      <c r="AMG101" s="6"/>
+      <c r="AMH101" s="6"/>
+      <c r="AMI101" s="6"/>
+      <c r="AMJ101" s="6"/>
+      <c r="AMK101" s="6"/>
+      <c r="AML101" s="6"/>
+      <c r="AMM101" s="6"/>
+    </row>
+    <row r="102" spans="1:1027" ht="37.25" customHeight="1">
+      <c r="A102" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="C102" s="44" t="s">
+        <v>653</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="E102" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="F102" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="44" t="s">
+      <c r="G102" s="43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:1027" s="43" customFormat="1" ht="37.25" customHeight="1">
-      <c r="A102" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="C102" s="45" t="s">
-        <v>653</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>654</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="F102" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="44" t="s">
-        <v>9</v>
-      </c>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
+      <c r="AD102" s="6"/>
+      <c r="AE102" s="6"/>
+      <c r="AF102" s="6"/>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="6"/>
+      <c r="AI102" s="6"/>
+      <c r="AJ102" s="6"/>
+      <c r="AK102" s="6"/>
+      <c r="AL102" s="6"/>
+      <c r="AM102" s="6"/>
+      <c r="AN102" s="6"/>
+      <c r="AO102" s="6"/>
+      <c r="AP102" s="6"/>
+      <c r="AQ102" s="6"/>
+      <c r="AR102" s="6"/>
+      <c r="AS102" s="6"/>
+      <c r="AT102" s="6"/>
+      <c r="AU102" s="6"/>
+      <c r="AV102" s="6"/>
+      <c r="AW102" s="6"/>
+      <c r="AX102" s="6"/>
+      <c r="AY102" s="6"/>
+      <c r="AZ102" s="6"/>
+      <c r="BA102" s="6"/>
+      <c r="BB102" s="6"/>
+      <c r="BC102" s="6"/>
+      <c r="BD102" s="6"/>
+      <c r="BE102" s="6"/>
+      <c r="BF102" s="6"/>
+      <c r="BG102" s="6"/>
+      <c r="BH102" s="6"/>
+      <c r="BI102" s="6"/>
+      <c r="BJ102" s="6"/>
+      <c r="BK102" s="6"/>
+      <c r="BL102" s="6"/>
+      <c r="BM102" s="6"/>
+      <c r="BN102" s="6"/>
+      <c r="BO102" s="6"/>
+      <c r="BP102" s="6"/>
+      <c r="BQ102" s="6"/>
+      <c r="BR102" s="6"/>
+      <c r="BS102" s="6"/>
+      <c r="BT102" s="6"/>
+      <c r="BU102" s="6"/>
+      <c r="BV102" s="6"/>
+      <c r="BW102" s="6"/>
+      <c r="BX102" s="6"/>
+      <c r="BY102" s="6"/>
+      <c r="BZ102" s="6"/>
+      <c r="CA102" s="6"/>
+      <c r="CB102" s="6"/>
+      <c r="CC102" s="6"/>
+      <c r="CD102" s="6"/>
+      <c r="CE102" s="6"/>
+      <c r="CF102" s="6"/>
+      <c r="CG102" s="6"/>
+      <c r="CH102" s="6"/>
+      <c r="CI102" s="6"/>
+      <c r="CJ102" s="6"/>
+      <c r="CK102" s="6"/>
+      <c r="CL102" s="6"/>
+      <c r="CM102" s="6"/>
+      <c r="CN102" s="6"/>
+      <c r="CO102" s="6"/>
+      <c r="CP102" s="6"/>
+      <c r="CQ102" s="6"/>
+      <c r="CR102" s="6"/>
+      <c r="CS102" s="6"/>
+      <c r="CT102" s="6"/>
+      <c r="CU102" s="6"/>
+      <c r="CV102" s="6"/>
+      <c r="CW102" s="6"/>
+      <c r="CX102" s="6"/>
+      <c r="CY102" s="6"/>
+      <c r="CZ102" s="6"/>
+      <c r="DA102" s="6"/>
+      <c r="DB102" s="6"/>
+      <c r="DC102" s="6"/>
+      <c r="DD102" s="6"/>
+      <c r="DE102" s="6"/>
+      <c r="DF102" s="6"/>
+      <c r="DG102" s="6"/>
+      <c r="DH102" s="6"/>
+      <c r="DI102" s="6"/>
+      <c r="DJ102" s="6"/>
+      <c r="DK102" s="6"/>
+      <c r="DL102" s="6"/>
+      <c r="DM102" s="6"/>
+      <c r="DN102" s="6"/>
+      <c r="DO102" s="6"/>
+      <c r="DP102" s="6"/>
+      <c r="DQ102" s="6"/>
+      <c r="DR102" s="6"/>
+      <c r="DS102" s="6"/>
+      <c r="DT102" s="6"/>
+      <c r="DU102" s="6"/>
+      <c r="DV102" s="6"/>
+      <c r="DW102" s="6"/>
+      <c r="DX102" s="6"/>
+      <c r="DY102" s="6"/>
+      <c r="DZ102" s="6"/>
+      <c r="EA102" s="6"/>
+      <c r="EB102" s="6"/>
+      <c r="EC102" s="6"/>
+      <c r="ED102" s="6"/>
+      <c r="EE102" s="6"/>
+      <c r="EF102" s="6"/>
+      <c r="EG102" s="6"/>
+      <c r="EH102" s="6"/>
+      <c r="EI102" s="6"/>
+      <c r="EJ102" s="6"/>
+      <c r="EK102" s="6"/>
+      <c r="EL102" s="6"/>
+      <c r="EM102" s="6"/>
+      <c r="EN102" s="6"/>
+      <c r="EO102" s="6"/>
+      <c r="EP102" s="6"/>
+      <c r="EQ102" s="6"/>
+      <c r="ER102" s="6"/>
+      <c r="ES102" s="6"/>
+      <c r="ET102" s="6"/>
+      <c r="EU102" s="6"/>
+      <c r="EV102" s="6"/>
+      <c r="EW102" s="6"/>
+      <c r="EX102" s="6"/>
+      <c r="EY102" s="6"/>
+      <c r="EZ102" s="6"/>
+      <c r="FA102" s="6"/>
+      <c r="FB102" s="6"/>
+      <c r="FC102" s="6"/>
+      <c r="FD102" s="6"/>
+      <c r="FE102" s="6"/>
+      <c r="FF102" s="6"/>
+      <c r="FG102" s="6"/>
+      <c r="FH102" s="6"/>
+      <c r="FI102" s="6"/>
+      <c r="FJ102" s="6"/>
+      <c r="FK102" s="6"/>
+      <c r="FL102" s="6"/>
+      <c r="FM102" s="6"/>
+      <c r="FN102" s="6"/>
+      <c r="FO102" s="6"/>
+      <c r="FP102" s="6"/>
+      <c r="FQ102" s="6"/>
+      <c r="FR102" s="6"/>
+      <c r="FS102" s="6"/>
+      <c r="FT102" s="6"/>
+      <c r="FU102" s="6"/>
+      <c r="FV102" s="6"/>
+      <c r="FW102" s="6"/>
+      <c r="FX102" s="6"/>
+      <c r="FY102" s="6"/>
+      <c r="FZ102" s="6"/>
+      <c r="GA102" s="6"/>
+      <c r="GB102" s="6"/>
+      <c r="GC102" s="6"/>
+      <c r="GD102" s="6"/>
+      <c r="GE102" s="6"/>
+      <c r="GF102" s="6"/>
+      <c r="GG102" s="6"/>
+      <c r="GH102" s="6"/>
+      <c r="GI102" s="6"/>
+      <c r="GJ102" s="6"/>
+      <c r="GK102" s="6"/>
+      <c r="GL102" s="6"/>
+      <c r="GM102" s="6"/>
+      <c r="GN102" s="6"/>
+      <c r="GO102" s="6"/>
+      <c r="GP102" s="6"/>
+      <c r="GQ102" s="6"/>
+      <c r="GR102" s="6"/>
+      <c r="GS102" s="6"/>
+      <c r="GT102" s="6"/>
+      <c r="GU102" s="6"/>
+      <c r="GV102" s="6"/>
+      <c r="GW102" s="6"/>
+      <c r="GX102" s="6"/>
+      <c r="GY102" s="6"/>
+      <c r="GZ102" s="6"/>
+      <c r="HA102" s="6"/>
+      <c r="HB102" s="6"/>
+      <c r="HC102" s="6"/>
+      <c r="HD102" s="6"/>
+      <c r="HE102" s="6"/>
+      <c r="HF102" s="6"/>
+      <c r="HG102" s="6"/>
+      <c r="HH102" s="6"/>
+      <c r="HI102" s="6"/>
+      <c r="HJ102" s="6"/>
+      <c r="HK102" s="6"/>
+      <c r="HL102" s="6"/>
+      <c r="HM102" s="6"/>
+      <c r="HN102" s="6"/>
+      <c r="HO102" s="6"/>
+      <c r="HP102" s="6"/>
+      <c r="HQ102" s="6"/>
+      <c r="HR102" s="6"/>
+      <c r="HS102" s="6"/>
+      <c r="HT102" s="6"/>
+      <c r="HU102" s="6"/>
+      <c r="HV102" s="6"/>
+      <c r="HW102" s="6"/>
+      <c r="HX102" s="6"/>
+      <c r="HY102" s="6"/>
+      <c r="HZ102" s="6"/>
+      <c r="IA102" s="6"/>
+      <c r="IB102" s="6"/>
+      <c r="IC102" s="6"/>
+      <c r="ID102" s="6"/>
+      <c r="IE102" s="6"/>
+      <c r="IF102" s="6"/>
+      <c r="IG102" s="6"/>
+      <c r="IH102" s="6"/>
+      <c r="II102" s="6"/>
+      <c r="IJ102" s="6"/>
+      <c r="IK102" s="6"/>
+      <c r="IL102" s="6"/>
+      <c r="IM102" s="6"/>
+      <c r="IN102" s="6"/>
+      <c r="IO102" s="6"/>
+      <c r="IP102" s="6"/>
+      <c r="IQ102" s="6"/>
+      <c r="IR102" s="6"/>
+      <c r="IS102" s="6"/>
+      <c r="IT102" s="6"/>
+      <c r="IU102" s="6"/>
+      <c r="IV102" s="6"/>
+      <c r="IW102" s="6"/>
+      <c r="IX102" s="6"/>
+      <c r="IY102" s="6"/>
+      <c r="IZ102" s="6"/>
+      <c r="JA102" s="6"/>
+      <c r="JB102" s="6"/>
+      <c r="JC102" s="6"/>
+      <c r="JD102" s="6"/>
+      <c r="JE102" s="6"/>
+      <c r="JF102" s="6"/>
+      <c r="JG102" s="6"/>
+      <c r="JH102" s="6"/>
+      <c r="JI102" s="6"/>
+      <c r="JJ102" s="6"/>
+      <c r="JK102" s="6"/>
+      <c r="JL102" s="6"/>
+      <c r="JM102" s="6"/>
+      <c r="JN102" s="6"/>
+      <c r="JO102" s="6"/>
+      <c r="JP102" s="6"/>
+      <c r="JQ102" s="6"/>
+      <c r="JR102" s="6"/>
+      <c r="JS102" s="6"/>
+      <c r="JT102" s="6"/>
+      <c r="JU102" s="6"/>
+      <c r="JV102" s="6"/>
+      <c r="JW102" s="6"/>
+      <c r="JX102" s="6"/>
+      <c r="JY102" s="6"/>
+      <c r="JZ102" s="6"/>
+      <c r="KA102" s="6"/>
+      <c r="KB102" s="6"/>
+      <c r="KC102" s="6"/>
+      <c r="KD102" s="6"/>
+      <c r="KE102" s="6"/>
+      <c r="KF102" s="6"/>
+      <c r="KG102" s="6"/>
+      <c r="KH102" s="6"/>
+      <c r="KI102" s="6"/>
+      <c r="KJ102" s="6"/>
+      <c r="KK102" s="6"/>
+      <c r="KL102" s="6"/>
+      <c r="KM102" s="6"/>
+      <c r="KN102" s="6"/>
+      <c r="KO102" s="6"/>
+      <c r="KP102" s="6"/>
+      <c r="KQ102" s="6"/>
+      <c r="KR102" s="6"/>
+      <c r="KS102" s="6"/>
+      <c r="KT102" s="6"/>
+      <c r="KU102" s="6"/>
+      <c r="KV102" s="6"/>
+      <c r="KW102" s="6"/>
+      <c r="KX102" s="6"/>
+      <c r="KY102" s="6"/>
+      <c r="KZ102" s="6"/>
+      <c r="LA102" s="6"/>
+      <c r="LB102" s="6"/>
+      <c r="LC102" s="6"/>
+      <c r="LD102" s="6"/>
+      <c r="LE102" s="6"/>
+      <c r="LF102" s="6"/>
+      <c r="LG102" s="6"/>
+      <c r="LH102" s="6"/>
+      <c r="LI102" s="6"/>
+      <c r="LJ102" s="6"/>
+      <c r="LK102" s="6"/>
+      <c r="LL102" s="6"/>
+      <c r="LM102" s="6"/>
+      <c r="LN102" s="6"/>
+      <c r="LO102" s="6"/>
+      <c r="LP102" s="6"/>
+      <c r="LQ102" s="6"/>
+      <c r="LR102" s="6"/>
+      <c r="LS102" s="6"/>
+      <c r="LT102" s="6"/>
+      <c r="LU102" s="6"/>
+      <c r="LV102" s="6"/>
+      <c r="LW102" s="6"/>
+      <c r="LX102" s="6"/>
+      <c r="LY102" s="6"/>
+      <c r="LZ102" s="6"/>
+      <c r="MA102" s="6"/>
+      <c r="MB102" s="6"/>
+      <c r="MC102" s="6"/>
+      <c r="MD102" s="6"/>
+      <c r="ME102" s="6"/>
+      <c r="MF102" s="6"/>
+      <c r="MG102" s="6"/>
+      <c r="MH102" s="6"/>
+      <c r="MI102" s="6"/>
+      <c r="MJ102" s="6"/>
+      <c r="MK102" s="6"/>
+      <c r="ML102" s="6"/>
+      <c r="MM102" s="6"/>
+      <c r="MN102" s="6"/>
+      <c r="MO102" s="6"/>
+      <c r="MP102" s="6"/>
+      <c r="MQ102" s="6"/>
+      <c r="MR102" s="6"/>
+      <c r="MS102" s="6"/>
+      <c r="MT102" s="6"/>
+      <c r="MU102" s="6"/>
+      <c r="MV102" s="6"/>
+      <c r="MW102" s="6"/>
+      <c r="MX102" s="6"/>
+      <c r="MY102" s="6"/>
+      <c r="MZ102" s="6"/>
+      <c r="NA102" s="6"/>
+      <c r="NB102" s="6"/>
+      <c r="NC102" s="6"/>
+      <c r="ND102" s="6"/>
+      <c r="NE102" s="6"/>
+      <c r="NF102" s="6"/>
+      <c r="NG102" s="6"/>
+      <c r="NH102" s="6"/>
+      <c r="NI102" s="6"/>
+      <c r="NJ102" s="6"/>
+      <c r="NK102" s="6"/>
+      <c r="NL102" s="6"/>
+      <c r="NM102" s="6"/>
+      <c r="NN102" s="6"/>
+      <c r="NO102" s="6"/>
+      <c r="NP102" s="6"/>
+      <c r="NQ102" s="6"/>
+      <c r="NR102" s="6"/>
+      <c r="NS102" s="6"/>
+      <c r="NT102" s="6"/>
+      <c r="NU102" s="6"/>
+      <c r="NV102" s="6"/>
+      <c r="NW102" s="6"/>
+      <c r="NX102" s="6"/>
+      <c r="NY102" s="6"/>
+      <c r="NZ102" s="6"/>
+      <c r="OA102" s="6"/>
+      <c r="OB102" s="6"/>
+      <c r="OC102" s="6"/>
+      <c r="OD102" s="6"/>
+      <c r="OE102" s="6"/>
+      <c r="OF102" s="6"/>
+      <c r="OG102" s="6"/>
+      <c r="OH102" s="6"/>
+      <c r="OI102" s="6"/>
+      <c r="OJ102" s="6"/>
+      <c r="OK102" s="6"/>
+      <c r="OL102" s="6"/>
+      <c r="OM102" s="6"/>
+      <c r="ON102" s="6"/>
+      <c r="OO102" s="6"/>
+      <c r="OP102" s="6"/>
+      <c r="OQ102" s="6"/>
+      <c r="OR102" s="6"/>
+      <c r="OS102" s="6"/>
+      <c r="OT102" s="6"/>
+      <c r="OU102" s="6"/>
+      <c r="OV102" s="6"/>
+      <c r="OW102" s="6"/>
+      <c r="OX102" s="6"/>
+      <c r="OY102" s="6"/>
+      <c r="OZ102" s="6"/>
+      <c r="PA102" s="6"/>
+      <c r="PB102" s="6"/>
+      <c r="PC102" s="6"/>
+      <c r="PD102" s="6"/>
+      <c r="PE102" s="6"/>
+      <c r="PF102" s="6"/>
+      <c r="PG102" s="6"/>
+      <c r="PH102" s="6"/>
+      <c r="PI102" s="6"/>
+      <c r="PJ102" s="6"/>
+      <c r="PK102" s="6"/>
+      <c r="PL102" s="6"/>
+      <c r="PM102" s="6"/>
+      <c r="PN102" s="6"/>
+      <c r="PO102" s="6"/>
+      <c r="PP102" s="6"/>
+      <c r="PQ102" s="6"/>
+      <c r="PR102" s="6"/>
+      <c r="PS102" s="6"/>
+      <c r="PT102" s="6"/>
+      <c r="PU102" s="6"/>
+      <c r="PV102" s="6"/>
+      <c r="PW102" s="6"/>
+      <c r="PX102" s="6"/>
+      <c r="PY102" s="6"/>
+      <c r="PZ102" s="6"/>
+      <c r="QA102" s="6"/>
+      <c r="QB102" s="6"/>
+      <c r="QC102" s="6"/>
+      <c r="QD102" s="6"/>
+      <c r="QE102" s="6"/>
+      <c r="QF102" s="6"/>
+      <c r="QG102" s="6"/>
+      <c r="QH102" s="6"/>
+      <c r="QI102" s="6"/>
+      <c r="QJ102" s="6"/>
+      <c r="QK102" s="6"/>
+      <c r="QL102" s="6"/>
+      <c r="QM102" s="6"/>
+      <c r="QN102" s="6"/>
+      <c r="QO102" s="6"/>
+      <c r="QP102" s="6"/>
+      <c r="QQ102" s="6"/>
+      <c r="QR102" s="6"/>
+      <c r="QS102" s="6"/>
+      <c r="QT102" s="6"/>
+      <c r="QU102" s="6"/>
+      <c r="QV102" s="6"/>
+      <c r="QW102" s="6"/>
+      <c r="QX102" s="6"/>
+      <c r="QY102" s="6"/>
+      <c r="QZ102" s="6"/>
+      <c r="RA102" s="6"/>
+      <c r="RB102" s="6"/>
+      <c r="RC102" s="6"/>
+      <c r="RD102" s="6"/>
+      <c r="RE102" s="6"/>
+      <c r="RF102" s="6"/>
+      <c r="RG102" s="6"/>
+      <c r="RH102" s="6"/>
+      <c r="RI102" s="6"/>
+      <c r="RJ102" s="6"/>
+      <c r="RK102" s="6"/>
+      <c r="RL102" s="6"/>
+      <c r="RM102" s="6"/>
+      <c r="RN102" s="6"/>
+      <c r="RO102" s="6"/>
+      <c r="RP102" s="6"/>
+      <c r="RQ102" s="6"/>
+      <c r="RR102" s="6"/>
+      <c r="RS102" s="6"/>
+      <c r="RT102" s="6"/>
+      <c r="RU102" s="6"/>
+      <c r="RV102" s="6"/>
+      <c r="RW102" s="6"/>
+      <c r="RX102" s="6"/>
+      <c r="RY102" s="6"/>
+      <c r="RZ102" s="6"/>
+      <c r="SA102" s="6"/>
+      <c r="SB102" s="6"/>
+      <c r="SC102" s="6"/>
+      <c r="SD102" s="6"/>
+      <c r="SE102" s="6"/>
+      <c r="SF102" s="6"/>
+      <c r="SG102" s="6"/>
+      <c r="SH102" s="6"/>
+      <c r="SI102" s="6"/>
+      <c r="SJ102" s="6"/>
+      <c r="SK102" s="6"/>
+      <c r="SL102" s="6"/>
+      <c r="SM102" s="6"/>
+      <c r="SN102" s="6"/>
+      <c r="SO102" s="6"/>
+      <c r="SP102" s="6"/>
+      <c r="SQ102" s="6"/>
+      <c r="SR102" s="6"/>
+      <c r="SS102" s="6"/>
+      <c r="ST102" s="6"/>
+      <c r="SU102" s="6"/>
+      <c r="SV102" s="6"/>
+      <c r="SW102" s="6"/>
+      <c r="SX102" s="6"/>
+      <c r="SY102" s="6"/>
+      <c r="SZ102" s="6"/>
+      <c r="TA102" s="6"/>
+      <c r="TB102" s="6"/>
+      <c r="TC102" s="6"/>
+      <c r="TD102" s="6"/>
+      <c r="TE102" s="6"/>
+      <c r="TF102" s="6"/>
+      <c r="TG102" s="6"/>
+      <c r="TH102" s="6"/>
+      <c r="TI102" s="6"/>
+      <c r="TJ102" s="6"/>
+      <c r="TK102" s="6"/>
+      <c r="TL102" s="6"/>
+      <c r="TM102" s="6"/>
+      <c r="TN102" s="6"/>
+      <c r="TO102" s="6"/>
+      <c r="TP102" s="6"/>
+      <c r="TQ102" s="6"/>
+      <c r="TR102" s="6"/>
+      <c r="TS102" s="6"/>
+      <c r="TT102" s="6"/>
+      <c r="TU102" s="6"/>
+      <c r="TV102" s="6"/>
+      <c r="TW102" s="6"/>
+      <c r="TX102" s="6"/>
+      <c r="TY102" s="6"/>
+      <c r="TZ102" s="6"/>
+      <c r="UA102" s="6"/>
+      <c r="UB102" s="6"/>
+      <c r="UC102" s="6"/>
+      <c r="UD102" s="6"/>
+      <c r="UE102" s="6"/>
+      <c r="UF102" s="6"/>
+      <c r="UG102" s="6"/>
+      <c r="UH102" s="6"/>
+      <c r="UI102" s="6"/>
+      <c r="UJ102" s="6"/>
+      <c r="UK102" s="6"/>
+      <c r="UL102" s="6"/>
+      <c r="UM102" s="6"/>
+      <c r="UN102" s="6"/>
+      <c r="UO102" s="6"/>
+      <c r="UP102" s="6"/>
+      <c r="UQ102" s="6"/>
+      <c r="UR102" s="6"/>
+      <c r="US102" s="6"/>
+      <c r="UT102" s="6"/>
+      <c r="UU102" s="6"/>
+      <c r="UV102" s="6"/>
+      <c r="UW102" s="6"/>
+      <c r="UX102" s="6"/>
+      <c r="UY102" s="6"/>
+      <c r="UZ102" s="6"/>
+      <c r="VA102" s="6"/>
+      <c r="VB102" s="6"/>
+      <c r="VC102" s="6"/>
+      <c r="VD102" s="6"/>
+      <c r="VE102" s="6"/>
+      <c r="VF102" s="6"/>
+      <c r="VG102" s="6"/>
+      <c r="VH102" s="6"/>
+      <c r="VI102" s="6"/>
+      <c r="VJ102" s="6"/>
+      <c r="VK102" s="6"/>
+      <c r="VL102" s="6"/>
+      <c r="VM102" s="6"/>
+      <c r="VN102" s="6"/>
+      <c r="VO102" s="6"/>
+      <c r="VP102" s="6"/>
+      <c r="VQ102" s="6"/>
+      <c r="VR102" s="6"/>
+      <c r="VS102" s="6"/>
+      <c r="VT102" s="6"/>
+      <c r="VU102" s="6"/>
+      <c r="VV102" s="6"/>
+      <c r="VW102" s="6"/>
+      <c r="VX102" s="6"/>
+      <c r="VY102" s="6"/>
+      <c r="VZ102" s="6"/>
+      <c r="WA102" s="6"/>
+      <c r="WB102" s="6"/>
+      <c r="WC102" s="6"/>
+      <c r="WD102" s="6"/>
+      <c r="WE102" s="6"/>
+      <c r="WF102" s="6"/>
+      <c r="WG102" s="6"/>
+      <c r="WH102" s="6"/>
+      <c r="WI102" s="6"/>
+      <c r="WJ102" s="6"/>
+      <c r="WK102" s="6"/>
+      <c r="WL102" s="6"/>
+      <c r="WM102" s="6"/>
+      <c r="WN102" s="6"/>
+      <c r="WO102" s="6"/>
+      <c r="WP102" s="6"/>
+      <c r="WQ102" s="6"/>
+      <c r="WR102" s="6"/>
+      <c r="WS102" s="6"/>
+      <c r="WT102" s="6"/>
+      <c r="WU102" s="6"/>
+      <c r="WV102" s="6"/>
+      <c r="WW102" s="6"/>
+      <c r="WX102" s="6"/>
+      <c r="WY102" s="6"/>
+      <c r="WZ102" s="6"/>
+      <c r="XA102" s="6"/>
+      <c r="XB102" s="6"/>
+      <c r="XC102" s="6"/>
+      <c r="XD102" s="6"/>
+      <c r="XE102" s="6"/>
+      <c r="XF102" s="6"/>
+      <c r="XG102" s="6"/>
+      <c r="XH102" s="6"/>
+      <c r="XI102" s="6"/>
+      <c r="XJ102" s="6"/>
+      <c r="XK102" s="6"/>
+      <c r="XL102" s="6"/>
+      <c r="XM102" s="6"/>
+      <c r="XN102" s="6"/>
+      <c r="XO102" s="6"/>
+      <c r="XP102" s="6"/>
+      <c r="XQ102" s="6"/>
+      <c r="XR102" s="6"/>
+      <c r="XS102" s="6"/>
+      <c r="XT102" s="6"/>
+      <c r="XU102" s="6"/>
+      <c r="XV102" s="6"/>
+      <c r="XW102" s="6"/>
+      <c r="XX102" s="6"/>
+      <c r="XY102" s="6"/>
+      <c r="XZ102" s="6"/>
+      <c r="YA102" s="6"/>
+      <c r="YB102" s="6"/>
+      <c r="YC102" s="6"/>
+      <c r="YD102" s="6"/>
+      <c r="YE102" s="6"/>
+      <c r="YF102" s="6"/>
+      <c r="YG102" s="6"/>
+      <c r="YH102" s="6"/>
+      <c r="YI102" s="6"/>
+      <c r="YJ102" s="6"/>
+      <c r="YK102" s="6"/>
+      <c r="YL102" s="6"/>
+      <c r="YM102" s="6"/>
+      <c r="YN102" s="6"/>
+      <c r="YO102" s="6"/>
+      <c r="YP102" s="6"/>
+      <c r="YQ102" s="6"/>
+      <c r="YR102" s="6"/>
+      <c r="YS102" s="6"/>
+      <c r="YT102" s="6"/>
+      <c r="YU102" s="6"/>
+      <c r="YV102" s="6"/>
+      <c r="YW102" s="6"/>
+      <c r="YX102" s="6"/>
+      <c r="YY102" s="6"/>
+      <c r="YZ102" s="6"/>
+      <c r="ZA102" s="6"/>
+      <c r="ZB102" s="6"/>
+      <c r="ZC102" s="6"/>
+      <c r="ZD102" s="6"/>
+      <c r="ZE102" s="6"/>
+      <c r="ZF102" s="6"/>
+      <c r="ZG102" s="6"/>
+      <c r="ZH102" s="6"/>
+      <c r="ZI102" s="6"/>
+      <c r="ZJ102" s="6"/>
+      <c r="ZK102" s="6"/>
+      <c r="ZL102" s="6"/>
+      <c r="ZM102" s="6"/>
+      <c r="ZN102" s="6"/>
+      <c r="ZO102" s="6"/>
+      <c r="ZP102" s="6"/>
+      <c r="ZQ102" s="6"/>
+      <c r="ZR102" s="6"/>
+      <c r="ZS102" s="6"/>
+      <c r="ZT102" s="6"/>
+      <c r="ZU102" s="6"/>
+      <c r="ZV102" s="6"/>
+      <c r="ZW102" s="6"/>
+      <c r="ZX102" s="6"/>
+      <c r="ZY102" s="6"/>
+      <c r="ZZ102" s="6"/>
+      <c r="AAA102" s="6"/>
+      <c r="AAB102" s="6"/>
+      <c r="AAC102" s="6"/>
+      <c r="AAD102" s="6"/>
+      <c r="AAE102" s="6"/>
+      <c r="AAF102" s="6"/>
+      <c r="AAG102" s="6"/>
+      <c r="AAH102" s="6"/>
+      <c r="AAI102" s="6"/>
+      <c r="AAJ102" s="6"/>
+      <c r="AAK102" s="6"/>
+      <c r="AAL102" s="6"/>
+      <c r="AAM102" s="6"/>
+      <c r="AAN102" s="6"/>
+      <c r="AAO102" s="6"/>
+      <c r="AAP102" s="6"/>
+      <c r="AAQ102" s="6"/>
+      <c r="AAR102" s="6"/>
+      <c r="AAS102" s="6"/>
+      <c r="AAT102" s="6"/>
+      <c r="AAU102" s="6"/>
+      <c r="AAV102" s="6"/>
+      <c r="AAW102" s="6"/>
+      <c r="AAX102" s="6"/>
+      <c r="AAY102" s="6"/>
+      <c r="AAZ102" s="6"/>
+      <c r="ABA102" s="6"/>
+      <c r="ABB102" s="6"/>
+      <c r="ABC102" s="6"/>
+      <c r="ABD102" s="6"/>
+      <c r="ABE102" s="6"/>
+      <c r="ABF102" s="6"/>
+      <c r="ABG102" s="6"/>
+      <c r="ABH102" s="6"/>
+      <c r="ABI102" s="6"/>
+      <c r="ABJ102" s="6"/>
+      <c r="ABK102" s="6"/>
+      <c r="ABL102" s="6"/>
+      <c r="ABM102" s="6"/>
+      <c r="ABN102" s="6"/>
+      <c r="ABO102" s="6"/>
+      <c r="ABP102" s="6"/>
+      <c r="ABQ102" s="6"/>
+      <c r="ABR102" s="6"/>
+      <c r="ABS102" s="6"/>
+      <c r="ABT102" s="6"/>
+      <c r="ABU102" s="6"/>
+      <c r="ABV102" s="6"/>
+      <c r="ABW102" s="6"/>
+      <c r="ABX102" s="6"/>
+      <c r="ABY102" s="6"/>
+      <c r="ABZ102" s="6"/>
+      <c r="ACA102" s="6"/>
+      <c r="ACB102" s="6"/>
+      <c r="ACC102" s="6"/>
+      <c r="ACD102" s="6"/>
+      <c r="ACE102" s="6"/>
+      <c r="ACF102" s="6"/>
+      <c r="ACG102" s="6"/>
+      <c r="ACH102" s="6"/>
+      <c r="ACI102" s="6"/>
+      <c r="ACJ102" s="6"/>
+      <c r="ACK102" s="6"/>
+      <c r="ACL102" s="6"/>
+      <c r="ACM102" s="6"/>
+      <c r="ACN102" s="6"/>
+      <c r="ACO102" s="6"/>
+      <c r="ACP102" s="6"/>
+      <c r="ACQ102" s="6"/>
+      <c r="ACR102" s="6"/>
+      <c r="ACS102" s="6"/>
+      <c r="ACT102" s="6"/>
+      <c r="ACU102" s="6"/>
+      <c r="ACV102" s="6"/>
+      <c r="ACW102" s="6"/>
+      <c r="ACX102" s="6"/>
+      <c r="ACY102" s="6"/>
+      <c r="ACZ102" s="6"/>
+      <c r="ADA102" s="6"/>
+      <c r="ADB102" s="6"/>
+      <c r="ADC102" s="6"/>
+      <c r="ADD102" s="6"/>
+      <c r="ADE102" s="6"/>
+      <c r="ADF102" s="6"/>
+      <c r="ADG102" s="6"/>
+      <c r="ADH102" s="6"/>
+      <c r="ADI102" s="6"/>
+      <c r="ADJ102" s="6"/>
+      <c r="ADK102" s="6"/>
+      <c r="ADL102" s="6"/>
+      <c r="ADM102" s="6"/>
+      <c r="ADN102" s="6"/>
+      <c r="ADO102" s="6"/>
+      <c r="ADP102" s="6"/>
+      <c r="ADQ102" s="6"/>
+      <c r="ADR102" s="6"/>
+      <c r="ADS102" s="6"/>
+      <c r="ADT102" s="6"/>
+      <c r="ADU102" s="6"/>
+      <c r="ADV102" s="6"/>
+      <c r="ADW102" s="6"/>
+      <c r="ADX102" s="6"/>
+      <c r="ADY102" s="6"/>
+      <c r="ADZ102" s="6"/>
+      <c r="AEA102" s="6"/>
+      <c r="AEB102" s="6"/>
+      <c r="AEC102" s="6"/>
+      <c r="AED102" s="6"/>
+      <c r="AEE102" s="6"/>
+      <c r="AEF102" s="6"/>
+      <c r="AEG102" s="6"/>
+      <c r="AEH102" s="6"/>
+      <c r="AEI102" s="6"/>
+      <c r="AEJ102" s="6"/>
+      <c r="AEK102" s="6"/>
+      <c r="AEL102" s="6"/>
+      <c r="AEM102" s="6"/>
+      <c r="AEN102" s="6"/>
+      <c r="AEO102" s="6"/>
+      <c r="AEP102" s="6"/>
+      <c r="AEQ102" s="6"/>
+      <c r="AER102" s="6"/>
+      <c r="AES102" s="6"/>
+      <c r="AET102" s="6"/>
+      <c r="AEU102" s="6"/>
+      <c r="AEV102" s="6"/>
+      <c r="AEW102" s="6"/>
+      <c r="AEX102" s="6"/>
+      <c r="AEY102" s="6"/>
+      <c r="AEZ102" s="6"/>
+      <c r="AFA102" s="6"/>
+      <c r="AFB102" s="6"/>
+      <c r="AFC102" s="6"/>
+      <c r="AFD102" s="6"/>
+      <c r="AFE102" s="6"/>
+      <c r="AFF102" s="6"/>
+      <c r="AFG102" s="6"/>
+      <c r="AFH102" s="6"/>
+      <c r="AFI102" s="6"/>
+      <c r="AFJ102" s="6"/>
+      <c r="AFK102" s="6"/>
+      <c r="AFL102" s="6"/>
+      <c r="AFM102" s="6"/>
+      <c r="AFN102" s="6"/>
+      <c r="AFO102" s="6"/>
+      <c r="AFP102" s="6"/>
+      <c r="AFQ102" s="6"/>
+      <c r="AFR102" s="6"/>
+      <c r="AFS102" s="6"/>
+      <c r="AFT102" s="6"/>
+      <c r="AFU102" s="6"/>
+      <c r="AFV102" s="6"/>
+      <c r="AFW102" s="6"/>
+      <c r="AFX102" s="6"/>
+      <c r="AFY102" s="6"/>
+      <c r="AFZ102" s="6"/>
+      <c r="AGA102" s="6"/>
+      <c r="AGB102" s="6"/>
+      <c r="AGC102" s="6"/>
+      <c r="AGD102" s="6"/>
+      <c r="AGE102" s="6"/>
+      <c r="AGF102" s="6"/>
+      <c r="AGG102" s="6"/>
+      <c r="AGH102" s="6"/>
+      <c r="AGI102" s="6"/>
+      <c r="AGJ102" s="6"/>
+      <c r="AGK102" s="6"/>
+      <c r="AGL102" s="6"/>
+      <c r="AGM102" s="6"/>
+      <c r="AGN102" s="6"/>
+      <c r="AGO102" s="6"/>
+      <c r="AGP102" s="6"/>
+      <c r="AGQ102" s="6"/>
+      <c r="AGR102" s="6"/>
+      <c r="AGS102" s="6"/>
+      <c r="AGT102" s="6"/>
+      <c r="AGU102" s="6"/>
+      <c r="AGV102" s="6"/>
+      <c r="AGW102" s="6"/>
+      <c r="AGX102" s="6"/>
+      <c r="AGY102" s="6"/>
+      <c r="AGZ102" s="6"/>
+      <c r="AHA102" s="6"/>
+      <c r="AHB102" s="6"/>
+      <c r="AHC102" s="6"/>
+      <c r="AHD102" s="6"/>
+      <c r="AHE102" s="6"/>
+      <c r="AHF102" s="6"/>
+      <c r="AHG102" s="6"/>
+      <c r="AHH102" s="6"/>
+      <c r="AHI102" s="6"/>
+      <c r="AHJ102" s="6"/>
+      <c r="AHK102" s="6"/>
+      <c r="AHL102" s="6"/>
+      <c r="AHM102" s="6"/>
+      <c r="AHN102" s="6"/>
+      <c r="AHO102" s="6"/>
+      <c r="AHP102" s="6"/>
+      <c r="AHQ102" s="6"/>
+      <c r="AHR102" s="6"/>
+      <c r="AHS102" s="6"/>
+      <c r="AHT102" s="6"/>
+      <c r="AHU102" s="6"/>
+      <c r="AHV102" s="6"/>
+      <c r="AHW102" s="6"/>
+      <c r="AHX102" s="6"/>
+      <c r="AHY102" s="6"/>
+      <c r="AHZ102" s="6"/>
+      <c r="AIA102" s="6"/>
+      <c r="AIB102" s="6"/>
+      <c r="AIC102" s="6"/>
+      <c r="AID102" s="6"/>
+      <c r="AIE102" s="6"/>
+      <c r="AIF102" s="6"/>
+      <c r="AIG102" s="6"/>
+      <c r="AIH102" s="6"/>
+      <c r="AII102" s="6"/>
+      <c r="AIJ102" s="6"/>
+      <c r="AIK102" s="6"/>
+      <c r="AIL102" s="6"/>
+      <c r="AIM102" s="6"/>
+      <c r="AIN102" s="6"/>
+      <c r="AIO102" s="6"/>
+      <c r="AIP102" s="6"/>
+      <c r="AIQ102" s="6"/>
+      <c r="AIR102" s="6"/>
+      <c r="AIS102" s="6"/>
+      <c r="AIT102" s="6"/>
+      <c r="AIU102" s="6"/>
+      <c r="AIV102" s="6"/>
+      <c r="AIW102" s="6"/>
+      <c r="AIX102" s="6"/>
+      <c r="AIY102" s="6"/>
+      <c r="AIZ102" s="6"/>
+      <c r="AJA102" s="6"/>
+      <c r="AJB102" s="6"/>
+      <c r="AJC102" s="6"/>
+      <c r="AJD102" s="6"/>
+      <c r="AJE102" s="6"/>
+      <c r="AJF102" s="6"/>
+      <c r="AJG102" s="6"/>
+      <c r="AJH102" s="6"/>
+      <c r="AJI102" s="6"/>
+      <c r="AJJ102" s="6"/>
+      <c r="AJK102" s="6"/>
+      <c r="AJL102" s="6"/>
+      <c r="AJM102" s="6"/>
+      <c r="AJN102" s="6"/>
+      <c r="AJO102" s="6"/>
+      <c r="AJP102" s="6"/>
+      <c r="AJQ102" s="6"/>
+      <c r="AJR102" s="6"/>
+      <c r="AJS102" s="6"/>
+      <c r="AJT102" s="6"/>
+      <c r="AJU102" s="6"/>
+      <c r="AJV102" s="6"/>
+      <c r="AJW102" s="6"/>
+      <c r="AJX102" s="6"/>
+      <c r="AJY102" s="6"/>
+      <c r="AJZ102" s="6"/>
+      <c r="AKA102" s="6"/>
+      <c r="AKB102" s="6"/>
+      <c r="AKC102" s="6"/>
+      <c r="AKD102" s="6"/>
+      <c r="AKE102" s="6"/>
+      <c r="AKF102" s="6"/>
+      <c r="AKG102" s="6"/>
+      <c r="AKH102" s="6"/>
+      <c r="AKI102" s="6"/>
+      <c r="AKJ102" s="6"/>
+      <c r="AKK102" s="6"/>
+      <c r="AKL102" s="6"/>
+      <c r="AKM102" s="6"/>
+      <c r="AKN102" s="6"/>
+      <c r="AKO102" s="6"/>
+      <c r="AKP102" s="6"/>
+      <c r="AKQ102" s="6"/>
+      <c r="AKR102" s="6"/>
+      <c r="AKS102" s="6"/>
+      <c r="AKT102" s="6"/>
+      <c r="AKU102" s="6"/>
+      <c r="AKV102" s="6"/>
+      <c r="AKW102" s="6"/>
+      <c r="AKX102" s="6"/>
+      <c r="AKY102" s="6"/>
+      <c r="AKZ102" s="6"/>
+      <c r="ALA102" s="6"/>
+      <c r="ALB102" s="6"/>
+      <c r="ALC102" s="6"/>
+      <c r="ALD102" s="6"/>
+      <c r="ALE102" s="6"/>
+      <c r="ALF102" s="6"/>
+      <c r="ALG102" s="6"/>
+      <c r="ALH102" s="6"/>
+      <c r="ALI102" s="6"/>
+      <c r="ALJ102" s="6"/>
+      <c r="ALK102" s="6"/>
+      <c r="ALL102" s="6"/>
+      <c r="ALM102" s="6"/>
+      <c r="ALN102" s="6"/>
+      <c r="ALO102" s="6"/>
+      <c r="ALP102" s="6"/>
+      <c r="ALQ102" s="6"/>
+      <c r="ALR102" s="6"/>
+      <c r="ALS102" s="6"/>
+      <c r="ALT102" s="6"/>
+      <c r="ALU102" s="6"/>
+      <c r="ALV102" s="6"/>
+      <c r="ALW102" s="6"/>
+      <c r="ALX102" s="6"/>
+      <c r="ALY102" s="6"/>
+      <c r="ALZ102" s="6"/>
+      <c r="AMA102" s="6"/>
+      <c r="AMB102" s="6"/>
+      <c r="AMC102" s="6"/>
+      <c r="AMD102" s="6"/>
+      <c r="AME102" s="6"/>
+      <c r="AMF102" s="6"/>
+      <c r="AMG102" s="6"/>
+      <c r="AMH102" s="6"/>
+      <c r="AMI102" s="6"/>
+      <c r="AMJ102" s="6"/>
+      <c r="AMK102" s="6"/>
+      <c r="AML102" s="6"/>
+      <c r="AMM102" s="6"/>
     </row>
     <row r="103" spans="1:1027" ht="120">
       <c r="A103" s="14" t="s">

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elen/Documents/PhD/Publications/2023_Shakir_LeFoll/MFTE_python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0984A10-4D21-E047-A705-48FB44FC5D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6BBA42-633C-45E6-A9F1-52F8003BA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4900" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18662,32 +18662,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The tags with an </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> at the end and PP1, PP2 consist of aggregates of individual tags. To avoid false correlation, skew etc. in the data, they should not be used in combination with the respective individual tags.</t>
-    </r>
-  </si>
-  <si>
     <t>Superlatives</t>
   </si>
   <si>
@@ -19041,13 +19015,16 @@
       </rPr>
       <t>+ ADJ/ADV.</t>
     </r>
+  </si>
+  <si>
+    <t>Important: The following features consist of aggregates of individual tags. To avoid redundant correlations, undue skew etc. in the data, they should not be used in combination with the respective individual tags. E.g., either use PP1 counts or the counts of PP1S &amp; PP1P, but not all three!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -19204,6 +19181,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -19344,7 +19328,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -19498,6 +19482,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -20051,30 +20038,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="27" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="70.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.6640625" style="4" customWidth="1"/>
-    <col min="13" max="1026" width="14.1640625" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1028" max="16384" width="10.6640625" style="6"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="70.625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="33.625" style="4" customWidth="1"/>
+    <col min="13" max="1026" width="14.125" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="14.625" style="1" customWidth="1"/>
+    <col min="1028" max="16384" width="10.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="24" customFormat="1" ht="30">
+    <row r="1" spans="1:7" s="24" customFormat="1" ht="25.5">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -20108,7 +20095,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A3" s="9" t="s">
         <v>284</v>
       </c>
@@ -20131,7 +20118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A4" s="9" t="s">
         <v>284</v>
       </c>
@@ -20154,7 +20141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A5" s="9" t="s">
         <v>284</v>
       </c>
@@ -20177,7 +20164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="45">
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="51">
       <c r="A6" s="9" t="s">
         <v>284</v>
       </c>
@@ -20200,7 +20187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="120">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="114.75">
       <c r="A7" s="9" t="s">
         <v>284</v>
       </c>
@@ -20234,7 +20221,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A9" s="14" t="s">
         <v>223</v>
       </c>
@@ -20257,7 +20244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A10" s="14" t="s">
         <v>223</v>
       </c>
@@ -20280,7 +20267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A11" s="14" t="s">
         <v>221</v>
       </c>
@@ -20303,7 +20290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A12" s="14" t="s">
         <v>221</v>
       </c>
@@ -20326,7 +20313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A13" s="14" t="s">
         <v>221</v>
       </c>
@@ -20349,7 +20336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A14" s="14" t="s">
         <v>221</v>
       </c>
@@ -20372,7 +20359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A15" s="14" t="s">
         <v>220</v>
       </c>
@@ -20395,7 +20382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" ht="90">
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="76.5">
       <c r="A16" s="14" t="s">
         <v>220</v>
       </c>
@@ -20441,7 +20428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="70.25" customHeight="1">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="70.349999999999994" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>220</v>
       </c>
@@ -20464,7 +20451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A19" s="14" t="s">
         <v>220</v>
       </c>
@@ -20487,7 +20474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A20" s="14" t="s">
         <v>224</v>
       </c>
@@ -20510,7 +20497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="135">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="114.75">
       <c r="A21" s="14" t="s">
         <v>224</v>
       </c>
@@ -20533,7 +20520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A22" s="14" t="s">
         <v>224</v>
       </c>
@@ -20556,7 +20543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="23" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A23" s="14" t="s">
         <v>224</v>
       </c>
@@ -20579,7 +20566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="6" customFormat="1" ht="30">
+    <row r="24" spans="1:7" s="6" customFormat="1" ht="25.5">
       <c r="A24" s="14" t="s">
         <v>224</v>
       </c>
@@ -20602,7 +20589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="6" customFormat="1" ht="165">
+    <row r="25" spans="1:7" s="6" customFormat="1" ht="140.25">
       <c r="A25" s="14" t="s">
         <v>224</v>
       </c>
@@ -20625,7 +20612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A26" s="14" t="s">
         <v>224</v>
       </c>
@@ -20648,7 +20635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="27" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A27" s="14" t="s">
         <v>224</v>
       </c>
@@ -20671,7 +20658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="28" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A28" s="14" t="s">
         <v>224</v>
       </c>
@@ -20694,7 +20681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="29" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A29" s="14" t="s">
         <v>224</v>
       </c>
@@ -20717,7 +20704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="30" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A30" s="14" t="s">
         <v>224</v>
       </c>
@@ -20740,7 +20727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="31" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A31" s="14" t="s">
         <v>224</v>
       </c>
@@ -20763,7 +20750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="32" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A32" s="14" t="s">
         <v>224</v>
       </c>
@@ -20786,7 +20773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" ht="90">
+    <row r="33" spans="1:7" s="6" customFormat="1" ht="76.5">
       <c r="A33" s="14" t="s">
         <v>224</v>
       </c>
@@ -20809,7 +20796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="6" customFormat="1" ht="135">
+    <row r="34" spans="1:7" s="6" customFormat="1" ht="114.75">
       <c r="A34" s="14" t="s">
         <v>224</v>
       </c>
@@ -20832,7 +20819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A35" s="14" t="s">
         <v>224</v>
       </c>
@@ -20855,7 +20842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="36" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
@@ -20878,7 +20865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="37" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
@@ -20901,7 +20888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="38" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
@@ -20924,7 +20911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="6" customFormat="1">
+    <row r="39" spans="1:7" s="6" customFormat="1" ht="25.5">
       <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
@@ -20947,7 +20934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="40" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
@@ -20970,7 +20957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="41" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A41" s="14" t="s">
         <v>71</v>
       </c>
@@ -20993,7 +20980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="42" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A42" s="14" t="s">
         <v>117</v>
       </c>
@@ -21016,7 +21003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="43" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A43" s="14" t="s">
         <v>60</v>
       </c>
@@ -21039,7 +21026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="44" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -21062,7 +21049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="45" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A45" s="14" t="s">
         <v>60</v>
       </c>
@@ -21085,7 +21072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A46" s="14" t="s">
         <v>60</v>
       </c>
@@ -21108,7 +21095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="6" customFormat="1" ht="90">
+    <row r="47" spans="1:7" s="6" customFormat="1" ht="76.5">
       <c r="A47" s="14" t="s">
         <v>60</v>
       </c>
@@ -21131,7 +21118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="48" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A48" s="14" t="s">
         <v>60</v>
       </c>
@@ -21154,7 +21141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="49" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A49" s="14" t="s">
         <v>60</v>
       </c>
@@ -21177,7 +21164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="6" customFormat="1" ht="30">
+    <row r="50" spans="1:7" s="6" customFormat="1" ht="25.5">
       <c r="A50" s="14" t="s">
         <v>60</v>
       </c>
@@ -21200,7 +21187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="51" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A51" s="14" t="s">
         <v>227</v>
       </c>
@@ -21223,7 +21210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="52" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A52" s="14" t="s">
         <v>227</v>
       </c>
@@ -21246,7 +21233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="53" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A53" s="14" t="s">
         <v>227</v>
       </c>
@@ -21269,7 +21256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="6" customFormat="1" ht="90">
+    <row r="54" spans="1:7" s="6" customFormat="1" ht="76.5">
       <c r="A54" s="14" t="s">
         <v>227</v>
       </c>
@@ -21292,7 +21279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="6" customFormat="1" ht="105">
+    <row r="55" spans="1:7" s="6" customFormat="1" ht="89.25">
       <c r="A55" s="14" t="s">
         <v>227</v>
       </c>
@@ -21315,7 +21302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="56" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A56" s="14" t="s">
         <v>222</v>
       </c>
@@ -21338,7 +21325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="6" customFormat="1" ht="165">
+    <row r="57" spans="1:7" s="6" customFormat="1" ht="153">
       <c r="A57" s="14" t="s">
         <v>222</v>
       </c>
@@ -21361,7 +21348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="6" customFormat="1" ht="90">
+    <row r="58" spans="1:7" s="6" customFormat="1" ht="76.5">
       <c r="A58" s="14" t="s">
         <v>65</v>
       </c>
@@ -21407,7 +21394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="60" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A60" s="14" t="s">
         <v>228</v>
       </c>
@@ -21430,7 +21417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="61" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A61" s="14" t="s">
         <v>228</v>
       </c>
@@ -21453,7 +21440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="6" customFormat="1" ht="120">
+    <row r="62" spans="1:7" s="6" customFormat="1" ht="102">
       <c r="A62" s="14" t="s">
         <v>228</v>
       </c>
@@ -21476,7 +21463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="63" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A63" s="14" t="s">
         <v>228</v>
       </c>
@@ -21499,7 +21486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="64" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A64" s="14" t="s">
         <v>228</v>
       </c>
@@ -21522,7 +21509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="65" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A65" s="14" t="s">
         <v>228</v>
       </c>
@@ -21545,7 +21532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="66" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A66" s="14" t="s">
         <v>228</v>
       </c>
@@ -21568,7 +21555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="6" customFormat="1" ht="90">
+    <row r="67" spans="1:7" s="6" customFormat="1" ht="76.5">
       <c r="A67" s="14" t="s">
         <v>228</v>
       </c>
@@ -21591,7 +21578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="6" customFormat="1" ht="165">
+    <row r="68" spans="1:7" s="6" customFormat="1" ht="140.25">
       <c r="A68" s="14" t="s">
         <v>228</v>
       </c>
@@ -21614,7 +21601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="69" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A69" s="14" t="s">
         <v>228</v>
       </c>
@@ -21637,7 +21624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="6" customFormat="1" ht="120">
+    <row r="70" spans="1:7" s="6" customFormat="1" ht="102">
       <c r="A70" s="14" t="s">
         <v>228</v>
       </c>
@@ -21660,7 +21647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="71" spans="1:7" s="6" customFormat="1" ht="76.5">
       <c r="A71" s="14" t="s">
         <v>228</v>
       </c>
@@ -21683,7 +21670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1" ht="75">
+    <row r="72" spans="1:7" s="6" customFormat="1" ht="63.75">
       <c r="A72" s="14" t="s">
         <v>228</v>
       </c>
@@ -21706,7 +21693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="6" customFormat="1" ht="135">
+    <row r="73" spans="1:7" s="6" customFormat="1" ht="114.75">
       <c r="A73" s="14" t="s">
         <v>91</v>
       </c>
@@ -21729,7 +21716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="6" customFormat="1" ht="135">
+    <row r="74" spans="1:7" s="6" customFormat="1" ht="127.5">
       <c r="A74" s="14" t="s">
         <v>91</v>
       </c>
@@ -21752,7 +21739,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="6" customFormat="1" ht="30">
+    <row r="75" spans="1:7" s="6" customFormat="1" ht="25.5">
       <c r="A75" s="14" t="s">
         <v>91</v>
       </c>
@@ -21775,7 +21762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="6" customFormat="1" ht="60">
+    <row r="76" spans="1:7" s="6" customFormat="1" ht="51">
       <c r="A76" s="14" t="s">
         <v>91</v>
       </c>
@@ -21798,7 +21785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="6" customFormat="1" ht="150">
+    <row r="77" spans="1:7" s="6" customFormat="1" ht="127.5">
       <c r="A77" s="14" t="s">
         <v>91</v>
       </c>
@@ -21821,7 +21808,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="6" customFormat="1" ht="90">
+    <row r="78" spans="1:7" s="6" customFormat="1" ht="76.5">
       <c r="A78" s="14" t="s">
         <v>91</v>
       </c>
@@ -21844,7 +21831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="6" customFormat="1" ht="180">
+    <row r="79" spans="1:7" s="6" customFormat="1" ht="153">
       <c r="A79" s="14" t="s">
         <v>91</v>
       </c>
@@ -21867,7 +21854,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="6" customFormat="1" ht="45">
+    <row r="80" spans="1:7" s="6" customFormat="1" ht="38.25">
       <c r="A80" s="14" t="s">
         <v>91</v>
       </c>
@@ -21890,7 +21877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1022" s="6" customFormat="1" ht="75">
+    <row r="81" spans="1:1022" s="6" customFormat="1" ht="63.75">
       <c r="A81" s="14" t="s">
         <v>91</v>
       </c>
@@ -21913,7 +21900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:1022" s="6" customFormat="1" ht="30">
+    <row r="82" spans="1:1022" s="6" customFormat="1" ht="25.5">
       <c r="A82" s="14" t="s">
         <v>91</v>
       </c>
@@ -21936,7 +21923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:1022" s="6" customFormat="1" ht="60">
+    <row r="83" spans="1:1022" s="6" customFormat="1" ht="51">
       <c r="A83" s="14" t="s">
         <v>91</v>
       </c>
@@ -21959,7 +21946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:1022" s="6" customFormat="1" ht="30">
+    <row r="84" spans="1:1022" s="6" customFormat="1" ht="25.5">
       <c r="A84" s="14" t="s">
         <v>91</v>
       </c>
@@ -21982,7 +21969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:1022" s="6" customFormat="1" ht="30">
+    <row r="85" spans="1:1022" s="6" customFormat="1" ht="25.5">
       <c r="A85" s="14" t="s">
         <v>91</v>
       </c>
@@ -22005,7 +21992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:1022" s="6" customFormat="1" ht="60">
+    <row r="86" spans="1:1022" s="6" customFormat="1" ht="51">
       <c r="A86" s="14" t="s">
         <v>91</v>
       </c>
@@ -22028,7 +22015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:1022" s="6" customFormat="1" ht="45">
+    <row r="87" spans="1:1022" s="6" customFormat="1" ht="38.25">
       <c r="A87" s="14" t="s">
         <v>91</v>
       </c>
@@ -22062,7 +22049,7 @@
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:1022" s="6" customFormat="1" ht="60">
+    <row r="89" spans="1:1022" s="6" customFormat="1" ht="51">
       <c r="A89" s="9" t="s">
         <v>34</v>
       </c>
@@ -23100,7 +23087,7 @@
       <c r="AMG89" s="1"/>
       <c r="AMH89" s="1"/>
     </row>
-    <row r="90" spans="1:1022" s="6" customFormat="1" ht="45">
+    <row r="90" spans="1:1022" s="6" customFormat="1" ht="51">
       <c r="A90" s="9" t="s">
         <v>34</v>
       </c>
@@ -24138,7 +24125,7 @@
       <c r="AMG90" s="1"/>
       <c r="AMH90" s="1"/>
     </row>
-    <row r="91" spans="1:1022" s="6" customFormat="1" ht="75">
+    <row r="91" spans="1:1022" s="6" customFormat="1" ht="63.75">
       <c r="A91" s="9" t="s">
         <v>228</v>
       </c>
@@ -24161,7 +24148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:1022" s="6" customFormat="1" ht="75">
+    <row r="92" spans="1:1022" s="6" customFormat="1" ht="63.75">
       <c r="A92" s="9" t="s">
         <v>228</v>
       </c>
@@ -24184,7 +24171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:1022" s="6" customFormat="1" ht="105">
+    <row r="93" spans="1:1022" s="6" customFormat="1" ht="89.25">
       <c r="A93" s="9" t="s">
         <v>91</v>
       </c>
@@ -24207,7 +24194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:1022" s="6" customFormat="1" ht="90">
+    <row r="94" spans="1:1022" s="6" customFormat="1" ht="76.5">
       <c r="A94" s="9" t="s">
         <v>91</v>
       </c>
@@ -24230,7 +24217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:1022" s="6" customFormat="1" ht="75">
+    <row r="95" spans="1:1022" s="6" customFormat="1" ht="63.75">
       <c r="A95" s="9" t="s">
         <v>91</v>
       </c>
@@ -24253,7 +24240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:1022" s="6" customFormat="1" ht="37.25" customHeight="1">
+    <row r="96" spans="1:1022" s="6" customFormat="1" ht="37.35" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="20"/>
       <c r="C96" s="7"/>
@@ -24264,7 +24251,7 @@
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:1027" ht="60">
+    <row r="97" spans="1:1027" ht="51">
       <c r="A97" s="9" t="s">
         <v>91</v>
       </c>
@@ -25307,7 +25294,7 @@
       <c r="AML97" s="6"/>
       <c r="AMM97" s="6"/>
     </row>
-    <row r="98" spans="1:1027" ht="45">
+    <row r="98" spans="1:1027" ht="38.25">
       <c r="A98" s="9" t="s">
         <v>228</v>
       </c>
@@ -26350,7 +26337,7 @@
       <c r="AML98" s="6"/>
       <c r="AMM98" s="6"/>
     </row>
-    <row r="99" spans="1:1027" ht="60">
+    <row r="99" spans="1:1027" ht="51">
       <c r="A99" s="9" t="s">
         <v>224</v>
       </c>
@@ -27393,7 +27380,7 @@
       <c r="AML99" s="6"/>
       <c r="AMM99" s="6"/>
     </row>
-    <row r="100" spans="1:1027" ht="37.25" customHeight="1">
+    <row r="100" spans="1:1027" ht="37.35" customHeight="1">
       <c r="A100" s="31"/>
       <c r="B100" s="32"/>
       <c r="C100" s="33"/>
@@ -28424,21 +28411,21 @@
       <c r="AML100" s="6"/>
       <c r="AMM100" s="6"/>
     </row>
-    <row r="101" spans="1:1027" ht="37.25" customHeight="1">
+    <row r="101" spans="1:1027" ht="37.35" customHeight="1">
       <c r="A101" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C101" s="44" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D101" s="45" t="s">
+        <v>654</v>
+      </c>
+      <c r="E101" s="14" t="s">
         <v>655</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>656</v>
       </c>
       <c r="F101" s="43" t="s">
         <v>8</v>
@@ -29467,21 +29454,21 @@
       <c r="AML101" s="6"/>
       <c r="AMM101" s="6"/>
     </row>
-    <row r="102" spans="1:1027" ht="37.25" customHeight="1">
+    <row r="102" spans="1:1027" ht="37.35" customHeight="1">
       <c r="A102" s="43" t="s">
         <v>34</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C102" s="44" t="s">
+        <v>652</v>
+      </c>
+      <c r="D102" s="45" t="s">
         <v>653</v>
       </c>
-      <c r="D102" s="45" t="s">
-        <v>654</v>
-      </c>
       <c r="E102" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F102" s="43" t="s">
         <v>8</v>
@@ -30510,7 +30497,7 @@
       <c r="AML102" s="6"/>
       <c r="AMM102" s="6"/>
     </row>
-    <row r="103" spans="1:1027" ht="120">
+    <row r="103" spans="1:1027" ht="102">
       <c r="A103" s="14" t="s">
         <v>65</v>
       </c>
@@ -30531,7 +30518,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="104" spans="1:1027" ht="120">
+    <row r="104" spans="1:1027" ht="102">
       <c r="A104" s="14" t="s">
         <v>65</v>
       </c>
@@ -30552,7 +30539,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:1027" ht="120">
+    <row r="105" spans="1:1027" ht="102">
       <c r="A105" s="14" t="s">
         <v>65</v>
       </c>
@@ -30572,7 +30559,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:1027" ht="120">
+    <row r="106" spans="1:1027" ht="102">
       <c r="A106" s="14" t="s">
         <v>65</v>
       </c>
@@ -30592,7 +30579,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="107" spans="1:1027" ht="120">
+    <row r="107" spans="1:1027" ht="102">
       <c r="A107" s="14" t="s">
         <v>65</v>
       </c>
@@ -30612,7 +30599,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="108" spans="1:1027" ht="105">
+    <row r="108" spans="1:1027" ht="102">
       <c r="A108" s="14" t="s">
         <v>65</v>
       </c>
@@ -30632,7 +30619,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="109" spans="1:1027" ht="120">
+    <row r="109" spans="1:1027" ht="102">
       <c r="A109" s="14" t="s">
         <v>65</v>
       </c>
@@ -30652,7 +30639,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="110" spans="1:1027" ht="120">
+    <row r="110" spans="1:1027" ht="102">
       <c r="A110" s="14" t="s">
         <v>65</v>
       </c>
@@ -30672,7 +30659,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="111" spans="1:1027" ht="120">
+    <row r="111" spans="1:1027" ht="102">
       <c r="A111" s="14" t="s">
         <v>65</v>
       </c>
@@ -30692,7 +30679,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="112" spans="1:1027" ht="409.6">
+    <row r="112" spans="1:1027" ht="382.5">
       <c r="A112" s="14" t="s">
         <v>65</v>
       </c>
@@ -30712,7 +30699,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="135">
+    <row r="113" spans="1:7" ht="127.5">
       <c r="A113" s="14" t="s">
         <v>65</v>
       </c>
@@ -30732,7 +30719,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="120">
+    <row r="114" spans="1:7" ht="114.75">
       <c r="A114" s="14" t="s">
         <v>65</v>
       </c>
@@ -30752,7 +30739,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="120">
+    <row r="115" spans="1:7" ht="102">
       <c r="A115" s="14"/>
       <c r="B115" s="30" t="s">
         <v>567</v>
@@ -30770,7 +30757,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="409.6">
+    <row r="116" spans="1:7" ht="395.25">
       <c r="A116" s="14" t="s">
         <v>91</v>
       </c>
@@ -30790,7 +30777,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="150">
+    <row r="117" spans="1:7" ht="127.5">
       <c r="A117" s="14" t="s">
         <v>91</v>
       </c>
@@ -30810,7 +30797,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="135">
+    <row r="118" spans="1:7" ht="127.5">
       <c r="A118" s="14" t="s">
         <v>91</v>
       </c>
@@ -30830,7 +30817,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="75">
+    <row r="119" spans="1:7" ht="51.75">
       <c r="A119" s="14" t="s">
         <v>65</v>
       </c>
@@ -30851,7 +30838,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="75">
+    <row r="120" spans="1:7" ht="51.75">
       <c r="A120" s="14" t="s">
         <v>65</v>
       </c>
@@ -30872,7 +30859,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="75">
+    <row r="121" spans="1:7" ht="51.75">
       <c r="A121" s="14" t="s">
         <v>65</v>
       </c>
@@ -30893,7 +30880,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="75">
+    <row r="122" spans="1:7" ht="51.75">
       <c r="A122" s="14" t="s">
         <v>65</v>
       </c>
@@ -30914,7 +30901,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="75">
+    <row r="123" spans="1:7" ht="51.75">
       <c r="A123" s="14" t="s">
         <v>65</v>
       </c>
@@ -30935,7 +30922,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="105">
+    <row r="124" spans="1:7" ht="90">
       <c r="A124" s="14" t="s">
         <v>65</v>
       </c>
@@ -30956,7 +30943,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="135">
+    <row r="125" spans="1:7" ht="115.5">
       <c r="A125" s="14" t="s">
         <v>65</v>
       </c>
@@ -30977,7 +30964,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="105">
+    <row r="126" spans="1:7" ht="90">
       <c r="A126" s="14" t="s">
         <v>65</v>
       </c>
@@ -30998,7 +30985,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="75">
+    <row r="127" spans="1:7" ht="51.75">
       <c r="A127" s="14" t="s">
         <v>65</v>
       </c>
@@ -31019,7 +31006,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="75">
+    <row r="128" spans="1:7" ht="64.5">
       <c r="A128" s="14" t="s">
         <v>65</v>
       </c>
@@ -31040,7 +31027,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="105">
+    <row r="129" spans="1:7" ht="90">
       <c r="A129" s="14" t="s">
         <v>65</v>
       </c>
@@ -31061,7 +31048,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="409.6">
+    <row r="130" spans="1:7" ht="383.25">
       <c r="A130" s="14" t="s">
         <v>65</v>
       </c>
@@ -31082,7 +31069,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="135">
+    <row r="131" spans="1:7" ht="115.5">
       <c r="A131" s="14" t="s">
         <v>65</v>
       </c>
@@ -31103,7 +31090,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="120">
+    <row r="132" spans="1:7" ht="102.75">
       <c r="A132" s="14" t="s">
         <v>65</v>
       </c>
@@ -31124,7 +31111,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="75">
+    <row r="133" spans="1:7" ht="64.5">
       <c r="A133" s="14" t="s">
         <v>65</v>
       </c>
@@ -31144,7 +31131,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="180">
+    <row r="134" spans="1:7" ht="166.5">
       <c r="A134" s="14" t="s">
         <v>65</v>
       </c>
@@ -31164,7 +31151,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="75">
+    <row r="135" spans="1:7" ht="64.5">
       <c r="A135" s="14" t="s">
         <v>536</v>
       </c>
@@ -31184,7 +31171,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="75">
+    <row r="136" spans="1:7" ht="51">
       <c r="A136" s="14" t="s">
         <v>536</v>
       </c>
@@ -31204,7 +31191,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="75">
+    <row r="137" spans="1:7" ht="64.5">
       <c r="A137" s="14" t="s">
         <v>536</v>
       </c>
@@ -31224,7 +31211,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="75">
+    <row r="138" spans="1:7" ht="51">
       <c r="A138" s="14" t="s">
         <v>536</v>
       </c>
@@ -31244,7 +31231,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="75">
+    <row r="139" spans="1:7" ht="51.75">
       <c r="A139" s="14" t="s">
         <v>536</v>
       </c>
@@ -31264,7 +31251,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="75">
+    <row r="140" spans="1:7" ht="51">
       <c r="A140" s="14" t="s">
         <v>536</v>
       </c>
@@ -31284,7 +31271,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="75">
+    <row r="141" spans="1:7" ht="51">
       <c r="A141" s="14" t="s">
         <v>536</v>
       </c>
@@ -31304,7 +31291,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="75">
+    <row r="142" spans="1:7" ht="51">
       <c r="A142" s="14" t="s">
         <v>536</v>
       </c>
@@ -31345,7 +31332,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="180">
+    <row r="144" spans="1:7" ht="153.75">
       <c r="A144" s="1" t="s">
         <v>537</v>
       </c>
@@ -31387,7 +31374,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="146" spans="1:1027" ht="90">
+    <row r="146" spans="1:1027" ht="77.25">
       <c r="A146" s="1" t="s">
         <v>537</v>
       </c>
@@ -31408,7 +31395,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:1027" ht="409.6">
+    <row r="147" spans="1:1027" ht="383.25">
       <c r="A147" s="1" t="s">
         <v>537</v>
       </c>
@@ -31429,7 +31416,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="148" spans="1:1027" ht="240">
+    <row r="148" spans="1:1027" ht="204.75">
       <c r="A148" s="1" t="s">
         <v>537</v>
       </c>
@@ -31450,7 +31437,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:1027" ht="135">
+    <row r="149" spans="1:1027" ht="115.5">
       <c r="A149" s="1" t="s">
         <v>537</v>
       </c>
@@ -31471,7 +31458,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="150" spans="1:1027" ht="195">
+    <row r="150" spans="1:1027" ht="166.5">
       <c r="A150" s="1" t="s">
         <v>537</v>
       </c>
@@ -31492,7 +31479,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="151" spans="1:1027" ht="105">
+    <row r="151" spans="1:1027" ht="76.5">
       <c r="A151" s="1" t="s">
         <v>537</v>
       </c>
@@ -31513,7 +31500,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="152" spans="1:1027" ht="45">
+    <row r="152" spans="1:1027" ht="38.25">
       <c r="A152" s="1" t="s">
         <v>537</v>
       </c>
@@ -31534,7 +31521,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="153" spans="1:1027" ht="180">
+    <row r="153" spans="1:1027" ht="166.5">
       <c r="A153" s="1" t="s">
         <v>537</v>
       </c>
@@ -31555,7 +31542,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="154" spans="1:1027" ht="75">
+    <row r="154" spans="1:1027" ht="51">
       <c r="A154" s="1" t="s">
         <v>538</v>
       </c>
@@ -31575,7 +31562,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="155" spans="1:1027" ht="75">
+    <row r="155" spans="1:1027" ht="51">
       <c r="A155" s="1" t="s">
         <v>538</v>
       </c>
@@ -31595,7 +31582,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="156" spans="1:1027" ht="75">
+    <row r="156" spans="1:1027" ht="51">
       <c r="A156" s="1" t="s">
         <v>538</v>
       </c>
@@ -31615,7 +31602,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="157" spans="1:1027" ht="75">
+    <row r="157" spans="1:1027" ht="51">
       <c r="A157" s="1" t="s">
         <v>538</v>
       </c>
@@ -31635,15 +31622,15 @@
         <v>522</v>
       </c>
     </row>
-    <row r="158" spans="1:1027" s="42" customFormat="1" ht="45">
+    <row r="158" spans="1:1027" s="42" customFormat="1" ht="39">
       <c r="A158" s="36"/>
       <c r="B158" s="37"/>
       <c r="C158" s="36"/>
       <c r="D158" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="E158" s="36" t="s">
-        <v>649</v>
+      <c r="E158" s="46" t="s">
+        <v>657</v>
       </c>
       <c r="F158" s="36"/>
       <c r="G158" s="39"/>
@@ -32668,7 +32655,7 @@
       <c r="AML158" s="36"/>
       <c r="AMM158" s="36"/>
     </row>
-    <row r="159" spans="1:1027" ht="75">
+    <row r="159" spans="1:1027" ht="51.75">
       <c r="A159" s="1" t="s">
         <v>60</v>
       </c>
@@ -32688,7 +32675,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="160" spans="1:1027" ht="75">
+    <row r="160" spans="1:1027" ht="51.75">
       <c r="A160" s="1" t="s">
         <v>60</v>
       </c>
@@ -32708,7 +32695,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="30">
+    <row r="161" spans="1:7" ht="26.25">
       <c r="A161" s="1" t="s">
         <v>91</v>
       </c>
@@ -32728,7 +32715,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="30">
+    <row r="162" spans="1:7" ht="26.25">
       <c r="A162" s="1" t="s">
         <v>91</v>
       </c>
@@ -32748,7 +32735,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="30">
+    <row r="163" spans="1:7" ht="26.25">
       <c r="A163" s="14" t="s">
         <v>228</v>
       </c>
@@ -32768,7 +32755,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="75">
+    <row r="164" spans="1:7" ht="51">
       <c r="A164" s="1" t="s">
         <v>538</v>
       </c>
@@ -32788,7 +32775,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="120">
+    <row r="165" spans="1:7" ht="102.75">
       <c r="A165" s="1" t="s">
         <v>65</v>
       </c>
@@ -32808,7 +32795,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="75">
+    <row r="166" spans="1:7" ht="64.5">
       <c r="A166" s="1" t="s">
         <v>65</v>
       </c>
@@ -32828,7 +32815,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="120">
+    <row r="167" spans="1:7" ht="102.75">
       <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
@@ -32848,7 +32835,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="75">
+    <row r="168" spans="1:7" ht="64.5">
       <c r="A168" s="1" t="s">
         <v>65</v>
       </c>
@@ -32868,7 +32855,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="90">
+    <row r="169" spans="1:7" ht="77.25">
       <c r="A169" s="1" t="s">
         <v>65</v>
       </c>
@@ -32888,7 +32875,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="120">
+    <row r="170" spans="1:7" ht="102.75">
       <c r="A170" s="1" t="s">
         <v>65</v>
       </c>
@@ -32908,7 +32895,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="75">
+    <row r="171" spans="1:7" ht="64.5">
       <c r="A171" s="1" t="s">
         <v>65</v>
       </c>
@@ -32928,7 +32915,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="75">
+    <row r="172" spans="1:7" ht="64.5">
       <c r="A172" s="1" t="s">
         <v>65</v>
       </c>
@@ -32948,7 +32935,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="60">
+    <row r="173" spans="1:7" ht="51.75">
       <c r="A173" s="1" t="s">
         <v>117</v>
       </c>
@@ -32968,7 +32955,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="75">
+    <row r="174" spans="1:7" ht="64.5">
       <c r="A174" s="1" t="s">
         <v>223</v>
       </c>
@@ -32988,7 +32975,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="75">
+    <row r="175" spans="1:7" ht="64.5">
       <c r="A175" s="1" t="s">
         <v>223</v>
       </c>
@@ -33008,7 +32995,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="60">
+    <row r="176" spans="1:7" ht="51.75">
       <c r="A176" s="1" t="s">
         <v>17</v>
       </c>
@@ -33028,7 +33015,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="60">
+    <row r="177" spans="1:7" ht="51.75">
       <c r="A177" s="1" t="s">
         <v>587</v>
       </c>
@@ -33048,7 +33035,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="75">
+    <row r="178" spans="1:7" ht="64.5">
       <c r="A178" s="1" t="s">
         <v>588</v>
       </c>
@@ -33068,7 +33055,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="105">
+    <row r="179" spans="1:7" ht="90">
       <c r="A179" s="1" t="s">
         <v>588</v>
       </c>
@@ -33088,7 +33075,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="75">
+    <row r="180" spans="1:7" ht="64.5">
       <c r="A180" s="1" t="s">
         <v>588</v>
       </c>

--- a/List_Features_MFTE_python_1.0.xlsx
+++ b/List_Features_MFTE_python_1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Related\PythonCode\MFTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6BBA42-633C-45E6-A9F1-52F8003BA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E78056-6D54-4F4A-9B1A-48F409708458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="659">
   <si>
     <t>Feature</t>
   </si>
@@ -19018,6 +19018,29 @@
   </si>
   <si>
     <t>Important: The following features consist of aggregates of individual tags. To avoid redundant correlations, undue skew etc. in the data, they should not be used in combination with the respective individual tags. E.g., either use PP1 counts or the counts of PP1S &amp; PP1P, but not all three!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clauses preceded by certainty adjectives</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -20038,8 +20061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15"/>
@@ -20187,7 +20210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="114.75">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="102">
       <c r="A7" s="9" t="s">
         <v>284</v>
       </c>
@@ -30843,7 +30866,7 @@
         <v>65</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>431</v>
+        <v>658</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>421</v>
